--- a/plan/test/結合テスト/結合テスト仕様書-BP014新商品登録(完了).xlsx
+++ b/plan/test/結合テスト/結合テスト仕様書-BP014新商品登録(完了).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fullness\Desktop\work\javaReview\ec-b\plan\test\結合テスト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E91E6637-8AC4-4CDD-A7CD-3D0BD747F025}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95A05A75-D460-4523-959F-F9CF9913876B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2280" yWindow="1030" windowWidth="15140" windowHeight="9050" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2260" yWindow="670" windowWidth="15140" windowHeight="9050" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="商品削除（確認）" sheetId="177" r:id="rId1"/>
@@ -524,22 +524,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>「商品名 消しゴムを登録しました」と表示されている</t>
-    <rPh sb="1" eb="4">
-      <t>ショウヒンメイ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>ケ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>新商品登録（完了）</t>
     <rPh sb="6" eb="8">
       <t>カンリョウ</t>
@@ -608,6 +592,22 @@
     </rPh>
     <rPh sb="12" eb="14">
       <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「商品名 テスト商品を登録しました」と表示されている</t>
+    <rPh sb="1" eb="4">
+      <t>ショウヒンメイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ヒョウジ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -952,7 +952,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1020,51 +1020,69 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1122,28 +1140,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -1498,8 +1495,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{776758EE-792E-45DD-A875-220DAC06338B}">
   <dimension ref="A1:Q27"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19:L19"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14:L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="11.25" customHeight="1"/>
@@ -1515,25 +1512,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="40" t="s">
+      <c r="B1" s="44"/>
+      <c r="C1" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="41"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="43" t="s">
+      <c r="D1" s="47"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="43"/>
-      <c r="J1" s="43"/>
-      <c r="K1" s="43"/>
-      <c r="L1" s="43"/>
-      <c r="M1" s="43"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="49"/>
+      <c r="J1" s="49"/>
+      <c r="K1" s="49"/>
+      <c r="L1" s="49"/>
+      <c r="M1" s="49"/>
       <c r="N1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1548,23 +1545,23 @@
       </c>
     </row>
     <row r="2" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A2" s="39"/>
-      <c r="B2" s="39"/>
-      <c r="C2" s="44" t="s">
+      <c r="A2" s="45"/>
+      <c r="B2" s="45"/>
+      <c r="C2" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="45"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="47" t="s">
-        <v>55</v>
-      </c>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="48"/>
-      <c r="J2" s="48"/>
-      <c r="K2" s="48"/>
-      <c r="L2" s="48"/>
-      <c r="M2" s="49"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="53" t="s">
+        <v>54</v>
+      </c>
+      <c r="G2" s="54"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="54"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="54"/>
+      <c r="L2" s="54"/>
+      <c r="M2" s="55"/>
       <c r="N2" s="9" t="s">
         <v>1</v>
       </c>
@@ -1577,50 +1574,50 @@
       <c r="Q2" s="12"/>
     </row>
     <row r="3" spans="1:17" ht="14" customHeight="1">
-      <c r="A3" s="50" t="s">
+      <c r="A3" s="56" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="51"/>
-      <c r="C3" s="52" t="s">
-        <v>56</v>
-      </c>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="52"/>
-      <c r="I3" s="52"/>
-      <c r="J3" s="52"/>
-      <c r="K3" s="52"/>
-      <c r="L3" s="52"/>
-      <c r="M3" s="52"/>
-      <c r="N3" s="52"/>
-      <c r="O3" s="52"/>
-      <c r="P3" s="52"/>
-      <c r="Q3" s="53"/>
+      <c r="B3" s="57"/>
+      <c r="C3" s="58" t="s">
+        <v>55</v>
+      </c>
+      <c r="D3" s="58"/>
+      <c r="E3" s="58"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="58"/>
+      <c r="I3" s="58"/>
+      <c r="J3" s="58"/>
+      <c r="K3" s="58"/>
+      <c r="L3" s="58"/>
+      <c r="M3" s="58"/>
+      <c r="N3" s="58"/>
+      <c r="O3" s="58"/>
+      <c r="P3" s="58"/>
+      <c r="Q3" s="59"/>
     </row>
     <row r="4" spans="1:17" ht="14" customHeight="1">
-      <c r="A4" s="50" t="s">
+      <c r="A4" s="56" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="51"/>
-      <c r="C4" s="52" t="s">
+      <c r="B4" s="57"/>
+      <c r="C4" s="58" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="52"/>
-      <c r="G4" s="52"/>
-      <c r="H4" s="52"/>
-      <c r="I4" s="52"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="52"/>
-      <c r="L4" s="52"/>
-      <c r="M4" s="52"/>
-      <c r="N4" s="52"/>
-      <c r="O4" s="52"/>
-      <c r="P4" s="52"/>
-      <c r="Q4" s="53"/>
+      <c r="D4" s="58"/>
+      <c r="E4" s="58"/>
+      <c r="F4" s="58"/>
+      <c r="G4" s="58"/>
+      <c r="H4" s="58"/>
+      <c r="I4" s="58"/>
+      <c r="J4" s="58"/>
+      <c r="K4" s="58"/>
+      <c r="L4" s="58"/>
+      <c r="M4" s="58"/>
+      <c r="N4" s="58"/>
+      <c r="O4" s="58"/>
+      <c r="P4" s="58"/>
+      <c r="Q4" s="59"/>
     </row>
     <row r="5" spans="1:17" ht="15" customHeight="1">
       <c r="A5" s="14" t="s">
@@ -1629,20 +1626,20 @@
       <c r="B5" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="57" t="s">
+      <c r="C5" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="60"/>
-      <c r="E5" s="60"/>
-      <c r="F5" s="60"/>
-      <c r="G5" s="58"/>
-      <c r="H5" s="57" t="s">
+      <c r="D5" s="42"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="42"/>
+      <c r="G5" s="39"/>
+      <c r="H5" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="60"/>
-      <c r="J5" s="60"/>
-      <c r="K5" s="60"/>
-      <c r="L5" s="60"/>
+      <c r="I5" s="42"/>
+      <c r="J5" s="42"/>
+      <c r="K5" s="42"/>
+      <c r="L5" s="42"/>
       <c r="M5" s="14" t="s">
         <v>13</v>
       </c>
@@ -1652,82 +1649,82 @@
       <c r="O5" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="P5" s="57" t="s">
+      <c r="P5" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="Q5" s="58"/>
+      <c r="Q5" s="39"/>
     </row>
     <row r="6" spans="1:17" ht="11">
       <c r="A6" s="6">
         <v>1</v>
       </c>
-      <c r="B6" s="23" t="s">
+      <c r="B6" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="30" t="s">
+      <c r="C6" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="30"/>
-      <c r="E6" s="30"/>
-      <c r="F6" s="30"/>
-      <c r="G6" s="30"/>
-      <c r="H6" s="30" t="s">
-        <v>57</v>
-      </c>
-      <c r="I6" s="30"/>
-      <c r="J6" s="30"/>
-      <c r="K6" s="30"/>
-      <c r="L6" s="30"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="I6" s="23"/>
+      <c r="J6" s="23"/>
+      <c r="K6" s="23"/>
+      <c r="L6" s="23"/>
       <c r="M6" s="15"/>
       <c r="N6" s="7"/>
       <c r="O6" s="7"/>
-      <c r="P6" s="30"/>
-      <c r="Q6" s="30"/>
+      <c r="P6" s="23"/>
+      <c r="Q6" s="23"/>
     </row>
     <row r="7" spans="1:17" ht="11" customHeight="1">
       <c r="A7" s="6">
         <v>2</v>
       </c>
-      <c r="B7" s="59"/>
-      <c r="C7" s="30" t="s">
+      <c r="B7" s="41"/>
+      <c r="C7" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="30"/>
-      <c r="E7" s="30"/>
-      <c r="F7" s="30"/>
-      <c r="G7" s="30"/>
-      <c r="H7" s="30" t="s">
-        <v>57</v>
-      </c>
-      <c r="I7" s="30"/>
-      <c r="J7" s="30"/>
-      <c r="K7" s="30"/>
-      <c r="L7" s="30"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="I7" s="23"/>
+      <c r="J7" s="23"/>
+      <c r="K7" s="23"/>
+      <c r="L7" s="23"/>
       <c r="M7" s="15"/>
       <c r="N7" s="7"/>
       <c r="O7" s="7"/>
-      <c r="P7" s="30"/>
-      <c r="Q7" s="30"/>
+      <c r="P7" s="23"/>
+      <c r="Q7" s="23"/>
     </row>
     <row r="8" spans="1:17" ht="11" customHeight="1">
       <c r="A8" s="6">
         <v>3</v>
       </c>
       <c r="B8" s="8"/>
-      <c r="C8" s="32" t="s">
+      <c r="C8" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="33"/>
-      <c r="E8" s="33"/>
-      <c r="F8" s="33"/>
-      <c r="G8" s="34"/>
-      <c r="H8" s="27" t="s">
+      <c r="D8" s="30"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="31"/>
+      <c r="H8" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="I8" s="28"/>
-      <c r="J8" s="28"/>
-      <c r="K8" s="28"/>
-      <c r="L8" s="29"/>
+      <c r="I8" s="25"/>
+      <c r="J8" s="25"/>
+      <c r="K8" s="25"/>
+      <c r="L8" s="26"/>
       <c r="M8" s="15"/>
       <c r="N8" s="7"/>
       <c r="O8" s="7"/>
@@ -1739,18 +1736,18 @@
         <v>4</v>
       </c>
       <c r="B9" s="8"/>
-      <c r="C9" s="61"/>
-      <c r="D9" s="62"/>
-      <c r="E9" s="62"/>
-      <c r="F9" s="62"/>
-      <c r="G9" s="63"/>
-      <c r="H9" s="27" t="s">
+      <c r="C9" s="32"/>
+      <c r="D9" s="33"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="33"/>
+      <c r="G9" s="34"/>
+      <c r="H9" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="I9" s="28"/>
-      <c r="J9" s="28"/>
-      <c r="K9" s="28"/>
-      <c r="L9" s="29"/>
+      <c r="I9" s="25"/>
+      <c r="J9" s="25"/>
+      <c r="K9" s="25"/>
+      <c r="L9" s="26"/>
       <c r="M9" s="15"/>
       <c r="N9" s="7"/>
       <c r="O9" s="7"/>
@@ -1762,18 +1759,18 @@
         <v>5</v>
       </c>
       <c r="B10" s="8"/>
-      <c r="C10" s="61"/>
-      <c r="D10" s="62"/>
-      <c r="E10" s="62"/>
-      <c r="F10" s="62"/>
-      <c r="G10" s="63"/>
-      <c r="H10" s="27" t="s">
+      <c r="C10" s="32"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="33"/>
+      <c r="F10" s="33"/>
+      <c r="G10" s="34"/>
+      <c r="H10" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="I10" s="28"/>
-      <c r="J10" s="28"/>
-      <c r="K10" s="28"/>
-      <c r="L10" s="29"/>
+      <c r="I10" s="25"/>
+      <c r="J10" s="25"/>
+      <c r="K10" s="25"/>
+      <c r="L10" s="26"/>
       <c r="M10" s="15"/>
       <c r="N10" s="7"/>
       <c r="O10" s="7"/>
@@ -1785,18 +1782,18 @@
         <v>6</v>
       </c>
       <c r="B11" s="8"/>
-      <c r="C11" s="61"/>
-      <c r="D11" s="62"/>
-      <c r="E11" s="62"/>
-      <c r="F11" s="62"/>
-      <c r="G11" s="63"/>
-      <c r="H11" s="27" t="s">
+      <c r="C11" s="32"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="34"/>
+      <c r="H11" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="I11" s="28"/>
-      <c r="J11" s="28"/>
-      <c r="K11" s="28"/>
-      <c r="L11" s="29"/>
+      <c r="I11" s="25"/>
+      <c r="J11" s="25"/>
+      <c r="K11" s="25"/>
+      <c r="L11" s="26"/>
       <c r="M11" s="15"/>
       <c r="N11" s="7"/>
       <c r="O11" s="7"/>
@@ -1808,18 +1805,18 @@
         <v>7</v>
       </c>
       <c r="B12" s="8"/>
-      <c r="C12" s="61"/>
-      <c r="D12" s="62"/>
-      <c r="E12" s="62"/>
-      <c r="F12" s="62"/>
-      <c r="G12" s="63"/>
-      <c r="H12" s="27" t="s">
+      <c r="C12" s="32"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="33"/>
+      <c r="F12" s="33"/>
+      <c r="G12" s="34"/>
+      <c r="H12" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="I12" s="28"/>
-      <c r="J12" s="28"/>
-      <c r="K12" s="28"/>
-      <c r="L12" s="29"/>
+      <c r="I12" s="25"/>
+      <c r="J12" s="25"/>
+      <c r="K12" s="25"/>
+      <c r="L12" s="26"/>
       <c r="M12" s="15"/>
       <c r="N12" s="7"/>
       <c r="O12" s="7"/>
@@ -1836,63 +1833,63 @@
       <c r="E13" s="36"/>
       <c r="F13" s="36"/>
       <c r="G13" s="37"/>
-      <c r="H13" s="27" t="s">
+      <c r="H13" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="I13" s="28"/>
-      <c r="J13" s="28"/>
-      <c r="K13" s="28"/>
-      <c r="L13" s="29"/>
+      <c r="I13" s="25"/>
+      <c r="J13" s="25"/>
+      <c r="K13" s="25"/>
+      <c r="L13" s="26"/>
       <c r="M13" s="15"/>
       <c r="N13" s="7"/>
       <c r="O13" s="7"/>
-      <c r="P13" s="25"/>
-      <c r="Q13" s="26"/>
+      <c r="P13" s="27"/>
+      <c r="Q13" s="28"/>
     </row>
     <row r="14" spans="1:17" ht="24.5" customHeight="1">
       <c r="A14" s="6">
         <v>9</v>
       </c>
       <c r="B14" s="8"/>
-      <c r="C14" s="54" t="s">
+      <c r="C14" s="60" t="s">
         <v>34</v>
       </c>
-      <c r="D14" s="55"/>
-      <c r="E14" s="55"/>
-      <c r="F14" s="55"/>
-      <c r="G14" s="56"/>
-      <c r="H14" s="27" t="s">
-        <v>54</v>
-      </c>
-      <c r="I14" s="28"/>
-      <c r="J14" s="28"/>
-      <c r="K14" s="28"/>
-      <c r="L14" s="29"/>
+      <c r="D14" s="61"/>
+      <c r="E14" s="61"/>
+      <c r="F14" s="61"/>
+      <c r="G14" s="62"/>
+      <c r="H14" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="I14" s="25"/>
+      <c r="J14" s="25"/>
+      <c r="K14" s="25"/>
+      <c r="L14" s="26"/>
       <c r="M14" s="15"/>
       <c r="N14" s="7"/>
       <c r="O14" s="7"/>
-      <c r="P14" s="25"/>
-      <c r="Q14" s="26"/>
+      <c r="P14" s="27"/>
+      <c r="Q14" s="28"/>
     </row>
     <row r="15" spans="1:17" ht="11" customHeight="1">
       <c r="A15" s="6">
         <v>10</v>
       </c>
       <c r="B15" s="8"/>
-      <c r="C15" s="32" t="s">
+      <c r="C15" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="D15" s="33"/>
-      <c r="E15" s="33"/>
-      <c r="F15" s="33"/>
-      <c r="G15" s="34"/>
-      <c r="H15" s="27" t="s">
+      <c r="D15" s="30"/>
+      <c r="E15" s="30"/>
+      <c r="F15" s="30"/>
+      <c r="G15" s="31"/>
+      <c r="H15" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="I15" s="28"/>
-      <c r="J15" s="28"/>
-      <c r="K15" s="28"/>
-      <c r="L15" s="29"/>
+      <c r="I15" s="25"/>
+      <c r="J15" s="25"/>
+      <c r="K15" s="25"/>
+      <c r="L15" s="26"/>
       <c r="M15" s="15"/>
       <c r="N15" s="7"/>
       <c r="O15" s="7"/>
@@ -1904,18 +1901,18 @@
         <v>11</v>
       </c>
       <c r="B16" s="8"/>
-      <c r="C16" s="61"/>
-      <c r="D16" s="64"/>
-      <c r="E16" s="64"/>
-      <c r="F16" s="64"/>
-      <c r="G16" s="63"/>
-      <c r="H16" s="27" t="s">
+      <c r="C16" s="32"/>
+      <c r="D16" s="33"/>
+      <c r="E16" s="33"/>
+      <c r="F16" s="33"/>
+      <c r="G16" s="34"/>
+      <c r="H16" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="I16" s="28"/>
-      <c r="J16" s="28"/>
-      <c r="K16" s="28"/>
-      <c r="L16" s="29"/>
+      <c r="I16" s="25"/>
+      <c r="J16" s="25"/>
+      <c r="K16" s="25"/>
+      <c r="L16" s="26"/>
       <c r="M16" s="15"/>
       <c r="N16" s="7"/>
       <c r="O16" s="7"/>
@@ -1932,13 +1929,13 @@
       <c r="E17" s="36"/>
       <c r="F17" s="36"/>
       <c r="G17" s="37"/>
-      <c r="H17" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="I17" s="28"/>
-      <c r="J17" s="28"/>
-      <c r="K17" s="28"/>
-      <c r="L17" s="29"/>
+      <c r="H17" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="I17" s="25"/>
+      <c r="J17" s="25"/>
+      <c r="K17" s="25"/>
+      <c r="L17" s="26"/>
       <c r="M17" s="15"/>
       <c r="N17" s="7"/>
       <c r="O17" s="7"/>
@@ -1952,304 +1949,255 @@
       <c r="B18" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="27" t="s">
+      <c r="C18" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="D18" s="28"/>
-      <c r="E18" s="28"/>
-      <c r="F18" s="28"/>
-      <c r="G18" s="29"/>
-      <c r="H18" s="30" t="s">
+      <c r="D18" s="25"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="26"/>
+      <c r="H18" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="I18" s="30"/>
-      <c r="J18" s="30"/>
-      <c r="K18" s="30"/>
-      <c r="L18" s="30"/>
+      <c r="I18" s="23"/>
+      <c r="J18" s="23"/>
+      <c r="K18" s="23"/>
+      <c r="L18" s="23"/>
       <c r="M18" s="15"/>
       <c r="N18" s="7"/>
       <c r="O18" s="7"/>
-      <c r="P18" s="30"/>
-      <c r="Q18" s="30"/>
+      <c r="P18" s="23"/>
+      <c r="Q18" s="23"/>
     </row>
     <row r="19" spans="1:17" ht="13.5" customHeight="1">
       <c r="A19" s="6">
         <v>13</v>
       </c>
       <c r="B19" s="21"/>
-      <c r="C19" s="27" t="s">
+      <c r="C19" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="D19" s="28"/>
-      <c r="E19" s="28"/>
-      <c r="F19" s="28"/>
-      <c r="G19" s="29"/>
-      <c r="H19" s="30" t="s">
+      <c r="D19" s="25"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="26"/>
+      <c r="H19" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="I19" s="30"/>
-      <c r="J19" s="30"/>
-      <c r="K19" s="30"/>
-      <c r="L19" s="30"/>
+      <c r="I19" s="23"/>
+      <c r="J19" s="23"/>
+      <c r="K19" s="23"/>
+      <c r="L19" s="23"/>
       <c r="M19" s="15"/>
       <c r="N19" s="7"/>
       <c r="O19" s="7"/>
-      <c r="P19" s="30"/>
-      <c r="Q19" s="30"/>
+      <c r="P19" s="23"/>
+      <c r="Q19" s="23"/>
     </row>
     <row r="20" spans="1:17" ht="13.5" customHeight="1">
       <c r="A20" s="6">
         <v>14</v>
       </c>
       <c r="B20" s="21"/>
-      <c r="C20" s="27" t="s">
+      <c r="C20" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="D20" s="28"/>
-      <c r="E20" s="28"/>
-      <c r="F20" s="28"/>
-      <c r="G20" s="29"/>
-      <c r="H20" s="30" t="s">
+      <c r="D20" s="25"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="26"/>
+      <c r="H20" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="I20" s="30"/>
-      <c r="J20" s="30"/>
-      <c r="K20" s="30"/>
-      <c r="L20" s="30"/>
+      <c r="I20" s="23"/>
+      <c r="J20" s="23"/>
+      <c r="K20" s="23"/>
+      <c r="L20" s="23"/>
       <c r="M20" s="15"/>
       <c r="N20" s="7"/>
       <c r="O20" s="7"/>
-      <c r="P20" s="30"/>
-      <c r="Q20" s="30"/>
+      <c r="P20" s="23"/>
+      <c r="Q20" s="23"/>
     </row>
     <row r="21" spans="1:17" ht="13.5" customHeight="1">
       <c r="A21" s="6">
         <v>15</v>
       </c>
       <c r="B21" s="21"/>
-      <c r="C21" s="27" t="s">
+      <c r="C21" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="D21" s="28"/>
-      <c r="E21" s="28"/>
-      <c r="F21" s="28"/>
-      <c r="G21" s="29"/>
-      <c r="H21" s="30" t="s">
+      <c r="D21" s="25"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="26"/>
+      <c r="H21" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="I21" s="30"/>
-      <c r="J21" s="30"/>
-      <c r="K21" s="30"/>
-      <c r="L21" s="30"/>
+      <c r="I21" s="23"/>
+      <c r="J21" s="23"/>
+      <c r="K21" s="23"/>
+      <c r="L21" s="23"/>
       <c r="M21" s="15"/>
       <c r="N21" s="7"/>
       <c r="O21" s="7"/>
-      <c r="P21" s="30"/>
-      <c r="Q21" s="30"/>
+      <c r="P21" s="23"/>
+      <c r="Q21" s="23"/>
     </row>
     <row r="22" spans="1:17" ht="13.5" customHeight="1">
       <c r="A22" s="6">
         <v>16</v>
       </c>
       <c r="B22" s="21"/>
-      <c r="C22" s="31" t="s">
+      <c r="C22" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="D22" s="30"/>
-      <c r="E22" s="30"/>
-      <c r="F22" s="30"/>
-      <c r="G22" s="30"/>
-      <c r="H22" s="30" t="s">
+      <c r="D22" s="23"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="23"/>
+      <c r="G22" s="23"/>
+      <c r="H22" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="I22" s="30"/>
-      <c r="J22" s="30"/>
-      <c r="K22" s="30"/>
-      <c r="L22" s="30"/>
+      <c r="I22" s="23"/>
+      <c r="J22" s="23"/>
+      <c r="K22" s="23"/>
+      <c r="L22" s="23"/>
       <c r="M22" s="15"/>
       <c r="N22" s="7"/>
       <c r="O22" s="7"/>
-      <c r="P22" s="25"/>
-      <c r="Q22" s="26"/>
+      <c r="P22" s="27"/>
+      <c r="Q22" s="28"/>
     </row>
     <row r="23" spans="1:17" ht="13.5" customHeight="1">
       <c r="A23" s="6">
         <v>17</v>
       </c>
       <c r="B23" s="21"/>
-      <c r="C23" s="31" t="s">
+      <c r="C23" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="D23" s="30"/>
-      <c r="E23" s="30"/>
-      <c r="F23" s="30"/>
-      <c r="G23" s="30"/>
-      <c r="H23" s="30" t="s">
+      <c r="D23" s="23"/>
+      <c r="E23" s="23"/>
+      <c r="F23" s="23"/>
+      <c r="G23" s="23"/>
+      <c r="H23" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="I23" s="30"/>
-      <c r="J23" s="30"/>
-      <c r="K23" s="30"/>
-      <c r="L23" s="30"/>
+      <c r="I23" s="23"/>
+      <c r="J23" s="23"/>
+      <c r="K23" s="23"/>
+      <c r="L23" s="23"/>
       <c r="M23" s="15"/>
       <c r="N23" s="7"/>
       <c r="O23" s="7"/>
-      <c r="P23" s="30"/>
-      <c r="Q23" s="30"/>
+      <c r="P23" s="23"/>
+      <c r="Q23" s="23"/>
     </row>
     <row r="24" spans="1:17" ht="13.5" customHeight="1">
       <c r="A24" s="6">
         <v>18</v>
       </c>
       <c r="B24" s="22"/>
-      <c r="C24" s="27" t="s">
+      <c r="C24" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="D24" s="25"/>
+      <c r="E24" s="25"/>
+      <c r="F24" s="25"/>
+      <c r="G24" s="26"/>
+      <c r="H24" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="D24" s="28"/>
-      <c r="E24" s="28"/>
-      <c r="F24" s="28"/>
-      <c r="G24" s="29"/>
-      <c r="H24" s="30" t="s">
-        <v>60</v>
-      </c>
-      <c r="I24" s="30"/>
-      <c r="J24" s="30"/>
-      <c r="K24" s="30"/>
-      <c r="L24" s="30"/>
+      <c r="I24" s="23"/>
+      <c r="J24" s="23"/>
+      <c r="K24" s="23"/>
+      <c r="L24" s="23"/>
       <c r="M24" s="15"/>
       <c r="N24" s="7"/>
       <c r="O24" s="7"/>
-      <c r="P24" s="30"/>
-      <c r="Q24" s="30"/>
+      <c r="P24" s="23"/>
+      <c r="Q24" s="23"/>
     </row>
     <row r="25" spans="1:17" ht="13.5" customHeight="1">
       <c r="A25" s="6">
         <v>18</v>
       </c>
       <c r="B25" s="22"/>
-      <c r="C25" s="27" t="s">
+      <c r="C25" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="D25" s="28"/>
-      <c r="E25" s="28"/>
-      <c r="F25" s="28"/>
-      <c r="G25" s="29"/>
-      <c r="H25" s="30" t="s">
+      <c r="D25" s="25"/>
+      <c r="E25" s="25"/>
+      <c r="F25" s="25"/>
+      <c r="G25" s="26"/>
+      <c r="H25" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="I25" s="30"/>
-      <c r="J25" s="30"/>
-      <c r="K25" s="30"/>
-      <c r="L25" s="30"/>
+      <c r="I25" s="23"/>
+      <c r="J25" s="23"/>
+      <c r="K25" s="23"/>
+      <c r="L25" s="23"/>
       <c r="M25" s="15"/>
       <c r="N25" s="7"/>
       <c r="O25" s="7"/>
-      <c r="P25" s="30"/>
-      <c r="Q25" s="30"/>
+      <c r="P25" s="23"/>
+      <c r="Q25" s="23"/>
     </row>
     <row r="26" spans="1:17" ht="11.25" customHeight="1">
       <c r="A26" s="6">
         <v>19</v>
       </c>
-      <c r="B26" s="23" t="s">
+      <c r="B26" s="40" t="s">
         <v>48</v>
       </c>
-      <c r="C26" s="27" t="s">
+      <c r="C26" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="D26" s="28"/>
-      <c r="E26" s="28"/>
-      <c r="F26" s="28"/>
-      <c r="G26" s="29"/>
-      <c r="H26" s="30" t="s">
+      <c r="D26" s="25"/>
+      <c r="E26" s="25"/>
+      <c r="F26" s="25"/>
+      <c r="G26" s="26"/>
+      <c r="H26" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="I26" s="30"/>
-      <c r="J26" s="30"/>
-      <c r="K26" s="30"/>
-      <c r="L26" s="30"/>
+      <c r="I26" s="23"/>
+      <c r="J26" s="23"/>
+      <c r="K26" s="23"/>
+      <c r="L26" s="23"/>
       <c r="M26" s="15"/>
       <c r="N26" s="7"/>
       <c r="O26" s="7"/>
-      <c r="P26" s="30"/>
-      <c r="Q26" s="30"/>
+      <c r="P26" s="23"/>
+      <c r="Q26" s="23"/>
     </row>
     <row r="27" spans="1:17" ht="11.25" customHeight="1">
       <c r="A27" s="6">
         <v>20</v>
       </c>
-      <c r="B27" s="24"/>
-      <c r="C27" s="27" t="s">
+      <c r="B27" s="63"/>
+      <c r="C27" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="D27" s="28"/>
-      <c r="E27" s="28"/>
-      <c r="F27" s="28"/>
-      <c r="G27" s="29"/>
-      <c r="H27" s="30" t="s">
+      <c r="D27" s="25"/>
+      <c r="E27" s="25"/>
+      <c r="F27" s="25"/>
+      <c r="G27" s="26"/>
+      <c r="H27" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="I27" s="30"/>
-      <c r="J27" s="30"/>
-      <c r="K27" s="30"/>
-      <c r="L27" s="30"/>
+      <c r="I27" s="23"/>
+      <c r="J27" s="23"/>
+      <c r="K27" s="23"/>
+      <c r="L27" s="23"/>
       <c r="M27" s="15"/>
       <c r="N27" s="7"/>
       <c r="O27" s="7"/>
-      <c r="P27" s="30"/>
-      <c r="Q27" s="30"/>
+      <c r="P27" s="23"/>
+      <c r="Q27" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="65">
-    <mergeCell ref="H24:L24"/>
-    <mergeCell ref="P24:Q24"/>
-    <mergeCell ref="H13:L13"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="C8:G13"/>
-    <mergeCell ref="H8:L8"/>
-    <mergeCell ref="H9:L9"/>
-    <mergeCell ref="H10:L10"/>
-    <mergeCell ref="H11:L11"/>
-    <mergeCell ref="H12:L12"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="H6:L6"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="H7:L7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="H5:L5"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="H21:L21"/>
-    <mergeCell ref="P21:Q21"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:M1"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:M2"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:Q4"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:Q3"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="H14:L14"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="H19:L19"/>
-    <mergeCell ref="P19:Q19"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="H20:L20"/>
-    <mergeCell ref="P20:Q20"/>
-    <mergeCell ref="C15:G17"/>
-    <mergeCell ref="H15:L15"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="H18:L18"/>
-    <mergeCell ref="P18:Q18"/>
-    <mergeCell ref="H17:L17"/>
-    <mergeCell ref="H16:L16"/>
     <mergeCell ref="B26:B27"/>
     <mergeCell ref="P22:Q22"/>
     <mergeCell ref="C26:G26"/>
@@ -2266,6 +2214,55 @@
     <mergeCell ref="H25:L25"/>
     <mergeCell ref="P25:Q25"/>
     <mergeCell ref="C24:G24"/>
+    <mergeCell ref="P19:Q19"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="H20:L20"/>
+    <mergeCell ref="P20:Q20"/>
+    <mergeCell ref="C15:G17"/>
+    <mergeCell ref="H15:L15"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="H18:L18"/>
+    <mergeCell ref="P18:Q18"/>
+    <mergeCell ref="H17:L17"/>
+    <mergeCell ref="H16:L16"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:Q4"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:Q3"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="H14:L14"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:M1"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:M2"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="H6:L6"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="H7:L7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="H5:L5"/>
+    <mergeCell ref="H24:L24"/>
+    <mergeCell ref="P24:Q24"/>
+    <mergeCell ref="H13:L13"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="C8:G13"/>
+    <mergeCell ref="H8:L8"/>
+    <mergeCell ref="H9:L9"/>
+    <mergeCell ref="H10:L10"/>
+    <mergeCell ref="H11:L11"/>
+    <mergeCell ref="H12:L12"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="H21:L21"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="H19:L19"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.27559055118110237" header="0.35433070866141736" footer="0.15748031496062992"/>

--- a/plan/test/結合テスト/結合テスト仕様書-BP014新商品登録(完了).xlsx
+++ b/plan/test/結合テスト/結合テスト仕様書-BP014新商品登録(完了).xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fullness\Desktop\work\javaReview\ec-b\plan\test\結合テスト\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fullness\Desktop\work\java-review\ec-b\plan\test\結合テスト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95A05A75-D460-4523-959F-F9CF9913876B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09B86C14-CDB6-4693-A545-06D5F4481349}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2260" yWindow="670" windowWidth="15140" windowHeight="9050" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="商品削除（確認）" sheetId="177" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="64">
   <si>
     <t>作成者</t>
   </si>
@@ -152,13 +152,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>メニュー項目</t>
-    <rPh sb="4" eb="6">
-      <t>コウモク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>画面遷移確認</t>
     <rPh sb="0" eb="4">
       <t>ガメンセンイ</t>
@@ -209,10 +202,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>・画面表示項目、入力内容におけるシステムの挙動、画面推移について確認する</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>header</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -303,26 +292,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>タイトル以下の表示</t>
-    <rPh sb="4" eb="6">
-      <t>イカ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>「業務終了」と表示されている</t>
-    <rPh sb="1" eb="5">
-      <t>ギョウムシュウリョウ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>「業務終了」を押下</t>
     <rPh sb="1" eb="5">
       <t>ギョウムシュウリョウ</t>
@@ -333,19 +302,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>「商品検索へ戻る」と表示されている</t>
-    <rPh sb="1" eb="5">
-      <t>ショウヒンケンサク</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>モド</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>「商品検索へ戻る」を押下</t>
     <rPh sb="1" eb="5">
       <t>ショウヒンケンサク</t>
@@ -359,16 +315,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>メニュー画面へ遷移すること</t>
-    <rPh sb="4" eb="6">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>センイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>商品検索画面へ遷移すること</t>
     <rPh sb="0" eb="4">
       <t>ショウヒンケンサク</t>
@@ -493,37 +439,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>更新した場合</t>
-    <rPh sb="0" eb="2">
-      <t>コウシン</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>バアイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>データベースは更新されない</t>
-    <rPh sb="7" eb="9">
-      <t>コウシン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>URL直打ち</t>
-    <rPh sb="3" eb="5">
-      <t>ジカウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ログイン前メニュー画面へ遷移</t>
-    <rPh sb="12" eb="14">
-      <t>センイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>新商品登録（完了）</t>
     <rPh sb="6" eb="8">
       <t>カンリョウ</t>
@@ -531,22 +446,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>新商品登録(確認)画面から完了ボタンが押されていること</t>
-    <rPh sb="6" eb="8">
-      <t>カクニン</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>カンリョウ</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>オ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>「新商品登録(完了)画面」と表示されている</t>
     <rPh sb="7" eb="9">
       <t>カンリョウ</t>
@@ -554,19 +453,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>「入力に戻る」と表示されている</t>
-    <rPh sb="1" eb="3">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>モド</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>「入力に戻る」を押下</t>
     <rPh sb="1" eb="3">
       <t>ニュウリョク</t>
@@ -580,34 +466,202 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>新商品登録（入力）画面へ遷移すること</t>
-    <rPh sb="0" eb="5">
+    <t>・画面の表示項目、入力内容におけるシステムの挙動・画面遷移について確認する。
+・数値の範囲を確認する場合には同値分割や境界値分析の手法を用いる</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+・担当者ログインが終了していること
+・新商品登録(確認)画面から完了ボタンが押されていること
+・新商品登録（入力画面にて）、
+商品名：テスト商品
+単価：2500円
+在庫数：10
+商品カテゴリ：文房具
+画像：test.jpg
+が確認できていること</t>
+    <rPh sb="26" eb="28">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="115" eb="117">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「新商品登録(完了)」と表示されている</t>
+    <rPh sb="7" eb="9">
+      <t>カンリョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>footer</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「Fullness Stationery社」と表示されていること</t>
+    <rPh sb="20" eb="21">
+      <t>シャ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>body</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「新商品登録（完了）」と表示されていること</t>
+    <rPh sb="1" eb="6">
       <t>シンショウヒントウロク</t>
     </rPh>
-    <rPh sb="6" eb="8">
+    <rPh sb="7" eb="9">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「商品名 テスト商品を登録しました。」と表示されていること</t>
+    <rPh sb="1" eb="4">
+      <t>ショウヒンメイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「業務終了」ボタンが表示されていること</t>
+    <rPh sb="1" eb="5">
+      <t>ギョウムシュウリョウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「商品検索へ戻る」ボタンが表示されていること</t>
+    <rPh sb="1" eb="5">
+      <t>ショウヒンケンサク</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「入力に戻る」ボタンが表示されていること</t>
+    <rPh sb="1" eb="3">
       <t>ニュウリョク</t>
     </rPh>
+    <rPh sb="4" eb="5">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ログイン前「メニュー」画面へ遷移すること</t>
+    <rPh sb="4" eb="5">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ログインしている状態でアドレスバーに直接「http://localhost:8080/registerproduct/complete」
+を入力</t>
+    <rPh sb="8" eb="10">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>チョクセツ</t>
+    </rPh>
+    <rPh sb="70" eb="72">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ログインしていない状態でアドレスバーに直接「http://localhost:8080/registerproduct/complete」
+を入力</t>
     <rPh sb="9" eb="11">
-      <t>ガメン</t>
-    </rPh>
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>チョクセツ</t>
+    </rPh>
+    <rPh sb="71" eb="73">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ログイン前メニュー画面へ遷移すること</t>
     <rPh sb="12" eb="14">
       <t>センイ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>「商品名 テスト商品を登録しました」と表示されている</t>
-    <rPh sb="1" eb="4">
-      <t>ショウヒンメイ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ショウヒン</t>
+    <t>「商品検索画面」へ遷移すること</t>
+    <rPh sb="1" eb="5">
+      <t>ショウヒンケンサク</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「新商品登録（入力）」画面へ遷移すること</t>
+    <rPh sb="1" eb="6">
+      <t>シンショウヒントウロク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ニュウリョク</t>
     </rPh>
     <rPh sb="11" eb="13">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>ヒョウジ</t>
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>センイ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -952,7 +1006,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1020,23 +1074,41 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1065,82 +1137,70 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -1493,10 +1553,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{776758EE-792E-45DD-A875-220DAC06338B}">
-  <dimension ref="A1:Q27"/>
+  <dimension ref="A1:Q29"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14:L14"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A15" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="H27" sqref="H27:L27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="11.25" customHeight="1"/>
@@ -1512,56 +1572,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="46" t="s">
+      <c r="B1" s="46"/>
+      <c r="C1" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="47"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="49" t="s">
-        <v>22</v>
-      </c>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="49"/>
-      <c r="J1" s="49"/>
-      <c r="K1" s="49"/>
-      <c r="L1" s="49"/>
-      <c r="M1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="51" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="51"/>
+      <c r="J1" s="51"/>
+      <c r="K1" s="51"/>
+      <c r="L1" s="51"/>
+      <c r="M1" s="51"/>
       <c r="N1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="P1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A2" s="45"/>
-      <c r="B2" s="45"/>
-      <c r="C2" s="50" t="s">
+      <c r="A2" s="47"/>
+      <c r="B2" s="47"/>
+      <c r="C2" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="51"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="53" t="s">
-        <v>54</v>
-      </c>
-      <c r="G2" s="54"/>
-      <c r="H2" s="54"/>
-      <c r="I2" s="54"/>
-      <c r="J2" s="54"/>
-      <c r="K2" s="54"/>
-      <c r="L2" s="54"/>
-      <c r="M2" s="55"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="55" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
+      <c r="J2" s="56"/>
+      <c r="K2" s="56"/>
+      <c r="L2" s="56"/>
+      <c r="M2" s="57"/>
       <c r="N2" s="9" t="s">
         <v>1</v>
       </c>
@@ -1573,51 +1633,51 @@
       </c>
       <c r="Q2" s="12"/>
     </row>
-    <row r="3" spans="1:17" ht="14" customHeight="1">
-      <c r="A3" s="56" t="s">
+    <row r="3" spans="1:17" ht="143.5" customHeight="1">
+      <c r="A3" s="44" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="45"/>
+      <c r="C3" s="62" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" s="63"/>
+      <c r="E3" s="63"/>
+      <c r="F3" s="63"/>
+      <c r="G3" s="63"/>
+      <c r="H3" s="63"/>
+      <c r="I3" s="63"/>
+      <c r="J3" s="63"/>
+      <c r="K3" s="63"/>
+      <c r="L3" s="63"/>
+      <c r="M3" s="63"/>
+      <c r="N3" s="63"/>
+      <c r="O3" s="63"/>
+      <c r="P3" s="63"/>
+      <c r="Q3" s="64"/>
+    </row>
+    <row r="4" spans="1:17" ht="31.5" customHeight="1">
+      <c r="A4" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="57"/>
-      <c r="C3" s="58" t="s">
-        <v>55</v>
-      </c>
-      <c r="D3" s="58"/>
-      <c r="E3" s="58"/>
-      <c r="F3" s="58"/>
-      <c r="G3" s="58"/>
-      <c r="H3" s="58"/>
-      <c r="I3" s="58"/>
-      <c r="J3" s="58"/>
-      <c r="K3" s="58"/>
-      <c r="L3" s="58"/>
-      <c r="M3" s="58"/>
-      <c r="N3" s="58"/>
-      <c r="O3" s="58"/>
-      <c r="P3" s="58"/>
-      <c r="Q3" s="59"/>
-    </row>
-    <row r="4" spans="1:17" ht="14" customHeight="1">
-      <c r="A4" s="56" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" s="57"/>
-      <c r="C4" s="58" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" s="58"/>
-      <c r="E4" s="58"/>
-      <c r="F4" s="58"/>
-      <c r="G4" s="58"/>
-      <c r="H4" s="58"/>
-      <c r="I4" s="58"/>
-      <c r="J4" s="58"/>
-      <c r="K4" s="58"/>
-      <c r="L4" s="58"/>
-      <c r="M4" s="58"/>
-      <c r="N4" s="58"/>
-      <c r="O4" s="58"/>
-      <c r="P4" s="58"/>
-      <c r="Q4" s="59"/>
+      <c r="B4" s="45"/>
+      <c r="C4" s="62" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4" s="63"/>
+      <c r="E4" s="63"/>
+      <c r="F4" s="63"/>
+      <c r="G4" s="63"/>
+      <c r="H4" s="63"/>
+      <c r="I4" s="63"/>
+      <c r="J4" s="63"/>
+      <c r="K4" s="63"/>
+      <c r="L4" s="63"/>
+      <c r="M4" s="63"/>
+      <c r="N4" s="63"/>
+      <c r="O4" s="63"/>
+      <c r="P4" s="63"/>
+      <c r="Q4" s="64"/>
     </row>
     <row r="5" spans="1:17" ht="15" customHeight="1">
       <c r="A5" s="14" t="s">
@@ -1626,20 +1686,20 @@
       <c r="B5" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="38" t="s">
+      <c r="C5" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="42"/>
-      <c r="E5" s="42"/>
-      <c r="F5" s="42"/>
-      <c r="G5" s="39"/>
-      <c r="H5" s="38" t="s">
+      <c r="D5" s="61"/>
+      <c r="E5" s="61"/>
+      <c r="F5" s="61"/>
+      <c r="G5" s="59"/>
+      <c r="H5" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="42"/>
-      <c r="J5" s="42"/>
-      <c r="K5" s="42"/>
-      <c r="L5" s="42"/>
+      <c r="I5" s="61"/>
+      <c r="J5" s="61"/>
+      <c r="K5" s="61"/>
+      <c r="L5" s="61"/>
       <c r="M5" s="14" t="s">
         <v>13</v>
       </c>
@@ -1649,82 +1709,82 @@
       <c r="O5" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="P5" s="38" t="s">
+      <c r="P5" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="Q5" s="39"/>
+      <c r="Q5" s="59"/>
     </row>
     <row r="6" spans="1:17" ht="11">
       <c r="A6" s="6">
         <v>1</v>
       </c>
-      <c r="B6" s="40" t="s">
+      <c r="B6" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="23" t="s">
+      <c r="C6" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="23"/>
-      <c r="G6" s="23"/>
-      <c r="H6" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="I6" s="23"/>
-      <c r="J6" s="23"/>
-      <c r="K6" s="23"/>
-      <c r="L6" s="23"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="33"/>
+      <c r="G6" s="33"/>
+      <c r="H6" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="I6" s="33"/>
+      <c r="J6" s="33"/>
+      <c r="K6" s="33"/>
+      <c r="L6" s="33"/>
       <c r="M6" s="15"/>
       <c r="N6" s="7"/>
       <c r="O6" s="7"/>
-      <c r="P6" s="23"/>
-      <c r="Q6" s="23"/>
+      <c r="P6" s="33"/>
+      <c r="Q6" s="33"/>
     </row>
     <row r="7" spans="1:17" ht="11" customHeight="1">
       <c r="A7" s="6">
         <v>2</v>
       </c>
-      <c r="B7" s="41"/>
-      <c r="C7" s="23" t="s">
+      <c r="B7" s="60"/>
+      <c r="C7" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="23"/>
-      <c r="E7" s="23"/>
-      <c r="F7" s="23"/>
-      <c r="G7" s="23"/>
-      <c r="H7" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="I7" s="23"/>
-      <c r="J7" s="23"/>
-      <c r="K7" s="23"/>
-      <c r="L7" s="23"/>
+      <c r="D7" s="33"/>
+      <c r="E7" s="33"/>
+      <c r="F7" s="33"/>
+      <c r="G7" s="33"/>
+      <c r="H7" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="I7" s="33"/>
+      <c r="J7" s="33"/>
+      <c r="K7" s="33"/>
+      <c r="L7" s="33"/>
       <c r="M7" s="15"/>
       <c r="N7" s="7"/>
       <c r="O7" s="7"/>
-      <c r="P7" s="23"/>
-      <c r="Q7" s="23"/>
+      <c r="P7" s="33"/>
+      <c r="Q7" s="33"/>
     </row>
     <row r="8" spans="1:17" ht="11" customHeight="1">
       <c r="A8" s="6">
         <v>3</v>
       </c>
       <c r="B8" s="8"/>
-      <c r="C8" s="29" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" s="30"/>
-      <c r="E8" s="30"/>
-      <c r="F8" s="30"/>
-      <c r="G8" s="31"/>
-      <c r="H8" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="I8" s="25"/>
-      <c r="J8" s="25"/>
-      <c r="K8" s="25"/>
-      <c r="L8" s="26"/>
+      <c r="C8" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="36"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="36"/>
+      <c r="G8" s="37"/>
+      <c r="H8" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="I8" s="31"/>
+      <c r="J8" s="31"/>
+      <c r="K8" s="31"/>
+      <c r="L8" s="32"/>
       <c r="M8" s="15"/>
       <c r="N8" s="7"/>
       <c r="O8" s="7"/>
@@ -1736,18 +1796,18 @@
         <v>4</v>
       </c>
       <c r="B9" s="8"/>
-      <c r="C9" s="32"/>
-      <c r="D9" s="33"/>
-      <c r="E9" s="33"/>
-      <c r="F9" s="33"/>
-      <c r="G9" s="34"/>
-      <c r="H9" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="I9" s="25"/>
-      <c r="J9" s="25"/>
-      <c r="K9" s="25"/>
-      <c r="L9" s="26"/>
+      <c r="C9" s="38"/>
+      <c r="D9" s="39"/>
+      <c r="E9" s="39"/>
+      <c r="F9" s="39"/>
+      <c r="G9" s="40"/>
+      <c r="H9" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="I9" s="31"/>
+      <c r="J9" s="31"/>
+      <c r="K9" s="31"/>
+      <c r="L9" s="32"/>
       <c r="M9" s="15"/>
       <c r="N9" s="7"/>
       <c r="O9" s="7"/>
@@ -1759,18 +1819,18 @@
         <v>5</v>
       </c>
       <c r="B10" s="8"/>
-      <c r="C10" s="32"/>
-      <c r="D10" s="33"/>
-      <c r="E10" s="33"/>
-      <c r="F10" s="33"/>
-      <c r="G10" s="34"/>
-      <c r="H10" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="I10" s="25"/>
-      <c r="J10" s="25"/>
-      <c r="K10" s="25"/>
-      <c r="L10" s="26"/>
+      <c r="C10" s="38"/>
+      <c r="D10" s="39"/>
+      <c r="E10" s="39"/>
+      <c r="F10" s="39"/>
+      <c r="G10" s="40"/>
+      <c r="H10" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="I10" s="31"/>
+      <c r="J10" s="31"/>
+      <c r="K10" s="31"/>
+      <c r="L10" s="32"/>
       <c r="M10" s="15"/>
       <c r="N10" s="7"/>
       <c r="O10" s="7"/>
@@ -1782,18 +1842,18 @@
         <v>6</v>
       </c>
       <c r="B11" s="8"/>
-      <c r="C11" s="32"/>
-      <c r="D11" s="33"/>
-      <c r="E11" s="33"/>
-      <c r="F11" s="33"/>
-      <c r="G11" s="34"/>
-      <c r="H11" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="I11" s="25"/>
-      <c r="J11" s="25"/>
-      <c r="K11" s="25"/>
-      <c r="L11" s="26"/>
+      <c r="C11" s="38"/>
+      <c r="D11" s="39"/>
+      <c r="E11" s="39"/>
+      <c r="F11" s="39"/>
+      <c r="G11" s="40"/>
+      <c r="H11" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="I11" s="31"/>
+      <c r="J11" s="31"/>
+      <c r="K11" s="31"/>
+      <c r="L11" s="32"/>
       <c r="M11" s="15"/>
       <c r="N11" s="7"/>
       <c r="O11" s="7"/>
@@ -1805,18 +1865,18 @@
         <v>7</v>
       </c>
       <c r="B12" s="8"/>
-      <c r="C12" s="32"/>
-      <c r="D12" s="33"/>
-      <c r="E12" s="33"/>
-      <c r="F12" s="33"/>
-      <c r="G12" s="34"/>
-      <c r="H12" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="I12" s="25"/>
-      <c r="J12" s="25"/>
-      <c r="K12" s="25"/>
-      <c r="L12" s="26"/>
+      <c r="C12" s="38"/>
+      <c r="D12" s="39"/>
+      <c r="E12" s="39"/>
+      <c r="F12" s="39"/>
+      <c r="G12" s="40"/>
+      <c r="H12" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="I12" s="31"/>
+      <c r="J12" s="31"/>
+      <c r="K12" s="31"/>
+      <c r="L12" s="32"/>
       <c r="M12" s="15"/>
       <c r="N12" s="7"/>
       <c r="O12" s="7"/>
@@ -1828,91 +1888,87 @@
         <v>8</v>
       </c>
       <c r="B13" s="8"/>
-      <c r="C13" s="35"/>
-      <c r="D13" s="36"/>
-      <c r="E13" s="36"/>
-      <c r="F13" s="36"/>
-      <c r="G13" s="37"/>
-      <c r="H13" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="I13" s="25"/>
-      <c r="J13" s="25"/>
-      <c r="K13" s="25"/>
-      <c r="L13" s="26"/>
+      <c r="C13" s="41"/>
+      <c r="D13" s="42"/>
+      <c r="E13" s="42"/>
+      <c r="F13" s="42"/>
+      <c r="G13" s="43"/>
+      <c r="H13" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="I13" s="31"/>
+      <c r="J13" s="31"/>
+      <c r="K13" s="31"/>
+      <c r="L13" s="32"/>
       <c r="M13" s="15"/>
       <c r="N13" s="7"/>
       <c r="O13" s="7"/>
-      <c r="P13" s="27"/>
-      <c r="Q13" s="28"/>
-    </row>
-    <row r="14" spans="1:17" ht="24.5" customHeight="1">
-      <c r="A14" s="6">
-        <v>9</v>
-      </c>
+      <c r="P13" s="28"/>
+      <c r="Q13" s="29"/>
+    </row>
+    <row r="14" spans="1:17" ht="11" customHeight="1">
+      <c r="A14" s="6"/>
       <c r="B14" s="8"/>
-      <c r="C14" s="60" t="s">
-        <v>34</v>
-      </c>
-      <c r="D14" s="61"/>
-      <c r="E14" s="61"/>
-      <c r="F14" s="61"/>
-      <c r="G14" s="62"/>
-      <c r="H14" s="24" t="s">
-        <v>60</v>
-      </c>
-      <c r="I14" s="25"/>
-      <c r="J14" s="25"/>
-      <c r="K14" s="25"/>
-      <c r="L14" s="26"/>
+      <c r="C14" s="35" t="s">
+        <v>52</v>
+      </c>
+      <c r="D14" s="36"/>
+      <c r="E14" s="36"/>
+      <c r="F14" s="36"/>
+      <c r="G14" s="37"/>
+      <c r="H14" s="30" t="s">
+        <v>53</v>
+      </c>
+      <c r="I14" s="31"/>
+      <c r="J14" s="31"/>
+      <c r="K14" s="31"/>
+      <c r="L14" s="32"/>
       <c r="M14" s="15"/>
       <c r="N14" s="7"/>
       <c r="O14" s="7"/>
-      <c r="P14" s="27"/>
-      <c r="Q14" s="28"/>
-    </row>
-    <row r="15" spans="1:17" ht="11" customHeight="1">
+      <c r="P14" s="18"/>
+      <c r="Q14" s="19"/>
+    </row>
+    <row r="15" spans="1:17" ht="24.5" customHeight="1">
       <c r="A15" s="6">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B15" s="8"/>
-      <c r="C15" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="D15" s="30"/>
-      <c r="E15" s="30"/>
-      <c r="F15" s="30"/>
-      <c r="G15" s="31"/>
-      <c r="H15" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="I15" s="25"/>
-      <c r="J15" s="25"/>
-      <c r="K15" s="25"/>
-      <c r="L15" s="26"/>
+      <c r="C15" s="38"/>
+      <c r="D15" s="65"/>
+      <c r="E15" s="65"/>
+      <c r="F15" s="65"/>
+      <c r="G15" s="40"/>
+      <c r="H15" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="I15" s="31"/>
+      <c r="J15" s="31"/>
+      <c r="K15" s="31"/>
+      <c r="L15" s="32"/>
       <c r="M15" s="15"/>
       <c r="N15" s="7"/>
       <c r="O15" s="7"/>
-      <c r="P15" s="18"/>
-      <c r="Q15" s="19"/>
+      <c r="P15" s="28"/>
+      <c r="Q15" s="29"/>
     </row>
     <row r="16" spans="1:17" ht="11" customHeight="1">
       <c r="A16" s="6">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B16" s="8"/>
-      <c r="C16" s="32"/>
-      <c r="D16" s="33"/>
-      <c r="E16" s="33"/>
-      <c r="F16" s="33"/>
-      <c r="G16" s="34"/>
-      <c r="H16" s="24" t="s">
-        <v>37</v>
-      </c>
-      <c r="I16" s="25"/>
-      <c r="J16" s="25"/>
-      <c r="K16" s="25"/>
-      <c r="L16" s="26"/>
+      <c r="C16" s="38"/>
+      <c r="D16" s="65"/>
+      <c r="E16" s="65"/>
+      <c r="F16" s="65"/>
+      <c r="G16" s="40"/>
+      <c r="H16" s="30" t="s">
+        <v>55</v>
+      </c>
+      <c r="I16" s="31"/>
+      <c r="J16" s="31"/>
+      <c r="K16" s="31"/>
+      <c r="L16" s="32"/>
       <c r="M16" s="15"/>
       <c r="N16" s="7"/>
       <c r="O16" s="7"/>
@@ -1924,319 +1980,359 @@
         <v>11</v>
       </c>
       <c r="B17" s="8"/>
-      <c r="C17" s="35"/>
-      <c r="D17" s="36"/>
-      <c r="E17" s="36"/>
-      <c r="F17" s="36"/>
-      <c r="G17" s="37"/>
-      <c r="H17" s="24" t="s">
-        <v>57</v>
-      </c>
-      <c r="I17" s="25"/>
-      <c r="J17" s="25"/>
-      <c r="K17" s="25"/>
-      <c r="L17" s="26"/>
+      <c r="C17" s="38"/>
+      <c r="D17" s="65"/>
+      <c r="E17" s="65"/>
+      <c r="F17" s="65"/>
+      <c r="G17" s="40"/>
+      <c r="H17" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="I17" s="31"/>
+      <c r="J17" s="31"/>
+      <c r="K17" s="31"/>
+      <c r="L17" s="32"/>
       <c r="M17" s="15"/>
       <c r="N17" s="7"/>
       <c r="O17" s="7"/>
       <c r="P17" s="18"/>
       <c r="Q17" s="19"/>
     </row>
-    <row r="18" spans="1:17" ht="13.5" customHeight="1">
+    <row r="18" spans="1:17" ht="11" customHeight="1">
       <c r="A18" s="6">
-        <v>12</v>
-      </c>
-      <c r="B18" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="C18" s="24" t="s">
-        <v>46</v>
-      </c>
-      <c r="D18" s="25"/>
-      <c r="E18" s="25"/>
-      <c r="F18" s="25"/>
-      <c r="G18" s="26"/>
-      <c r="H18" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="I18" s="23"/>
-      <c r="J18" s="23"/>
-      <c r="K18" s="23"/>
-      <c r="L18" s="23"/>
+        <v>11</v>
+      </c>
+      <c r="B18" s="8"/>
+      <c r="C18" s="41"/>
+      <c r="D18" s="42"/>
+      <c r="E18" s="42"/>
+      <c r="F18" s="42"/>
+      <c r="G18" s="43"/>
+      <c r="H18" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="I18" s="31"/>
+      <c r="J18" s="31"/>
+      <c r="K18" s="31"/>
+      <c r="L18" s="32"/>
       <c r="M18" s="15"/>
       <c r="N18" s="7"/>
       <c r="O18" s="7"/>
-      <c r="P18" s="23"/>
-      <c r="Q18" s="23"/>
-    </row>
-    <row r="19" spans="1:17" ht="13.5" customHeight="1">
-      <c r="A19" s="6">
-        <v>13</v>
-      </c>
-      <c r="B19" s="21"/>
-      <c r="C19" s="24" t="s">
-        <v>41</v>
-      </c>
-      <c r="D19" s="25"/>
-      <c r="E19" s="25"/>
-      <c r="F19" s="25"/>
-      <c r="G19" s="26"/>
-      <c r="H19" s="23" t="s">
-        <v>44</v>
-      </c>
-      <c r="I19" s="23"/>
-      <c r="J19" s="23"/>
-      <c r="K19" s="23"/>
-      <c r="L19" s="23"/>
+      <c r="P18" s="18"/>
+      <c r="Q18" s="19"/>
+    </row>
+    <row r="19" spans="1:17" ht="11" customHeight="1">
+      <c r="A19" s="6"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="D19" s="24"/>
+      <c r="E19" s="24"/>
+      <c r="F19" s="24"/>
+      <c r="G19" s="25"/>
+      <c r="H19" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="I19" s="31"/>
+      <c r="J19" s="31"/>
+      <c r="K19" s="31"/>
+      <c r="L19" s="32"/>
       <c r="M19" s="15"/>
       <c r="N19" s="7"/>
       <c r="O19" s="7"/>
-      <c r="P19" s="23"/>
-      <c r="Q19" s="23"/>
+      <c r="P19" s="18"/>
+      <c r="Q19" s="19"/>
     </row>
     <row r="20" spans="1:17" ht="13.5" customHeight="1">
       <c r="A20" s="6">
-        <v>14</v>
-      </c>
-      <c r="B20" s="21"/>
-      <c r="C20" s="24" t="s">
-        <v>42</v>
-      </c>
-      <c r="D20" s="25"/>
-      <c r="E20" s="25"/>
-      <c r="F20" s="25"/>
-      <c r="G20" s="26"/>
-      <c r="H20" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="I20" s="23"/>
-      <c r="J20" s="23"/>
-      <c r="K20" s="23"/>
-      <c r="L20" s="23"/>
+        <v>12</v>
+      </c>
+      <c r="B20" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="D20" s="31"/>
+      <c r="E20" s="31"/>
+      <c r="F20" s="31"/>
+      <c r="G20" s="32"/>
+      <c r="H20" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="I20" s="33"/>
+      <c r="J20" s="33"/>
+      <c r="K20" s="33"/>
+      <c r="L20" s="33"/>
       <c r="M20" s="15"/>
       <c r="N20" s="7"/>
       <c r="O20" s="7"/>
-      <c r="P20" s="23"/>
-      <c r="Q20" s="23"/>
+      <c r="P20" s="33"/>
+      <c r="Q20" s="33"/>
     </row>
     <row r="21" spans="1:17" ht="13.5" customHeight="1">
       <c r="A21" s="6">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B21" s="21"/>
-      <c r="C21" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="D21" s="25"/>
-      <c r="E21" s="25"/>
-      <c r="F21" s="25"/>
-      <c r="G21" s="26"/>
-      <c r="H21" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="I21" s="23"/>
-      <c r="J21" s="23"/>
-      <c r="K21" s="23"/>
-      <c r="L21" s="23"/>
+      <c r="C21" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="D21" s="31"/>
+      <c r="E21" s="31"/>
+      <c r="F21" s="31"/>
+      <c r="G21" s="32"/>
+      <c r="H21" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="I21" s="33"/>
+      <c r="J21" s="33"/>
+      <c r="K21" s="33"/>
+      <c r="L21" s="33"/>
       <c r="M21" s="15"/>
       <c r="N21" s="7"/>
       <c r="O21" s="7"/>
-      <c r="P21" s="23"/>
-      <c r="Q21" s="23"/>
+      <c r="P21" s="33"/>
+      <c r="Q21" s="33"/>
     </row>
     <row r="22" spans="1:17" ht="13.5" customHeight="1">
       <c r="A22" s="6">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B22" s="21"/>
-      <c r="C22" s="43" t="s">
-        <v>38</v>
-      </c>
-      <c r="D22" s="23"/>
-      <c r="E22" s="23"/>
-      <c r="F22" s="23"/>
-      <c r="G22" s="23"/>
-      <c r="H22" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="I22" s="23"/>
-      <c r="J22" s="23"/>
-      <c r="K22" s="23"/>
-      <c r="L22" s="23"/>
+      <c r="C22" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="D22" s="31"/>
+      <c r="E22" s="31"/>
+      <c r="F22" s="31"/>
+      <c r="G22" s="32"/>
+      <c r="H22" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="I22" s="33"/>
+      <c r="J22" s="33"/>
+      <c r="K22" s="33"/>
+      <c r="L22" s="33"/>
       <c r="M22" s="15"/>
       <c r="N22" s="7"/>
       <c r="O22" s="7"/>
-      <c r="P22" s="27"/>
-      <c r="Q22" s="28"/>
+      <c r="P22" s="33"/>
+      <c r="Q22" s="33"/>
     </row>
     <row r="23" spans="1:17" ht="13.5" customHeight="1">
       <c r="A23" s="6">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B23" s="21"/>
-      <c r="C23" s="43" t="s">
-        <v>36</v>
-      </c>
-      <c r="D23" s="23"/>
-      <c r="E23" s="23"/>
-      <c r="F23" s="23"/>
-      <c r="G23" s="23"/>
-      <c r="H23" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="I23" s="23"/>
-      <c r="J23" s="23"/>
-      <c r="K23" s="23"/>
-      <c r="L23" s="23"/>
+      <c r="C23" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="D23" s="31"/>
+      <c r="E23" s="31"/>
+      <c r="F23" s="31"/>
+      <c r="G23" s="32"/>
+      <c r="H23" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="I23" s="33"/>
+      <c r="J23" s="33"/>
+      <c r="K23" s="33"/>
+      <c r="L23" s="33"/>
       <c r="M23" s="15"/>
       <c r="N23" s="7"/>
       <c r="O23" s="7"/>
-      <c r="P23" s="23"/>
-      <c r="Q23" s="23"/>
+      <c r="P23" s="33"/>
+      <c r="Q23" s="33"/>
     </row>
     <row r="24" spans="1:17" ht="13.5" customHeight="1">
       <c r="A24" s="6">
         <v>18</v>
       </c>
       <c r="B24" s="22"/>
-      <c r="C24" s="24" t="s">
-        <v>58</v>
-      </c>
-      <c r="D24" s="25"/>
-      <c r="E24" s="25"/>
-      <c r="F24" s="25"/>
-      <c r="G24" s="26"/>
-      <c r="H24" s="23" t="s">
-        <v>59</v>
-      </c>
-      <c r="I24" s="23"/>
-      <c r="J24" s="23"/>
-      <c r="K24" s="23"/>
-      <c r="L24" s="23"/>
+      <c r="C24" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="D24" s="31"/>
+      <c r="E24" s="31"/>
+      <c r="F24" s="31"/>
+      <c r="G24" s="32"/>
+      <c r="H24" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="I24" s="33"/>
+      <c r="J24" s="33"/>
+      <c r="K24" s="33"/>
+      <c r="L24" s="33"/>
       <c r="M24" s="15"/>
       <c r="N24" s="7"/>
       <c r="O24" s="7"/>
-      <c r="P24" s="23"/>
-      <c r="Q24" s="23"/>
+      <c r="P24" s="33"/>
+      <c r="Q24" s="33"/>
     </row>
     <row r="25" spans="1:17" ht="13.5" customHeight="1">
       <c r="A25" s="6">
-        <v>18</v>
-      </c>
-      <c r="B25" s="22"/>
-      <c r="C25" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="D25" s="25"/>
-      <c r="E25" s="25"/>
-      <c r="F25" s="25"/>
-      <c r="G25" s="26"/>
-      <c r="H25" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="B25" s="21"/>
+      <c r="C25" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="I25" s="23"/>
-      <c r="J25" s="23"/>
-      <c r="K25" s="23"/>
-      <c r="L25" s="23"/>
+      <c r="D25" s="33"/>
+      <c r="E25" s="33"/>
+      <c r="F25" s="33"/>
+      <c r="G25" s="33"/>
+      <c r="H25" s="33" t="s">
+        <v>62</v>
+      </c>
+      <c r="I25" s="33"/>
+      <c r="J25" s="33"/>
+      <c r="K25" s="33"/>
+      <c r="L25" s="33"/>
       <c r="M25" s="15"/>
       <c r="N25" s="7"/>
       <c r="O25" s="7"/>
-      <c r="P25" s="23"/>
-      <c r="Q25" s="23"/>
-    </row>
-    <row r="26" spans="1:17" ht="11.25" customHeight="1">
+      <c r="P25" s="28"/>
+      <c r="Q25" s="29"/>
+    </row>
+    <row r="26" spans="1:17" ht="13.5" customHeight="1">
       <c r="A26" s="6">
-        <v>19</v>
-      </c>
-      <c r="B26" s="40" t="s">
-        <v>48</v>
-      </c>
-      <c r="C26" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="D26" s="25"/>
-      <c r="E26" s="25"/>
-      <c r="F26" s="25"/>
-      <c r="G26" s="26"/>
-      <c r="H26" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="I26" s="23"/>
-      <c r="J26" s="23"/>
-      <c r="K26" s="23"/>
-      <c r="L26" s="23"/>
+        <v>17</v>
+      </c>
+      <c r="B26" s="21"/>
+      <c r="C26" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="D26" s="33"/>
+      <c r="E26" s="33"/>
+      <c r="F26" s="33"/>
+      <c r="G26" s="33"/>
+      <c r="H26" s="33" t="s">
+        <v>58</v>
+      </c>
+      <c r="I26" s="33"/>
+      <c r="J26" s="33"/>
+      <c r="K26" s="33"/>
+      <c r="L26" s="33"/>
       <c r="M26" s="15"/>
       <c r="N26" s="7"/>
       <c r="O26" s="7"/>
-      <c r="P26" s="23"/>
-      <c r="Q26" s="23"/>
-    </row>
-    <row r="27" spans="1:17" ht="11.25" customHeight="1">
+      <c r="P26" s="33"/>
+      <c r="Q26" s="33"/>
+    </row>
+    <row r="27" spans="1:17" ht="13.5" customHeight="1">
       <c r="A27" s="6">
-        <v>20</v>
-      </c>
-      <c r="B27" s="63"/>
-      <c r="C27" s="24" t="s">
-        <v>52</v>
-      </c>
-      <c r="D27" s="25"/>
-      <c r="E27" s="25"/>
-      <c r="F27" s="25"/>
-      <c r="G27" s="26"/>
-      <c r="H27" s="23" t="s">
-        <v>53</v>
-      </c>
-      <c r="I27" s="23"/>
-      <c r="J27" s="23"/>
-      <c r="K27" s="23"/>
-      <c r="L27" s="23"/>
+        <v>18</v>
+      </c>
+      <c r="B27" s="22"/>
+      <c r="C27" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="D27" s="31"/>
+      <c r="E27" s="31"/>
+      <c r="F27" s="31"/>
+      <c r="G27" s="32"/>
+      <c r="H27" s="33" t="s">
+        <v>63</v>
+      </c>
+      <c r="I27" s="33"/>
+      <c r="J27" s="33"/>
+      <c r="K27" s="33"/>
+      <c r="L27" s="33"/>
       <c r="M27" s="15"/>
       <c r="N27" s="7"/>
       <c r="O27" s="7"/>
-      <c r="P27" s="23"/>
-      <c r="Q27" s="23"/>
+      <c r="P27" s="33"/>
+      <c r="Q27" s="33"/>
+    </row>
+    <row r="28" spans="1:17" ht="43.5" customHeight="1">
+      <c r="A28" s="6">
+        <v>19</v>
+      </c>
+      <c r="B28" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="C28" s="34" t="s">
+        <v>59</v>
+      </c>
+      <c r="D28" s="34"/>
+      <c r="E28" s="34"/>
+      <c r="F28" s="34"/>
+      <c r="G28" s="34"/>
+      <c r="H28" s="33" t="s">
+        <v>61</v>
+      </c>
+      <c r="I28" s="33"/>
+      <c r="J28" s="33"/>
+      <c r="K28" s="33"/>
+      <c r="L28" s="33"/>
+      <c r="M28" s="15"/>
+      <c r="N28" s="7"/>
+      <c r="O28" s="7"/>
+      <c r="P28" s="33"/>
+      <c r="Q28" s="33"/>
+    </row>
+    <row r="29" spans="1:17" ht="43.5" customHeight="1">
+      <c r="A29" s="6">
+        <v>20</v>
+      </c>
+      <c r="B29" s="27"/>
+      <c r="C29" s="34" t="s">
+        <v>60</v>
+      </c>
+      <c r="D29" s="34"/>
+      <c r="E29" s="34"/>
+      <c r="F29" s="34"/>
+      <c r="G29" s="34"/>
+      <c r="H29" s="33" t="s">
+        <v>61</v>
+      </c>
+      <c r="I29" s="33"/>
+      <c r="J29" s="33"/>
+      <c r="K29" s="33"/>
+      <c r="L29" s="33"/>
+      <c r="M29" s="15"/>
+      <c r="N29" s="7"/>
+      <c r="O29" s="7"/>
+      <c r="P29" s="33"/>
+      <c r="Q29" s="33"/>
     </row>
   </sheetData>
-  <mergeCells count="65">
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="P22:Q22"/>
+  <mergeCells count="66">
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="H23:L23"/>
+    <mergeCell ref="P23:Q23"/>
     <mergeCell ref="C26:G26"/>
-    <mergeCell ref="H26:L26"/>
-    <mergeCell ref="P26:Q26"/>
-    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="H21:L21"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="H24:L24"/>
+    <mergeCell ref="P24:Q24"/>
+    <mergeCell ref="C8:G13"/>
+    <mergeCell ref="H8:L8"/>
+    <mergeCell ref="H9:L9"/>
+    <mergeCell ref="H10:L10"/>
+    <mergeCell ref="H11:L11"/>
+    <mergeCell ref="H12:L12"/>
+    <mergeCell ref="H5:L5"/>
     <mergeCell ref="H27:L27"/>
     <mergeCell ref="P27:Q27"/>
-    <mergeCell ref="H23:L23"/>
-    <mergeCell ref="P23:Q23"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="H22:L22"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="H25:L25"/>
-    <mergeCell ref="P25:Q25"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="P19:Q19"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="H20:L20"/>
-    <mergeCell ref="P20:Q20"/>
-    <mergeCell ref="C15:G17"/>
-    <mergeCell ref="H15:L15"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="H18:L18"/>
-    <mergeCell ref="P18:Q18"/>
-    <mergeCell ref="H17:L17"/>
-    <mergeCell ref="H16:L16"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:Q4"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:Q3"/>
-    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="H13:L13"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="H19:L19"/>
     <mergeCell ref="H14:L14"/>
-    <mergeCell ref="P14:Q14"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="F1:M1"/>
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="F2:M2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:Q4"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:Q3"/>
+    <mergeCell ref="H15:L15"/>
+    <mergeCell ref="P15:Q15"/>
     <mergeCell ref="P5:Q5"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="C6:G6"/>
@@ -2246,23 +2342,30 @@
     <mergeCell ref="H7:L7"/>
     <mergeCell ref="P7:Q7"/>
     <mergeCell ref="C5:G5"/>
-    <mergeCell ref="H5:L5"/>
-    <mergeCell ref="H24:L24"/>
-    <mergeCell ref="P24:Q24"/>
-    <mergeCell ref="H13:L13"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="C8:G13"/>
-    <mergeCell ref="H8:L8"/>
-    <mergeCell ref="H9:L9"/>
-    <mergeCell ref="H10:L10"/>
-    <mergeCell ref="H11:L11"/>
-    <mergeCell ref="H12:L12"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="H21:L21"/>
     <mergeCell ref="P21:Q21"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="H19:L19"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="H22:L22"/>
+    <mergeCell ref="P22:Q22"/>
+    <mergeCell ref="H16:L16"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="H20:L20"/>
+    <mergeCell ref="P20:Q20"/>
+    <mergeCell ref="H18:L18"/>
+    <mergeCell ref="H17:L17"/>
+    <mergeCell ref="C14:G18"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="P25:Q25"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="H28:L28"/>
+    <mergeCell ref="P28:Q28"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="H29:L29"/>
+    <mergeCell ref="P29:Q29"/>
+    <mergeCell ref="H26:L26"/>
+    <mergeCell ref="P26:Q26"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="H25:L25"/>
+    <mergeCell ref="C27:G27"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.27559055118110237" header="0.35433070866141736" footer="0.15748031496062992"/>

--- a/plan/test/結合テスト/結合テスト仕様書-BP014新商品登録(完了).xlsx
+++ b/plan/test/結合テスト/結合テスト仕様書-BP014新商品登録(完了).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fullness\Desktop\work\java-review\ec-b\plan\test\結合テスト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09B86C14-CDB6-4693-A545-06D5F4481349}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{916F22B9-9FA2-4471-B729-B35C3ED63B5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1006,7 +1006,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1083,124 +1083,121 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -1555,8 +1552,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{776758EE-792E-45DD-A875-220DAC06338B}">
   <dimension ref="A1:Q29"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A15" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27:L27"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A14" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="11.25" customHeight="1"/>
@@ -1572,25 +1569,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="48" t="s">
+      <c r="B1" s="44"/>
+      <c r="C1" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="49"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="51" t="s">
+      <c r="D1" s="47"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="51"/>
-      <c r="H1" s="51"/>
-      <c r="I1" s="51"/>
-      <c r="J1" s="51"/>
-      <c r="K1" s="51"/>
-      <c r="L1" s="51"/>
-      <c r="M1" s="51"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="49"/>
+      <c r="J1" s="49"/>
+      <c r="K1" s="49"/>
+      <c r="L1" s="49"/>
+      <c r="M1" s="49"/>
       <c r="N1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1605,23 +1602,23 @@
       </c>
     </row>
     <row r="2" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A2" s="47"/>
-      <c r="B2" s="47"/>
-      <c r="C2" s="52" t="s">
+      <c r="A2" s="45"/>
+      <c r="B2" s="45"/>
+      <c r="C2" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="53"/>
-      <c r="E2" s="54"/>
-      <c r="F2" s="55" t="s">
+      <c r="D2" s="51"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="53" t="s">
         <v>44</v>
       </c>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="56"/>
-      <c r="J2" s="56"/>
-      <c r="K2" s="56"/>
-      <c r="L2" s="56"/>
-      <c r="M2" s="57"/>
+      <c r="G2" s="54"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="54"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="54"/>
+      <c r="L2" s="54"/>
+      <c r="M2" s="55"/>
       <c r="N2" s="9" t="s">
         <v>1</v>
       </c>
@@ -1634,50 +1631,50 @@
       <c r="Q2" s="12"/>
     </row>
     <row r="3" spans="1:17" ht="143.5" customHeight="1">
-      <c r="A3" s="44" t="s">
+      <c r="A3" s="56" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="45"/>
-      <c r="C3" s="62" t="s">
+      <c r="B3" s="57"/>
+      <c r="C3" s="58" t="s">
         <v>48</v>
       </c>
-      <c r="D3" s="63"/>
-      <c r="E3" s="63"/>
-      <c r="F3" s="63"/>
-      <c r="G3" s="63"/>
-      <c r="H3" s="63"/>
-      <c r="I3" s="63"/>
-      <c r="J3" s="63"/>
-      <c r="K3" s="63"/>
-      <c r="L3" s="63"/>
-      <c r="M3" s="63"/>
-      <c r="N3" s="63"/>
-      <c r="O3" s="63"/>
-      <c r="P3" s="63"/>
-      <c r="Q3" s="64"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="59"/>
+      <c r="G3" s="59"/>
+      <c r="H3" s="59"/>
+      <c r="I3" s="59"/>
+      <c r="J3" s="59"/>
+      <c r="K3" s="59"/>
+      <c r="L3" s="59"/>
+      <c r="M3" s="59"/>
+      <c r="N3" s="59"/>
+      <c r="O3" s="59"/>
+      <c r="P3" s="59"/>
+      <c r="Q3" s="60"/>
     </row>
     <row r="4" spans="1:17" ht="31.5" customHeight="1">
-      <c r="A4" s="44" t="s">
+      <c r="A4" s="56" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="45"/>
-      <c r="C4" s="62" t="s">
+      <c r="B4" s="57"/>
+      <c r="C4" s="58" t="s">
         <v>47</v>
       </c>
-      <c r="D4" s="63"/>
-      <c r="E4" s="63"/>
-      <c r="F4" s="63"/>
-      <c r="G4" s="63"/>
-      <c r="H4" s="63"/>
-      <c r="I4" s="63"/>
-      <c r="J4" s="63"/>
-      <c r="K4" s="63"/>
-      <c r="L4" s="63"/>
-      <c r="M4" s="63"/>
-      <c r="N4" s="63"/>
-      <c r="O4" s="63"/>
-      <c r="P4" s="63"/>
-      <c r="Q4" s="64"/>
+      <c r="D4" s="59"/>
+      <c r="E4" s="59"/>
+      <c r="F4" s="59"/>
+      <c r="G4" s="59"/>
+      <c r="H4" s="59"/>
+      <c r="I4" s="59"/>
+      <c r="J4" s="59"/>
+      <c r="K4" s="59"/>
+      <c r="L4" s="59"/>
+      <c r="M4" s="59"/>
+      <c r="N4" s="59"/>
+      <c r="O4" s="59"/>
+      <c r="P4" s="59"/>
+      <c r="Q4" s="60"/>
     </row>
     <row r="5" spans="1:17" ht="15" customHeight="1">
       <c r="A5" s="14" t="s">
@@ -1686,20 +1683,20 @@
       <c r="B5" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="58" t="s">
+      <c r="C5" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="61"/>
-      <c r="E5" s="61"/>
-      <c r="F5" s="61"/>
-      <c r="G5" s="59"/>
-      <c r="H5" s="58" t="s">
+      <c r="D5" s="41"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="61"/>
+      <c r="H5" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="61"/>
-      <c r="J5" s="61"/>
-      <c r="K5" s="61"/>
-      <c r="L5" s="61"/>
+      <c r="I5" s="41"/>
+      <c r="J5" s="41"/>
+      <c r="K5" s="41"/>
+      <c r="L5" s="41"/>
       <c r="M5" s="14" t="s">
         <v>13</v>
       </c>
@@ -1709,82 +1706,82 @@
       <c r="O5" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="P5" s="58" t="s">
+      <c r="P5" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="Q5" s="59"/>
+      <c r="Q5" s="61"/>
     </row>
     <row r="6" spans="1:17" ht="11">
       <c r="A6" s="6">
         <v>1</v>
       </c>
-      <c r="B6" s="26" t="s">
+      <c r="B6" s="62" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="33" t="s">
+      <c r="C6" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="33"/>
-      <c r="E6" s="33"/>
-      <c r="F6" s="33"/>
-      <c r="G6" s="33"/>
-      <c r="H6" s="33" t="s">
+      <c r="D6" s="29"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="I6" s="33"/>
-      <c r="J6" s="33"/>
-      <c r="K6" s="33"/>
-      <c r="L6" s="33"/>
+      <c r="I6" s="29"/>
+      <c r="J6" s="29"/>
+      <c r="K6" s="29"/>
+      <c r="L6" s="29"/>
       <c r="M6" s="15"/>
       <c r="N6" s="7"/>
       <c r="O6" s="7"/>
-      <c r="P6" s="33"/>
-      <c r="Q6" s="33"/>
+      <c r="P6" s="29"/>
+      <c r="Q6" s="29"/>
     </row>
     <row r="7" spans="1:17" ht="11" customHeight="1">
       <c r="A7" s="6">
         <v>2</v>
       </c>
-      <c r="B7" s="60"/>
-      <c r="C7" s="33" t="s">
+      <c r="B7" s="63"/>
+      <c r="C7" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="33"/>
-      <c r="E7" s="33"/>
-      <c r="F7" s="33"/>
-      <c r="G7" s="33"/>
-      <c r="H7" s="33" t="s">
+      <c r="D7" s="29"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="I7" s="33"/>
-      <c r="J7" s="33"/>
-      <c r="K7" s="33"/>
-      <c r="L7" s="33"/>
+      <c r="I7" s="29"/>
+      <c r="J7" s="29"/>
+      <c r="K7" s="29"/>
+      <c r="L7" s="29"/>
       <c r="M7" s="15"/>
       <c r="N7" s="7"/>
       <c r="O7" s="7"/>
-      <c r="P7" s="33"/>
-      <c r="Q7" s="33"/>
+      <c r="P7" s="29"/>
+      <c r="Q7" s="29"/>
     </row>
     <row r="8" spans="1:17" ht="11" customHeight="1">
       <c r="A8" s="6">
         <v>3</v>
       </c>
       <c r="B8" s="8"/>
-      <c r="C8" s="35" t="s">
+      <c r="C8" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="36"/>
-      <c r="E8" s="36"/>
-      <c r="F8" s="36"/>
-      <c r="G8" s="37"/>
-      <c r="H8" s="30" t="s">
+      <c r="D8" s="32"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="32"/>
+      <c r="G8" s="33"/>
+      <c r="H8" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="I8" s="31"/>
-      <c r="J8" s="31"/>
-      <c r="K8" s="31"/>
-      <c r="L8" s="32"/>
+      <c r="I8" s="27"/>
+      <c r="J8" s="27"/>
+      <c r="K8" s="27"/>
+      <c r="L8" s="28"/>
       <c r="M8" s="15"/>
       <c r="N8" s="7"/>
       <c r="O8" s="7"/>
@@ -1796,18 +1793,18 @@
         <v>4</v>
       </c>
       <c r="B9" s="8"/>
-      <c r="C9" s="38"/>
-      <c r="D9" s="39"/>
-      <c r="E9" s="39"/>
-      <c r="F9" s="39"/>
-      <c r="G9" s="40"/>
-      <c r="H9" s="30" t="s">
+      <c r="C9" s="34"/>
+      <c r="D9" s="35"/>
+      <c r="E9" s="35"/>
+      <c r="F9" s="35"/>
+      <c r="G9" s="36"/>
+      <c r="H9" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="I9" s="31"/>
-      <c r="J9" s="31"/>
-      <c r="K9" s="31"/>
-      <c r="L9" s="32"/>
+      <c r="I9" s="27"/>
+      <c r="J9" s="27"/>
+      <c r="K9" s="27"/>
+      <c r="L9" s="28"/>
       <c r="M9" s="15"/>
       <c r="N9" s="7"/>
       <c r="O9" s="7"/>
@@ -1819,18 +1816,18 @@
         <v>5</v>
       </c>
       <c r="B10" s="8"/>
-      <c r="C10" s="38"/>
-      <c r="D10" s="39"/>
-      <c r="E10" s="39"/>
-      <c r="F10" s="39"/>
-      <c r="G10" s="40"/>
-      <c r="H10" s="30" t="s">
+      <c r="C10" s="34"/>
+      <c r="D10" s="35"/>
+      <c r="E10" s="35"/>
+      <c r="F10" s="35"/>
+      <c r="G10" s="36"/>
+      <c r="H10" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="I10" s="31"/>
-      <c r="J10" s="31"/>
-      <c r="K10" s="31"/>
-      <c r="L10" s="32"/>
+      <c r="I10" s="27"/>
+      <c r="J10" s="27"/>
+      <c r="K10" s="27"/>
+      <c r="L10" s="28"/>
       <c r="M10" s="15"/>
       <c r="N10" s="7"/>
       <c r="O10" s="7"/>
@@ -1842,18 +1839,18 @@
         <v>6</v>
       </c>
       <c r="B11" s="8"/>
-      <c r="C11" s="38"/>
-      <c r="D11" s="39"/>
-      <c r="E11" s="39"/>
-      <c r="F11" s="39"/>
-      <c r="G11" s="40"/>
-      <c r="H11" s="30" t="s">
+      <c r="C11" s="34"/>
+      <c r="D11" s="35"/>
+      <c r="E11" s="35"/>
+      <c r="F11" s="35"/>
+      <c r="G11" s="36"/>
+      <c r="H11" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="I11" s="31"/>
-      <c r="J11" s="31"/>
-      <c r="K11" s="31"/>
-      <c r="L11" s="32"/>
+      <c r="I11" s="27"/>
+      <c r="J11" s="27"/>
+      <c r="K11" s="27"/>
+      <c r="L11" s="28"/>
       <c r="M11" s="15"/>
       <c r="N11" s="7"/>
       <c r="O11" s="7"/>
@@ -1865,18 +1862,18 @@
         <v>7</v>
       </c>
       <c r="B12" s="8"/>
-      <c r="C12" s="38"/>
-      <c r="D12" s="39"/>
-      <c r="E12" s="39"/>
-      <c r="F12" s="39"/>
-      <c r="G12" s="40"/>
-      <c r="H12" s="30" t="s">
+      <c r="C12" s="34"/>
+      <c r="D12" s="35"/>
+      <c r="E12" s="35"/>
+      <c r="F12" s="35"/>
+      <c r="G12" s="36"/>
+      <c r="H12" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="I12" s="31"/>
-      <c r="J12" s="31"/>
-      <c r="K12" s="31"/>
-      <c r="L12" s="32"/>
+      <c r="I12" s="27"/>
+      <c r="J12" s="27"/>
+      <c r="K12" s="27"/>
+      <c r="L12" s="28"/>
       <c r="M12" s="15"/>
       <c r="N12" s="7"/>
       <c r="O12" s="7"/>
@@ -1888,41 +1885,43 @@
         <v>8</v>
       </c>
       <c r="B13" s="8"/>
-      <c r="C13" s="41"/>
-      <c r="D13" s="42"/>
-      <c r="E13" s="42"/>
-      <c r="F13" s="42"/>
-      <c r="G13" s="43"/>
-      <c r="H13" s="30" t="s">
+      <c r="C13" s="37"/>
+      <c r="D13" s="38"/>
+      <c r="E13" s="38"/>
+      <c r="F13" s="38"/>
+      <c r="G13" s="39"/>
+      <c r="H13" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="I13" s="31"/>
-      <c r="J13" s="31"/>
-      <c r="K13" s="31"/>
-      <c r="L13" s="32"/>
+      <c r="I13" s="27"/>
+      <c r="J13" s="27"/>
+      <c r="K13" s="27"/>
+      <c r="L13" s="28"/>
       <c r="M13" s="15"/>
       <c r="N13" s="7"/>
       <c r="O13" s="7"/>
-      <c r="P13" s="28"/>
-      <c r="Q13" s="29"/>
+      <c r="P13" s="42"/>
+      <c r="Q13" s="43"/>
     </row>
     <row r="14" spans="1:17" ht="11" customHeight="1">
-      <c r="A14" s="6"/>
+      <c r="A14" s="6">
+        <v>9</v>
+      </c>
       <c r="B14" s="8"/>
-      <c r="C14" s="35" t="s">
+      <c r="C14" s="31" t="s">
         <v>52</v>
       </c>
-      <c r="D14" s="36"/>
-      <c r="E14" s="36"/>
-      <c r="F14" s="36"/>
-      <c r="G14" s="37"/>
-      <c r="H14" s="30" t="s">
+      <c r="D14" s="32"/>
+      <c r="E14" s="32"/>
+      <c r="F14" s="32"/>
+      <c r="G14" s="33"/>
+      <c r="H14" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="I14" s="31"/>
-      <c r="J14" s="31"/>
-      <c r="K14" s="31"/>
-      <c r="L14" s="32"/>
+      <c r="I14" s="27"/>
+      <c r="J14" s="27"/>
+      <c r="K14" s="27"/>
+      <c r="L14" s="28"/>
       <c r="M14" s="15"/>
       <c r="N14" s="7"/>
       <c r="O14" s="7"/>
@@ -1931,44 +1930,44 @@
     </row>
     <row r="15" spans="1:17" ht="24.5" customHeight="1">
       <c r="A15" s="6">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B15" s="8"/>
-      <c r="C15" s="38"/>
-      <c r="D15" s="65"/>
-      <c r="E15" s="65"/>
-      <c r="F15" s="65"/>
-      <c r="G15" s="40"/>
-      <c r="H15" s="30" t="s">
+      <c r="C15" s="34"/>
+      <c r="D15" s="35"/>
+      <c r="E15" s="35"/>
+      <c r="F15" s="35"/>
+      <c r="G15" s="36"/>
+      <c r="H15" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="I15" s="31"/>
-      <c r="J15" s="31"/>
-      <c r="K15" s="31"/>
-      <c r="L15" s="32"/>
+      <c r="I15" s="27"/>
+      <c r="J15" s="27"/>
+      <c r="K15" s="27"/>
+      <c r="L15" s="28"/>
       <c r="M15" s="15"/>
       <c r="N15" s="7"/>
       <c r="O15" s="7"/>
-      <c r="P15" s="28"/>
-      <c r="Q15" s="29"/>
+      <c r="P15" s="42"/>
+      <c r="Q15" s="43"/>
     </row>
     <row r="16" spans="1:17" ht="11" customHeight="1">
       <c r="A16" s="6">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B16" s="8"/>
-      <c r="C16" s="38"/>
-      <c r="D16" s="65"/>
-      <c r="E16" s="65"/>
-      <c r="F16" s="65"/>
-      <c r="G16" s="40"/>
-      <c r="H16" s="30" t="s">
+      <c r="C16" s="34"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="36"/>
+      <c r="H16" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="I16" s="31"/>
-      <c r="J16" s="31"/>
-      <c r="K16" s="31"/>
-      <c r="L16" s="32"/>
+      <c r="I16" s="27"/>
+      <c r="J16" s="27"/>
+      <c r="K16" s="27"/>
+      <c r="L16" s="28"/>
       <c r="M16" s="15"/>
       <c r="N16" s="7"/>
       <c r="O16" s="7"/>
@@ -1977,21 +1976,21 @@
     </row>
     <row r="17" spans="1:17" ht="11" customHeight="1">
       <c r="A17" s="6">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B17" s="8"/>
-      <c r="C17" s="38"/>
-      <c r="D17" s="65"/>
-      <c r="E17" s="65"/>
-      <c r="F17" s="65"/>
-      <c r="G17" s="40"/>
-      <c r="H17" s="30" t="s">
+      <c r="C17" s="34"/>
+      <c r="D17" s="35"/>
+      <c r="E17" s="35"/>
+      <c r="F17" s="35"/>
+      <c r="G17" s="36"/>
+      <c r="H17" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="I17" s="31"/>
-      <c r="J17" s="31"/>
-      <c r="K17" s="31"/>
-      <c r="L17" s="32"/>
+      <c r="I17" s="27"/>
+      <c r="J17" s="27"/>
+      <c r="K17" s="27"/>
+      <c r="L17" s="28"/>
       <c r="M17" s="15"/>
       <c r="N17" s="7"/>
       <c r="O17" s="7"/>
@@ -2000,21 +1999,21 @@
     </row>
     <row r="18" spans="1:17" ht="11" customHeight="1">
       <c r="A18" s="6">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B18" s="8"/>
-      <c r="C18" s="41"/>
-      <c r="D18" s="42"/>
-      <c r="E18" s="42"/>
-      <c r="F18" s="42"/>
-      <c r="G18" s="43"/>
-      <c r="H18" s="30" t="s">
+      <c r="C18" s="37"/>
+      <c r="D18" s="38"/>
+      <c r="E18" s="38"/>
+      <c r="F18" s="38"/>
+      <c r="G18" s="39"/>
+      <c r="H18" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="I18" s="31"/>
-      <c r="J18" s="31"/>
-      <c r="K18" s="31"/>
-      <c r="L18" s="32"/>
+      <c r="I18" s="27"/>
+      <c r="J18" s="27"/>
+      <c r="K18" s="27"/>
+      <c r="L18" s="28"/>
       <c r="M18" s="15"/>
       <c r="N18" s="7"/>
       <c r="O18" s="7"/>
@@ -2022,7 +2021,9 @@
       <c r="Q18" s="19"/>
     </row>
     <row r="19" spans="1:17" ht="11" customHeight="1">
-      <c r="A19" s="6"/>
+      <c r="A19" s="6">
+        <v>14</v>
+      </c>
       <c r="B19" s="8"/>
       <c r="C19" s="23" t="s">
         <v>50</v>
@@ -2031,13 +2032,13 @@
       <c r="E19" s="24"/>
       <c r="F19" s="24"/>
       <c r="G19" s="25"/>
-      <c r="H19" s="30" t="s">
+      <c r="H19" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="I19" s="31"/>
-      <c r="J19" s="31"/>
-      <c r="K19" s="31"/>
-      <c r="L19" s="32"/>
+      <c r="I19" s="27"/>
+      <c r="J19" s="27"/>
+      <c r="K19" s="27"/>
+      <c r="L19" s="28"/>
       <c r="M19" s="15"/>
       <c r="N19" s="7"/>
       <c r="O19" s="7"/>
@@ -2046,287 +2047,279 @@
     </row>
     <row r="20" spans="1:17" ht="13.5" customHeight="1">
       <c r="A20" s="6">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B20" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="C20" s="30" t="s">
+      <c r="C20" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="D20" s="31"/>
-      <c r="E20" s="31"/>
-      <c r="F20" s="31"/>
-      <c r="G20" s="32"/>
-      <c r="H20" s="33" t="s">
+      <c r="D20" s="27"/>
+      <c r="E20" s="27"/>
+      <c r="F20" s="27"/>
+      <c r="G20" s="28"/>
+      <c r="H20" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="I20" s="33"/>
-      <c r="J20" s="33"/>
-      <c r="K20" s="33"/>
-      <c r="L20" s="33"/>
+      <c r="I20" s="29"/>
+      <c r="J20" s="29"/>
+      <c r="K20" s="29"/>
+      <c r="L20" s="29"/>
       <c r="M20" s="15"/>
       <c r="N20" s="7"/>
       <c r="O20" s="7"/>
-      <c r="P20" s="33"/>
-      <c r="Q20" s="33"/>
+      <c r="P20" s="29"/>
+      <c r="Q20" s="29"/>
     </row>
     <row r="21" spans="1:17" ht="13.5" customHeight="1">
       <c r="A21" s="6">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B21" s="21"/>
-      <c r="C21" s="30" t="s">
+      <c r="C21" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="D21" s="31"/>
-      <c r="E21" s="31"/>
-      <c r="F21" s="31"/>
-      <c r="G21" s="32"/>
-      <c r="H21" s="33" t="s">
+      <c r="D21" s="27"/>
+      <c r="E21" s="27"/>
+      <c r="F21" s="27"/>
+      <c r="G21" s="28"/>
+      <c r="H21" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="I21" s="33"/>
-      <c r="J21" s="33"/>
-      <c r="K21" s="33"/>
-      <c r="L21" s="33"/>
+      <c r="I21" s="29"/>
+      <c r="J21" s="29"/>
+      <c r="K21" s="29"/>
+      <c r="L21" s="29"/>
       <c r="M21" s="15"/>
       <c r="N21" s="7"/>
       <c r="O21" s="7"/>
-      <c r="P21" s="33"/>
-      <c r="Q21" s="33"/>
+      <c r="P21" s="29"/>
+      <c r="Q21" s="29"/>
     </row>
     <row r="22" spans="1:17" ht="13.5" customHeight="1">
       <c r="A22" s="6">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B22" s="21"/>
-      <c r="C22" s="30" t="s">
+      <c r="C22" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="D22" s="31"/>
-      <c r="E22" s="31"/>
-      <c r="F22" s="31"/>
-      <c r="G22" s="32"/>
-      <c r="H22" s="33" t="s">
+      <c r="D22" s="27"/>
+      <c r="E22" s="27"/>
+      <c r="F22" s="27"/>
+      <c r="G22" s="28"/>
+      <c r="H22" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="I22" s="33"/>
-      <c r="J22" s="33"/>
-      <c r="K22" s="33"/>
-      <c r="L22" s="33"/>
+      <c r="I22" s="29"/>
+      <c r="J22" s="29"/>
+      <c r="K22" s="29"/>
+      <c r="L22" s="29"/>
       <c r="M22" s="15"/>
       <c r="N22" s="7"/>
       <c r="O22" s="7"/>
-      <c r="P22" s="33"/>
-      <c r="Q22" s="33"/>
+      <c r="P22" s="29"/>
+      <c r="Q22" s="29"/>
     </row>
     <row r="23" spans="1:17" ht="13.5" customHeight="1">
       <c r="A23" s="6">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B23" s="21"/>
-      <c r="C23" s="30" t="s">
+      <c r="C23" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="D23" s="31"/>
-      <c r="E23" s="31"/>
-      <c r="F23" s="31"/>
-      <c r="G23" s="32"/>
-      <c r="H23" s="33" t="s">
+      <c r="D23" s="27"/>
+      <c r="E23" s="27"/>
+      <c r="F23" s="27"/>
+      <c r="G23" s="28"/>
+      <c r="H23" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="I23" s="33"/>
-      <c r="J23" s="33"/>
-      <c r="K23" s="33"/>
-      <c r="L23" s="33"/>
+      <c r="I23" s="29"/>
+      <c r="J23" s="29"/>
+      <c r="K23" s="29"/>
+      <c r="L23" s="29"/>
       <c r="M23" s="15"/>
       <c r="N23" s="7"/>
       <c r="O23" s="7"/>
-      <c r="P23" s="33"/>
-      <c r="Q23" s="33"/>
+      <c r="P23" s="29"/>
+      <c r="Q23" s="29"/>
     </row>
     <row r="24" spans="1:17" ht="13.5" customHeight="1">
       <c r="A24" s="6">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B24" s="22"/>
-      <c r="C24" s="30" t="s">
+      <c r="C24" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="D24" s="31"/>
-      <c r="E24" s="31"/>
-      <c r="F24" s="31"/>
-      <c r="G24" s="32"/>
-      <c r="H24" s="33" t="s">
+      <c r="D24" s="27"/>
+      <c r="E24" s="27"/>
+      <c r="F24" s="27"/>
+      <c r="G24" s="28"/>
+      <c r="H24" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="I24" s="33"/>
-      <c r="J24" s="33"/>
-      <c r="K24" s="33"/>
-      <c r="L24" s="33"/>
+      <c r="I24" s="29"/>
+      <c r="J24" s="29"/>
+      <c r="K24" s="29"/>
+      <c r="L24" s="29"/>
       <c r="M24" s="15"/>
       <c r="N24" s="7"/>
       <c r="O24" s="7"/>
-      <c r="P24" s="33"/>
-      <c r="Q24" s="33"/>
+      <c r="P24" s="29"/>
+      <c r="Q24" s="29"/>
     </row>
     <row r="25" spans="1:17" ht="13.5" customHeight="1">
       <c r="A25" s="6">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B25" s="21"/>
-      <c r="C25" s="34" t="s">
+      <c r="C25" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="D25" s="33"/>
-      <c r="E25" s="33"/>
-      <c r="F25" s="33"/>
-      <c r="G25" s="33"/>
-      <c r="H25" s="33" t="s">
+      <c r="D25" s="29"/>
+      <c r="E25" s="29"/>
+      <c r="F25" s="29"/>
+      <c r="G25" s="29"/>
+      <c r="H25" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="I25" s="33"/>
-      <c r="J25" s="33"/>
-      <c r="K25" s="33"/>
-      <c r="L25" s="33"/>
+      <c r="I25" s="29"/>
+      <c r="J25" s="29"/>
+      <c r="K25" s="29"/>
+      <c r="L25" s="29"/>
       <c r="M25" s="15"/>
       <c r="N25" s="7"/>
       <c r="O25" s="7"/>
-      <c r="P25" s="28"/>
-      <c r="Q25" s="29"/>
+      <c r="P25" s="42"/>
+      <c r="Q25" s="43"/>
     </row>
     <row r="26" spans="1:17" ht="13.5" customHeight="1">
       <c r="A26" s="6">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B26" s="21"/>
-      <c r="C26" s="34" t="s">
+      <c r="C26" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="D26" s="33"/>
-      <c r="E26" s="33"/>
-      <c r="F26" s="33"/>
-      <c r="G26" s="33"/>
-      <c r="H26" s="33" t="s">
+      <c r="D26" s="29"/>
+      <c r="E26" s="29"/>
+      <c r="F26" s="29"/>
+      <c r="G26" s="29"/>
+      <c r="H26" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="I26" s="33"/>
-      <c r="J26" s="33"/>
-      <c r="K26" s="33"/>
-      <c r="L26" s="33"/>
+      <c r="I26" s="29"/>
+      <c r="J26" s="29"/>
+      <c r="K26" s="29"/>
+      <c r="L26" s="29"/>
       <c r="M26" s="15"/>
       <c r="N26" s="7"/>
       <c r="O26" s="7"/>
-      <c r="P26" s="33"/>
-      <c r="Q26" s="33"/>
+      <c r="P26" s="29"/>
+      <c r="Q26" s="29"/>
     </row>
     <row r="27" spans="1:17" ht="13.5" customHeight="1">
       <c r="A27" s="6">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B27" s="22"/>
-      <c r="C27" s="30" t="s">
+      <c r="C27" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="D27" s="31"/>
-      <c r="E27" s="31"/>
-      <c r="F27" s="31"/>
-      <c r="G27" s="32"/>
-      <c r="H27" s="33" t="s">
+      <c r="D27" s="27"/>
+      <c r="E27" s="27"/>
+      <c r="F27" s="27"/>
+      <c r="G27" s="28"/>
+      <c r="H27" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="I27" s="33"/>
-      <c r="J27" s="33"/>
-      <c r="K27" s="33"/>
-      <c r="L27" s="33"/>
+      <c r="I27" s="29"/>
+      <c r="J27" s="29"/>
+      <c r="K27" s="29"/>
+      <c r="L27" s="29"/>
       <c r="M27" s="15"/>
       <c r="N27" s="7"/>
       <c r="O27" s="7"/>
-      <c r="P27" s="33"/>
-      <c r="Q27" s="33"/>
+      <c r="P27" s="29"/>
+      <c r="Q27" s="29"/>
     </row>
     <row r="28" spans="1:17" ht="43.5" customHeight="1">
       <c r="A28" s="6">
-        <v>19</v>
-      </c>
-      <c r="B28" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="B28" s="62" t="s">
         <v>42</v>
       </c>
-      <c r="C28" s="34" t="s">
+      <c r="C28" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="D28" s="34"/>
-      <c r="E28" s="34"/>
-      <c r="F28" s="34"/>
-      <c r="G28" s="34"/>
-      <c r="H28" s="33" t="s">
+      <c r="D28" s="30"/>
+      <c r="E28" s="30"/>
+      <c r="F28" s="30"/>
+      <c r="G28" s="30"/>
+      <c r="H28" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="I28" s="33"/>
-      <c r="J28" s="33"/>
-      <c r="K28" s="33"/>
-      <c r="L28" s="33"/>
+      <c r="I28" s="29"/>
+      <c r="J28" s="29"/>
+      <c r="K28" s="29"/>
+      <c r="L28" s="29"/>
       <c r="M28" s="15"/>
       <c r="N28" s="7"/>
       <c r="O28" s="7"/>
-      <c r="P28" s="33"/>
-      <c r="Q28" s="33"/>
+      <c r="P28" s="29"/>
+      <c r="Q28" s="29"/>
     </row>
     <row r="29" spans="1:17" ht="43.5" customHeight="1">
       <c r="A29" s="6">
-        <v>20</v>
-      </c>
-      <c r="B29" s="27"/>
-      <c r="C29" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" s="64"/>
+      <c r="C29" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="D29" s="34"/>
-      <c r="E29" s="34"/>
-      <c r="F29" s="34"/>
-      <c r="G29" s="34"/>
-      <c r="H29" s="33" t="s">
+      <c r="D29" s="30"/>
+      <c r="E29" s="30"/>
+      <c r="F29" s="30"/>
+      <c r="G29" s="30"/>
+      <c r="H29" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="I29" s="33"/>
-      <c r="J29" s="33"/>
-      <c r="K29" s="33"/>
-      <c r="L29" s="33"/>
+      <c r="I29" s="29"/>
+      <c r="J29" s="29"/>
+      <c r="K29" s="29"/>
+      <c r="L29" s="29"/>
       <c r="M29" s="15"/>
       <c r="N29" s="7"/>
       <c r="O29" s="7"/>
-      <c r="P29" s="33"/>
-      <c r="Q29" s="33"/>
+      <c r="P29" s="29"/>
+      <c r="Q29" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="66">
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="H23:L23"/>
-    <mergeCell ref="P23:Q23"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="H21:L21"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="H24:L24"/>
-    <mergeCell ref="P24:Q24"/>
-    <mergeCell ref="C8:G13"/>
-    <mergeCell ref="H8:L8"/>
-    <mergeCell ref="H9:L9"/>
-    <mergeCell ref="H10:L10"/>
-    <mergeCell ref="H11:L11"/>
-    <mergeCell ref="H12:L12"/>
-    <mergeCell ref="H5:L5"/>
-    <mergeCell ref="H27:L27"/>
-    <mergeCell ref="P27:Q27"/>
-    <mergeCell ref="H13:L13"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="H19:L19"/>
-    <mergeCell ref="H14:L14"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:M1"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:M2"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="P25:Q25"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="H28:L28"/>
+    <mergeCell ref="P28:Q28"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="H29:L29"/>
+    <mergeCell ref="P29:Q29"/>
+    <mergeCell ref="H26:L26"/>
+    <mergeCell ref="P26:Q26"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="H25:L25"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="H20:L20"/>
+    <mergeCell ref="P20:Q20"/>
+    <mergeCell ref="H18:L18"/>
+    <mergeCell ref="H17:L17"/>
+    <mergeCell ref="C14:G18"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="C4:Q4"/>
     <mergeCell ref="A3:B3"/>
@@ -2342,30 +2335,38 @@
     <mergeCell ref="H7:L7"/>
     <mergeCell ref="P7:Q7"/>
     <mergeCell ref="C5:G5"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:M1"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:M2"/>
+    <mergeCell ref="H5:L5"/>
+    <mergeCell ref="H27:L27"/>
+    <mergeCell ref="P27:Q27"/>
+    <mergeCell ref="H13:L13"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="H19:L19"/>
+    <mergeCell ref="H14:L14"/>
     <mergeCell ref="P21:Q21"/>
-    <mergeCell ref="C22:G22"/>
     <mergeCell ref="H22:L22"/>
     <mergeCell ref="P22:Q22"/>
     <mergeCell ref="H16:L16"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="H20:L20"/>
-    <mergeCell ref="P20:Q20"/>
-    <mergeCell ref="H18:L18"/>
-    <mergeCell ref="H17:L17"/>
-    <mergeCell ref="C14:G18"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="P25:Q25"/>
-    <mergeCell ref="C28:G28"/>
-    <mergeCell ref="H28:L28"/>
-    <mergeCell ref="P28:Q28"/>
-    <mergeCell ref="C29:G29"/>
-    <mergeCell ref="H29:L29"/>
-    <mergeCell ref="P29:Q29"/>
-    <mergeCell ref="H26:L26"/>
-    <mergeCell ref="P26:Q26"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="H25:L25"/>
-    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="C8:G13"/>
+    <mergeCell ref="H8:L8"/>
+    <mergeCell ref="H9:L9"/>
+    <mergeCell ref="H10:L10"/>
+    <mergeCell ref="H11:L11"/>
+    <mergeCell ref="H12:L12"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="H23:L23"/>
+    <mergeCell ref="P23:Q23"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="H21:L21"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="H24:L24"/>
+    <mergeCell ref="P24:Q24"/>
+    <mergeCell ref="C22:G22"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.27559055118110237" header="0.35433070866141736" footer="0.15748031496062992"/>

--- a/plan/test/結合テスト/結合テスト仕様書-BP014新商品登録(完了).xlsx
+++ b/plan/test/結合テスト/結合テスト仕様書-BP014新商品登録(完了).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fullness\Desktop\work\java-review\ec-b\plan\test\結合テスト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{916F22B9-9FA2-4471-B729-B35C3ED63B5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65FA7BBE-9CC1-4862-AB60-B735D644BFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9510" yWindow="0" windowWidth="9780" windowHeight="10170" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="商品削除（確認）" sheetId="177" r:id="rId1"/>
@@ -1083,6 +1083,24 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1092,12 +1110,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1125,18 +1137,33 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1172,33 +1199,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1552,8 +1552,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{776758EE-792E-45DD-A875-220DAC06338B}">
   <dimension ref="A1:Q29"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A14" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:A29"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C21" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28:L28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="11.25" customHeight="1"/>
@@ -1569,25 +1569,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="46" t="s">
+      <c r="B1" s="53"/>
+      <c r="C1" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="47"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="49" t="s">
+      <c r="D1" s="56"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="49"/>
-      <c r="J1" s="49"/>
-      <c r="K1" s="49"/>
-      <c r="L1" s="49"/>
-      <c r="M1" s="49"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="58"/>
+      <c r="K1" s="58"/>
+      <c r="L1" s="58"/>
+      <c r="M1" s="58"/>
       <c r="N1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1602,23 +1602,23 @@
       </c>
     </row>
     <row r="2" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A2" s="45"/>
-      <c r="B2" s="45"/>
-      <c r="C2" s="50" t="s">
+      <c r="A2" s="54"/>
+      <c r="B2" s="54"/>
+      <c r="C2" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="51"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="53" t="s">
+      <c r="D2" s="60"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="62" t="s">
         <v>44</v>
       </c>
-      <c r="G2" s="54"/>
-      <c r="H2" s="54"/>
-      <c r="I2" s="54"/>
-      <c r="J2" s="54"/>
-      <c r="K2" s="54"/>
-      <c r="L2" s="54"/>
-      <c r="M2" s="55"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="63"/>
+      <c r="I2" s="63"/>
+      <c r="J2" s="63"/>
+      <c r="K2" s="63"/>
+      <c r="L2" s="63"/>
+      <c r="M2" s="64"/>
       <c r="N2" s="9" t="s">
         <v>1</v>
       </c>
@@ -1631,50 +1631,50 @@
       <c r="Q2" s="12"/>
     </row>
     <row r="3" spans="1:17" ht="143.5" customHeight="1">
-      <c r="A3" s="56" t="s">
+      <c r="A3" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="57"/>
-      <c r="C3" s="58" t="s">
+      <c r="B3" s="45"/>
+      <c r="C3" s="46" t="s">
         <v>48</v>
       </c>
-      <c r="D3" s="59"/>
-      <c r="E3" s="59"/>
-      <c r="F3" s="59"/>
-      <c r="G3" s="59"/>
-      <c r="H3" s="59"/>
-      <c r="I3" s="59"/>
-      <c r="J3" s="59"/>
-      <c r="K3" s="59"/>
-      <c r="L3" s="59"/>
-      <c r="M3" s="59"/>
-      <c r="N3" s="59"/>
-      <c r="O3" s="59"/>
-      <c r="P3" s="59"/>
-      <c r="Q3" s="60"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="47"/>
+      <c r="J3" s="47"/>
+      <c r="K3" s="47"/>
+      <c r="L3" s="47"/>
+      <c r="M3" s="47"/>
+      <c r="N3" s="47"/>
+      <c r="O3" s="47"/>
+      <c r="P3" s="47"/>
+      <c r="Q3" s="48"/>
     </row>
     <row r="4" spans="1:17" ht="31.5" customHeight="1">
-      <c r="A4" s="56" t="s">
+      <c r="A4" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="57"/>
-      <c r="C4" s="58" t="s">
+      <c r="B4" s="45"/>
+      <c r="C4" s="46" t="s">
         <v>47</v>
       </c>
-      <c r="D4" s="59"/>
-      <c r="E4" s="59"/>
-      <c r="F4" s="59"/>
-      <c r="G4" s="59"/>
-      <c r="H4" s="59"/>
-      <c r="I4" s="59"/>
-      <c r="J4" s="59"/>
-      <c r="K4" s="59"/>
-      <c r="L4" s="59"/>
-      <c r="M4" s="59"/>
-      <c r="N4" s="59"/>
-      <c r="O4" s="59"/>
-      <c r="P4" s="59"/>
-      <c r="Q4" s="60"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="47"/>
+      <c r="I4" s="47"/>
+      <c r="J4" s="47"/>
+      <c r="K4" s="47"/>
+      <c r="L4" s="47"/>
+      <c r="M4" s="47"/>
+      <c r="N4" s="47"/>
+      <c r="O4" s="47"/>
+      <c r="P4" s="47"/>
+      <c r="Q4" s="48"/>
     </row>
     <row r="5" spans="1:17" ht="15" customHeight="1">
       <c r="A5" s="14" t="s">
@@ -1683,20 +1683,20 @@
       <c r="B5" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="40" t="s">
+      <c r="C5" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="41"/>
-      <c r="E5" s="41"/>
-      <c r="F5" s="41"/>
-      <c r="G5" s="61"/>
-      <c r="H5" s="40" t="s">
+      <c r="D5" s="52"/>
+      <c r="E5" s="52"/>
+      <c r="F5" s="52"/>
+      <c r="G5" s="50"/>
+      <c r="H5" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="41"/>
-      <c r="J5" s="41"/>
-      <c r="K5" s="41"/>
-      <c r="L5" s="41"/>
+      <c r="I5" s="52"/>
+      <c r="J5" s="52"/>
+      <c r="K5" s="52"/>
+      <c r="L5" s="52"/>
       <c r="M5" s="14" t="s">
         <v>13</v>
       </c>
@@ -1706,82 +1706,82 @@
       <c r="O5" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="P5" s="40" t="s">
+      <c r="P5" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="Q5" s="61"/>
+      <c r="Q5" s="50"/>
     </row>
     <row r="6" spans="1:17" ht="11">
       <c r="A6" s="6">
         <v>1</v>
       </c>
-      <c r="B6" s="62" t="s">
+      <c r="B6" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="29" t="s">
+      <c r="C6" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="29"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="29"/>
-      <c r="H6" s="29" t="s">
+      <c r="D6" s="31"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="31"/>
+      <c r="G6" s="31"/>
+      <c r="H6" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="I6" s="29"/>
-      <c r="J6" s="29"/>
-      <c r="K6" s="29"/>
-      <c r="L6" s="29"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="31"/>
+      <c r="L6" s="31"/>
       <c r="M6" s="15"/>
       <c r="N6" s="7"/>
       <c r="O6" s="7"/>
-      <c r="P6" s="29"/>
-      <c r="Q6" s="29"/>
+      <c r="P6" s="31"/>
+      <c r="Q6" s="31"/>
     </row>
     <row r="7" spans="1:17" ht="11" customHeight="1">
       <c r="A7" s="6">
         <v>2</v>
       </c>
-      <c r="B7" s="63"/>
-      <c r="C7" s="29" t="s">
+      <c r="B7" s="51"/>
+      <c r="C7" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="29"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="29"/>
-      <c r="H7" s="29" t="s">
+      <c r="D7" s="31"/>
+      <c r="E7" s="31"/>
+      <c r="F7" s="31"/>
+      <c r="G7" s="31"/>
+      <c r="H7" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="I7" s="29"/>
-      <c r="J7" s="29"/>
-      <c r="K7" s="29"/>
-      <c r="L7" s="29"/>
+      <c r="I7" s="31"/>
+      <c r="J7" s="31"/>
+      <c r="K7" s="31"/>
+      <c r="L7" s="31"/>
       <c r="M7" s="15"/>
       <c r="N7" s="7"/>
       <c r="O7" s="7"/>
-      <c r="P7" s="29"/>
-      <c r="Q7" s="29"/>
+      <c r="P7" s="31"/>
+      <c r="Q7" s="31"/>
     </row>
     <row r="8" spans="1:17" ht="11" customHeight="1">
       <c r="A8" s="6">
         <v>3</v>
       </c>
       <c r="B8" s="8"/>
-      <c r="C8" s="31" t="s">
+      <c r="C8" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="32"/>
-      <c r="E8" s="32"/>
-      <c r="F8" s="32"/>
-      <c r="G8" s="33"/>
-      <c r="H8" s="26" t="s">
+      <c r="D8" s="36"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="36"/>
+      <c r="G8" s="37"/>
+      <c r="H8" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="I8" s="27"/>
-      <c r="J8" s="27"/>
-      <c r="K8" s="27"/>
-      <c r="L8" s="28"/>
+      <c r="I8" s="33"/>
+      <c r="J8" s="33"/>
+      <c r="K8" s="33"/>
+      <c r="L8" s="34"/>
       <c r="M8" s="15"/>
       <c r="N8" s="7"/>
       <c r="O8" s="7"/>
@@ -1793,18 +1793,18 @@
         <v>4</v>
       </c>
       <c r="B9" s="8"/>
-      <c r="C9" s="34"/>
-      <c r="D9" s="35"/>
-      <c r="E9" s="35"/>
-      <c r="F9" s="35"/>
-      <c r="G9" s="36"/>
-      <c r="H9" s="26" t="s">
+      <c r="C9" s="38"/>
+      <c r="D9" s="39"/>
+      <c r="E9" s="39"/>
+      <c r="F9" s="39"/>
+      <c r="G9" s="40"/>
+      <c r="H9" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="I9" s="27"/>
-      <c r="J9" s="27"/>
-      <c r="K9" s="27"/>
-      <c r="L9" s="28"/>
+      <c r="I9" s="33"/>
+      <c r="J9" s="33"/>
+      <c r="K9" s="33"/>
+      <c r="L9" s="34"/>
       <c r="M9" s="15"/>
       <c r="N9" s="7"/>
       <c r="O9" s="7"/>
@@ -1816,18 +1816,18 @@
         <v>5</v>
       </c>
       <c r="B10" s="8"/>
-      <c r="C10" s="34"/>
-      <c r="D10" s="35"/>
-      <c r="E10" s="35"/>
-      <c r="F10" s="35"/>
-      <c r="G10" s="36"/>
-      <c r="H10" s="26" t="s">
+      <c r="C10" s="38"/>
+      <c r="D10" s="39"/>
+      <c r="E10" s="39"/>
+      <c r="F10" s="39"/>
+      <c r="G10" s="40"/>
+      <c r="H10" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="I10" s="27"/>
-      <c r="J10" s="27"/>
-      <c r="K10" s="27"/>
-      <c r="L10" s="28"/>
+      <c r="I10" s="33"/>
+      <c r="J10" s="33"/>
+      <c r="K10" s="33"/>
+      <c r="L10" s="34"/>
       <c r="M10" s="15"/>
       <c r="N10" s="7"/>
       <c r="O10" s="7"/>
@@ -1839,18 +1839,18 @@
         <v>6</v>
       </c>
       <c r="B11" s="8"/>
-      <c r="C11" s="34"/>
-      <c r="D11" s="35"/>
-      <c r="E11" s="35"/>
-      <c r="F11" s="35"/>
-      <c r="G11" s="36"/>
-      <c r="H11" s="26" t="s">
+      <c r="C11" s="38"/>
+      <c r="D11" s="39"/>
+      <c r="E11" s="39"/>
+      <c r="F11" s="39"/>
+      <c r="G11" s="40"/>
+      <c r="H11" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="I11" s="27"/>
-      <c r="J11" s="27"/>
-      <c r="K11" s="27"/>
-      <c r="L11" s="28"/>
+      <c r="I11" s="33"/>
+      <c r="J11" s="33"/>
+      <c r="K11" s="33"/>
+      <c r="L11" s="34"/>
       <c r="M11" s="15"/>
       <c r="N11" s="7"/>
       <c r="O11" s="7"/>
@@ -1862,18 +1862,18 @@
         <v>7</v>
       </c>
       <c r="B12" s="8"/>
-      <c r="C12" s="34"/>
-      <c r="D12" s="35"/>
-      <c r="E12" s="35"/>
-      <c r="F12" s="35"/>
-      <c r="G12" s="36"/>
-      <c r="H12" s="26" t="s">
+      <c r="C12" s="38"/>
+      <c r="D12" s="39"/>
+      <c r="E12" s="39"/>
+      <c r="F12" s="39"/>
+      <c r="G12" s="40"/>
+      <c r="H12" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="I12" s="27"/>
-      <c r="J12" s="27"/>
-      <c r="K12" s="27"/>
-      <c r="L12" s="28"/>
+      <c r="I12" s="33"/>
+      <c r="J12" s="33"/>
+      <c r="K12" s="33"/>
+      <c r="L12" s="34"/>
       <c r="M12" s="15"/>
       <c r="N12" s="7"/>
       <c r="O12" s="7"/>
@@ -1885,43 +1885,43 @@
         <v>8</v>
       </c>
       <c r="B13" s="8"/>
-      <c r="C13" s="37"/>
-      <c r="D13" s="38"/>
-      <c r="E13" s="38"/>
-      <c r="F13" s="38"/>
-      <c r="G13" s="39"/>
-      <c r="H13" s="26" t="s">
+      <c r="C13" s="41"/>
+      <c r="D13" s="42"/>
+      <c r="E13" s="42"/>
+      <c r="F13" s="42"/>
+      <c r="G13" s="43"/>
+      <c r="H13" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="I13" s="27"/>
-      <c r="J13" s="27"/>
-      <c r="K13" s="27"/>
-      <c r="L13" s="28"/>
+      <c r="I13" s="33"/>
+      <c r="J13" s="33"/>
+      <c r="K13" s="33"/>
+      <c r="L13" s="34"/>
       <c r="M13" s="15"/>
       <c r="N13" s="7"/>
       <c r="O13" s="7"/>
-      <c r="P13" s="42"/>
-      <c r="Q13" s="43"/>
+      <c r="P13" s="28"/>
+      <c r="Q13" s="29"/>
     </row>
     <row r="14" spans="1:17" ht="11" customHeight="1">
       <c r="A14" s="6">
         <v>9</v>
       </c>
       <c r="B14" s="8"/>
-      <c r="C14" s="31" t="s">
+      <c r="C14" s="35" t="s">
         <v>52</v>
       </c>
-      <c r="D14" s="32"/>
-      <c r="E14" s="32"/>
-      <c r="F14" s="32"/>
-      <c r="G14" s="33"/>
-      <c r="H14" s="26" t="s">
+      <c r="D14" s="36"/>
+      <c r="E14" s="36"/>
+      <c r="F14" s="36"/>
+      <c r="G14" s="37"/>
+      <c r="H14" s="32" t="s">
         <v>53</v>
       </c>
-      <c r="I14" s="27"/>
-      <c r="J14" s="27"/>
-      <c r="K14" s="27"/>
-      <c r="L14" s="28"/>
+      <c r="I14" s="33"/>
+      <c r="J14" s="33"/>
+      <c r="K14" s="33"/>
+      <c r="L14" s="34"/>
       <c r="M14" s="15"/>
       <c r="N14" s="7"/>
       <c r="O14" s="7"/>
@@ -1933,41 +1933,41 @@
         <v>10</v>
       </c>
       <c r="B15" s="8"/>
-      <c r="C15" s="34"/>
-      <c r="D15" s="35"/>
-      <c r="E15" s="35"/>
-      <c r="F15" s="35"/>
-      <c r="G15" s="36"/>
-      <c r="H15" s="26" t="s">
+      <c r="C15" s="38"/>
+      <c r="D15" s="39"/>
+      <c r="E15" s="39"/>
+      <c r="F15" s="39"/>
+      <c r="G15" s="40"/>
+      <c r="H15" s="32" t="s">
         <v>54</v>
       </c>
-      <c r="I15" s="27"/>
-      <c r="J15" s="27"/>
-      <c r="K15" s="27"/>
-      <c r="L15" s="28"/>
+      <c r="I15" s="33"/>
+      <c r="J15" s="33"/>
+      <c r="K15" s="33"/>
+      <c r="L15" s="34"/>
       <c r="M15" s="15"/>
       <c r="N15" s="7"/>
       <c r="O15" s="7"/>
-      <c r="P15" s="42"/>
-      <c r="Q15" s="43"/>
+      <c r="P15" s="28"/>
+      <c r="Q15" s="29"/>
     </row>
     <row r="16" spans="1:17" ht="11" customHeight="1">
       <c r="A16" s="6">
         <v>11</v>
       </c>
       <c r="B16" s="8"/>
-      <c r="C16" s="34"/>
-      <c r="D16" s="35"/>
-      <c r="E16" s="35"/>
-      <c r="F16" s="35"/>
-      <c r="G16" s="36"/>
-      <c r="H16" s="26" t="s">
+      <c r="C16" s="38"/>
+      <c r="D16" s="39"/>
+      <c r="E16" s="39"/>
+      <c r="F16" s="39"/>
+      <c r="G16" s="40"/>
+      <c r="H16" s="32" t="s">
         <v>55</v>
       </c>
-      <c r="I16" s="27"/>
-      <c r="J16" s="27"/>
-      <c r="K16" s="27"/>
-      <c r="L16" s="28"/>
+      <c r="I16" s="33"/>
+      <c r="J16" s="33"/>
+      <c r="K16" s="33"/>
+      <c r="L16" s="34"/>
       <c r="M16" s="15"/>
       <c r="N16" s="7"/>
       <c r="O16" s="7"/>
@@ -1979,18 +1979,18 @@
         <v>12</v>
       </c>
       <c r="B17" s="8"/>
-      <c r="C17" s="34"/>
-      <c r="D17" s="35"/>
-      <c r="E17" s="35"/>
-      <c r="F17" s="35"/>
-      <c r="G17" s="36"/>
-      <c r="H17" s="26" t="s">
+      <c r="C17" s="38"/>
+      <c r="D17" s="39"/>
+      <c r="E17" s="39"/>
+      <c r="F17" s="39"/>
+      <c r="G17" s="40"/>
+      <c r="H17" s="32" t="s">
         <v>56</v>
       </c>
-      <c r="I17" s="27"/>
-      <c r="J17" s="27"/>
-      <c r="K17" s="27"/>
-      <c r="L17" s="28"/>
+      <c r="I17" s="33"/>
+      <c r="J17" s="33"/>
+      <c r="K17" s="33"/>
+      <c r="L17" s="34"/>
       <c r="M17" s="15"/>
       <c r="N17" s="7"/>
       <c r="O17" s="7"/>
@@ -2002,18 +2002,18 @@
         <v>13</v>
       </c>
       <c r="B18" s="8"/>
-      <c r="C18" s="37"/>
-      <c r="D18" s="38"/>
-      <c r="E18" s="38"/>
-      <c r="F18" s="38"/>
-      <c r="G18" s="39"/>
-      <c r="H18" s="26" t="s">
+      <c r="C18" s="41"/>
+      <c r="D18" s="42"/>
+      <c r="E18" s="42"/>
+      <c r="F18" s="42"/>
+      <c r="G18" s="43"/>
+      <c r="H18" s="32" t="s">
         <v>57</v>
       </c>
-      <c r="I18" s="27"/>
-      <c r="J18" s="27"/>
-      <c r="K18" s="27"/>
-      <c r="L18" s="28"/>
+      <c r="I18" s="33"/>
+      <c r="J18" s="33"/>
+      <c r="K18" s="33"/>
+      <c r="L18" s="34"/>
       <c r="M18" s="15"/>
       <c r="N18" s="7"/>
       <c r="O18" s="7"/>
@@ -2032,13 +2032,13 @@
       <c r="E19" s="24"/>
       <c r="F19" s="24"/>
       <c r="G19" s="25"/>
-      <c r="H19" s="26" t="s">
+      <c r="H19" s="32" t="s">
         <v>51</v>
       </c>
-      <c r="I19" s="27"/>
-      <c r="J19" s="27"/>
-      <c r="K19" s="27"/>
-      <c r="L19" s="28"/>
+      <c r="I19" s="33"/>
+      <c r="J19" s="33"/>
+      <c r="K19" s="33"/>
+      <c r="L19" s="34"/>
       <c r="M19" s="15"/>
       <c r="N19" s="7"/>
       <c r="O19" s="7"/>
@@ -2052,125 +2052,125 @@
       <c r="B20" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="C20" s="26" t="s">
+      <c r="C20" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="D20" s="27"/>
-      <c r="E20" s="27"/>
-      <c r="F20" s="27"/>
-      <c r="G20" s="28"/>
-      <c r="H20" s="29" t="s">
+      <c r="D20" s="33"/>
+      <c r="E20" s="33"/>
+      <c r="F20" s="33"/>
+      <c r="G20" s="34"/>
+      <c r="H20" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="I20" s="29"/>
-      <c r="J20" s="29"/>
-      <c r="K20" s="29"/>
-      <c r="L20" s="29"/>
+      <c r="I20" s="31"/>
+      <c r="J20" s="31"/>
+      <c r="K20" s="31"/>
+      <c r="L20" s="31"/>
       <c r="M20" s="15"/>
       <c r="N20" s="7"/>
       <c r="O20" s="7"/>
-      <c r="P20" s="29"/>
-      <c r="Q20" s="29"/>
+      <c r="P20" s="31"/>
+      <c r="Q20" s="31"/>
     </row>
     <row r="21" spans="1:17" ht="13.5" customHeight="1">
       <c r="A21" s="6">
         <v>16</v>
       </c>
       <c r="B21" s="21"/>
-      <c r="C21" s="26" t="s">
+      <c r="C21" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="D21" s="27"/>
-      <c r="E21" s="27"/>
-      <c r="F21" s="27"/>
-      <c r="G21" s="28"/>
-      <c r="H21" s="29" t="s">
+      <c r="D21" s="33"/>
+      <c r="E21" s="33"/>
+      <c r="F21" s="33"/>
+      <c r="G21" s="34"/>
+      <c r="H21" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="I21" s="29"/>
-      <c r="J21" s="29"/>
-      <c r="K21" s="29"/>
-      <c r="L21" s="29"/>
+      <c r="I21" s="31"/>
+      <c r="J21" s="31"/>
+      <c r="K21" s="31"/>
+      <c r="L21" s="31"/>
       <c r="M21" s="15"/>
       <c r="N21" s="7"/>
       <c r="O21" s="7"/>
-      <c r="P21" s="29"/>
-      <c r="Q21" s="29"/>
+      <c r="P21" s="31"/>
+      <c r="Q21" s="31"/>
     </row>
     <row r="22" spans="1:17" ht="13.5" customHeight="1">
       <c r="A22" s="6">
         <v>17</v>
       </c>
       <c r="B22" s="21"/>
-      <c r="C22" s="26" t="s">
+      <c r="C22" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="D22" s="27"/>
-      <c r="E22" s="27"/>
-      <c r="F22" s="27"/>
-      <c r="G22" s="28"/>
-      <c r="H22" s="29" t="s">
+      <c r="D22" s="33"/>
+      <c r="E22" s="33"/>
+      <c r="F22" s="33"/>
+      <c r="G22" s="34"/>
+      <c r="H22" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="I22" s="29"/>
-      <c r="J22" s="29"/>
-      <c r="K22" s="29"/>
-      <c r="L22" s="29"/>
+      <c r="I22" s="31"/>
+      <c r="J22" s="31"/>
+      <c r="K22" s="31"/>
+      <c r="L22" s="31"/>
       <c r="M22" s="15"/>
       <c r="N22" s="7"/>
       <c r="O22" s="7"/>
-      <c r="P22" s="29"/>
-      <c r="Q22" s="29"/>
+      <c r="P22" s="31"/>
+      <c r="Q22" s="31"/>
     </row>
     <row r="23" spans="1:17" ht="13.5" customHeight="1">
       <c r="A23" s="6">
         <v>18</v>
       </c>
       <c r="B23" s="21"/>
-      <c r="C23" s="26" t="s">
+      <c r="C23" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="D23" s="27"/>
-      <c r="E23" s="27"/>
-      <c r="F23" s="27"/>
-      <c r="G23" s="28"/>
-      <c r="H23" s="29" t="s">
+      <c r="D23" s="33"/>
+      <c r="E23" s="33"/>
+      <c r="F23" s="33"/>
+      <c r="G23" s="34"/>
+      <c r="H23" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="I23" s="29"/>
-      <c r="J23" s="29"/>
-      <c r="K23" s="29"/>
-      <c r="L23" s="29"/>
+      <c r="I23" s="31"/>
+      <c r="J23" s="31"/>
+      <c r="K23" s="31"/>
+      <c r="L23" s="31"/>
       <c r="M23" s="15"/>
       <c r="N23" s="7"/>
       <c r="O23" s="7"/>
-      <c r="P23" s="29"/>
-      <c r="Q23" s="29"/>
+      <c r="P23" s="31"/>
+      <c r="Q23" s="31"/>
     </row>
     <row r="24" spans="1:17" ht="13.5" customHeight="1">
       <c r="A24" s="6">
         <v>19</v>
       </c>
       <c r="B24" s="22"/>
-      <c r="C24" s="26" t="s">
+      <c r="C24" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="D24" s="27"/>
-      <c r="E24" s="27"/>
-      <c r="F24" s="27"/>
-      <c r="G24" s="28"/>
-      <c r="H24" s="29" t="s">
+      <c r="D24" s="33"/>
+      <c r="E24" s="33"/>
+      <c r="F24" s="33"/>
+      <c r="G24" s="34"/>
+      <c r="H24" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="I24" s="29"/>
-      <c r="J24" s="29"/>
-      <c r="K24" s="29"/>
-      <c r="L24" s="29"/>
+      <c r="I24" s="31"/>
+      <c r="J24" s="31"/>
+      <c r="K24" s="31"/>
+      <c r="L24" s="31"/>
       <c r="M24" s="15"/>
       <c r="N24" s="7"/>
       <c r="O24" s="7"/>
-      <c r="P24" s="29"/>
-      <c r="Q24" s="29"/>
+      <c r="P24" s="31"/>
+      <c r="Q24" s="31"/>
     </row>
     <row r="25" spans="1:17" ht="13.5" customHeight="1">
       <c r="A25" s="6">
@@ -2180,22 +2180,22 @@
       <c r="C25" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="D25" s="29"/>
-      <c r="E25" s="29"/>
-      <c r="F25" s="29"/>
-      <c r="G25" s="29"/>
-      <c r="H25" s="29" t="s">
+      <c r="D25" s="31"/>
+      <c r="E25" s="31"/>
+      <c r="F25" s="31"/>
+      <c r="G25" s="31"/>
+      <c r="H25" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="I25" s="29"/>
-      <c r="J25" s="29"/>
-      <c r="K25" s="29"/>
-      <c r="L25" s="29"/>
+      <c r="I25" s="31"/>
+      <c r="J25" s="31"/>
+      <c r="K25" s="31"/>
+      <c r="L25" s="31"/>
       <c r="M25" s="15"/>
       <c r="N25" s="7"/>
       <c r="O25" s="7"/>
-      <c r="P25" s="42"/>
-      <c r="Q25" s="43"/>
+      <c r="P25" s="28"/>
+      <c r="Q25" s="29"/>
     </row>
     <row r="26" spans="1:17" ht="13.5" customHeight="1">
       <c r="A26" s="6">
@@ -2205,53 +2205,53 @@
       <c r="C26" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="D26" s="29"/>
-      <c r="E26" s="29"/>
-      <c r="F26" s="29"/>
-      <c r="G26" s="29"/>
-      <c r="H26" s="29" t="s">
+      <c r="D26" s="31"/>
+      <c r="E26" s="31"/>
+      <c r="F26" s="31"/>
+      <c r="G26" s="31"/>
+      <c r="H26" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="I26" s="29"/>
-      <c r="J26" s="29"/>
-      <c r="K26" s="29"/>
-      <c r="L26" s="29"/>
+      <c r="I26" s="31"/>
+      <c r="J26" s="31"/>
+      <c r="K26" s="31"/>
+      <c r="L26" s="31"/>
       <c r="M26" s="15"/>
       <c r="N26" s="7"/>
       <c r="O26" s="7"/>
-      <c r="P26" s="29"/>
-      <c r="Q26" s="29"/>
+      <c r="P26" s="31"/>
+      <c r="Q26" s="31"/>
     </row>
     <row r="27" spans="1:17" ht="13.5" customHeight="1">
       <c r="A27" s="6">
         <v>22</v>
       </c>
       <c r="B27" s="22"/>
-      <c r="C27" s="26" t="s">
+      <c r="C27" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="D27" s="27"/>
-      <c r="E27" s="27"/>
-      <c r="F27" s="27"/>
-      <c r="G27" s="28"/>
-      <c r="H27" s="29" t="s">
+      <c r="D27" s="33"/>
+      <c r="E27" s="33"/>
+      <c r="F27" s="33"/>
+      <c r="G27" s="34"/>
+      <c r="H27" s="31" t="s">
         <v>63</v>
       </c>
-      <c r="I27" s="29"/>
-      <c r="J27" s="29"/>
-      <c r="K27" s="29"/>
-      <c r="L27" s="29"/>
+      <c r="I27" s="31"/>
+      <c r="J27" s="31"/>
+      <c r="K27" s="31"/>
+      <c r="L27" s="31"/>
       <c r="M27" s="15"/>
       <c r="N27" s="7"/>
       <c r="O27" s="7"/>
-      <c r="P27" s="29"/>
-      <c r="Q27" s="29"/>
+      <c r="P27" s="31"/>
+      <c r="Q27" s="31"/>
     </row>
     <row r="28" spans="1:17" ht="43.5" customHeight="1">
       <c r="A28" s="6">
         <v>23</v>
       </c>
-      <c r="B28" s="62" t="s">
+      <c r="B28" s="26" t="s">
         <v>42</v>
       </c>
       <c r="C28" s="30" t="s">
@@ -2261,24 +2261,24 @@
       <c r="E28" s="30"/>
       <c r="F28" s="30"/>
       <c r="G28" s="30"/>
-      <c r="H28" s="29" t="s">
+      <c r="H28" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="I28" s="29"/>
-      <c r="J28" s="29"/>
-      <c r="K28" s="29"/>
-      <c r="L28" s="29"/>
+      <c r="I28" s="31"/>
+      <c r="J28" s="31"/>
+      <c r="K28" s="31"/>
+      <c r="L28" s="31"/>
       <c r="M28" s="15"/>
       <c r="N28" s="7"/>
       <c r="O28" s="7"/>
-      <c r="P28" s="29"/>
-      <c r="Q28" s="29"/>
+      <c r="P28" s="31"/>
+      <c r="Q28" s="31"/>
     </row>
     <row r="29" spans="1:17" ht="43.5" customHeight="1">
       <c r="A29" s="6">
         <v>24</v>
       </c>
-      <c r="B29" s="64"/>
+      <c r="B29" s="27"/>
       <c r="C29" s="30" t="s">
         <v>60</v>
       </c>
@@ -2286,40 +2286,50 @@
       <c r="E29" s="30"/>
       <c r="F29" s="30"/>
       <c r="G29" s="30"/>
-      <c r="H29" s="29" t="s">
+      <c r="H29" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="I29" s="29"/>
-      <c r="J29" s="29"/>
-      <c r="K29" s="29"/>
-      <c r="L29" s="29"/>
+      <c r="I29" s="31"/>
+      <c r="J29" s="31"/>
+      <c r="K29" s="31"/>
+      <c r="L29" s="31"/>
       <c r="M29" s="15"/>
       <c r="N29" s="7"/>
       <c r="O29" s="7"/>
-      <c r="P29" s="29"/>
-      <c r="Q29" s="29"/>
+      <c r="P29" s="31"/>
+      <c r="Q29" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="66">
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="P25:Q25"/>
-    <mergeCell ref="C28:G28"/>
-    <mergeCell ref="H28:L28"/>
-    <mergeCell ref="P28:Q28"/>
-    <mergeCell ref="C29:G29"/>
-    <mergeCell ref="H29:L29"/>
-    <mergeCell ref="P29:Q29"/>
-    <mergeCell ref="H26:L26"/>
-    <mergeCell ref="P26:Q26"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="H25:L25"/>
-    <mergeCell ref="C27:G27"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="H20:L20"/>
-    <mergeCell ref="P20:Q20"/>
-    <mergeCell ref="H18:L18"/>
-    <mergeCell ref="H17:L17"/>
-    <mergeCell ref="C14:G18"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="H23:L23"/>
+    <mergeCell ref="P23:Q23"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="H21:L21"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="H24:L24"/>
+    <mergeCell ref="P24:Q24"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="H22:L22"/>
+    <mergeCell ref="P22:Q22"/>
+    <mergeCell ref="H16:L16"/>
+    <mergeCell ref="C8:G13"/>
+    <mergeCell ref="H8:L8"/>
+    <mergeCell ref="H9:L9"/>
+    <mergeCell ref="H10:L10"/>
+    <mergeCell ref="H11:L11"/>
+    <mergeCell ref="H12:L12"/>
+    <mergeCell ref="H13:L13"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="H19:L19"/>
+    <mergeCell ref="H14:L14"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:M1"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:M2"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="C4:Q4"/>
     <mergeCell ref="A3:B3"/>
@@ -2335,38 +2345,28 @@
     <mergeCell ref="H7:L7"/>
     <mergeCell ref="P7:Q7"/>
     <mergeCell ref="C5:G5"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:M1"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:M2"/>
     <mergeCell ref="H5:L5"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="H20:L20"/>
+    <mergeCell ref="P20:Q20"/>
+    <mergeCell ref="H18:L18"/>
+    <mergeCell ref="H17:L17"/>
+    <mergeCell ref="C14:G18"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="P25:Q25"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="H28:L28"/>
+    <mergeCell ref="P28:Q28"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="H29:L29"/>
+    <mergeCell ref="P29:Q29"/>
+    <mergeCell ref="H26:L26"/>
+    <mergeCell ref="P26:Q26"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="H25:L25"/>
+    <mergeCell ref="C27:G27"/>
     <mergeCell ref="H27:L27"/>
     <mergeCell ref="P27:Q27"/>
-    <mergeCell ref="H13:L13"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="H19:L19"/>
-    <mergeCell ref="H14:L14"/>
-    <mergeCell ref="P21:Q21"/>
-    <mergeCell ref="H22:L22"/>
-    <mergeCell ref="P22:Q22"/>
-    <mergeCell ref="H16:L16"/>
-    <mergeCell ref="C8:G13"/>
-    <mergeCell ref="H8:L8"/>
-    <mergeCell ref="H9:L9"/>
-    <mergeCell ref="H10:L10"/>
-    <mergeCell ref="H11:L11"/>
-    <mergeCell ref="H12:L12"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="H23:L23"/>
-    <mergeCell ref="P23:Q23"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="H21:L21"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="H24:L24"/>
-    <mergeCell ref="P24:Q24"/>
-    <mergeCell ref="C22:G22"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.27559055118110237" header="0.35433070866141736" footer="0.15748031496062992"/>

--- a/plan/test/結合テスト/結合テスト仕様書-BP014新商品登録(完了).xlsx
+++ b/plan/test/結合テスト/結合テスト仕様書-BP014新商品登録(完了).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fullness\Desktop\work\java-review\ec-b\plan\test\結合テスト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65FA7BBE-9CC1-4862-AB60-B735D644BFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52E09AC4-86B0-45A7-8B10-C9E59187135D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9510" yWindow="0" windowWidth="9780" windowHeight="10170" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="商品削除（確認）" sheetId="177" r:id="rId1"/>
@@ -602,7 +602,43 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>ログインしている状態でアドレスバーに直接「http://localhost:8080/registerproduct/complete」
+    <t>ログイン前メニュー画面へ遷移すること</t>
+    <rPh sb="12" eb="14">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「商品検索画面」へ遷移すること</t>
+    <rPh sb="1" eb="5">
+      <t>ショウヒンケンサク</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「新商品登録（入力）」画面へ遷移すること</t>
+    <rPh sb="1" eb="6">
+      <t>シンショウヒントウロク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ログインしている状態でアドレスバーに直接「http://localhost:8080/admin/registerproduct/complete」
 を入力</t>
     <rPh sb="8" eb="10">
       <t>ジョウタイ</t>
@@ -610,13 +646,13 @@
     <rPh sb="18" eb="20">
       <t>チョクセツ</t>
     </rPh>
-    <rPh sb="70" eb="72">
+    <rPh sb="76" eb="78">
       <t>ニュウリョク</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>ログインしていない状態でアドレスバーに直接「http://localhost:8080/registerproduct/complete」
+    <t>ログインしていない状態でアドレスバーに直接「http://localhost:8080/admin/registerproduct/complete」
 を入力</t>
     <rPh sb="9" eb="11">
       <t>ジョウタイ</t>
@@ -624,44 +660,8 @@
     <rPh sb="19" eb="21">
       <t>チョクセツ</t>
     </rPh>
-    <rPh sb="71" eb="73">
+    <rPh sb="77" eb="79">
       <t>ニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ログイン前メニュー画面へ遷移すること</t>
-    <rPh sb="12" eb="14">
-      <t>センイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>「商品検索画面」へ遷移すること</t>
-    <rPh sb="1" eb="5">
-      <t>ショウヒンケンサク</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>センイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>「新商品登録（入力）」画面へ遷移すること</t>
-    <rPh sb="1" eb="6">
-      <t>シンショウヒントウロク</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>センイ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1083,122 +1083,122 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1553,7 +1553,7 @@
   <dimension ref="A1:Q29"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="C21" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28:L28"/>
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="11.25" customHeight="1"/>
@@ -1569,25 +1569,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="55" t="s">
+      <c r="B1" s="42"/>
+      <c r="C1" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="56"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="58" t="s">
+      <c r="D1" s="45"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
-      <c r="I1" s="58"/>
-      <c r="J1" s="58"/>
-      <c r="K1" s="58"/>
-      <c r="L1" s="58"/>
-      <c r="M1" s="58"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="47"/>
+      <c r="K1" s="47"/>
+      <c r="L1" s="47"/>
+      <c r="M1" s="47"/>
       <c r="N1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1602,23 +1602,23 @@
       </c>
     </row>
     <row r="2" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A2" s="54"/>
-      <c r="B2" s="54"/>
-      <c r="C2" s="59" t="s">
+      <c r="A2" s="43"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="60"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="62" t="s">
+      <c r="D2" s="49"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="51" t="s">
         <v>44</v>
       </c>
-      <c r="G2" s="63"/>
-      <c r="H2" s="63"/>
-      <c r="I2" s="63"/>
-      <c r="J2" s="63"/>
-      <c r="K2" s="63"/>
-      <c r="L2" s="63"/>
-      <c r="M2" s="64"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="52"/>
+      <c r="L2" s="52"/>
+      <c r="M2" s="53"/>
       <c r="N2" s="9" t="s">
         <v>1</v>
       </c>
@@ -1631,50 +1631,50 @@
       <c r="Q2" s="12"/>
     </row>
     <row r="3" spans="1:17" ht="143.5" customHeight="1">
-      <c r="A3" s="44" t="s">
+      <c r="A3" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="45"/>
-      <c r="C3" s="46" t="s">
+      <c r="B3" s="55"/>
+      <c r="C3" s="56" t="s">
         <v>48</v>
       </c>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="47"/>
-      <c r="J3" s="47"/>
-      <c r="K3" s="47"/>
-      <c r="L3" s="47"/>
-      <c r="M3" s="47"/>
-      <c r="N3" s="47"/>
-      <c r="O3" s="47"/>
-      <c r="P3" s="47"/>
-      <c r="Q3" s="48"/>
+      <c r="D3" s="57"/>
+      <c r="E3" s="57"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="57"/>
+      <c r="H3" s="57"/>
+      <c r="I3" s="57"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="57"/>
+      <c r="L3" s="57"/>
+      <c r="M3" s="57"/>
+      <c r="N3" s="57"/>
+      <c r="O3" s="57"/>
+      <c r="P3" s="57"/>
+      <c r="Q3" s="58"/>
     </row>
     <row r="4" spans="1:17" ht="31.5" customHeight="1">
-      <c r="A4" s="44" t="s">
+      <c r="A4" s="54" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="45"/>
-      <c r="C4" s="46" t="s">
+      <c r="B4" s="55"/>
+      <c r="C4" s="56" t="s">
         <v>47</v>
       </c>
-      <c r="D4" s="47"/>
-      <c r="E4" s="47"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="47"/>
-      <c r="H4" s="47"/>
-      <c r="I4" s="47"/>
-      <c r="J4" s="47"/>
-      <c r="K4" s="47"/>
-      <c r="L4" s="47"/>
-      <c r="M4" s="47"/>
-      <c r="N4" s="47"/>
-      <c r="O4" s="47"/>
-      <c r="P4" s="47"/>
-      <c r="Q4" s="48"/>
+      <c r="D4" s="57"/>
+      <c r="E4" s="57"/>
+      <c r="F4" s="57"/>
+      <c r="G4" s="57"/>
+      <c r="H4" s="57"/>
+      <c r="I4" s="57"/>
+      <c r="J4" s="57"/>
+      <c r="K4" s="57"/>
+      <c r="L4" s="57"/>
+      <c r="M4" s="57"/>
+      <c r="N4" s="57"/>
+      <c r="O4" s="57"/>
+      <c r="P4" s="57"/>
+      <c r="Q4" s="58"/>
     </row>
     <row r="5" spans="1:17" ht="15" customHeight="1">
       <c r="A5" s="14" t="s">
@@ -1683,20 +1683,20 @@
       <c r="B5" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="49" t="s">
+      <c r="C5" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="52"/>
-      <c r="E5" s="52"/>
-      <c r="F5" s="52"/>
-      <c r="G5" s="50"/>
-      <c r="H5" s="49" t="s">
+      <c r="D5" s="63"/>
+      <c r="E5" s="63"/>
+      <c r="F5" s="63"/>
+      <c r="G5" s="60"/>
+      <c r="H5" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="52"/>
-      <c r="J5" s="52"/>
-      <c r="K5" s="52"/>
-      <c r="L5" s="52"/>
+      <c r="I5" s="63"/>
+      <c r="J5" s="63"/>
+      <c r="K5" s="63"/>
+      <c r="L5" s="63"/>
       <c r="M5" s="14" t="s">
         <v>13</v>
       </c>
@@ -1706,82 +1706,82 @@
       <c r="O5" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="P5" s="49" t="s">
+      <c r="P5" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="Q5" s="50"/>
+      <c r="Q5" s="60"/>
     </row>
     <row r="6" spans="1:17" ht="11">
       <c r="A6" s="6">
         <v>1</v>
       </c>
-      <c r="B6" s="26" t="s">
+      <c r="B6" s="61" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="31" t="s">
+      <c r="C6" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="31"/>
-      <c r="E6" s="31"/>
-      <c r="F6" s="31"/>
-      <c r="G6" s="31"/>
-      <c r="H6" s="31" t="s">
+      <c r="D6" s="29"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="I6" s="31"/>
-      <c r="J6" s="31"/>
-      <c r="K6" s="31"/>
-      <c r="L6" s="31"/>
+      <c r="I6" s="29"/>
+      <c r="J6" s="29"/>
+      <c r="K6" s="29"/>
+      <c r="L6" s="29"/>
       <c r="M6" s="15"/>
       <c r="N6" s="7"/>
       <c r="O6" s="7"/>
-      <c r="P6" s="31"/>
-      <c r="Q6" s="31"/>
+      <c r="P6" s="29"/>
+      <c r="Q6" s="29"/>
     </row>
     <row r="7" spans="1:17" ht="11" customHeight="1">
       <c r="A7" s="6">
         <v>2</v>
       </c>
-      <c r="B7" s="51"/>
-      <c r="C7" s="31" t="s">
+      <c r="B7" s="62"/>
+      <c r="C7" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="31"/>
-      <c r="E7" s="31"/>
-      <c r="F7" s="31"/>
-      <c r="G7" s="31"/>
-      <c r="H7" s="31" t="s">
+      <c r="D7" s="29"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="I7" s="31"/>
-      <c r="J7" s="31"/>
-      <c r="K7" s="31"/>
-      <c r="L7" s="31"/>
+      <c r="I7" s="29"/>
+      <c r="J7" s="29"/>
+      <c r="K7" s="29"/>
+      <c r="L7" s="29"/>
       <c r="M7" s="15"/>
       <c r="N7" s="7"/>
       <c r="O7" s="7"/>
-      <c r="P7" s="31"/>
-      <c r="Q7" s="31"/>
+      <c r="P7" s="29"/>
+      <c r="Q7" s="29"/>
     </row>
     <row r="8" spans="1:17" ht="11" customHeight="1">
       <c r="A8" s="6">
         <v>3</v>
       </c>
       <c r="B8" s="8"/>
-      <c r="C8" s="35" t="s">
+      <c r="C8" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="36"/>
-      <c r="E8" s="36"/>
-      <c r="F8" s="36"/>
-      <c r="G8" s="37"/>
-      <c r="H8" s="32" t="s">
+      <c r="D8" s="32"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="32"/>
+      <c r="G8" s="33"/>
+      <c r="H8" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="I8" s="33"/>
-      <c r="J8" s="33"/>
-      <c r="K8" s="33"/>
-      <c r="L8" s="34"/>
+      <c r="I8" s="27"/>
+      <c r="J8" s="27"/>
+      <c r="K8" s="27"/>
+      <c r="L8" s="28"/>
       <c r="M8" s="15"/>
       <c r="N8" s="7"/>
       <c r="O8" s="7"/>
@@ -1793,18 +1793,18 @@
         <v>4</v>
       </c>
       <c r="B9" s="8"/>
-      <c r="C9" s="38"/>
-      <c r="D9" s="39"/>
-      <c r="E9" s="39"/>
-      <c r="F9" s="39"/>
-      <c r="G9" s="40"/>
-      <c r="H9" s="32" t="s">
+      <c r="C9" s="34"/>
+      <c r="D9" s="35"/>
+      <c r="E9" s="35"/>
+      <c r="F9" s="35"/>
+      <c r="G9" s="36"/>
+      <c r="H9" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="I9" s="33"/>
-      <c r="J9" s="33"/>
-      <c r="K9" s="33"/>
-      <c r="L9" s="34"/>
+      <c r="I9" s="27"/>
+      <c r="J9" s="27"/>
+      <c r="K9" s="27"/>
+      <c r="L9" s="28"/>
       <c r="M9" s="15"/>
       <c r="N9" s="7"/>
       <c r="O9" s="7"/>
@@ -1816,18 +1816,18 @@
         <v>5</v>
       </c>
       <c r="B10" s="8"/>
-      <c r="C10" s="38"/>
-      <c r="D10" s="39"/>
-      <c r="E10" s="39"/>
-      <c r="F10" s="39"/>
-      <c r="G10" s="40"/>
-      <c r="H10" s="32" t="s">
+      <c r="C10" s="34"/>
+      <c r="D10" s="35"/>
+      <c r="E10" s="35"/>
+      <c r="F10" s="35"/>
+      <c r="G10" s="36"/>
+      <c r="H10" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="I10" s="33"/>
-      <c r="J10" s="33"/>
-      <c r="K10" s="33"/>
-      <c r="L10" s="34"/>
+      <c r="I10" s="27"/>
+      <c r="J10" s="27"/>
+      <c r="K10" s="27"/>
+      <c r="L10" s="28"/>
       <c r="M10" s="15"/>
       <c r="N10" s="7"/>
       <c r="O10" s="7"/>
@@ -1839,18 +1839,18 @@
         <v>6</v>
       </c>
       <c r="B11" s="8"/>
-      <c r="C11" s="38"/>
-      <c r="D11" s="39"/>
-      <c r="E11" s="39"/>
-      <c r="F11" s="39"/>
-      <c r="G11" s="40"/>
-      <c r="H11" s="32" t="s">
+      <c r="C11" s="34"/>
+      <c r="D11" s="35"/>
+      <c r="E11" s="35"/>
+      <c r="F11" s="35"/>
+      <c r="G11" s="36"/>
+      <c r="H11" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="I11" s="33"/>
-      <c r="J11" s="33"/>
-      <c r="K11" s="33"/>
-      <c r="L11" s="34"/>
+      <c r="I11" s="27"/>
+      <c r="J11" s="27"/>
+      <c r="K11" s="27"/>
+      <c r="L11" s="28"/>
       <c r="M11" s="15"/>
       <c r="N11" s="7"/>
       <c r="O11" s="7"/>
@@ -1862,18 +1862,18 @@
         <v>7</v>
       </c>
       <c r="B12" s="8"/>
-      <c r="C12" s="38"/>
-      <c r="D12" s="39"/>
-      <c r="E12" s="39"/>
-      <c r="F12" s="39"/>
-      <c r="G12" s="40"/>
-      <c r="H12" s="32" t="s">
+      <c r="C12" s="34"/>
+      <c r="D12" s="35"/>
+      <c r="E12" s="35"/>
+      <c r="F12" s="35"/>
+      <c r="G12" s="36"/>
+      <c r="H12" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="I12" s="33"/>
-      <c r="J12" s="33"/>
-      <c r="K12" s="33"/>
-      <c r="L12" s="34"/>
+      <c r="I12" s="27"/>
+      <c r="J12" s="27"/>
+      <c r="K12" s="27"/>
+      <c r="L12" s="28"/>
       <c r="M12" s="15"/>
       <c r="N12" s="7"/>
       <c r="O12" s="7"/>
@@ -1885,43 +1885,43 @@
         <v>8</v>
       </c>
       <c r="B13" s="8"/>
-      <c r="C13" s="41"/>
-      <c r="D13" s="42"/>
-      <c r="E13" s="42"/>
-      <c r="F13" s="42"/>
-      <c r="G13" s="43"/>
-      <c r="H13" s="32" t="s">
+      <c r="C13" s="37"/>
+      <c r="D13" s="38"/>
+      <c r="E13" s="38"/>
+      <c r="F13" s="38"/>
+      <c r="G13" s="39"/>
+      <c r="H13" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="I13" s="33"/>
-      <c r="J13" s="33"/>
-      <c r="K13" s="33"/>
-      <c r="L13" s="34"/>
+      <c r="I13" s="27"/>
+      <c r="J13" s="27"/>
+      <c r="K13" s="27"/>
+      <c r="L13" s="28"/>
       <c r="M13" s="15"/>
       <c r="N13" s="7"/>
       <c r="O13" s="7"/>
-      <c r="P13" s="28"/>
-      <c r="Q13" s="29"/>
+      <c r="P13" s="40"/>
+      <c r="Q13" s="41"/>
     </row>
     <row r="14" spans="1:17" ht="11" customHeight="1">
       <c r="A14" s="6">
         <v>9</v>
       </c>
       <c r="B14" s="8"/>
-      <c r="C14" s="35" t="s">
+      <c r="C14" s="31" t="s">
         <v>52</v>
       </c>
-      <c r="D14" s="36"/>
-      <c r="E14" s="36"/>
-      <c r="F14" s="36"/>
-      <c r="G14" s="37"/>
-      <c r="H14" s="32" t="s">
+      <c r="D14" s="32"/>
+      <c r="E14" s="32"/>
+      <c r="F14" s="32"/>
+      <c r="G14" s="33"/>
+      <c r="H14" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="I14" s="33"/>
-      <c r="J14" s="33"/>
-      <c r="K14" s="33"/>
-      <c r="L14" s="34"/>
+      <c r="I14" s="27"/>
+      <c r="J14" s="27"/>
+      <c r="K14" s="27"/>
+      <c r="L14" s="28"/>
       <c r="M14" s="15"/>
       <c r="N14" s="7"/>
       <c r="O14" s="7"/>
@@ -1933,41 +1933,41 @@
         <v>10</v>
       </c>
       <c r="B15" s="8"/>
-      <c r="C15" s="38"/>
-      <c r="D15" s="39"/>
-      <c r="E15" s="39"/>
-      <c r="F15" s="39"/>
-      <c r="G15" s="40"/>
-      <c r="H15" s="32" t="s">
+      <c r="C15" s="34"/>
+      <c r="D15" s="35"/>
+      <c r="E15" s="35"/>
+      <c r="F15" s="35"/>
+      <c r="G15" s="36"/>
+      <c r="H15" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="I15" s="33"/>
-      <c r="J15" s="33"/>
-      <c r="K15" s="33"/>
-      <c r="L15" s="34"/>
+      <c r="I15" s="27"/>
+      <c r="J15" s="27"/>
+      <c r="K15" s="27"/>
+      <c r="L15" s="28"/>
       <c r="M15" s="15"/>
       <c r="N15" s="7"/>
       <c r="O15" s="7"/>
-      <c r="P15" s="28"/>
-      <c r="Q15" s="29"/>
+      <c r="P15" s="40"/>
+      <c r="Q15" s="41"/>
     </row>
     <row r="16" spans="1:17" ht="11" customHeight="1">
       <c r="A16" s="6">
         <v>11</v>
       </c>
       <c r="B16" s="8"/>
-      <c r="C16" s="38"/>
-      <c r="D16" s="39"/>
-      <c r="E16" s="39"/>
-      <c r="F16" s="39"/>
-      <c r="G16" s="40"/>
-      <c r="H16" s="32" t="s">
+      <c r="C16" s="34"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="36"/>
+      <c r="H16" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="I16" s="33"/>
-      <c r="J16" s="33"/>
-      <c r="K16" s="33"/>
-      <c r="L16" s="34"/>
+      <c r="I16" s="27"/>
+      <c r="J16" s="27"/>
+      <c r="K16" s="27"/>
+      <c r="L16" s="28"/>
       <c r="M16" s="15"/>
       <c r="N16" s="7"/>
       <c r="O16" s="7"/>
@@ -1979,18 +1979,18 @@
         <v>12</v>
       </c>
       <c r="B17" s="8"/>
-      <c r="C17" s="38"/>
-      <c r="D17" s="39"/>
-      <c r="E17" s="39"/>
-      <c r="F17" s="39"/>
-      <c r="G17" s="40"/>
-      <c r="H17" s="32" t="s">
+      <c r="C17" s="34"/>
+      <c r="D17" s="35"/>
+      <c r="E17" s="35"/>
+      <c r="F17" s="35"/>
+      <c r="G17" s="36"/>
+      <c r="H17" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="I17" s="33"/>
-      <c r="J17" s="33"/>
-      <c r="K17" s="33"/>
-      <c r="L17" s="34"/>
+      <c r="I17" s="27"/>
+      <c r="J17" s="27"/>
+      <c r="K17" s="27"/>
+      <c r="L17" s="28"/>
       <c r="M17" s="15"/>
       <c r="N17" s="7"/>
       <c r="O17" s="7"/>
@@ -2002,18 +2002,18 @@
         <v>13</v>
       </c>
       <c r="B18" s="8"/>
-      <c r="C18" s="41"/>
-      <c r="D18" s="42"/>
-      <c r="E18" s="42"/>
-      <c r="F18" s="42"/>
-      <c r="G18" s="43"/>
-      <c r="H18" s="32" t="s">
+      <c r="C18" s="37"/>
+      <c r="D18" s="38"/>
+      <c r="E18" s="38"/>
+      <c r="F18" s="38"/>
+      <c r="G18" s="39"/>
+      <c r="H18" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="I18" s="33"/>
-      <c r="J18" s="33"/>
-      <c r="K18" s="33"/>
-      <c r="L18" s="34"/>
+      <c r="I18" s="27"/>
+      <c r="J18" s="27"/>
+      <c r="K18" s="27"/>
+      <c r="L18" s="28"/>
       <c r="M18" s="15"/>
       <c r="N18" s="7"/>
       <c r="O18" s="7"/>
@@ -2032,13 +2032,13 @@
       <c r="E19" s="24"/>
       <c r="F19" s="24"/>
       <c r="G19" s="25"/>
-      <c r="H19" s="32" t="s">
+      <c r="H19" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="I19" s="33"/>
-      <c r="J19" s="33"/>
-      <c r="K19" s="33"/>
-      <c r="L19" s="34"/>
+      <c r="I19" s="27"/>
+      <c r="J19" s="27"/>
+      <c r="K19" s="27"/>
+      <c r="L19" s="28"/>
       <c r="M19" s="15"/>
       <c r="N19" s="7"/>
       <c r="O19" s="7"/>
@@ -2052,125 +2052,125 @@
       <c r="B20" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="C20" s="32" t="s">
+      <c r="C20" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="D20" s="33"/>
-      <c r="E20" s="33"/>
-      <c r="F20" s="33"/>
-      <c r="G20" s="34"/>
-      <c r="H20" s="31" t="s">
+      <c r="D20" s="27"/>
+      <c r="E20" s="27"/>
+      <c r="F20" s="27"/>
+      <c r="G20" s="28"/>
+      <c r="H20" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="I20" s="31"/>
-      <c r="J20" s="31"/>
-      <c r="K20" s="31"/>
-      <c r="L20" s="31"/>
+      <c r="I20" s="29"/>
+      <c r="J20" s="29"/>
+      <c r="K20" s="29"/>
+      <c r="L20" s="29"/>
       <c r="M20" s="15"/>
       <c r="N20" s="7"/>
       <c r="O20" s="7"/>
-      <c r="P20" s="31"/>
-      <c r="Q20" s="31"/>
+      <c r="P20" s="29"/>
+      <c r="Q20" s="29"/>
     </row>
     <row r="21" spans="1:17" ht="13.5" customHeight="1">
       <c r="A21" s="6">
         <v>16</v>
       </c>
       <c r="B21" s="21"/>
-      <c r="C21" s="32" t="s">
+      <c r="C21" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="D21" s="33"/>
-      <c r="E21" s="33"/>
-      <c r="F21" s="33"/>
-      <c r="G21" s="34"/>
-      <c r="H21" s="31" t="s">
+      <c r="D21" s="27"/>
+      <c r="E21" s="27"/>
+      <c r="F21" s="27"/>
+      <c r="G21" s="28"/>
+      <c r="H21" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="I21" s="31"/>
-      <c r="J21" s="31"/>
-      <c r="K21" s="31"/>
-      <c r="L21" s="31"/>
+      <c r="I21" s="29"/>
+      <c r="J21" s="29"/>
+      <c r="K21" s="29"/>
+      <c r="L21" s="29"/>
       <c r="M21" s="15"/>
       <c r="N21" s="7"/>
       <c r="O21" s="7"/>
-      <c r="P21" s="31"/>
-      <c r="Q21" s="31"/>
+      <c r="P21" s="29"/>
+      <c r="Q21" s="29"/>
     </row>
     <row r="22" spans="1:17" ht="13.5" customHeight="1">
       <c r="A22" s="6">
         <v>17</v>
       </c>
       <c r="B22" s="21"/>
-      <c r="C22" s="32" t="s">
+      <c r="C22" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="D22" s="33"/>
-      <c r="E22" s="33"/>
-      <c r="F22" s="33"/>
-      <c r="G22" s="34"/>
-      <c r="H22" s="31" t="s">
+      <c r="D22" s="27"/>
+      <c r="E22" s="27"/>
+      <c r="F22" s="27"/>
+      <c r="G22" s="28"/>
+      <c r="H22" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="I22" s="31"/>
-      <c r="J22" s="31"/>
-      <c r="K22" s="31"/>
-      <c r="L22" s="31"/>
+      <c r="I22" s="29"/>
+      <c r="J22" s="29"/>
+      <c r="K22" s="29"/>
+      <c r="L22" s="29"/>
       <c r="M22" s="15"/>
       <c r="N22" s="7"/>
       <c r="O22" s="7"/>
-      <c r="P22" s="31"/>
-      <c r="Q22" s="31"/>
+      <c r="P22" s="29"/>
+      <c r="Q22" s="29"/>
     </row>
     <row r="23" spans="1:17" ht="13.5" customHeight="1">
       <c r="A23" s="6">
         <v>18</v>
       </c>
       <c r="B23" s="21"/>
-      <c r="C23" s="32" t="s">
+      <c r="C23" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="D23" s="33"/>
-      <c r="E23" s="33"/>
-      <c r="F23" s="33"/>
-      <c r="G23" s="34"/>
-      <c r="H23" s="31" t="s">
+      <c r="D23" s="27"/>
+      <c r="E23" s="27"/>
+      <c r="F23" s="27"/>
+      <c r="G23" s="28"/>
+      <c r="H23" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="I23" s="31"/>
-      <c r="J23" s="31"/>
-      <c r="K23" s="31"/>
-      <c r="L23" s="31"/>
+      <c r="I23" s="29"/>
+      <c r="J23" s="29"/>
+      <c r="K23" s="29"/>
+      <c r="L23" s="29"/>
       <c r="M23" s="15"/>
       <c r="N23" s="7"/>
       <c r="O23" s="7"/>
-      <c r="P23" s="31"/>
-      <c r="Q23" s="31"/>
+      <c r="P23" s="29"/>
+      <c r="Q23" s="29"/>
     </row>
     <row r="24" spans="1:17" ht="13.5" customHeight="1">
       <c r="A24" s="6">
         <v>19</v>
       </c>
       <c r="B24" s="22"/>
-      <c r="C24" s="32" t="s">
+      <c r="C24" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="D24" s="33"/>
-      <c r="E24" s="33"/>
-      <c r="F24" s="33"/>
-      <c r="G24" s="34"/>
-      <c r="H24" s="31" t="s">
+      <c r="D24" s="27"/>
+      <c r="E24" s="27"/>
+      <c r="F24" s="27"/>
+      <c r="G24" s="28"/>
+      <c r="H24" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="I24" s="31"/>
-      <c r="J24" s="31"/>
-      <c r="K24" s="31"/>
-      <c r="L24" s="31"/>
+      <c r="I24" s="29"/>
+      <c r="J24" s="29"/>
+      <c r="K24" s="29"/>
+      <c r="L24" s="29"/>
       <c r="M24" s="15"/>
       <c r="N24" s="7"/>
       <c r="O24" s="7"/>
-      <c r="P24" s="31"/>
-      <c r="Q24" s="31"/>
+      <c r="P24" s="29"/>
+      <c r="Q24" s="29"/>
     </row>
     <row r="25" spans="1:17" ht="13.5" customHeight="1">
       <c r="A25" s="6">
@@ -2180,22 +2180,22 @@
       <c r="C25" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="D25" s="31"/>
-      <c r="E25" s="31"/>
-      <c r="F25" s="31"/>
-      <c r="G25" s="31"/>
-      <c r="H25" s="31" t="s">
-        <v>62</v>
-      </c>
-      <c r="I25" s="31"/>
-      <c r="J25" s="31"/>
-      <c r="K25" s="31"/>
-      <c r="L25" s="31"/>
+      <c r="D25" s="29"/>
+      <c r="E25" s="29"/>
+      <c r="F25" s="29"/>
+      <c r="G25" s="29"/>
+      <c r="H25" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="I25" s="29"/>
+      <c r="J25" s="29"/>
+      <c r="K25" s="29"/>
+      <c r="L25" s="29"/>
       <c r="M25" s="15"/>
       <c r="N25" s="7"/>
       <c r="O25" s="7"/>
-      <c r="P25" s="28"/>
-      <c r="Q25" s="29"/>
+      <c r="P25" s="40"/>
+      <c r="Q25" s="41"/>
     </row>
     <row r="26" spans="1:17" ht="13.5" customHeight="1">
       <c r="A26" s="6">
@@ -2205,122 +2205,132 @@
       <c r="C26" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="D26" s="31"/>
-      <c r="E26" s="31"/>
-      <c r="F26" s="31"/>
-      <c r="G26" s="31"/>
-      <c r="H26" s="31" t="s">
+      <c r="D26" s="29"/>
+      <c r="E26" s="29"/>
+      <c r="F26" s="29"/>
+      <c r="G26" s="29"/>
+      <c r="H26" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="I26" s="31"/>
-      <c r="J26" s="31"/>
-      <c r="K26" s="31"/>
-      <c r="L26" s="31"/>
+      <c r="I26" s="29"/>
+      <c r="J26" s="29"/>
+      <c r="K26" s="29"/>
+      <c r="L26" s="29"/>
       <c r="M26" s="15"/>
       <c r="N26" s="7"/>
       <c r="O26" s="7"/>
-      <c r="P26" s="31"/>
-      <c r="Q26" s="31"/>
+      <c r="P26" s="29"/>
+      <c r="Q26" s="29"/>
     </row>
     <row r="27" spans="1:17" ht="13.5" customHeight="1">
       <c r="A27" s="6">
         <v>22</v>
       </c>
       <c r="B27" s="22"/>
-      <c r="C27" s="32" t="s">
+      <c r="C27" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="D27" s="33"/>
-      <c r="E27" s="33"/>
-      <c r="F27" s="33"/>
-      <c r="G27" s="34"/>
-      <c r="H27" s="31" t="s">
-        <v>63</v>
-      </c>
-      <c r="I27" s="31"/>
-      <c r="J27" s="31"/>
-      <c r="K27" s="31"/>
-      <c r="L27" s="31"/>
+      <c r="D27" s="27"/>
+      <c r="E27" s="27"/>
+      <c r="F27" s="27"/>
+      <c r="G27" s="28"/>
+      <c r="H27" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="I27" s="29"/>
+      <c r="J27" s="29"/>
+      <c r="K27" s="29"/>
+      <c r="L27" s="29"/>
       <c r="M27" s="15"/>
       <c r="N27" s="7"/>
       <c r="O27" s="7"/>
-      <c r="P27" s="31"/>
-      <c r="Q27" s="31"/>
-    </row>
-    <row r="28" spans="1:17" ht="43.5" customHeight="1">
+      <c r="P27" s="29"/>
+      <c r="Q27" s="29"/>
+    </row>
+    <row r="28" spans="1:17" ht="56.5" customHeight="1">
       <c r="A28" s="6">
         <v>23</v>
       </c>
-      <c r="B28" s="26" t="s">
+      <c r="B28" s="61" t="s">
         <v>42</v>
       </c>
       <c r="C28" s="30" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="D28" s="30"/>
       <c r="E28" s="30"/>
       <c r="F28" s="30"/>
       <c r="G28" s="30"/>
-      <c r="H28" s="31" t="s">
-        <v>61</v>
-      </c>
-      <c r="I28" s="31"/>
-      <c r="J28" s="31"/>
-      <c r="K28" s="31"/>
-      <c r="L28" s="31"/>
+      <c r="H28" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="I28" s="29"/>
+      <c r="J28" s="29"/>
+      <c r="K28" s="29"/>
+      <c r="L28" s="29"/>
       <c r="M28" s="15"/>
       <c r="N28" s="7"/>
       <c r="O28" s="7"/>
-      <c r="P28" s="31"/>
-      <c r="Q28" s="31"/>
+      <c r="P28" s="29"/>
+      <c r="Q28" s="29"/>
     </row>
     <row r="29" spans="1:17" ht="43.5" customHeight="1">
       <c r="A29" s="6">
         <v>24</v>
       </c>
-      <c r="B29" s="27"/>
+      <c r="B29" s="64"/>
       <c r="C29" s="30" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D29" s="30"/>
       <c r="E29" s="30"/>
       <c r="F29" s="30"/>
       <c r="G29" s="30"/>
-      <c r="H29" s="31" t="s">
-        <v>61</v>
-      </c>
-      <c r="I29" s="31"/>
-      <c r="J29" s="31"/>
-      <c r="K29" s="31"/>
-      <c r="L29" s="31"/>
+      <c r="H29" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="I29" s="29"/>
+      <c r="J29" s="29"/>
+      <c r="K29" s="29"/>
+      <c r="L29" s="29"/>
       <c r="M29" s="15"/>
       <c r="N29" s="7"/>
       <c r="O29" s="7"/>
-      <c r="P29" s="31"/>
-      <c r="Q29" s="31"/>
+      <c r="P29" s="29"/>
+      <c r="Q29" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="66">
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="H23:L23"/>
-    <mergeCell ref="P23:Q23"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="H21:L21"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="H24:L24"/>
-    <mergeCell ref="P24:Q24"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="H22:L22"/>
-    <mergeCell ref="P22:Q22"/>
-    <mergeCell ref="H16:L16"/>
-    <mergeCell ref="C8:G13"/>
-    <mergeCell ref="H8:L8"/>
-    <mergeCell ref="H9:L9"/>
-    <mergeCell ref="H10:L10"/>
-    <mergeCell ref="H11:L11"/>
-    <mergeCell ref="H12:L12"/>
-    <mergeCell ref="H13:L13"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="P25:Q25"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="H28:L28"/>
+    <mergeCell ref="P28:Q28"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="H29:L29"/>
+    <mergeCell ref="P29:Q29"/>
+    <mergeCell ref="H26:L26"/>
+    <mergeCell ref="P26:Q26"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="H25:L25"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="H27:L27"/>
+    <mergeCell ref="P27:Q27"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="H5:L5"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="H20:L20"/>
+    <mergeCell ref="P20:Q20"/>
+    <mergeCell ref="H18:L18"/>
+    <mergeCell ref="H17:L17"/>
+    <mergeCell ref="C14:G18"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="H6:L6"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="H7:L7"/>
+    <mergeCell ref="P7:Q7"/>
     <mergeCell ref="P13:Q13"/>
     <mergeCell ref="H19:L19"/>
     <mergeCell ref="H14:L14"/>
@@ -2337,36 +2347,26 @@
     <mergeCell ref="H15:L15"/>
     <mergeCell ref="P15:Q15"/>
     <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="H6:L6"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="H7:L7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="H5:L5"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="H20:L20"/>
-    <mergeCell ref="P20:Q20"/>
-    <mergeCell ref="H18:L18"/>
-    <mergeCell ref="H17:L17"/>
-    <mergeCell ref="C14:G18"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="P25:Q25"/>
-    <mergeCell ref="C28:G28"/>
-    <mergeCell ref="H28:L28"/>
-    <mergeCell ref="P28:Q28"/>
-    <mergeCell ref="C29:G29"/>
-    <mergeCell ref="H29:L29"/>
-    <mergeCell ref="P29:Q29"/>
-    <mergeCell ref="H26:L26"/>
-    <mergeCell ref="P26:Q26"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="H25:L25"/>
-    <mergeCell ref="C27:G27"/>
-    <mergeCell ref="H27:L27"/>
-    <mergeCell ref="P27:Q27"/>
+    <mergeCell ref="H16:L16"/>
+    <mergeCell ref="C8:G13"/>
+    <mergeCell ref="H8:L8"/>
+    <mergeCell ref="H9:L9"/>
+    <mergeCell ref="H10:L10"/>
+    <mergeCell ref="H11:L11"/>
+    <mergeCell ref="H12:L12"/>
+    <mergeCell ref="H13:L13"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="H23:L23"/>
+    <mergeCell ref="P23:Q23"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="H21:L21"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="H24:L24"/>
+    <mergeCell ref="P24:Q24"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="H22:L22"/>
+    <mergeCell ref="P22:Q22"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.27559055118110237" header="0.35433070866141736" footer="0.15748031496062992"/>

--- a/plan/test/結合テスト/結合テスト仕様書-BP014新商品登録(完了).xlsx
+++ b/plan/test/結合テスト/結合テスト仕様書-BP014新商品登録(完了).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fullness\Desktop\work\java-review\ec-b\plan\test\結合テスト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52E09AC4-86B0-45A7-8B10-C9E59187135D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1886F3CF-6EB2-4128-8D8D-B494DEAB2738}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="66">
   <si>
     <t>作成者</t>
   </si>
@@ -662,6 +662,27 @@
     </rPh>
     <rPh sb="77" eb="79">
       <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>CSRF対策：
+画面をリロードする</t>
+    <rPh sb="4" eb="6">
+      <t>タイサク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>そのままの画面が表示されること</t>
+    <rPh sb="5" eb="7">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヒョウジ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1006,7 +1027,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1083,6 +1104,24 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1092,11 +1131,14 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1125,11 +1167,8 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1182,22 +1221,13 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -1550,10 +1580,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{776758EE-792E-45DD-A875-220DAC06338B}">
-  <dimension ref="A1:Q29"/>
+  <dimension ref="A1:Q30"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C21" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A23" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21:A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="11.25" customHeight="1"/>
@@ -1569,25 +1599,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="44" t="s">
+      <c r="B1" s="48"/>
+      <c r="C1" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="45"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="47" t="s">
+      <c r="D1" s="51"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
-      <c r="J1" s="47"/>
-      <c r="K1" s="47"/>
-      <c r="L1" s="47"/>
-      <c r="M1" s="47"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
+      <c r="I1" s="53"/>
+      <c r="J1" s="53"/>
+      <c r="K1" s="53"/>
+      <c r="L1" s="53"/>
+      <c r="M1" s="53"/>
       <c r="N1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1602,23 +1632,23 @@
       </c>
     </row>
     <row r="2" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A2" s="43"/>
-      <c r="B2" s="43"/>
-      <c r="C2" s="48" t="s">
+      <c r="A2" s="49"/>
+      <c r="B2" s="49"/>
+      <c r="C2" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="49"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="51" t="s">
+      <c r="D2" s="55"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="57" t="s">
         <v>44</v>
       </c>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="52"/>
-      <c r="L2" s="52"/>
-      <c r="M2" s="53"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="58"/>
+      <c r="K2" s="58"/>
+      <c r="L2" s="58"/>
+      <c r="M2" s="59"/>
       <c r="N2" s="9" t="s">
         <v>1</v>
       </c>
@@ -1631,50 +1661,50 @@
       <c r="Q2" s="12"/>
     </row>
     <row r="3" spans="1:17" ht="143.5" customHeight="1">
-      <c r="A3" s="54" t="s">
+      <c r="A3" s="60" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="55"/>
-      <c r="C3" s="56" t="s">
+      <c r="B3" s="61"/>
+      <c r="C3" s="62" t="s">
         <v>48</v>
       </c>
-      <c r="D3" s="57"/>
-      <c r="E3" s="57"/>
-      <c r="F3" s="57"/>
-      <c r="G3" s="57"/>
-      <c r="H3" s="57"/>
-      <c r="I3" s="57"/>
-      <c r="J3" s="57"/>
-      <c r="K3" s="57"/>
-      <c r="L3" s="57"/>
-      <c r="M3" s="57"/>
-      <c r="N3" s="57"/>
-      <c r="O3" s="57"/>
-      <c r="P3" s="57"/>
-      <c r="Q3" s="58"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="63"/>
+      <c r="F3" s="63"/>
+      <c r="G3" s="63"/>
+      <c r="H3" s="63"/>
+      <c r="I3" s="63"/>
+      <c r="J3" s="63"/>
+      <c r="K3" s="63"/>
+      <c r="L3" s="63"/>
+      <c r="M3" s="63"/>
+      <c r="N3" s="63"/>
+      <c r="O3" s="63"/>
+      <c r="P3" s="63"/>
+      <c r="Q3" s="64"/>
     </row>
     <row r="4" spans="1:17" ht="31.5" customHeight="1">
-      <c r="A4" s="54" t="s">
+      <c r="A4" s="60" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="55"/>
-      <c r="C4" s="56" t="s">
+      <c r="B4" s="61"/>
+      <c r="C4" s="62" t="s">
         <v>47</v>
       </c>
-      <c r="D4" s="57"/>
-      <c r="E4" s="57"/>
-      <c r="F4" s="57"/>
-      <c r="G4" s="57"/>
-      <c r="H4" s="57"/>
-      <c r="I4" s="57"/>
-      <c r="J4" s="57"/>
-      <c r="K4" s="57"/>
-      <c r="L4" s="57"/>
-      <c r="M4" s="57"/>
-      <c r="N4" s="57"/>
-      <c r="O4" s="57"/>
-      <c r="P4" s="57"/>
-      <c r="Q4" s="58"/>
+      <c r="D4" s="63"/>
+      <c r="E4" s="63"/>
+      <c r="F4" s="63"/>
+      <c r="G4" s="63"/>
+      <c r="H4" s="63"/>
+      <c r="I4" s="63"/>
+      <c r="J4" s="63"/>
+      <c r="K4" s="63"/>
+      <c r="L4" s="63"/>
+      <c r="M4" s="63"/>
+      <c r="N4" s="63"/>
+      <c r="O4" s="63"/>
+      <c r="P4" s="63"/>
+      <c r="Q4" s="64"/>
     </row>
     <row r="5" spans="1:17" ht="15" customHeight="1">
       <c r="A5" s="14" t="s">
@@ -1683,20 +1713,20 @@
       <c r="B5" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="59" t="s">
+      <c r="C5" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="63"/>
-      <c r="E5" s="63"/>
-      <c r="F5" s="63"/>
-      <c r="G5" s="60"/>
-      <c r="H5" s="59" t="s">
+      <c r="D5" s="36"/>
+      <c r="E5" s="36"/>
+      <c r="F5" s="36"/>
+      <c r="G5" s="37"/>
+      <c r="H5" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="63"/>
-      <c r="J5" s="63"/>
-      <c r="K5" s="63"/>
-      <c r="L5" s="63"/>
+      <c r="I5" s="36"/>
+      <c r="J5" s="36"/>
+      <c r="K5" s="36"/>
+      <c r="L5" s="36"/>
       <c r="M5" s="14" t="s">
         <v>13</v>
       </c>
@@ -1706,82 +1736,82 @@
       <c r="O5" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="P5" s="59" t="s">
+      <c r="P5" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="Q5" s="60"/>
+      <c r="Q5" s="37"/>
     </row>
     <row r="6" spans="1:17" ht="11">
       <c r="A6" s="6">
         <v>1</v>
       </c>
-      <c r="B6" s="61" t="s">
+      <c r="B6" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="29" t="s">
+      <c r="C6" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="29"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="29"/>
-      <c r="H6" s="29" t="s">
+      <c r="D6" s="31"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="31"/>
+      <c r="G6" s="31"/>
+      <c r="H6" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="I6" s="29"/>
-      <c r="J6" s="29"/>
-      <c r="K6" s="29"/>
-      <c r="L6" s="29"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="31"/>
+      <c r="L6" s="31"/>
       <c r="M6" s="15"/>
       <c r="N6" s="7"/>
       <c r="O6" s="7"/>
-      <c r="P6" s="29"/>
-      <c r="Q6" s="29"/>
+      <c r="P6" s="31"/>
+      <c r="Q6" s="31"/>
     </row>
     <row r="7" spans="1:17" ht="11" customHeight="1">
       <c r="A7" s="6">
         <v>2</v>
       </c>
-      <c r="B7" s="62"/>
-      <c r="C7" s="29" t="s">
+      <c r="B7" s="47"/>
+      <c r="C7" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="29"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="29"/>
-      <c r="H7" s="29" t="s">
+      <c r="D7" s="31"/>
+      <c r="E7" s="31"/>
+      <c r="F7" s="31"/>
+      <c r="G7" s="31"/>
+      <c r="H7" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="I7" s="29"/>
-      <c r="J7" s="29"/>
-      <c r="K7" s="29"/>
-      <c r="L7" s="29"/>
+      <c r="I7" s="31"/>
+      <c r="J7" s="31"/>
+      <c r="K7" s="31"/>
+      <c r="L7" s="31"/>
       <c r="M7" s="15"/>
       <c r="N7" s="7"/>
       <c r="O7" s="7"/>
-      <c r="P7" s="29"/>
-      <c r="Q7" s="29"/>
+      <c r="P7" s="31"/>
+      <c r="Q7" s="31"/>
     </row>
     <row r="8" spans="1:17" ht="11" customHeight="1">
       <c r="A8" s="6">
         <v>3</v>
       </c>
       <c r="B8" s="8"/>
-      <c r="C8" s="31" t="s">
+      <c r="C8" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="32"/>
-      <c r="E8" s="32"/>
-      <c r="F8" s="32"/>
-      <c r="G8" s="33"/>
-      <c r="H8" s="26" t="s">
+      <c r="D8" s="39"/>
+      <c r="E8" s="39"/>
+      <c r="F8" s="39"/>
+      <c r="G8" s="40"/>
+      <c r="H8" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="I8" s="27"/>
-      <c r="J8" s="27"/>
-      <c r="K8" s="27"/>
-      <c r="L8" s="28"/>
+      <c r="I8" s="33"/>
+      <c r="J8" s="33"/>
+      <c r="K8" s="33"/>
+      <c r="L8" s="34"/>
       <c r="M8" s="15"/>
       <c r="N8" s="7"/>
       <c r="O8" s="7"/>
@@ -1793,18 +1823,18 @@
         <v>4</v>
       </c>
       <c r="B9" s="8"/>
-      <c r="C9" s="34"/>
-      <c r="D9" s="35"/>
-      <c r="E9" s="35"/>
-      <c r="F9" s="35"/>
-      <c r="G9" s="36"/>
-      <c r="H9" s="26" t="s">
+      <c r="C9" s="41"/>
+      <c r="D9" s="42"/>
+      <c r="E9" s="42"/>
+      <c r="F9" s="42"/>
+      <c r="G9" s="43"/>
+      <c r="H9" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="I9" s="27"/>
-      <c r="J9" s="27"/>
-      <c r="K9" s="27"/>
-      <c r="L9" s="28"/>
+      <c r="I9" s="33"/>
+      <c r="J9" s="33"/>
+      <c r="K9" s="33"/>
+      <c r="L9" s="34"/>
       <c r="M9" s="15"/>
       <c r="N9" s="7"/>
       <c r="O9" s="7"/>
@@ -1816,18 +1846,18 @@
         <v>5</v>
       </c>
       <c r="B10" s="8"/>
-      <c r="C10" s="34"/>
-      <c r="D10" s="35"/>
-      <c r="E10" s="35"/>
-      <c r="F10" s="35"/>
-      <c r="G10" s="36"/>
-      <c r="H10" s="26" t="s">
+      <c r="C10" s="41"/>
+      <c r="D10" s="42"/>
+      <c r="E10" s="42"/>
+      <c r="F10" s="42"/>
+      <c r="G10" s="43"/>
+      <c r="H10" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="I10" s="27"/>
-      <c r="J10" s="27"/>
-      <c r="K10" s="27"/>
-      <c r="L10" s="28"/>
+      <c r="I10" s="33"/>
+      <c r="J10" s="33"/>
+      <c r="K10" s="33"/>
+      <c r="L10" s="34"/>
       <c r="M10" s="15"/>
       <c r="N10" s="7"/>
       <c r="O10" s="7"/>
@@ -1839,18 +1869,18 @@
         <v>6</v>
       </c>
       <c r="B11" s="8"/>
-      <c r="C11" s="34"/>
-      <c r="D11" s="35"/>
-      <c r="E11" s="35"/>
-      <c r="F11" s="35"/>
-      <c r="G11" s="36"/>
-      <c r="H11" s="26" t="s">
+      <c r="C11" s="41"/>
+      <c r="D11" s="42"/>
+      <c r="E11" s="42"/>
+      <c r="F11" s="42"/>
+      <c r="G11" s="43"/>
+      <c r="H11" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="I11" s="27"/>
-      <c r="J11" s="27"/>
-      <c r="K11" s="27"/>
-      <c r="L11" s="28"/>
+      <c r="I11" s="33"/>
+      <c r="J11" s="33"/>
+      <c r="K11" s="33"/>
+      <c r="L11" s="34"/>
       <c r="M11" s="15"/>
       <c r="N11" s="7"/>
       <c r="O11" s="7"/>
@@ -1862,18 +1892,18 @@
         <v>7</v>
       </c>
       <c r="B12" s="8"/>
-      <c r="C12" s="34"/>
-      <c r="D12" s="35"/>
-      <c r="E12" s="35"/>
-      <c r="F12" s="35"/>
-      <c r="G12" s="36"/>
-      <c r="H12" s="26" t="s">
+      <c r="C12" s="41"/>
+      <c r="D12" s="42"/>
+      <c r="E12" s="42"/>
+      <c r="F12" s="42"/>
+      <c r="G12" s="43"/>
+      <c r="H12" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="I12" s="27"/>
-      <c r="J12" s="27"/>
-      <c r="K12" s="27"/>
-      <c r="L12" s="28"/>
+      <c r="I12" s="33"/>
+      <c r="J12" s="33"/>
+      <c r="K12" s="33"/>
+      <c r="L12" s="34"/>
       <c r="M12" s="15"/>
       <c r="N12" s="7"/>
       <c r="O12" s="7"/>
@@ -1885,43 +1915,43 @@
         <v>8</v>
       </c>
       <c r="B13" s="8"/>
-      <c r="C13" s="37"/>
-      <c r="D13" s="38"/>
-      <c r="E13" s="38"/>
-      <c r="F13" s="38"/>
-      <c r="G13" s="39"/>
-      <c r="H13" s="26" t="s">
+      <c r="C13" s="44"/>
+      <c r="D13" s="45"/>
+      <c r="E13" s="45"/>
+      <c r="F13" s="45"/>
+      <c r="G13" s="46"/>
+      <c r="H13" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="I13" s="27"/>
-      <c r="J13" s="27"/>
-      <c r="K13" s="27"/>
-      <c r="L13" s="28"/>
+      <c r="I13" s="33"/>
+      <c r="J13" s="33"/>
+      <c r="K13" s="33"/>
+      <c r="L13" s="34"/>
       <c r="M13" s="15"/>
       <c r="N13" s="7"/>
       <c r="O13" s="7"/>
-      <c r="P13" s="40"/>
-      <c r="Q13" s="41"/>
+      <c r="P13" s="28"/>
+      <c r="Q13" s="29"/>
     </row>
     <row r="14" spans="1:17" ht="11" customHeight="1">
       <c r="A14" s="6">
         <v>9</v>
       </c>
       <c r="B14" s="8"/>
-      <c r="C14" s="31" t="s">
+      <c r="C14" s="38" t="s">
         <v>52</v>
       </c>
-      <c r="D14" s="32"/>
-      <c r="E14" s="32"/>
-      <c r="F14" s="32"/>
-      <c r="G14" s="33"/>
-      <c r="H14" s="26" t="s">
+      <c r="D14" s="39"/>
+      <c r="E14" s="39"/>
+      <c r="F14" s="39"/>
+      <c r="G14" s="40"/>
+      <c r="H14" s="32" t="s">
         <v>53</v>
       </c>
-      <c r="I14" s="27"/>
-      <c r="J14" s="27"/>
-      <c r="K14" s="27"/>
-      <c r="L14" s="28"/>
+      <c r="I14" s="33"/>
+      <c r="J14" s="33"/>
+      <c r="K14" s="33"/>
+      <c r="L14" s="34"/>
       <c r="M14" s="15"/>
       <c r="N14" s="7"/>
       <c r="O14" s="7"/>
@@ -1933,41 +1963,41 @@
         <v>10</v>
       </c>
       <c r="B15" s="8"/>
-      <c r="C15" s="34"/>
-      <c r="D15" s="35"/>
-      <c r="E15" s="35"/>
-      <c r="F15" s="35"/>
-      <c r="G15" s="36"/>
-      <c r="H15" s="26" t="s">
+      <c r="C15" s="41"/>
+      <c r="D15" s="42"/>
+      <c r="E15" s="42"/>
+      <c r="F15" s="42"/>
+      <c r="G15" s="43"/>
+      <c r="H15" s="32" t="s">
         <v>54</v>
       </c>
-      <c r="I15" s="27"/>
-      <c r="J15" s="27"/>
-      <c r="K15" s="27"/>
-      <c r="L15" s="28"/>
+      <c r="I15" s="33"/>
+      <c r="J15" s="33"/>
+      <c r="K15" s="33"/>
+      <c r="L15" s="34"/>
       <c r="M15" s="15"/>
       <c r="N15" s="7"/>
       <c r="O15" s="7"/>
-      <c r="P15" s="40"/>
-      <c r="Q15" s="41"/>
+      <c r="P15" s="28"/>
+      <c r="Q15" s="29"/>
     </row>
     <row r="16" spans="1:17" ht="11" customHeight="1">
       <c r="A16" s="6">
         <v>11</v>
       </c>
       <c r="B16" s="8"/>
-      <c r="C16" s="34"/>
-      <c r="D16" s="35"/>
-      <c r="E16" s="35"/>
-      <c r="F16" s="35"/>
-      <c r="G16" s="36"/>
-      <c r="H16" s="26" t="s">
+      <c r="C16" s="41"/>
+      <c r="D16" s="42"/>
+      <c r="E16" s="42"/>
+      <c r="F16" s="42"/>
+      <c r="G16" s="43"/>
+      <c r="H16" s="32" t="s">
         <v>55</v>
       </c>
-      <c r="I16" s="27"/>
-      <c r="J16" s="27"/>
-      <c r="K16" s="27"/>
-      <c r="L16" s="28"/>
+      <c r="I16" s="33"/>
+      <c r="J16" s="33"/>
+      <c r="K16" s="33"/>
+      <c r="L16" s="34"/>
       <c r="M16" s="15"/>
       <c r="N16" s="7"/>
       <c r="O16" s="7"/>
@@ -1979,18 +2009,18 @@
         <v>12</v>
       </c>
       <c r="B17" s="8"/>
-      <c r="C17" s="34"/>
-      <c r="D17" s="35"/>
-      <c r="E17" s="35"/>
-      <c r="F17" s="35"/>
-      <c r="G17" s="36"/>
-      <c r="H17" s="26" t="s">
+      <c r="C17" s="41"/>
+      <c r="D17" s="42"/>
+      <c r="E17" s="42"/>
+      <c r="F17" s="42"/>
+      <c r="G17" s="43"/>
+      <c r="H17" s="32" t="s">
         <v>56</v>
       </c>
-      <c r="I17" s="27"/>
-      <c r="J17" s="27"/>
-      <c r="K17" s="27"/>
-      <c r="L17" s="28"/>
+      <c r="I17" s="33"/>
+      <c r="J17" s="33"/>
+      <c r="K17" s="33"/>
+      <c r="L17" s="34"/>
       <c r="M17" s="15"/>
       <c r="N17" s="7"/>
       <c r="O17" s="7"/>
@@ -2002,18 +2032,18 @@
         <v>13</v>
       </c>
       <c r="B18" s="8"/>
-      <c r="C18" s="37"/>
-      <c r="D18" s="38"/>
-      <c r="E18" s="38"/>
-      <c r="F18" s="38"/>
-      <c r="G18" s="39"/>
-      <c r="H18" s="26" t="s">
+      <c r="C18" s="44"/>
+      <c r="D18" s="45"/>
+      <c r="E18" s="45"/>
+      <c r="F18" s="45"/>
+      <c r="G18" s="46"/>
+      <c r="H18" s="32" t="s">
         <v>57</v>
       </c>
-      <c r="I18" s="27"/>
-      <c r="J18" s="27"/>
-      <c r="K18" s="27"/>
-      <c r="L18" s="28"/>
+      <c r="I18" s="33"/>
+      <c r="J18" s="33"/>
+      <c r="K18" s="33"/>
+      <c r="L18" s="34"/>
       <c r="M18" s="15"/>
       <c r="N18" s="7"/>
       <c r="O18" s="7"/>
@@ -2032,13 +2062,13 @@
       <c r="E19" s="24"/>
       <c r="F19" s="24"/>
       <c r="G19" s="25"/>
-      <c r="H19" s="26" t="s">
+      <c r="H19" s="32" t="s">
         <v>51</v>
       </c>
-      <c r="I19" s="27"/>
-      <c r="J19" s="27"/>
-      <c r="K19" s="27"/>
-      <c r="L19" s="28"/>
+      <c r="I19" s="33"/>
+      <c r="J19" s="33"/>
+      <c r="K19" s="33"/>
+      <c r="L19" s="34"/>
       <c r="M19" s="15"/>
       <c r="N19" s="7"/>
       <c r="O19" s="7"/>
@@ -2052,125 +2082,125 @@
       <c r="B20" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="C20" s="26" t="s">
+      <c r="C20" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="D20" s="27"/>
-      <c r="E20" s="27"/>
-      <c r="F20" s="27"/>
-      <c r="G20" s="28"/>
-      <c r="H20" s="29" t="s">
+      <c r="D20" s="33"/>
+      <c r="E20" s="33"/>
+      <c r="F20" s="33"/>
+      <c r="G20" s="34"/>
+      <c r="H20" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="I20" s="29"/>
-      <c r="J20" s="29"/>
-      <c r="K20" s="29"/>
-      <c r="L20" s="29"/>
+      <c r="I20" s="31"/>
+      <c r="J20" s="31"/>
+      <c r="K20" s="31"/>
+      <c r="L20" s="31"/>
       <c r="M20" s="15"/>
       <c r="N20" s="7"/>
       <c r="O20" s="7"/>
-      <c r="P20" s="29"/>
-      <c r="Q20" s="29"/>
+      <c r="P20" s="31"/>
+      <c r="Q20" s="31"/>
     </row>
     <row r="21" spans="1:17" ht="13.5" customHeight="1">
       <c r="A21" s="6">
         <v>16</v>
       </c>
       <c r="B21" s="21"/>
-      <c r="C21" s="26" t="s">
+      <c r="C21" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="D21" s="27"/>
-      <c r="E21" s="27"/>
-      <c r="F21" s="27"/>
-      <c r="G21" s="28"/>
-      <c r="H21" s="29" t="s">
+      <c r="D21" s="33"/>
+      <c r="E21" s="33"/>
+      <c r="F21" s="33"/>
+      <c r="G21" s="34"/>
+      <c r="H21" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="I21" s="29"/>
-      <c r="J21" s="29"/>
-      <c r="K21" s="29"/>
-      <c r="L21" s="29"/>
+      <c r="I21" s="31"/>
+      <c r="J21" s="31"/>
+      <c r="K21" s="31"/>
+      <c r="L21" s="31"/>
       <c r="M21" s="15"/>
       <c r="N21" s="7"/>
       <c r="O21" s="7"/>
-      <c r="P21" s="29"/>
-      <c r="Q21" s="29"/>
+      <c r="P21" s="31"/>
+      <c r="Q21" s="31"/>
     </row>
     <row r="22" spans="1:17" ht="13.5" customHeight="1">
       <c r="A22" s="6">
         <v>17</v>
       </c>
       <c r="B22" s="21"/>
-      <c r="C22" s="26" t="s">
+      <c r="C22" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="D22" s="27"/>
-      <c r="E22" s="27"/>
-      <c r="F22" s="27"/>
-      <c r="G22" s="28"/>
-      <c r="H22" s="29" t="s">
+      <c r="D22" s="33"/>
+      <c r="E22" s="33"/>
+      <c r="F22" s="33"/>
+      <c r="G22" s="34"/>
+      <c r="H22" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="I22" s="29"/>
-      <c r="J22" s="29"/>
-      <c r="K22" s="29"/>
-      <c r="L22" s="29"/>
+      <c r="I22" s="31"/>
+      <c r="J22" s="31"/>
+      <c r="K22" s="31"/>
+      <c r="L22" s="31"/>
       <c r="M22" s="15"/>
       <c r="N22" s="7"/>
       <c r="O22" s="7"/>
-      <c r="P22" s="29"/>
-      <c r="Q22" s="29"/>
+      <c r="P22" s="31"/>
+      <c r="Q22" s="31"/>
     </row>
     <row r="23" spans="1:17" ht="13.5" customHeight="1">
       <c r="A23" s="6">
         <v>18</v>
       </c>
       <c r="B23" s="21"/>
-      <c r="C23" s="26" t="s">
+      <c r="C23" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="D23" s="27"/>
-      <c r="E23" s="27"/>
-      <c r="F23" s="27"/>
-      <c r="G23" s="28"/>
-      <c r="H23" s="29" t="s">
+      <c r="D23" s="33"/>
+      <c r="E23" s="33"/>
+      <c r="F23" s="33"/>
+      <c r="G23" s="34"/>
+      <c r="H23" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="I23" s="29"/>
-      <c r="J23" s="29"/>
-      <c r="K23" s="29"/>
-      <c r="L23" s="29"/>
+      <c r="I23" s="31"/>
+      <c r="J23" s="31"/>
+      <c r="K23" s="31"/>
+      <c r="L23" s="31"/>
       <c r="M23" s="15"/>
       <c r="N23" s="7"/>
       <c r="O23" s="7"/>
-      <c r="P23" s="29"/>
-      <c r="Q23" s="29"/>
+      <c r="P23" s="31"/>
+      <c r="Q23" s="31"/>
     </row>
     <row r="24" spans="1:17" ht="13.5" customHeight="1">
       <c r="A24" s="6">
         <v>19</v>
       </c>
       <c r="B24" s="22"/>
-      <c r="C24" s="26" t="s">
+      <c r="C24" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="D24" s="27"/>
-      <c r="E24" s="27"/>
-      <c r="F24" s="27"/>
-      <c r="G24" s="28"/>
-      <c r="H24" s="29" t="s">
+      <c r="D24" s="33"/>
+      <c r="E24" s="33"/>
+      <c r="F24" s="33"/>
+      <c r="G24" s="34"/>
+      <c r="H24" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="I24" s="29"/>
-      <c r="J24" s="29"/>
-      <c r="K24" s="29"/>
-      <c r="L24" s="29"/>
+      <c r="I24" s="31"/>
+      <c r="J24" s="31"/>
+      <c r="K24" s="31"/>
+      <c r="L24" s="31"/>
       <c r="M24" s="15"/>
       <c r="N24" s="7"/>
       <c r="O24" s="7"/>
-      <c r="P24" s="29"/>
-      <c r="Q24" s="29"/>
+      <c r="P24" s="31"/>
+      <c r="Q24" s="31"/>
     </row>
     <row r="25" spans="1:17" ht="13.5" customHeight="1">
       <c r="A25" s="6">
@@ -2180,22 +2210,22 @@
       <c r="C25" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="D25" s="29"/>
-      <c r="E25" s="29"/>
-      <c r="F25" s="29"/>
-      <c r="G25" s="29"/>
-      <c r="H25" s="29" t="s">
+      <c r="D25" s="31"/>
+      <c r="E25" s="31"/>
+      <c r="F25" s="31"/>
+      <c r="G25" s="31"/>
+      <c r="H25" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="I25" s="29"/>
-      <c r="J25" s="29"/>
-      <c r="K25" s="29"/>
-      <c r="L25" s="29"/>
+      <c r="I25" s="31"/>
+      <c r="J25" s="31"/>
+      <c r="K25" s="31"/>
+      <c r="L25" s="31"/>
       <c r="M25" s="15"/>
       <c r="N25" s="7"/>
       <c r="O25" s="7"/>
-      <c r="P25" s="40"/>
-      <c r="Q25" s="41"/>
+      <c r="P25" s="28"/>
+      <c r="Q25" s="29"/>
     </row>
     <row r="26" spans="1:17" ht="13.5" customHeight="1">
       <c r="A26" s="6">
@@ -2205,53 +2235,53 @@
       <c r="C26" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="D26" s="29"/>
-      <c r="E26" s="29"/>
-      <c r="F26" s="29"/>
-      <c r="G26" s="29"/>
-      <c r="H26" s="29" t="s">
+      <c r="D26" s="31"/>
+      <c r="E26" s="31"/>
+      <c r="F26" s="31"/>
+      <c r="G26" s="31"/>
+      <c r="H26" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="I26" s="29"/>
-      <c r="J26" s="29"/>
-      <c r="K26" s="29"/>
-      <c r="L26" s="29"/>
+      <c r="I26" s="31"/>
+      <c r="J26" s="31"/>
+      <c r="K26" s="31"/>
+      <c r="L26" s="31"/>
       <c r="M26" s="15"/>
       <c r="N26" s="7"/>
       <c r="O26" s="7"/>
-      <c r="P26" s="29"/>
-      <c r="Q26" s="29"/>
+      <c r="P26" s="31"/>
+      <c r="Q26" s="31"/>
     </row>
     <row r="27" spans="1:17" ht="13.5" customHeight="1">
       <c r="A27" s="6">
         <v>22</v>
       </c>
       <c r="B27" s="22"/>
-      <c r="C27" s="26" t="s">
+      <c r="C27" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="D27" s="27"/>
-      <c r="E27" s="27"/>
-      <c r="F27" s="27"/>
-      <c r="G27" s="28"/>
-      <c r="H27" s="29" t="s">
+      <c r="D27" s="33"/>
+      <c r="E27" s="33"/>
+      <c r="F27" s="33"/>
+      <c r="G27" s="34"/>
+      <c r="H27" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="I27" s="29"/>
-      <c r="J27" s="29"/>
-      <c r="K27" s="29"/>
-      <c r="L27" s="29"/>
+      <c r="I27" s="31"/>
+      <c r="J27" s="31"/>
+      <c r="K27" s="31"/>
+      <c r="L27" s="31"/>
       <c r="M27" s="15"/>
       <c r="N27" s="7"/>
       <c r="O27" s="7"/>
-      <c r="P27" s="29"/>
-      <c r="Q27" s="29"/>
+      <c r="P27" s="31"/>
+      <c r="Q27" s="31"/>
     </row>
     <row r="28" spans="1:17" ht="56.5" customHeight="1">
       <c r="A28" s="6">
         <v>23</v>
       </c>
-      <c r="B28" s="61" t="s">
+      <c r="B28" s="26" t="s">
         <v>42</v>
       </c>
       <c r="C28" s="30" t="s">
@@ -2261,24 +2291,24 @@
       <c r="E28" s="30"/>
       <c r="F28" s="30"/>
       <c r="G28" s="30"/>
-      <c r="H28" s="29" t="s">
+      <c r="H28" s="31" t="s">
         <v>59</v>
       </c>
-      <c r="I28" s="29"/>
-      <c r="J28" s="29"/>
-      <c r="K28" s="29"/>
-      <c r="L28" s="29"/>
+      <c r="I28" s="31"/>
+      <c r="J28" s="31"/>
+      <c r="K28" s="31"/>
+      <c r="L28" s="31"/>
       <c r="M28" s="15"/>
       <c r="N28" s="7"/>
       <c r="O28" s="7"/>
-      <c r="P28" s="29"/>
-      <c r="Q28" s="29"/>
+      <c r="P28" s="31"/>
+      <c r="Q28" s="31"/>
     </row>
     <row r="29" spans="1:17" ht="43.5" customHeight="1">
       <c r="A29" s="6">
         <v>24</v>
       </c>
-      <c r="B29" s="64"/>
+      <c r="B29" s="47"/>
       <c r="C29" s="30" t="s">
         <v>63</v>
       </c>
@@ -2286,54 +2316,61 @@
       <c r="E29" s="30"/>
       <c r="F29" s="30"/>
       <c r="G29" s="30"/>
-      <c r="H29" s="29" t="s">
+      <c r="H29" s="31" t="s">
         <v>59</v>
       </c>
-      <c r="I29" s="29"/>
-      <c r="J29" s="29"/>
-      <c r="K29" s="29"/>
-      <c r="L29" s="29"/>
+      <c r="I29" s="31"/>
+      <c r="J29" s="31"/>
+      <c r="K29" s="31"/>
+      <c r="L29" s="31"/>
       <c r="M29" s="15"/>
       <c r="N29" s="7"/>
       <c r="O29" s="7"/>
-      <c r="P29" s="29"/>
-      <c r="Q29" s="29"/>
+      <c r="P29" s="31"/>
+      <c r="Q29" s="31"/>
+    </row>
+    <row r="30" spans="1:17" ht="58.5" customHeight="1">
+      <c r="A30" s="6">
+        <v>25</v>
+      </c>
+      <c r="B30" s="27"/>
+      <c r="C30" s="32" t="s">
+        <v>64</v>
+      </c>
+      <c r="D30" s="33"/>
+      <c r="E30" s="33"/>
+      <c r="F30" s="33"/>
+      <c r="G30" s="34"/>
+      <c r="H30" s="65" t="s">
+        <v>65</v>
+      </c>
+      <c r="I30" s="66"/>
+      <c r="J30" s="66"/>
+      <c r="K30" s="66"/>
+      <c r="L30" s="67"/>
+      <c r="M30" s="15"/>
+      <c r="N30" s="7"/>
+      <c r="O30" s="7"/>
+      <c r="P30" s="16"/>
+      <c r="Q30" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="66">
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="P25:Q25"/>
-    <mergeCell ref="C28:G28"/>
-    <mergeCell ref="H28:L28"/>
-    <mergeCell ref="P28:Q28"/>
-    <mergeCell ref="C29:G29"/>
-    <mergeCell ref="H29:L29"/>
-    <mergeCell ref="P29:Q29"/>
-    <mergeCell ref="H26:L26"/>
-    <mergeCell ref="P26:Q26"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="H25:L25"/>
-    <mergeCell ref="C27:G27"/>
-    <mergeCell ref="H27:L27"/>
-    <mergeCell ref="P27:Q27"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="H5:L5"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="H20:L20"/>
-    <mergeCell ref="P20:Q20"/>
-    <mergeCell ref="H18:L18"/>
-    <mergeCell ref="H17:L17"/>
-    <mergeCell ref="C14:G18"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="H6:L6"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="H7:L7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="H19:L19"/>
-    <mergeCell ref="H14:L14"/>
+  <mergeCells count="68">
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="H30:L30"/>
+    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="H23:L23"/>
+    <mergeCell ref="P23:Q23"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="H21:L21"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="H24:L24"/>
+    <mergeCell ref="P24:Q24"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="H22:L22"/>
+    <mergeCell ref="P22:Q22"/>
     <mergeCell ref="P21:Q21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:E1"/>
@@ -2350,23 +2387,43 @@
     <mergeCell ref="H16:L16"/>
     <mergeCell ref="C8:G13"/>
     <mergeCell ref="H8:L8"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="H6:L6"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="H7:L7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="H5:L5"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="H20:L20"/>
+    <mergeCell ref="P20:Q20"/>
+    <mergeCell ref="H18:L18"/>
+    <mergeCell ref="H17:L17"/>
+    <mergeCell ref="C14:G18"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="H19:L19"/>
+    <mergeCell ref="H14:L14"/>
     <mergeCell ref="H9:L9"/>
     <mergeCell ref="H10:L10"/>
     <mergeCell ref="H11:L11"/>
     <mergeCell ref="H12:L12"/>
     <mergeCell ref="H13:L13"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="H23:L23"/>
-    <mergeCell ref="P23:Q23"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="H21:L21"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="H24:L24"/>
-    <mergeCell ref="P24:Q24"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="H22:L22"/>
-    <mergeCell ref="P22:Q22"/>
+    <mergeCell ref="P25:Q25"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="H28:L28"/>
+    <mergeCell ref="P28:Q28"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="H29:L29"/>
+    <mergeCell ref="P29:Q29"/>
+    <mergeCell ref="H26:L26"/>
+    <mergeCell ref="P26:Q26"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="H25:L25"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="H27:L27"/>
+    <mergeCell ref="P27:Q27"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.27559055118110237" header="0.35433070866141736" footer="0.15748031496062992"/>

--- a/plan/test/結合テスト/結合テスト仕様書-BP014新商品登録(完了).xlsx
+++ b/plan/test/結合テスト/結合テスト仕様書-BP014新商品登録(完了).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fullness\Desktop\work\java-review\ec-b\plan\test\結合テスト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1886F3CF-6EB2-4128-8D8D-B494DEAB2738}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C531DF1-A51F-487C-B443-141491390507}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9510" yWindow="0" windowWidth="9780" windowHeight="10170" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="商品削除（確認）" sheetId="177" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="70">
   <si>
     <t>作成者</t>
   </si>
@@ -683,6 +683,43 @@
     </rPh>
     <rPh sb="8" eb="10">
       <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>舘川佳苗</t>
+    <rPh sb="0" eb="4">
+      <t>タテカワカナエ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>〇</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>修正済み</t>
+    <rPh sb="0" eb="2">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ズ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>商品名が付いていない（修正済み）</t>
+    <rPh sb="0" eb="3">
+      <t>ショウヒンメイ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ツ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ズ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1104,131 +1141,131 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1582,8 +1619,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{776758EE-792E-45DD-A875-220DAC06338B}">
   <dimension ref="A1:Q30"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A23" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21:A30"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D3" zoomScale="64" zoomScaleNormal="64" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="11.25" customHeight="1"/>
@@ -1599,25 +1636,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="50" t="s">
+      <c r="B1" s="37"/>
+      <c r="C1" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="51"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="53" t="s">
+      <c r="D1" s="40"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
-      <c r="I1" s="53"/>
-      <c r="J1" s="53"/>
-      <c r="K1" s="53"/>
-      <c r="L1" s="53"/>
-      <c r="M1" s="53"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="42"/>
+      <c r="L1" s="42"/>
+      <c r="M1" s="42"/>
       <c r="N1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1632,23 +1669,23 @@
       </c>
     </row>
     <row r="2" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A2" s="49"/>
-      <c r="B2" s="49"/>
-      <c r="C2" s="54" t="s">
+      <c r="A2" s="38"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="55"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="57" t="s">
+      <c r="D2" s="44"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="46" t="s">
         <v>44</v>
       </c>
-      <c r="G2" s="58"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="58"/>
-      <c r="J2" s="58"/>
-      <c r="K2" s="58"/>
-      <c r="L2" s="58"/>
-      <c r="M2" s="59"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="47"/>
+      <c r="J2" s="47"/>
+      <c r="K2" s="47"/>
+      <c r="L2" s="47"/>
+      <c r="M2" s="48"/>
       <c r="N2" s="9" t="s">
         <v>1</v>
       </c>
@@ -1658,53 +1695,55 @@
       <c r="P2" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="Q2" s="12"/>
+      <c r="Q2" s="12" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="3" spans="1:17" ht="143.5" customHeight="1">
-      <c r="A3" s="60" t="s">
+      <c r="A3" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="61"/>
-      <c r="C3" s="62" t="s">
+      <c r="B3" s="50"/>
+      <c r="C3" s="51" t="s">
         <v>48</v>
       </c>
-      <c r="D3" s="63"/>
-      <c r="E3" s="63"/>
-      <c r="F3" s="63"/>
-      <c r="G3" s="63"/>
-      <c r="H3" s="63"/>
-      <c r="I3" s="63"/>
-      <c r="J3" s="63"/>
-      <c r="K3" s="63"/>
-      <c r="L3" s="63"/>
-      <c r="M3" s="63"/>
-      <c r="N3" s="63"/>
-      <c r="O3" s="63"/>
-      <c r="P3" s="63"/>
-      <c r="Q3" s="64"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="52"/>
+      <c r="I3" s="52"/>
+      <c r="J3" s="52"/>
+      <c r="K3" s="52"/>
+      <c r="L3" s="52"/>
+      <c r="M3" s="52"/>
+      <c r="N3" s="52"/>
+      <c r="O3" s="52"/>
+      <c r="P3" s="52"/>
+      <c r="Q3" s="53"/>
     </row>
     <row r="4" spans="1:17" ht="31.5" customHeight="1">
-      <c r="A4" s="60" t="s">
+      <c r="A4" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="61"/>
-      <c r="C4" s="62" t="s">
+      <c r="B4" s="50"/>
+      <c r="C4" s="51" t="s">
         <v>47</v>
       </c>
-      <c r="D4" s="63"/>
-      <c r="E4" s="63"/>
-      <c r="F4" s="63"/>
-      <c r="G4" s="63"/>
-      <c r="H4" s="63"/>
-      <c r="I4" s="63"/>
-      <c r="J4" s="63"/>
-      <c r="K4" s="63"/>
-      <c r="L4" s="63"/>
-      <c r="M4" s="63"/>
-      <c r="N4" s="63"/>
-      <c r="O4" s="63"/>
-      <c r="P4" s="63"/>
-      <c r="Q4" s="64"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
+      <c r="H4" s="52"/>
+      <c r="I4" s="52"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="52"/>
+      <c r="L4" s="52"/>
+      <c r="M4" s="52"/>
+      <c r="N4" s="52"/>
+      <c r="O4" s="52"/>
+      <c r="P4" s="52"/>
+      <c r="Q4" s="53"/>
     </row>
     <row r="5" spans="1:17" ht="15" customHeight="1">
       <c r="A5" s="14" t="s">
@@ -1713,20 +1752,20 @@
       <c r="B5" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="35" t="s">
+      <c r="C5" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="36"/>
-      <c r="E5" s="36"/>
-      <c r="F5" s="36"/>
-      <c r="G5" s="37"/>
-      <c r="H5" s="35" t="s">
+      <c r="D5" s="67"/>
+      <c r="E5" s="67"/>
+      <c r="F5" s="67"/>
+      <c r="G5" s="57"/>
+      <c r="H5" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="36"/>
-      <c r="J5" s="36"/>
-      <c r="K5" s="36"/>
-      <c r="L5" s="36"/>
+      <c r="I5" s="67"/>
+      <c r="J5" s="67"/>
+      <c r="K5" s="67"/>
+      <c r="L5" s="67"/>
       <c r="M5" s="14" t="s">
         <v>13</v>
       </c>
@@ -1736,85 +1775,93 @@
       <c r="O5" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="P5" s="35" t="s">
+      <c r="P5" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="Q5" s="37"/>
+      <c r="Q5" s="57"/>
     </row>
     <row r="6" spans="1:17" ht="11">
       <c r="A6" s="6">
         <v>1</v>
       </c>
-      <c r="B6" s="26" t="s">
+      <c r="B6" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="31" t="s">
+      <c r="C6" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="31"/>
-      <c r="E6" s="31"/>
-      <c r="F6" s="31"/>
-      <c r="G6" s="31"/>
-      <c r="H6" s="31" t="s">
+      <c r="D6" s="35"/>
+      <c r="E6" s="35"/>
+      <c r="F6" s="35"/>
+      <c r="G6" s="35"/>
+      <c r="H6" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="I6" s="31"/>
-      <c r="J6" s="31"/>
-      <c r="K6" s="31"/>
-      <c r="L6" s="31"/>
+      <c r="I6" s="35"/>
+      <c r="J6" s="35"/>
+      <c r="K6" s="35"/>
+      <c r="L6" s="35"/>
       <c r="M6" s="15"/>
       <c r="N6" s="7"/>
-      <c r="O6" s="7"/>
-      <c r="P6" s="31"/>
-      <c r="Q6" s="31"/>
+      <c r="O6" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="P6" s="35" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q6" s="35"/>
     </row>
     <row r="7" spans="1:17" ht="11" customHeight="1">
       <c r="A7" s="6">
         <v>2</v>
       </c>
-      <c r="B7" s="47"/>
-      <c r="C7" s="31" t="s">
+      <c r="B7" s="33"/>
+      <c r="C7" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="31"/>
-      <c r="E7" s="31"/>
-      <c r="F7" s="31"/>
-      <c r="G7" s="31"/>
-      <c r="H7" s="31" t="s">
+      <c r="D7" s="35"/>
+      <c r="E7" s="35"/>
+      <c r="F7" s="35"/>
+      <c r="G7" s="35"/>
+      <c r="H7" s="35" t="s">
         <v>49</v>
       </c>
-      <c r="I7" s="31"/>
-      <c r="J7" s="31"/>
-      <c r="K7" s="31"/>
-      <c r="L7" s="31"/>
+      <c r="I7" s="35"/>
+      <c r="J7" s="35"/>
+      <c r="K7" s="35"/>
+      <c r="L7" s="35"/>
       <c r="M7" s="15"/>
       <c r="N7" s="7"/>
-      <c r="O7" s="7"/>
-      <c r="P7" s="31"/>
-      <c r="Q7" s="31"/>
+      <c r="O7" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="P7" s="35"/>
+      <c r="Q7" s="35"/>
     </row>
     <row r="8" spans="1:17" ht="11" customHeight="1">
       <c r="A8" s="6">
         <v>3</v>
       </c>
       <c r="B8" s="8"/>
-      <c r="C8" s="38" t="s">
+      <c r="C8" s="58" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="39"/>
-      <c r="E8" s="39"/>
-      <c r="F8" s="39"/>
-      <c r="G8" s="40"/>
-      <c r="H8" s="32" t="s">
+      <c r="D8" s="59"/>
+      <c r="E8" s="59"/>
+      <c r="F8" s="59"/>
+      <c r="G8" s="60"/>
+      <c r="H8" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="I8" s="33"/>
-      <c r="J8" s="33"/>
-      <c r="K8" s="33"/>
-      <c r="L8" s="34"/>
+      <c r="I8" s="27"/>
+      <c r="J8" s="27"/>
+      <c r="K8" s="27"/>
+      <c r="L8" s="28"/>
       <c r="M8" s="15"/>
       <c r="N8" s="7"/>
-      <c r="O8" s="7"/>
+      <c r="O8" s="2" t="s">
+        <v>67</v>
+      </c>
       <c r="P8" s="16"/>
       <c r="Q8" s="17"/>
     </row>
@@ -1823,21 +1870,23 @@
         <v>4</v>
       </c>
       <c r="B9" s="8"/>
-      <c r="C9" s="41"/>
-      <c r="D9" s="42"/>
-      <c r="E9" s="42"/>
-      <c r="F9" s="42"/>
-      <c r="G9" s="43"/>
-      <c r="H9" s="32" t="s">
+      <c r="C9" s="61"/>
+      <c r="D9" s="62"/>
+      <c r="E9" s="62"/>
+      <c r="F9" s="62"/>
+      <c r="G9" s="63"/>
+      <c r="H9" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="I9" s="33"/>
-      <c r="J9" s="33"/>
-      <c r="K9" s="33"/>
-      <c r="L9" s="34"/>
+      <c r="I9" s="27"/>
+      <c r="J9" s="27"/>
+      <c r="K9" s="27"/>
+      <c r="L9" s="28"/>
       <c r="M9" s="15"/>
       <c r="N9" s="7"/>
-      <c r="O9" s="7"/>
+      <c r="O9" s="2" t="s">
+        <v>67</v>
+      </c>
       <c r="P9" s="16"/>
       <c r="Q9" s="17"/>
     </row>
@@ -1846,21 +1895,23 @@
         <v>5</v>
       </c>
       <c r="B10" s="8"/>
-      <c r="C10" s="41"/>
-      <c r="D10" s="42"/>
-      <c r="E10" s="42"/>
-      <c r="F10" s="42"/>
-      <c r="G10" s="43"/>
-      <c r="H10" s="32" t="s">
+      <c r="C10" s="61"/>
+      <c r="D10" s="62"/>
+      <c r="E10" s="62"/>
+      <c r="F10" s="62"/>
+      <c r="G10" s="63"/>
+      <c r="H10" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="I10" s="33"/>
-      <c r="J10" s="33"/>
-      <c r="K10" s="33"/>
-      <c r="L10" s="34"/>
+      <c r="I10" s="27"/>
+      <c r="J10" s="27"/>
+      <c r="K10" s="27"/>
+      <c r="L10" s="28"/>
       <c r="M10" s="15"/>
       <c r="N10" s="7"/>
-      <c r="O10" s="7"/>
+      <c r="O10" s="2" t="s">
+        <v>67</v>
+      </c>
       <c r="P10" s="16"/>
       <c r="Q10" s="17"/>
     </row>
@@ -1869,21 +1920,23 @@
         <v>6</v>
       </c>
       <c r="B11" s="8"/>
-      <c r="C11" s="41"/>
-      <c r="D11" s="42"/>
-      <c r="E11" s="42"/>
-      <c r="F11" s="42"/>
-      <c r="G11" s="43"/>
-      <c r="H11" s="32" t="s">
+      <c r="C11" s="61"/>
+      <c r="D11" s="62"/>
+      <c r="E11" s="62"/>
+      <c r="F11" s="62"/>
+      <c r="G11" s="63"/>
+      <c r="H11" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="I11" s="33"/>
-      <c r="J11" s="33"/>
-      <c r="K11" s="33"/>
-      <c r="L11" s="34"/>
+      <c r="I11" s="27"/>
+      <c r="J11" s="27"/>
+      <c r="K11" s="27"/>
+      <c r="L11" s="28"/>
       <c r="M11" s="15"/>
       <c r="N11" s="7"/>
-      <c r="O11" s="7"/>
+      <c r="O11" s="2" t="s">
+        <v>67</v>
+      </c>
       <c r="P11" s="16"/>
       <c r="Q11" s="17"/>
     </row>
@@ -1892,21 +1945,23 @@
         <v>7</v>
       </c>
       <c r="B12" s="8"/>
-      <c r="C12" s="41"/>
-      <c r="D12" s="42"/>
-      <c r="E12" s="42"/>
-      <c r="F12" s="42"/>
-      <c r="G12" s="43"/>
-      <c r="H12" s="32" t="s">
+      <c r="C12" s="61"/>
+      <c r="D12" s="62"/>
+      <c r="E12" s="62"/>
+      <c r="F12" s="62"/>
+      <c r="G12" s="63"/>
+      <c r="H12" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="I12" s="33"/>
-      <c r="J12" s="33"/>
-      <c r="K12" s="33"/>
-      <c r="L12" s="34"/>
+      <c r="I12" s="27"/>
+      <c r="J12" s="27"/>
+      <c r="K12" s="27"/>
+      <c r="L12" s="28"/>
       <c r="M12" s="15"/>
       <c r="N12" s="7"/>
-      <c r="O12" s="7"/>
+      <c r="O12" s="2" t="s">
+        <v>67</v>
+      </c>
       <c r="P12" s="16"/>
       <c r="Q12" s="17"/>
     </row>
@@ -1915,46 +1970,50 @@
         <v>8</v>
       </c>
       <c r="B13" s="8"/>
-      <c r="C13" s="44"/>
-      <c r="D13" s="45"/>
-      <c r="E13" s="45"/>
-      <c r="F13" s="45"/>
-      <c r="G13" s="46"/>
-      <c r="H13" s="32" t="s">
+      <c r="C13" s="64"/>
+      <c r="D13" s="65"/>
+      <c r="E13" s="65"/>
+      <c r="F13" s="65"/>
+      <c r="G13" s="66"/>
+      <c r="H13" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="I13" s="33"/>
-      <c r="J13" s="33"/>
-      <c r="K13" s="33"/>
-      <c r="L13" s="34"/>
+      <c r="I13" s="27"/>
+      <c r="J13" s="27"/>
+      <c r="K13" s="27"/>
+      <c r="L13" s="28"/>
       <c r="M13" s="15"/>
       <c r="N13" s="7"/>
-      <c r="O13" s="7"/>
-      <c r="P13" s="28"/>
-      <c r="Q13" s="29"/>
+      <c r="O13" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="P13" s="54"/>
+      <c r="Q13" s="55"/>
     </row>
     <row r="14" spans="1:17" ht="11" customHeight="1">
       <c r="A14" s="6">
         <v>9</v>
       </c>
       <c r="B14" s="8"/>
-      <c r="C14" s="38" t="s">
+      <c r="C14" s="58" t="s">
         <v>52</v>
       </c>
-      <c r="D14" s="39"/>
-      <c r="E14" s="39"/>
-      <c r="F14" s="39"/>
-      <c r="G14" s="40"/>
-      <c r="H14" s="32" t="s">
+      <c r="D14" s="59"/>
+      <c r="E14" s="59"/>
+      <c r="F14" s="59"/>
+      <c r="G14" s="60"/>
+      <c r="H14" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="I14" s="33"/>
-      <c r="J14" s="33"/>
-      <c r="K14" s="33"/>
-      <c r="L14" s="34"/>
+      <c r="I14" s="27"/>
+      <c r="J14" s="27"/>
+      <c r="K14" s="27"/>
+      <c r="L14" s="28"/>
       <c r="M14" s="15"/>
       <c r="N14" s="7"/>
-      <c r="O14" s="7"/>
+      <c r="O14" s="2" t="s">
+        <v>67</v>
+      </c>
       <c r="P14" s="18"/>
       <c r="Q14" s="19"/>
     </row>
@@ -1963,44 +2022,50 @@
         <v>10</v>
       </c>
       <c r="B15" s="8"/>
-      <c r="C15" s="41"/>
-      <c r="D15" s="42"/>
-      <c r="E15" s="42"/>
-      <c r="F15" s="42"/>
-      <c r="G15" s="43"/>
-      <c r="H15" s="32" t="s">
+      <c r="C15" s="61"/>
+      <c r="D15" s="62"/>
+      <c r="E15" s="62"/>
+      <c r="F15" s="62"/>
+      <c r="G15" s="63"/>
+      <c r="H15" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="I15" s="33"/>
-      <c r="J15" s="33"/>
-      <c r="K15" s="33"/>
-      <c r="L15" s="34"/>
+      <c r="I15" s="27"/>
+      <c r="J15" s="27"/>
+      <c r="K15" s="27"/>
+      <c r="L15" s="28"/>
       <c r="M15" s="15"/>
       <c r="N15" s="7"/>
-      <c r="O15" s="7"/>
-      <c r="P15" s="28"/>
-      <c r="Q15" s="29"/>
+      <c r="O15" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="P15" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q15" s="31"/>
     </row>
     <row r="16" spans="1:17" ht="11" customHeight="1">
       <c r="A16" s="6">
         <v>11</v>
       </c>
       <c r="B16" s="8"/>
-      <c r="C16" s="41"/>
-      <c r="D16" s="42"/>
-      <c r="E16" s="42"/>
-      <c r="F16" s="42"/>
-      <c r="G16" s="43"/>
-      <c r="H16" s="32" t="s">
+      <c r="C16" s="61"/>
+      <c r="D16" s="62"/>
+      <c r="E16" s="62"/>
+      <c r="F16" s="62"/>
+      <c r="G16" s="63"/>
+      <c r="H16" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="I16" s="33"/>
-      <c r="J16" s="33"/>
-      <c r="K16" s="33"/>
-      <c r="L16" s="34"/>
+      <c r="I16" s="27"/>
+      <c r="J16" s="27"/>
+      <c r="K16" s="27"/>
+      <c r="L16" s="28"/>
       <c r="M16" s="15"/>
       <c r="N16" s="7"/>
-      <c r="O16" s="7"/>
+      <c r="O16" s="2" t="s">
+        <v>67</v>
+      </c>
       <c r="P16" s="18"/>
       <c r="Q16" s="19"/>
     </row>
@@ -2009,21 +2074,23 @@
         <v>12</v>
       </c>
       <c r="B17" s="8"/>
-      <c r="C17" s="41"/>
-      <c r="D17" s="42"/>
-      <c r="E17" s="42"/>
-      <c r="F17" s="42"/>
-      <c r="G17" s="43"/>
-      <c r="H17" s="32" t="s">
+      <c r="C17" s="61"/>
+      <c r="D17" s="62"/>
+      <c r="E17" s="62"/>
+      <c r="F17" s="62"/>
+      <c r="G17" s="63"/>
+      <c r="H17" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="I17" s="33"/>
-      <c r="J17" s="33"/>
-      <c r="K17" s="33"/>
-      <c r="L17" s="34"/>
+      <c r="I17" s="27"/>
+      <c r="J17" s="27"/>
+      <c r="K17" s="27"/>
+      <c r="L17" s="28"/>
       <c r="M17" s="15"/>
       <c r="N17" s="7"/>
-      <c r="O17" s="7"/>
+      <c r="O17" s="2" t="s">
+        <v>67</v>
+      </c>
       <c r="P17" s="18"/>
       <c r="Q17" s="19"/>
     </row>
@@ -2032,21 +2099,23 @@
         <v>13</v>
       </c>
       <c r="B18" s="8"/>
-      <c r="C18" s="44"/>
-      <c r="D18" s="45"/>
-      <c r="E18" s="45"/>
-      <c r="F18" s="45"/>
-      <c r="G18" s="46"/>
-      <c r="H18" s="32" t="s">
+      <c r="C18" s="64"/>
+      <c r="D18" s="65"/>
+      <c r="E18" s="65"/>
+      <c r="F18" s="65"/>
+      <c r="G18" s="66"/>
+      <c r="H18" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="I18" s="33"/>
-      <c r="J18" s="33"/>
-      <c r="K18" s="33"/>
-      <c r="L18" s="34"/>
+      <c r="I18" s="27"/>
+      <c r="J18" s="27"/>
+      <c r="K18" s="27"/>
+      <c r="L18" s="28"/>
       <c r="M18" s="15"/>
       <c r="N18" s="7"/>
-      <c r="O18" s="7"/>
+      <c r="O18" s="2" t="s">
+        <v>67</v>
+      </c>
       <c r="P18" s="18"/>
       <c r="Q18" s="19"/>
     </row>
@@ -2062,16 +2131,18 @@
       <c r="E19" s="24"/>
       <c r="F19" s="24"/>
       <c r="G19" s="25"/>
-      <c r="H19" s="32" t="s">
+      <c r="H19" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="I19" s="33"/>
-      <c r="J19" s="33"/>
-      <c r="K19" s="33"/>
-      <c r="L19" s="34"/>
+      <c r="I19" s="27"/>
+      <c r="J19" s="27"/>
+      <c r="K19" s="27"/>
+      <c r="L19" s="28"/>
       <c r="M19" s="15"/>
       <c r="N19" s="7"/>
-      <c r="O19" s="7"/>
+      <c r="O19" s="2" t="s">
+        <v>67</v>
+      </c>
       <c r="P19" s="18"/>
       <c r="Q19" s="19"/>
     </row>
@@ -2082,272 +2153,288 @@
       <c r="B20" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="C20" s="32" t="s">
+      <c r="C20" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="D20" s="33"/>
-      <c r="E20" s="33"/>
-      <c r="F20" s="33"/>
-      <c r="G20" s="34"/>
-      <c r="H20" s="31" t="s">
+      <c r="D20" s="27"/>
+      <c r="E20" s="27"/>
+      <c r="F20" s="27"/>
+      <c r="G20" s="28"/>
+      <c r="H20" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="I20" s="31"/>
-      <c r="J20" s="31"/>
-      <c r="K20" s="31"/>
-      <c r="L20" s="31"/>
+      <c r="I20" s="35"/>
+      <c r="J20" s="35"/>
+      <c r="K20" s="35"/>
+      <c r="L20" s="35"/>
       <c r="M20" s="15"/>
       <c r="N20" s="7"/>
-      <c r="O20" s="7"/>
-      <c r="P20" s="31"/>
-      <c r="Q20" s="31"/>
+      <c r="O20" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="P20" s="35"/>
+      <c r="Q20" s="35"/>
     </row>
     <row r="21" spans="1:17" ht="13.5" customHeight="1">
       <c r="A21" s="6">
         <v>16</v>
       </c>
       <c r="B21" s="21"/>
-      <c r="C21" s="32" t="s">
+      <c r="C21" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="D21" s="33"/>
-      <c r="E21" s="33"/>
-      <c r="F21" s="33"/>
-      <c r="G21" s="34"/>
-      <c r="H21" s="31" t="s">
+      <c r="D21" s="27"/>
+      <c r="E21" s="27"/>
+      <c r="F21" s="27"/>
+      <c r="G21" s="28"/>
+      <c r="H21" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="I21" s="31"/>
-      <c r="J21" s="31"/>
-      <c r="K21" s="31"/>
-      <c r="L21" s="31"/>
+      <c r="I21" s="35"/>
+      <c r="J21" s="35"/>
+      <c r="K21" s="35"/>
+      <c r="L21" s="35"/>
       <c r="M21" s="15"/>
       <c r="N21" s="7"/>
-      <c r="O21" s="7"/>
-      <c r="P21" s="31"/>
-      <c r="Q21" s="31"/>
+      <c r="O21" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="P21" s="35"/>
+      <c r="Q21" s="35"/>
     </row>
     <row r="22" spans="1:17" ht="13.5" customHeight="1">
       <c r="A22" s="6">
         <v>17</v>
       </c>
       <c r="B22" s="21"/>
-      <c r="C22" s="32" t="s">
+      <c r="C22" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="D22" s="33"/>
-      <c r="E22" s="33"/>
-      <c r="F22" s="33"/>
-      <c r="G22" s="34"/>
-      <c r="H22" s="31" t="s">
+      <c r="D22" s="27"/>
+      <c r="E22" s="27"/>
+      <c r="F22" s="27"/>
+      <c r="G22" s="28"/>
+      <c r="H22" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="I22" s="31"/>
-      <c r="J22" s="31"/>
-      <c r="K22" s="31"/>
-      <c r="L22" s="31"/>
+      <c r="I22" s="35"/>
+      <c r="J22" s="35"/>
+      <c r="K22" s="35"/>
+      <c r="L22" s="35"/>
       <c r="M22" s="15"/>
       <c r="N22" s="7"/>
-      <c r="O22" s="7"/>
-      <c r="P22" s="31"/>
-      <c r="Q22" s="31"/>
+      <c r="O22" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="P22" s="35"/>
+      <c r="Q22" s="35"/>
     </row>
     <row r="23" spans="1:17" ht="13.5" customHeight="1">
       <c r="A23" s="6">
         <v>18</v>
       </c>
       <c r="B23" s="21"/>
-      <c r="C23" s="32" t="s">
+      <c r="C23" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="D23" s="33"/>
-      <c r="E23" s="33"/>
-      <c r="F23" s="33"/>
-      <c r="G23" s="34"/>
-      <c r="H23" s="31" t="s">
+      <c r="D23" s="27"/>
+      <c r="E23" s="27"/>
+      <c r="F23" s="27"/>
+      <c r="G23" s="28"/>
+      <c r="H23" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="I23" s="31"/>
-      <c r="J23" s="31"/>
-      <c r="K23" s="31"/>
-      <c r="L23" s="31"/>
+      <c r="I23" s="35"/>
+      <c r="J23" s="35"/>
+      <c r="K23" s="35"/>
+      <c r="L23" s="35"/>
       <c r="M23" s="15"/>
       <c r="N23" s="7"/>
-      <c r="O23" s="7"/>
-      <c r="P23" s="31"/>
-      <c r="Q23" s="31"/>
+      <c r="O23" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="P23" s="35"/>
+      <c r="Q23" s="35"/>
     </row>
     <row r="24" spans="1:17" ht="13.5" customHeight="1">
       <c r="A24" s="6">
         <v>19</v>
       </c>
       <c r="B24" s="22"/>
-      <c r="C24" s="32" t="s">
+      <c r="C24" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="D24" s="33"/>
-      <c r="E24" s="33"/>
-      <c r="F24" s="33"/>
-      <c r="G24" s="34"/>
-      <c r="H24" s="31" t="s">
+      <c r="D24" s="27"/>
+      <c r="E24" s="27"/>
+      <c r="F24" s="27"/>
+      <c r="G24" s="28"/>
+      <c r="H24" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="I24" s="31"/>
-      <c r="J24" s="31"/>
-      <c r="K24" s="31"/>
-      <c r="L24" s="31"/>
+      <c r="I24" s="35"/>
+      <c r="J24" s="35"/>
+      <c r="K24" s="35"/>
+      <c r="L24" s="35"/>
       <c r="M24" s="15"/>
       <c r="N24" s="7"/>
-      <c r="O24" s="7"/>
-      <c r="P24" s="31"/>
-      <c r="Q24" s="31"/>
+      <c r="O24" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="P24" s="35"/>
+      <c r="Q24" s="35"/>
     </row>
     <row r="25" spans="1:17" ht="13.5" customHeight="1">
       <c r="A25" s="6">
         <v>20</v>
       </c>
       <c r="B25" s="21"/>
-      <c r="C25" s="30" t="s">
+      <c r="C25" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="D25" s="31"/>
-      <c r="E25" s="31"/>
-      <c r="F25" s="31"/>
-      <c r="G25" s="31"/>
-      <c r="H25" s="31" t="s">
+      <c r="D25" s="35"/>
+      <c r="E25" s="35"/>
+      <c r="F25" s="35"/>
+      <c r="G25" s="35"/>
+      <c r="H25" s="35" t="s">
         <v>60</v>
       </c>
-      <c r="I25" s="31"/>
-      <c r="J25" s="31"/>
-      <c r="K25" s="31"/>
-      <c r="L25" s="31"/>
+      <c r="I25" s="35"/>
+      <c r="J25" s="35"/>
+      <c r="K25" s="35"/>
+      <c r="L25" s="35"/>
       <c r="M25" s="15"/>
       <c r="N25" s="7"/>
-      <c r="O25" s="7"/>
-      <c r="P25" s="28"/>
-      <c r="Q25" s="29"/>
+      <c r="O25" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="P25" s="54"/>
+      <c r="Q25" s="55"/>
     </row>
     <row r="26" spans="1:17" ht="13.5" customHeight="1">
       <c r="A26" s="6">
         <v>21</v>
       </c>
       <c r="B26" s="21"/>
-      <c r="C26" s="30" t="s">
+      <c r="C26" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="D26" s="31"/>
-      <c r="E26" s="31"/>
-      <c r="F26" s="31"/>
-      <c r="G26" s="31"/>
-      <c r="H26" s="31" t="s">
+      <c r="D26" s="35"/>
+      <c r="E26" s="35"/>
+      <c r="F26" s="35"/>
+      <c r="G26" s="35"/>
+      <c r="H26" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="I26" s="31"/>
-      <c r="J26" s="31"/>
-      <c r="K26" s="31"/>
-      <c r="L26" s="31"/>
+      <c r="I26" s="35"/>
+      <c r="J26" s="35"/>
+      <c r="K26" s="35"/>
+      <c r="L26" s="35"/>
       <c r="M26" s="15"/>
       <c r="N26" s="7"/>
-      <c r="O26" s="7"/>
-      <c r="P26" s="31"/>
-      <c r="Q26" s="31"/>
+      <c r="O26" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="P26" s="35"/>
+      <c r="Q26" s="35"/>
     </row>
     <row r="27" spans="1:17" ht="13.5" customHeight="1">
       <c r="A27" s="6">
         <v>22</v>
       </c>
       <c r="B27" s="22"/>
-      <c r="C27" s="32" t="s">
+      <c r="C27" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="D27" s="33"/>
-      <c r="E27" s="33"/>
-      <c r="F27" s="33"/>
-      <c r="G27" s="34"/>
-      <c r="H27" s="31" t="s">
+      <c r="D27" s="27"/>
+      <c r="E27" s="27"/>
+      <c r="F27" s="27"/>
+      <c r="G27" s="28"/>
+      <c r="H27" s="35" t="s">
         <v>61</v>
       </c>
-      <c r="I27" s="31"/>
-      <c r="J27" s="31"/>
-      <c r="K27" s="31"/>
-      <c r="L27" s="31"/>
+      <c r="I27" s="35"/>
+      <c r="J27" s="35"/>
+      <c r="K27" s="35"/>
+      <c r="L27" s="35"/>
       <c r="M27" s="15"/>
       <c r="N27" s="7"/>
-      <c r="O27" s="7"/>
-      <c r="P27" s="31"/>
-      <c r="Q27" s="31"/>
+      <c r="O27" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="P27" s="35"/>
+      <c r="Q27" s="35"/>
     </row>
     <row r="28" spans="1:17" ht="56.5" customHeight="1">
       <c r="A28" s="6">
         <v>23</v>
       </c>
-      <c r="B28" s="26" t="s">
+      <c r="B28" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="C28" s="30" t="s">
+      <c r="C28" s="36" t="s">
         <v>62</v>
       </c>
-      <c r="D28" s="30"/>
-      <c r="E28" s="30"/>
-      <c r="F28" s="30"/>
-      <c r="G28" s="30"/>
-      <c r="H28" s="31" t="s">
+      <c r="D28" s="36"/>
+      <c r="E28" s="36"/>
+      <c r="F28" s="36"/>
+      <c r="G28" s="36"/>
+      <c r="H28" s="35" t="s">
         <v>59</v>
       </c>
-      <c r="I28" s="31"/>
-      <c r="J28" s="31"/>
-      <c r="K28" s="31"/>
-      <c r="L28" s="31"/>
+      <c r="I28" s="35"/>
+      <c r="J28" s="35"/>
+      <c r="K28" s="35"/>
+      <c r="L28" s="35"/>
       <c r="M28" s="15"/>
       <c r="N28" s="7"/>
       <c r="O28" s="7"/>
-      <c r="P28" s="31"/>
-      <c r="Q28" s="31"/>
+      <c r="P28" s="35"/>
+      <c r="Q28" s="35"/>
     </row>
     <row r="29" spans="1:17" ht="43.5" customHeight="1">
       <c r="A29" s="6">
         <v>24</v>
       </c>
-      <c r="B29" s="47"/>
-      <c r="C29" s="30" t="s">
+      <c r="B29" s="33"/>
+      <c r="C29" s="36" t="s">
         <v>63</v>
       </c>
-      <c r="D29" s="30"/>
-      <c r="E29" s="30"/>
-      <c r="F29" s="30"/>
-      <c r="G29" s="30"/>
-      <c r="H29" s="31" t="s">
+      <c r="D29" s="36"/>
+      <c r="E29" s="36"/>
+      <c r="F29" s="36"/>
+      <c r="G29" s="36"/>
+      <c r="H29" s="35" t="s">
         <v>59</v>
       </c>
-      <c r="I29" s="31"/>
-      <c r="J29" s="31"/>
-      <c r="K29" s="31"/>
-      <c r="L29" s="31"/>
+      <c r="I29" s="35"/>
+      <c r="J29" s="35"/>
+      <c r="K29" s="35"/>
+      <c r="L29" s="35"/>
       <c r="M29" s="15"/>
       <c r="N29" s="7"/>
       <c r="O29" s="7"/>
-      <c r="P29" s="31"/>
-      <c r="Q29" s="31"/>
+      <c r="P29" s="35"/>
+      <c r="Q29" s="35"/>
     </row>
     <row r="30" spans="1:17" ht="58.5" customHeight="1">
       <c r="A30" s="6">
         <v>25</v>
       </c>
-      <c r="B30" s="27"/>
-      <c r="C30" s="32" t="s">
+      <c r="B30" s="34"/>
+      <c r="C30" s="26" t="s">
         <v>64</v>
       </c>
-      <c r="D30" s="33"/>
-      <c r="E30" s="33"/>
-      <c r="F30" s="33"/>
-      <c r="G30" s="34"/>
-      <c r="H30" s="65" t="s">
+      <c r="D30" s="27"/>
+      <c r="E30" s="27"/>
+      <c r="F30" s="27"/>
+      <c r="G30" s="28"/>
+      <c r="H30" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="I30" s="66"/>
-      <c r="J30" s="66"/>
-      <c r="K30" s="66"/>
-      <c r="L30" s="67"/>
+      <c r="I30" s="30"/>
+      <c r="J30" s="30"/>
+      <c r="K30" s="30"/>
+      <c r="L30" s="31"/>
       <c r="M30" s="15"/>
       <c r="N30" s="7"/>
       <c r="O30" s="7"/>
@@ -2356,11 +2443,53 @@
     </row>
   </sheetData>
   <mergeCells count="68">
-    <mergeCell ref="C30:G30"/>
-    <mergeCell ref="H30:L30"/>
-    <mergeCell ref="B28:B30"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="H23:L23"/>
+    <mergeCell ref="P28:Q28"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="H29:L29"/>
+    <mergeCell ref="P29:Q29"/>
+    <mergeCell ref="H26:L26"/>
+    <mergeCell ref="P26:Q26"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="H27:L27"/>
+    <mergeCell ref="P27:Q27"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="H20:L20"/>
+    <mergeCell ref="P20:Q20"/>
+    <mergeCell ref="H18:L18"/>
+    <mergeCell ref="H17:L17"/>
+    <mergeCell ref="C14:G18"/>
+    <mergeCell ref="H19:L19"/>
+    <mergeCell ref="H14:L14"/>
+    <mergeCell ref="H16:L16"/>
+    <mergeCell ref="C8:G13"/>
+    <mergeCell ref="H8:L8"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="H6:L6"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="H7:L7"/>
+    <mergeCell ref="H9:L9"/>
+    <mergeCell ref="H10:L10"/>
+    <mergeCell ref="H11:L11"/>
+    <mergeCell ref="H12:L12"/>
+    <mergeCell ref="H13:L13"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:Q4"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:Q3"/>
+    <mergeCell ref="H15:L15"/>
+    <mergeCell ref="P15:Q15"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="H5:L5"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:M1"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:M2"/>
     <mergeCell ref="P23:Q23"/>
     <mergeCell ref="C26:G26"/>
     <mergeCell ref="C21:G21"/>
@@ -2372,58 +2501,16 @@
     <mergeCell ref="H22:L22"/>
     <mergeCell ref="P22:Q22"/>
     <mergeCell ref="P21:Q21"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:M1"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:M2"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:Q4"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:Q3"/>
-    <mergeCell ref="H15:L15"/>
-    <mergeCell ref="P15:Q15"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="H16:L16"/>
-    <mergeCell ref="C8:G13"/>
-    <mergeCell ref="H8:L8"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="H6:L6"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="H7:L7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="H5:L5"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="H20:L20"/>
-    <mergeCell ref="P20:Q20"/>
-    <mergeCell ref="H18:L18"/>
-    <mergeCell ref="H17:L17"/>
-    <mergeCell ref="C14:G18"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="H19:L19"/>
-    <mergeCell ref="H14:L14"/>
-    <mergeCell ref="H9:L9"/>
-    <mergeCell ref="H10:L10"/>
-    <mergeCell ref="H11:L11"/>
-    <mergeCell ref="H12:L12"/>
-    <mergeCell ref="H13:L13"/>
     <mergeCell ref="P25:Q25"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="H25:L25"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="H30:L30"/>
+    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="H23:L23"/>
     <mergeCell ref="C28:G28"/>
     <mergeCell ref="H28:L28"/>
-    <mergeCell ref="P28:Q28"/>
-    <mergeCell ref="C29:G29"/>
-    <mergeCell ref="H29:L29"/>
-    <mergeCell ref="P29:Q29"/>
-    <mergeCell ref="H26:L26"/>
-    <mergeCell ref="P26:Q26"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="H25:L25"/>
-    <mergeCell ref="C27:G27"/>
-    <mergeCell ref="H27:L27"/>
-    <mergeCell ref="P27:Q27"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.27559055118110237" header="0.35433070866141736" footer="0.15748031496062992"/>

--- a/plan/test/結合テスト/結合テスト仕様書-BP014新商品登録(完了).xlsx
+++ b/plan/test/結合テスト/結合テスト仕様書-BP014新商品登録(完了).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fullness\Desktop\work\java-review\ec-b\plan\test\結合テスト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C531DF1-A51F-487C-B443-141491390507}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC575EB2-638C-4F5E-A32B-964C9C6FAB97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9510" yWindow="0" windowWidth="9780" windowHeight="10170" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="商品削除（確認）" sheetId="177" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="73">
   <si>
     <t>作成者</t>
   </si>
@@ -720,6 +720,23 @@
     </rPh>
     <rPh sb="13" eb="14">
       <t>ズ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>〇</t>
+  </si>
+  <si>
+    <t>システムエラー画面へ遷移すること</t>
+    <rPh sb="10" eb="12">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>高良</t>
+    <rPh sb="0" eb="2">
+      <t>タカラ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1064,7 +1081,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1084,31 +1101,118 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1117,154 +1221,64 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1619,8 +1633,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{776758EE-792E-45DD-A875-220DAC06338B}">
   <dimension ref="A1:Q30"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D3" zoomScale="64" zoomScaleNormal="64" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="O15" sqref="O15"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:Q3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="11.25" customHeight="1"/>
@@ -1636,25 +1650,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="39" t="s">
+      <c r="B1" s="52"/>
+      <c r="C1" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="40"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="42" t="s">
+      <c r="D1" s="55"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
-      <c r="I1" s="42"/>
-      <c r="J1" s="42"/>
-      <c r="K1" s="42"/>
-      <c r="L1" s="42"/>
-      <c r="M1" s="42"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="57"/>
+      <c r="J1" s="57"/>
+      <c r="K1" s="57"/>
+      <c r="L1" s="57"/>
+      <c r="M1" s="57"/>
       <c r="N1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1669,187 +1683,195 @@
       </c>
     </row>
     <row r="2" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A2" s="38"/>
-      <c r="B2" s="38"/>
-      <c r="C2" s="43" t="s">
+      <c r="A2" s="53"/>
+      <c r="B2" s="53"/>
+      <c r="C2" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="44"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="46" t="s">
+      <c r="D2" s="59"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="61" t="s">
         <v>44</v>
       </c>
-      <c r="G2" s="47"/>
-      <c r="H2" s="47"/>
-      <c r="I2" s="47"/>
-      <c r="J2" s="47"/>
-      <c r="K2" s="47"/>
-      <c r="L2" s="47"/>
-      <c r="M2" s="48"/>
-      <c r="N2" s="9" t="s">
+      <c r="G2" s="62"/>
+      <c r="H2" s="62"/>
+      <c r="I2" s="62"/>
+      <c r="J2" s="62"/>
+      <c r="K2" s="62"/>
+      <c r="L2" s="62"/>
+      <c r="M2" s="63"/>
+      <c r="N2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="O2" s="10">
+      <c r="O2" s="9">
         <v>45496</v>
       </c>
-      <c r="P2" s="11" t="s">
+      <c r="P2" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="Q2" s="12" t="s">
+      <c r="Q2" s="11" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="143.5" customHeight="1">
-      <c r="A3" s="49" t="s">
+      <c r="A3" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="50"/>
-      <c r="C3" s="51" t="s">
+      <c r="B3" s="41"/>
+      <c r="C3" s="42" t="s">
         <v>48</v>
       </c>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="52"/>
-      <c r="I3" s="52"/>
-      <c r="J3" s="52"/>
-      <c r="K3" s="52"/>
-      <c r="L3" s="52"/>
-      <c r="M3" s="52"/>
-      <c r="N3" s="52"/>
-      <c r="O3" s="52"/>
-      <c r="P3" s="52"/>
-      <c r="Q3" s="53"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="43"/>
+      <c r="H3" s="43"/>
+      <c r="I3" s="43"/>
+      <c r="J3" s="43"/>
+      <c r="K3" s="43"/>
+      <c r="L3" s="43"/>
+      <c r="M3" s="43"/>
+      <c r="N3" s="43"/>
+      <c r="O3" s="43"/>
+      <c r="P3" s="43"/>
+      <c r="Q3" s="44"/>
     </row>
     <row r="4" spans="1:17" ht="31.5" customHeight="1">
-      <c r="A4" s="49" t="s">
+      <c r="A4" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="50"/>
-      <c r="C4" s="51" t="s">
+      <c r="B4" s="41"/>
+      <c r="C4" s="42" t="s">
         <v>47</v>
       </c>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="52"/>
-      <c r="G4" s="52"/>
-      <c r="H4" s="52"/>
-      <c r="I4" s="52"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="52"/>
-      <c r="L4" s="52"/>
-      <c r="M4" s="52"/>
-      <c r="N4" s="52"/>
-      <c r="O4" s="52"/>
-      <c r="P4" s="52"/>
-      <c r="Q4" s="53"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="43"/>
+      <c r="G4" s="43"/>
+      <c r="H4" s="43"/>
+      <c r="I4" s="43"/>
+      <c r="J4" s="43"/>
+      <c r="K4" s="43"/>
+      <c r="L4" s="43"/>
+      <c r="M4" s="43"/>
+      <c r="N4" s="43"/>
+      <c r="O4" s="43"/>
+      <c r="P4" s="43"/>
+      <c r="Q4" s="44"/>
     </row>
     <row r="5" spans="1:17" ht="15" customHeight="1">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="56" t="s">
+      <c r="C5" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="67"/>
-      <c r="E5" s="67"/>
-      <c r="F5" s="67"/>
-      <c r="G5" s="57"/>
-      <c r="H5" s="56" t="s">
+      <c r="D5" s="49"/>
+      <c r="E5" s="49"/>
+      <c r="F5" s="49"/>
+      <c r="G5" s="48"/>
+      <c r="H5" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="67"/>
-      <c r="J5" s="67"/>
-      <c r="K5" s="67"/>
-      <c r="L5" s="67"/>
-      <c r="M5" s="14" t="s">
+      <c r="I5" s="49"/>
+      <c r="J5" s="49"/>
+      <c r="K5" s="49"/>
+      <c r="L5" s="49"/>
+      <c r="M5" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="N5" s="14" t="s">
+      <c r="N5" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="O5" s="14" t="s">
+      <c r="O5" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="P5" s="56" t="s">
+      <c r="P5" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="Q5" s="57"/>
+      <c r="Q5" s="48"/>
     </row>
     <row r="6" spans="1:17" ht="11">
       <c r="A6" s="6">
         <v>1</v>
       </c>
-      <c r="B6" s="32" t="s">
+      <c r="B6" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="35" t="s">
+      <c r="C6" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="35"/>
-      <c r="E6" s="35"/>
-      <c r="F6" s="35"/>
-      <c r="G6" s="35"/>
-      <c r="H6" s="35" t="s">
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="I6" s="35"/>
-      <c r="J6" s="35"/>
-      <c r="K6" s="35"/>
-      <c r="L6" s="35"/>
-      <c r="M6" s="15"/>
-      <c r="N6" s="7"/>
+      <c r="I6" s="24"/>
+      <c r="J6" s="24"/>
+      <c r="K6" s="24"/>
+      <c r="L6" s="24"/>
+      <c r="M6" s="66">
+        <v>45504</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>72</v>
+      </c>
       <c r="O6" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="P6" s="35" t="s">
+      <c r="P6" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="Q6" s="35"/>
+      <c r="Q6" s="24"/>
     </row>
     <row r="7" spans="1:17" ht="11" customHeight="1">
       <c r="A7" s="6">
         <v>2</v>
       </c>
-      <c r="B7" s="33"/>
-      <c r="C7" s="35" t="s">
+      <c r="B7" s="39"/>
+      <c r="C7" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="35"/>
-      <c r="E7" s="35"/>
-      <c r="F7" s="35"/>
-      <c r="G7" s="35"/>
-      <c r="H7" s="35" t="s">
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="I7" s="35"/>
-      <c r="J7" s="35"/>
-      <c r="K7" s="35"/>
-      <c r="L7" s="35"/>
-      <c r="M7" s="15"/>
-      <c r="N7" s="7"/>
+      <c r="I7" s="24"/>
+      <c r="J7" s="24"/>
+      <c r="K7" s="24"/>
+      <c r="L7" s="24"/>
+      <c r="M7" s="66">
+        <v>45504</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>72</v>
+      </c>
       <c r="O7" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="P7" s="35"/>
-      <c r="Q7" s="35"/>
+      <c r="P7" s="24"/>
+      <c r="Q7" s="24"/>
     </row>
     <row r="8" spans="1:17" ht="11" customHeight="1">
       <c r="A8" s="6">
         <v>3</v>
       </c>
-      <c r="B8" s="8"/>
-      <c r="C8" s="58" t="s">
+      <c r="B8" s="7"/>
+      <c r="C8" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="59"/>
-      <c r="E8" s="59"/>
-      <c r="F8" s="59"/>
-      <c r="G8" s="60"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="31"/>
       <c r="H8" s="26" t="s">
         <v>24</v>
       </c>
@@ -1857,24 +1879,28 @@
       <c r="J8" s="27"/>
       <c r="K8" s="27"/>
       <c r="L8" s="28"/>
-      <c r="M8" s="15"/>
-      <c r="N8" s="7"/>
+      <c r="M8" s="66">
+        <v>45504</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>72</v>
+      </c>
       <c r="O8" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="P8" s="16"/>
-      <c r="Q8" s="17"/>
+      <c r="P8" s="14"/>
+      <c r="Q8" s="15"/>
     </row>
     <row r="9" spans="1:17" ht="11" customHeight="1">
       <c r="A9" s="6">
         <v>4</v>
       </c>
-      <c r="B9" s="8"/>
-      <c r="C9" s="61"/>
-      <c r="D9" s="62"/>
-      <c r="E9" s="62"/>
-      <c r="F9" s="62"/>
-      <c r="G9" s="63"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="33"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="33"/>
+      <c r="G9" s="34"/>
       <c r="H9" s="26" t="s">
         <v>25</v>
       </c>
@@ -1882,24 +1908,28 @@
       <c r="J9" s="27"/>
       <c r="K9" s="27"/>
       <c r="L9" s="28"/>
-      <c r="M9" s="15"/>
-      <c r="N9" s="7"/>
+      <c r="M9" s="66">
+        <v>45504</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>72</v>
+      </c>
       <c r="O9" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="P9" s="16"/>
-      <c r="Q9" s="17"/>
+      <c r="P9" s="14"/>
+      <c r="Q9" s="15"/>
     </row>
     <row r="10" spans="1:17" ht="11" customHeight="1">
       <c r="A10" s="6">
         <v>5</v>
       </c>
-      <c r="B10" s="8"/>
-      <c r="C10" s="61"/>
-      <c r="D10" s="62"/>
-      <c r="E10" s="62"/>
-      <c r="F10" s="62"/>
-      <c r="G10" s="63"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="33"/>
+      <c r="F10" s="33"/>
+      <c r="G10" s="34"/>
       <c r="H10" s="26" t="s">
         <v>26</v>
       </c>
@@ -1907,24 +1937,28 @@
       <c r="J10" s="27"/>
       <c r="K10" s="27"/>
       <c r="L10" s="28"/>
-      <c r="M10" s="15"/>
-      <c r="N10" s="7"/>
+      <c r="M10" s="66">
+        <v>45504</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>72</v>
+      </c>
       <c r="O10" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="P10" s="16"/>
-      <c r="Q10" s="17"/>
+      <c r="P10" s="14"/>
+      <c r="Q10" s="15"/>
     </row>
     <row r="11" spans="1:17" ht="11" customHeight="1">
       <c r="A11" s="6">
         <v>6</v>
       </c>
-      <c r="B11" s="8"/>
-      <c r="C11" s="61"/>
-      <c r="D11" s="62"/>
-      <c r="E11" s="62"/>
-      <c r="F11" s="62"/>
-      <c r="G11" s="63"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="32"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="34"/>
       <c r="H11" s="26" t="s">
         <v>27</v>
       </c>
@@ -1932,24 +1966,28 @@
       <c r="J11" s="27"/>
       <c r="K11" s="27"/>
       <c r="L11" s="28"/>
-      <c r="M11" s="15"/>
-      <c r="N11" s="7"/>
+      <c r="M11" s="66">
+        <v>45504</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>72</v>
+      </c>
       <c r="O11" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="P11" s="16"/>
-      <c r="Q11" s="17"/>
+      <c r="P11" s="14"/>
+      <c r="Q11" s="15"/>
     </row>
     <row r="12" spans="1:17" ht="11" customHeight="1">
       <c r="A12" s="6">
         <v>7</v>
       </c>
-      <c r="B12" s="8"/>
-      <c r="C12" s="61"/>
-      <c r="D12" s="62"/>
-      <c r="E12" s="62"/>
-      <c r="F12" s="62"/>
-      <c r="G12" s="63"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="32"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="33"/>
+      <c r="F12" s="33"/>
+      <c r="G12" s="34"/>
       <c r="H12" s="26" t="s">
         <v>28</v>
       </c>
@@ -1957,24 +1995,28 @@
       <c r="J12" s="27"/>
       <c r="K12" s="27"/>
       <c r="L12" s="28"/>
-      <c r="M12" s="15"/>
-      <c r="N12" s="7"/>
+      <c r="M12" s="66">
+        <v>45504</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>72</v>
+      </c>
       <c r="O12" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="P12" s="16"/>
-      <c r="Q12" s="17"/>
+      <c r="P12" s="14"/>
+      <c r="Q12" s="15"/>
     </row>
     <row r="13" spans="1:17" ht="11" customHeight="1">
       <c r="A13" s="6">
         <v>8</v>
       </c>
-      <c r="B13" s="8"/>
-      <c r="C13" s="64"/>
-      <c r="D13" s="65"/>
-      <c r="E13" s="65"/>
-      <c r="F13" s="65"/>
-      <c r="G13" s="66"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="35"/>
+      <c r="D13" s="36"/>
+      <c r="E13" s="36"/>
+      <c r="F13" s="36"/>
+      <c r="G13" s="37"/>
       <c r="H13" s="26" t="s">
         <v>29</v>
       </c>
@@ -1982,26 +2024,30 @@
       <c r="J13" s="27"/>
       <c r="K13" s="27"/>
       <c r="L13" s="28"/>
-      <c r="M13" s="15"/>
-      <c r="N13" s="7"/>
+      <c r="M13" s="66">
+        <v>45504</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>72</v>
+      </c>
       <c r="O13" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="P13" s="54"/>
-      <c r="Q13" s="55"/>
+      <c r="P13" s="50"/>
+      <c r="Q13" s="51"/>
     </row>
     <row r="14" spans="1:17" ht="11" customHeight="1">
       <c r="A14" s="6">
         <v>9</v>
       </c>
-      <c r="B14" s="8"/>
-      <c r="C14" s="58" t="s">
+      <c r="B14" s="7"/>
+      <c r="C14" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="D14" s="59"/>
-      <c r="E14" s="59"/>
-      <c r="F14" s="59"/>
-      <c r="G14" s="60"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="30"/>
+      <c r="F14" s="30"/>
+      <c r="G14" s="31"/>
       <c r="H14" s="26" t="s">
         <v>53</v>
       </c>
@@ -2009,24 +2055,28 @@
       <c r="J14" s="27"/>
       <c r="K14" s="27"/>
       <c r="L14" s="28"/>
-      <c r="M14" s="15"/>
-      <c r="N14" s="7"/>
+      <c r="M14" s="66">
+        <v>45504</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>72</v>
+      </c>
       <c r="O14" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="P14" s="18"/>
-      <c r="Q14" s="19"/>
+      <c r="P14" s="16"/>
+      <c r="Q14" s="17"/>
     </row>
     <row r="15" spans="1:17" ht="24.5" customHeight="1">
       <c r="A15" s="6">
         <v>10</v>
       </c>
-      <c r="B15" s="8"/>
-      <c r="C15" s="61"/>
-      <c r="D15" s="62"/>
-      <c r="E15" s="62"/>
-      <c r="F15" s="62"/>
-      <c r="G15" s="63"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="32"/>
+      <c r="D15" s="33"/>
+      <c r="E15" s="33"/>
+      <c r="F15" s="33"/>
+      <c r="G15" s="34"/>
       <c r="H15" s="26" t="s">
         <v>54</v>
       </c>
@@ -2034,26 +2084,30 @@
       <c r="J15" s="27"/>
       <c r="K15" s="27"/>
       <c r="L15" s="28"/>
-      <c r="M15" s="15"/>
-      <c r="N15" s="7"/>
+      <c r="M15" s="66">
+        <v>45504</v>
+      </c>
+      <c r="N15" s="2" t="s">
+        <v>72</v>
+      </c>
       <c r="O15" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="P15" s="29" t="s">
+      <c r="P15" s="45" t="s">
         <v>69</v>
       </c>
-      <c r="Q15" s="31"/>
+      <c r="Q15" s="46"/>
     </row>
     <row r="16" spans="1:17" ht="11" customHeight="1">
       <c r="A16" s="6">
         <v>11</v>
       </c>
-      <c r="B16" s="8"/>
-      <c r="C16" s="61"/>
-      <c r="D16" s="62"/>
-      <c r="E16" s="62"/>
-      <c r="F16" s="62"/>
-      <c r="G16" s="63"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="32"/>
+      <c r="D16" s="33"/>
+      <c r="E16" s="33"/>
+      <c r="F16" s="33"/>
+      <c r="G16" s="34"/>
       <c r="H16" s="26" t="s">
         <v>55</v>
       </c>
@@ -2061,24 +2115,28 @@
       <c r="J16" s="27"/>
       <c r="K16" s="27"/>
       <c r="L16" s="28"/>
-      <c r="M16" s="15"/>
-      <c r="N16" s="7"/>
+      <c r="M16" s="66">
+        <v>45504</v>
+      </c>
+      <c r="N16" s="2" t="s">
+        <v>72</v>
+      </c>
       <c r="O16" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="P16" s="18"/>
-      <c r="Q16" s="19"/>
+      <c r="P16" s="16"/>
+      <c r="Q16" s="17"/>
     </row>
     <row r="17" spans="1:17" ht="11" customHeight="1">
       <c r="A17" s="6">
         <v>12</v>
       </c>
-      <c r="B17" s="8"/>
-      <c r="C17" s="61"/>
-      <c r="D17" s="62"/>
-      <c r="E17" s="62"/>
-      <c r="F17" s="62"/>
-      <c r="G17" s="63"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="32"/>
+      <c r="D17" s="33"/>
+      <c r="E17" s="33"/>
+      <c r="F17" s="33"/>
+      <c r="G17" s="34"/>
       <c r="H17" s="26" t="s">
         <v>56</v>
       </c>
@@ -2086,24 +2144,28 @@
       <c r="J17" s="27"/>
       <c r="K17" s="27"/>
       <c r="L17" s="28"/>
-      <c r="M17" s="15"/>
-      <c r="N17" s="7"/>
+      <c r="M17" s="66">
+        <v>45504</v>
+      </c>
+      <c r="N17" s="2" t="s">
+        <v>72</v>
+      </c>
       <c r="O17" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="P17" s="18"/>
-      <c r="Q17" s="19"/>
+      <c r="P17" s="16"/>
+      <c r="Q17" s="17"/>
     </row>
     <row r="18" spans="1:17" ht="11" customHeight="1">
       <c r="A18" s="6">
         <v>13</v>
       </c>
-      <c r="B18" s="8"/>
-      <c r="C18" s="64"/>
-      <c r="D18" s="65"/>
-      <c r="E18" s="65"/>
-      <c r="F18" s="65"/>
-      <c r="G18" s="66"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="35"/>
+      <c r="D18" s="36"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="36"/>
+      <c r="G18" s="37"/>
       <c r="H18" s="26" t="s">
         <v>57</v>
       </c>
@@ -2111,26 +2173,30 @@
       <c r="J18" s="27"/>
       <c r="K18" s="27"/>
       <c r="L18" s="28"/>
-      <c r="M18" s="15"/>
-      <c r="N18" s="7"/>
+      <c r="M18" s="66">
+        <v>45504</v>
+      </c>
+      <c r="N18" s="2" t="s">
+        <v>72</v>
+      </c>
       <c r="O18" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="P18" s="18"/>
-      <c r="Q18" s="19"/>
+      <c r="P18" s="16"/>
+      <c r="Q18" s="17"/>
     </row>
     <row r="19" spans="1:17" ht="11" customHeight="1">
       <c r="A19" s="6">
         <v>14</v>
       </c>
-      <c r="B19" s="8"/>
-      <c r="C19" s="23" t="s">
+      <c r="B19" s="7"/>
+      <c r="C19" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="D19" s="24"/>
-      <c r="E19" s="24"/>
-      <c r="F19" s="24"/>
-      <c r="G19" s="25"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="22"/>
+      <c r="G19" s="23"/>
       <c r="H19" s="26" t="s">
         <v>51</v>
       </c>
@@ -2138,19 +2204,23 @@
       <c r="J19" s="27"/>
       <c r="K19" s="27"/>
       <c r="L19" s="28"/>
-      <c r="M19" s="15"/>
-      <c r="N19" s="7"/>
+      <c r="M19" s="66">
+        <v>45504</v>
+      </c>
+      <c r="N19" s="2" t="s">
+        <v>72</v>
+      </c>
       <c r="O19" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="P19" s="18"/>
-      <c r="Q19" s="19"/>
+      <c r="P19" s="16"/>
+      <c r="Q19" s="17"/>
     </row>
     <row r="20" spans="1:17" ht="13.5" customHeight="1">
       <c r="A20" s="6">
         <v>15</v>
       </c>
-      <c r="B20" s="20" t="s">
+      <c r="B20" s="18" t="s">
         <v>18</v>
       </c>
       <c r="C20" s="26" t="s">
@@ -2160,26 +2230,30 @@
       <c r="E20" s="27"/>
       <c r="F20" s="27"/>
       <c r="G20" s="28"/>
-      <c r="H20" s="35" t="s">
+      <c r="H20" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="I20" s="35"/>
-      <c r="J20" s="35"/>
-      <c r="K20" s="35"/>
-      <c r="L20" s="35"/>
-      <c r="M20" s="15"/>
-      <c r="N20" s="7"/>
+      <c r="I20" s="24"/>
+      <c r="J20" s="24"/>
+      <c r="K20" s="24"/>
+      <c r="L20" s="24"/>
+      <c r="M20" s="66">
+        <v>45504</v>
+      </c>
+      <c r="N20" s="2" t="s">
+        <v>72</v>
+      </c>
       <c r="O20" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="P20" s="35"/>
-      <c r="Q20" s="35"/>
+      <c r="P20" s="24"/>
+      <c r="Q20" s="24"/>
     </row>
     <row r="21" spans="1:17" ht="13.5" customHeight="1">
       <c r="A21" s="6">
         <v>16</v>
       </c>
-      <c r="B21" s="21"/>
+      <c r="B21" s="19"/>
       <c r="C21" s="26" t="s">
         <v>35</v>
       </c>
@@ -2187,26 +2261,30 @@
       <c r="E21" s="27"/>
       <c r="F21" s="27"/>
       <c r="G21" s="28"/>
-      <c r="H21" s="35" t="s">
+      <c r="H21" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="I21" s="35"/>
-      <c r="J21" s="35"/>
-      <c r="K21" s="35"/>
-      <c r="L21" s="35"/>
-      <c r="M21" s="15"/>
-      <c r="N21" s="7"/>
+      <c r="I21" s="24"/>
+      <c r="J21" s="24"/>
+      <c r="K21" s="24"/>
+      <c r="L21" s="24"/>
+      <c r="M21" s="66">
+        <v>45504</v>
+      </c>
+      <c r="N21" s="2" t="s">
+        <v>72</v>
+      </c>
       <c r="O21" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="P21" s="35"/>
-      <c r="Q21" s="35"/>
+      <c r="P21" s="24"/>
+      <c r="Q21" s="24"/>
     </row>
     <row r="22" spans="1:17" ht="13.5" customHeight="1">
       <c r="A22" s="6">
         <v>17</v>
       </c>
-      <c r="B22" s="21"/>
+      <c r="B22" s="19"/>
       <c r="C22" s="26" t="s">
         <v>36</v>
       </c>
@@ -2214,26 +2292,30 @@
       <c r="E22" s="27"/>
       <c r="F22" s="27"/>
       <c r="G22" s="28"/>
-      <c r="H22" s="35" t="s">
+      <c r="H22" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="I22" s="35"/>
-      <c r="J22" s="35"/>
-      <c r="K22" s="35"/>
-      <c r="L22" s="35"/>
-      <c r="M22" s="15"/>
-      <c r="N22" s="7"/>
+      <c r="I22" s="24"/>
+      <c r="J22" s="24"/>
+      <c r="K22" s="24"/>
+      <c r="L22" s="24"/>
+      <c r="M22" s="66">
+        <v>45504</v>
+      </c>
+      <c r="N22" s="2" t="s">
+        <v>72</v>
+      </c>
       <c r="O22" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="P22" s="35"/>
-      <c r="Q22" s="35"/>
+      <c r="P22" s="24"/>
+      <c r="Q22" s="24"/>
     </row>
     <row r="23" spans="1:17" ht="13.5" customHeight="1">
       <c r="A23" s="6">
         <v>18</v>
       </c>
-      <c r="B23" s="21"/>
+      <c r="B23" s="19"/>
       <c r="C23" s="26" t="s">
         <v>37</v>
       </c>
@@ -2241,26 +2323,30 @@
       <c r="E23" s="27"/>
       <c r="F23" s="27"/>
       <c r="G23" s="28"/>
-      <c r="H23" s="35" t="s">
+      <c r="H23" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="I23" s="35"/>
-      <c r="J23" s="35"/>
-      <c r="K23" s="35"/>
-      <c r="L23" s="35"/>
-      <c r="M23" s="15"/>
-      <c r="N23" s="7"/>
+      <c r="I23" s="24"/>
+      <c r="J23" s="24"/>
+      <c r="K23" s="24"/>
+      <c r="L23" s="24"/>
+      <c r="M23" s="66">
+        <v>45504</v>
+      </c>
+      <c r="N23" s="2" t="s">
+        <v>72</v>
+      </c>
       <c r="O23" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="P23" s="35"/>
-      <c r="Q23" s="35"/>
+      <c r="P23" s="24"/>
+      <c r="Q23" s="24"/>
     </row>
     <row r="24" spans="1:17" ht="13.5" customHeight="1">
       <c r="A24" s="6">
         <v>19</v>
       </c>
-      <c r="B24" s="22"/>
+      <c r="B24" s="20"/>
       <c r="C24" s="26" t="s">
         <v>30</v>
       </c>
@@ -2268,80 +2354,92 @@
       <c r="E24" s="27"/>
       <c r="F24" s="27"/>
       <c r="G24" s="28"/>
-      <c r="H24" s="35" t="s">
+      <c r="H24" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="I24" s="35"/>
-      <c r="J24" s="35"/>
-      <c r="K24" s="35"/>
-      <c r="L24" s="35"/>
-      <c r="M24" s="15"/>
-      <c r="N24" s="7"/>
+      <c r="I24" s="24"/>
+      <c r="J24" s="24"/>
+      <c r="K24" s="24"/>
+      <c r="L24" s="24"/>
+      <c r="M24" s="66">
+        <v>45504</v>
+      </c>
+      <c r="N24" s="2" t="s">
+        <v>72</v>
+      </c>
       <c r="O24" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="P24" s="35"/>
-      <c r="Q24" s="35"/>
+      <c r="P24" s="24"/>
+      <c r="Q24" s="24"/>
     </row>
     <row r="25" spans="1:17" ht="13.5" customHeight="1">
       <c r="A25" s="6">
         <v>20</v>
       </c>
-      <c r="B25" s="21"/>
-      <c r="C25" s="36" t="s">
+      <c r="B25" s="19"/>
+      <c r="C25" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="D25" s="35"/>
-      <c r="E25" s="35"/>
-      <c r="F25" s="35"/>
-      <c r="G25" s="35"/>
-      <c r="H25" s="35" t="s">
+      <c r="D25" s="24"/>
+      <c r="E25" s="24"/>
+      <c r="F25" s="24"/>
+      <c r="G25" s="24"/>
+      <c r="H25" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="I25" s="35"/>
-      <c r="J25" s="35"/>
-      <c r="K25" s="35"/>
-      <c r="L25" s="35"/>
-      <c r="M25" s="15"/>
-      <c r="N25" s="7"/>
+      <c r="I25" s="24"/>
+      <c r="J25" s="24"/>
+      <c r="K25" s="24"/>
+      <c r="L25" s="24"/>
+      <c r="M25" s="66">
+        <v>45504</v>
+      </c>
+      <c r="N25" s="2" t="s">
+        <v>72</v>
+      </c>
       <c r="O25" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="P25" s="54"/>
-      <c r="Q25" s="55"/>
+      <c r="P25" s="50"/>
+      <c r="Q25" s="51"/>
     </row>
     <row r="26" spans="1:17" ht="13.5" customHeight="1">
       <c r="A26" s="6">
         <v>21</v>
       </c>
-      <c r="B26" s="21"/>
-      <c r="C26" s="36" t="s">
+      <c r="B26" s="19"/>
+      <c r="C26" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="D26" s="35"/>
-      <c r="E26" s="35"/>
-      <c r="F26" s="35"/>
-      <c r="G26" s="35"/>
-      <c r="H26" s="35" t="s">
+      <c r="D26" s="24"/>
+      <c r="E26" s="24"/>
+      <c r="F26" s="24"/>
+      <c r="G26" s="24"/>
+      <c r="H26" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="I26" s="35"/>
-      <c r="J26" s="35"/>
-      <c r="K26" s="35"/>
-      <c r="L26" s="35"/>
-      <c r="M26" s="15"/>
-      <c r="N26" s="7"/>
+      <c r="I26" s="24"/>
+      <c r="J26" s="24"/>
+      <c r="K26" s="24"/>
+      <c r="L26" s="24"/>
+      <c r="M26" s="66">
+        <v>45504</v>
+      </c>
+      <c r="N26" s="2" t="s">
+        <v>72</v>
+      </c>
       <c r="O26" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="P26" s="35"/>
-      <c r="Q26" s="35"/>
+      <c r="P26" s="24"/>
+      <c r="Q26" s="24"/>
     </row>
     <row r="27" spans="1:17" ht="13.5" customHeight="1">
       <c r="A27" s="6">
         <v>22</v>
       </c>
-      <c r="B27" s="22"/>
+      <c r="B27" s="20"/>
       <c r="C27" s="26" t="s">
         <v>46</v>
       </c>
@@ -2349,78 +2447,94 @@
       <c r="E27" s="27"/>
       <c r="F27" s="27"/>
       <c r="G27" s="28"/>
-      <c r="H27" s="35" t="s">
+      <c r="H27" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="I27" s="35"/>
-      <c r="J27" s="35"/>
-      <c r="K27" s="35"/>
-      <c r="L27" s="35"/>
-      <c r="M27" s="15"/>
-      <c r="N27" s="7"/>
+      <c r="I27" s="24"/>
+      <c r="J27" s="24"/>
+      <c r="K27" s="24"/>
+      <c r="L27" s="24"/>
+      <c r="M27" s="66">
+        <v>45504</v>
+      </c>
+      <c r="N27" s="2" t="s">
+        <v>72</v>
+      </c>
       <c r="O27" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="P27" s="35"/>
-      <c r="Q27" s="35"/>
+      <c r="P27" s="24"/>
+      <c r="Q27" s="24"/>
     </row>
     <row r="28" spans="1:17" ht="56.5" customHeight="1">
       <c r="A28" s="6">
         <v>23</v>
       </c>
-      <c r="B28" s="32" t="s">
+      <c r="B28" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="C28" s="36" t="s">
+      <c r="C28" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="D28" s="36"/>
-      <c r="E28" s="36"/>
-      <c r="F28" s="36"/>
-      <c r="G28" s="36"/>
-      <c r="H28" s="35" t="s">
-        <v>59</v>
-      </c>
-      <c r="I28" s="35"/>
-      <c r="J28" s="35"/>
-      <c r="K28" s="35"/>
-      <c r="L28" s="35"/>
-      <c r="M28" s="15"/>
-      <c r="N28" s="7"/>
-      <c r="O28" s="7"/>
-      <c r="P28" s="35"/>
-      <c r="Q28" s="35"/>
+      <c r="D28" s="25"/>
+      <c r="E28" s="25"/>
+      <c r="F28" s="25"/>
+      <c r="G28" s="25"/>
+      <c r="H28" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="I28" s="24"/>
+      <c r="J28" s="24"/>
+      <c r="K28" s="24"/>
+      <c r="L28" s="24"/>
+      <c r="M28" s="66">
+        <v>45504</v>
+      </c>
+      <c r="N28" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="O28" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="P28" s="24"/>
+      <c r="Q28" s="24"/>
     </row>
     <row r="29" spans="1:17" ht="43.5" customHeight="1">
       <c r="A29" s="6">
         <v>24</v>
       </c>
-      <c r="B29" s="33"/>
-      <c r="C29" s="36" t="s">
+      <c r="B29" s="39"/>
+      <c r="C29" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="D29" s="36"/>
-      <c r="E29" s="36"/>
-      <c r="F29" s="36"/>
-      <c r="G29" s="36"/>
-      <c r="H29" s="35" t="s">
+      <c r="D29" s="25"/>
+      <c r="E29" s="25"/>
+      <c r="F29" s="25"/>
+      <c r="G29" s="25"/>
+      <c r="H29" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="I29" s="35"/>
-      <c r="J29" s="35"/>
-      <c r="K29" s="35"/>
-      <c r="L29" s="35"/>
-      <c r="M29" s="15"/>
-      <c r="N29" s="7"/>
-      <c r="O29" s="7"/>
-      <c r="P29" s="35"/>
-      <c r="Q29" s="35"/>
+      <c r="I29" s="24"/>
+      <c r="J29" s="24"/>
+      <c r="K29" s="24"/>
+      <c r="L29" s="24"/>
+      <c r="M29" s="66">
+        <v>45504</v>
+      </c>
+      <c r="N29" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="O29" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="P29" s="24"/>
+      <c r="Q29" s="24"/>
     </row>
     <row r="30" spans="1:17" ht="58.5" customHeight="1">
       <c r="A30" s="6">
         <v>25</v>
       </c>
-      <c r="B30" s="34"/>
+      <c r="B30" s="65"/>
       <c r="C30" s="26" t="s">
         <v>64</v>
       </c>
@@ -2428,68 +2542,34 @@
       <c r="E30" s="27"/>
       <c r="F30" s="27"/>
       <c r="G30" s="28"/>
-      <c r="H30" s="29" t="s">
+      <c r="H30" s="45" t="s">
         <v>65</v>
       </c>
-      <c r="I30" s="30"/>
-      <c r="J30" s="30"/>
-      <c r="K30" s="30"/>
-      <c r="L30" s="31"/>
-      <c r="M30" s="15"/>
-      <c r="N30" s="7"/>
-      <c r="O30" s="7"/>
-      <c r="P30" s="16"/>
-      <c r="Q30" s="17"/>
+      <c r="I30" s="64"/>
+      <c r="J30" s="64"/>
+      <c r="K30" s="64"/>
+      <c r="L30" s="46"/>
+      <c r="M30" s="66">
+        <v>45504</v>
+      </c>
+      <c r="N30" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="O30" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="P30" s="14"/>
+      <c r="Q30" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="68">
-    <mergeCell ref="P28:Q28"/>
-    <mergeCell ref="C29:G29"/>
-    <mergeCell ref="H29:L29"/>
-    <mergeCell ref="P29:Q29"/>
-    <mergeCell ref="H26:L26"/>
-    <mergeCell ref="P26:Q26"/>
-    <mergeCell ref="C27:G27"/>
-    <mergeCell ref="H27:L27"/>
-    <mergeCell ref="P27:Q27"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="H20:L20"/>
-    <mergeCell ref="P20:Q20"/>
-    <mergeCell ref="H18:L18"/>
-    <mergeCell ref="H17:L17"/>
-    <mergeCell ref="C14:G18"/>
-    <mergeCell ref="H19:L19"/>
-    <mergeCell ref="H14:L14"/>
-    <mergeCell ref="H16:L16"/>
-    <mergeCell ref="C8:G13"/>
-    <mergeCell ref="H8:L8"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="H6:L6"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="H7:L7"/>
-    <mergeCell ref="H9:L9"/>
-    <mergeCell ref="H10:L10"/>
-    <mergeCell ref="H11:L11"/>
-    <mergeCell ref="H12:L12"/>
-    <mergeCell ref="H13:L13"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:Q4"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:Q3"/>
-    <mergeCell ref="H15:L15"/>
-    <mergeCell ref="P15:Q15"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="H5:L5"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:M1"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:M2"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="H30:L30"/>
+    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="H23:L23"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="H28:L28"/>
     <mergeCell ref="P23:Q23"/>
     <mergeCell ref="C26:G26"/>
     <mergeCell ref="C21:G21"/>
@@ -2504,13 +2584,53 @@
     <mergeCell ref="P25:Q25"/>
     <mergeCell ref="C25:G25"/>
     <mergeCell ref="H25:L25"/>
-    <mergeCell ref="C30:G30"/>
-    <mergeCell ref="H30:L30"/>
-    <mergeCell ref="B28:B30"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="H23:L23"/>
-    <mergeCell ref="C28:G28"/>
-    <mergeCell ref="H28:L28"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:M1"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:M2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:Q4"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:Q3"/>
+    <mergeCell ref="H15:L15"/>
+    <mergeCell ref="P15:Q15"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="H5:L5"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="C8:G13"/>
+    <mergeCell ref="H8:L8"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="H6:L6"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="H7:L7"/>
+    <mergeCell ref="H9:L9"/>
+    <mergeCell ref="H10:L10"/>
+    <mergeCell ref="H11:L11"/>
+    <mergeCell ref="H12:L12"/>
+    <mergeCell ref="H13:L13"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="H20:L20"/>
+    <mergeCell ref="P20:Q20"/>
+    <mergeCell ref="H18:L18"/>
+    <mergeCell ref="H17:L17"/>
+    <mergeCell ref="C14:G18"/>
+    <mergeCell ref="H19:L19"/>
+    <mergeCell ref="H14:L14"/>
+    <mergeCell ref="H16:L16"/>
+    <mergeCell ref="P28:Q28"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="H29:L29"/>
+    <mergeCell ref="P29:Q29"/>
+    <mergeCell ref="H26:L26"/>
+    <mergeCell ref="P26:Q26"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="H27:L27"/>
+    <mergeCell ref="P27:Q27"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.27559055118110237" header="0.35433070866141736" footer="0.15748031496062992"/>

--- a/plan/test/結合テスト/結合テスト仕様書-BP014新商品登録(完了).xlsx
+++ b/plan/test/結合テスト/結合テスト仕様書-BP014新商品登録(完了).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fullness\Desktop\work\java-review\ec-b\plan\test\結合テスト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC575EB2-638C-4F5E-A32B-964C9C6FAB97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73E310D6-6D1E-4E2C-9270-3B1E88769D30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -677,16 +677,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>そのままの画面が表示されること</t>
-    <rPh sb="5" eb="7">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>舘川佳苗</t>
     <rPh sb="0" eb="4">
       <t>タテカワカナエ</t>
@@ -738,6 +728,10 @@
     <rPh sb="0" eb="2">
       <t>タカラ</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>メニュー画面が表示されること</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1152,6 +1146,36 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1159,13 +1183,70 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1193,93 +1274,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1633,8 +1627,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{776758EE-792E-45DD-A875-220DAC06338B}">
   <dimension ref="A1:Q30"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:Q3"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="H30" sqref="H30:L30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="11.25" customHeight="1"/>
@@ -1650,25 +1644,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="54" t="s">
+      <c r="B1" s="38"/>
+      <c r="C1" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="55"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="57" t="s">
+      <c r="D1" s="41"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="57"/>
-      <c r="J1" s="57"/>
-      <c r="K1" s="57"/>
-      <c r="L1" s="57"/>
-      <c r="M1" s="57"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="43"/>
+      <c r="K1" s="43"/>
+      <c r="L1" s="43"/>
+      <c r="M1" s="43"/>
       <c r="N1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1683,23 +1677,23 @@
       </c>
     </row>
     <row r="2" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A2" s="53"/>
-      <c r="B2" s="53"/>
-      <c r="C2" s="58" t="s">
+      <c r="A2" s="39"/>
+      <c r="B2" s="39"/>
+      <c r="C2" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="59"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="61" t="s">
+      <c r="D2" s="45"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="47" t="s">
         <v>44</v>
       </c>
-      <c r="G2" s="62"/>
-      <c r="H2" s="62"/>
-      <c r="I2" s="62"/>
-      <c r="J2" s="62"/>
-      <c r="K2" s="62"/>
-      <c r="L2" s="62"/>
-      <c r="M2" s="63"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="48"/>
+      <c r="K2" s="48"/>
+      <c r="L2" s="48"/>
+      <c r="M2" s="49"/>
       <c r="N2" s="8" t="s">
         <v>1</v>
       </c>
@@ -1710,54 +1704,54 @@
         <v>5</v>
       </c>
       <c r="Q2" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="143.5" customHeight="1">
-      <c r="A3" s="40" t="s">
+      <c r="A3" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="41"/>
-      <c r="C3" s="42" t="s">
+      <c r="B3" s="51"/>
+      <c r="C3" s="52" t="s">
         <v>48</v>
       </c>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="43"/>
-      <c r="G3" s="43"/>
-      <c r="H3" s="43"/>
-      <c r="I3" s="43"/>
-      <c r="J3" s="43"/>
-      <c r="K3" s="43"/>
-      <c r="L3" s="43"/>
-      <c r="M3" s="43"/>
-      <c r="N3" s="43"/>
-      <c r="O3" s="43"/>
-      <c r="P3" s="43"/>
-      <c r="Q3" s="44"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="53"/>
+      <c r="H3" s="53"/>
+      <c r="I3" s="53"/>
+      <c r="J3" s="53"/>
+      <c r="K3" s="53"/>
+      <c r="L3" s="53"/>
+      <c r="M3" s="53"/>
+      <c r="N3" s="53"/>
+      <c r="O3" s="53"/>
+      <c r="P3" s="53"/>
+      <c r="Q3" s="54"/>
     </row>
     <row r="4" spans="1:17" ht="31.5" customHeight="1">
-      <c r="A4" s="40" t="s">
+      <c r="A4" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="41"/>
-      <c r="C4" s="42" t="s">
+      <c r="B4" s="51"/>
+      <c r="C4" s="52" t="s">
         <v>47</v>
       </c>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="43"/>
-      <c r="G4" s="43"/>
-      <c r="H4" s="43"/>
-      <c r="I4" s="43"/>
-      <c r="J4" s="43"/>
-      <c r="K4" s="43"/>
-      <c r="L4" s="43"/>
-      <c r="M4" s="43"/>
-      <c r="N4" s="43"/>
-      <c r="O4" s="43"/>
-      <c r="P4" s="43"/>
-      <c r="Q4" s="44"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
+      <c r="H4" s="53"/>
+      <c r="I4" s="53"/>
+      <c r="J4" s="53"/>
+      <c r="K4" s="53"/>
+      <c r="L4" s="53"/>
+      <c r="M4" s="53"/>
+      <c r="N4" s="53"/>
+      <c r="O4" s="53"/>
+      <c r="P4" s="53"/>
+      <c r="Q4" s="54"/>
     </row>
     <row r="5" spans="1:17" ht="15" customHeight="1">
       <c r="A5" s="13" t="s">
@@ -1766,20 +1760,20 @@
       <c r="B5" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="47" t="s">
+      <c r="C5" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="49"/>
-      <c r="E5" s="49"/>
-      <c r="F5" s="49"/>
-      <c r="G5" s="48"/>
-      <c r="H5" s="47" t="s">
+      <c r="D5" s="57"/>
+      <c r="E5" s="57"/>
+      <c r="F5" s="57"/>
+      <c r="G5" s="56"/>
+      <c r="H5" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="49"/>
-      <c r="J5" s="49"/>
-      <c r="K5" s="49"/>
-      <c r="L5" s="49"/>
+      <c r="I5" s="57"/>
+      <c r="J5" s="57"/>
+      <c r="K5" s="57"/>
+      <c r="L5" s="57"/>
       <c r="M5" s="13" t="s">
         <v>13</v>
       </c>
@@ -1789,104 +1783,104 @@
       <c r="O5" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="P5" s="47" t="s">
+      <c r="P5" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="Q5" s="48"/>
+      <c r="Q5" s="56"/>
     </row>
     <row r="6" spans="1:17" ht="11">
       <c r="A6" s="6">
         <v>1</v>
       </c>
-      <c r="B6" s="38" t="s">
+      <c r="B6" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="24" t="s">
+      <c r="C6" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="24"/>
-      <c r="E6" s="24"/>
-      <c r="F6" s="24"/>
-      <c r="G6" s="24"/>
-      <c r="H6" s="24" t="s">
+      <c r="D6" s="34"/>
+      <c r="E6" s="34"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="34"/>
+      <c r="H6" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="I6" s="24"/>
-      <c r="J6" s="24"/>
-      <c r="K6" s="24"/>
-      <c r="L6" s="24"/>
-      <c r="M6" s="66">
+      <c r="I6" s="34"/>
+      <c r="J6" s="34"/>
+      <c r="K6" s="34"/>
+      <c r="L6" s="34"/>
+      <c r="M6" s="24">
         <v>45504</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O6" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="P6" s="34" t="s">
         <v>67</v>
       </c>
-      <c r="P6" s="24" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q6" s="24"/>
+      <c r="Q6" s="34"/>
     </row>
     <row r="7" spans="1:17" ht="11" customHeight="1">
       <c r="A7" s="6">
         <v>2</v>
       </c>
-      <c r="B7" s="39"/>
-      <c r="C7" s="24" t="s">
+      <c r="B7" s="32"/>
+      <c r="C7" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="24"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="24"/>
-      <c r="H7" s="24" t="s">
+      <c r="D7" s="34"/>
+      <c r="E7" s="34"/>
+      <c r="F7" s="34"/>
+      <c r="G7" s="34"/>
+      <c r="H7" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="I7" s="24"/>
-      <c r="J7" s="24"/>
-      <c r="K7" s="24"/>
-      <c r="L7" s="24"/>
-      <c r="M7" s="66">
+      <c r="I7" s="34"/>
+      <c r="J7" s="34"/>
+      <c r="K7" s="34"/>
+      <c r="L7" s="34"/>
+      <c r="M7" s="24">
         <v>45504</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="P7" s="24"/>
-      <c r="Q7" s="24"/>
+        <v>66</v>
+      </c>
+      <c r="P7" s="34"/>
+      <c r="Q7" s="34"/>
     </row>
     <row r="8" spans="1:17" ht="11" customHeight="1">
       <c r="A8" s="6">
         <v>3</v>
       </c>
       <c r="B8" s="7"/>
-      <c r="C8" s="29" t="s">
+      <c r="C8" s="58" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="30"/>
-      <c r="E8" s="30"/>
-      <c r="F8" s="30"/>
-      <c r="G8" s="31"/>
-      <c r="H8" s="26" t="s">
+      <c r="D8" s="59"/>
+      <c r="E8" s="59"/>
+      <c r="F8" s="59"/>
+      <c r="G8" s="60"/>
+      <c r="H8" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="I8" s="27"/>
-      <c r="J8" s="27"/>
-      <c r="K8" s="27"/>
-      <c r="L8" s="28"/>
-      <c r="M8" s="66">
+      <c r="I8" s="26"/>
+      <c r="J8" s="26"/>
+      <c r="K8" s="26"/>
+      <c r="L8" s="27"/>
+      <c r="M8" s="24">
         <v>45504</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="P8" s="14"/>
       <c r="Q8" s="15"/>
@@ -1896,26 +1890,26 @@
         <v>4</v>
       </c>
       <c r="B9" s="7"/>
-      <c r="C9" s="32"/>
-      <c r="D9" s="33"/>
-      <c r="E9" s="33"/>
-      <c r="F9" s="33"/>
-      <c r="G9" s="34"/>
-      <c r="H9" s="26" t="s">
+      <c r="C9" s="61"/>
+      <c r="D9" s="62"/>
+      <c r="E9" s="62"/>
+      <c r="F9" s="62"/>
+      <c r="G9" s="63"/>
+      <c r="H9" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="I9" s="27"/>
-      <c r="J9" s="27"/>
-      <c r="K9" s="27"/>
-      <c r="L9" s="28"/>
-      <c r="M9" s="66">
+      <c r="I9" s="26"/>
+      <c r="J9" s="26"/>
+      <c r="K9" s="26"/>
+      <c r="L9" s="27"/>
+      <c r="M9" s="24">
         <v>45504</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="P9" s="14"/>
       <c r="Q9" s="15"/>
@@ -1925,26 +1919,26 @@
         <v>5</v>
       </c>
       <c r="B10" s="7"/>
-      <c r="C10" s="32"/>
-      <c r="D10" s="33"/>
-      <c r="E10" s="33"/>
-      <c r="F10" s="33"/>
-      <c r="G10" s="34"/>
-      <c r="H10" s="26" t="s">
+      <c r="C10" s="61"/>
+      <c r="D10" s="62"/>
+      <c r="E10" s="62"/>
+      <c r="F10" s="62"/>
+      <c r="G10" s="63"/>
+      <c r="H10" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="I10" s="27"/>
-      <c r="J10" s="27"/>
-      <c r="K10" s="27"/>
-      <c r="L10" s="28"/>
-      <c r="M10" s="66">
+      <c r="I10" s="26"/>
+      <c r="J10" s="26"/>
+      <c r="K10" s="26"/>
+      <c r="L10" s="27"/>
+      <c r="M10" s="24">
         <v>45504</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="P10" s="14"/>
       <c r="Q10" s="15"/>
@@ -1954,26 +1948,26 @@
         <v>6</v>
       </c>
       <c r="B11" s="7"/>
-      <c r="C11" s="32"/>
-      <c r="D11" s="33"/>
-      <c r="E11" s="33"/>
-      <c r="F11" s="33"/>
-      <c r="G11" s="34"/>
-      <c r="H11" s="26" t="s">
+      <c r="C11" s="61"/>
+      <c r="D11" s="62"/>
+      <c r="E11" s="62"/>
+      <c r="F11" s="62"/>
+      <c r="G11" s="63"/>
+      <c r="H11" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="I11" s="27"/>
-      <c r="J11" s="27"/>
-      <c r="K11" s="27"/>
-      <c r="L11" s="28"/>
-      <c r="M11" s="66">
+      <c r="I11" s="26"/>
+      <c r="J11" s="26"/>
+      <c r="K11" s="26"/>
+      <c r="L11" s="27"/>
+      <c r="M11" s="24">
         <v>45504</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="P11" s="14"/>
       <c r="Q11" s="15"/>
@@ -1983,26 +1977,26 @@
         <v>7</v>
       </c>
       <c r="B12" s="7"/>
-      <c r="C12" s="32"/>
-      <c r="D12" s="33"/>
-      <c r="E12" s="33"/>
-      <c r="F12" s="33"/>
-      <c r="G12" s="34"/>
-      <c r="H12" s="26" t="s">
+      <c r="C12" s="61"/>
+      <c r="D12" s="62"/>
+      <c r="E12" s="62"/>
+      <c r="F12" s="62"/>
+      <c r="G12" s="63"/>
+      <c r="H12" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="I12" s="27"/>
-      <c r="J12" s="27"/>
-      <c r="K12" s="27"/>
-      <c r="L12" s="28"/>
-      <c r="M12" s="66">
+      <c r="I12" s="26"/>
+      <c r="J12" s="26"/>
+      <c r="K12" s="26"/>
+      <c r="L12" s="27"/>
+      <c r="M12" s="24">
         <v>45504</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="P12" s="14"/>
       <c r="Q12" s="15"/>
@@ -2012,57 +2006,57 @@
         <v>8</v>
       </c>
       <c r="B13" s="7"/>
-      <c r="C13" s="35"/>
-      <c r="D13" s="36"/>
-      <c r="E13" s="36"/>
-      <c r="F13" s="36"/>
-      <c r="G13" s="37"/>
-      <c r="H13" s="26" t="s">
+      <c r="C13" s="64"/>
+      <c r="D13" s="65"/>
+      <c r="E13" s="65"/>
+      <c r="F13" s="65"/>
+      <c r="G13" s="66"/>
+      <c r="H13" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="I13" s="27"/>
-      <c r="J13" s="27"/>
-      <c r="K13" s="27"/>
-      <c r="L13" s="28"/>
-      <c r="M13" s="66">
+      <c r="I13" s="26"/>
+      <c r="J13" s="26"/>
+      <c r="K13" s="26"/>
+      <c r="L13" s="27"/>
+      <c r="M13" s="24">
         <v>45504</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="P13" s="50"/>
-      <c r="Q13" s="51"/>
+        <v>66</v>
+      </c>
+      <c r="P13" s="36"/>
+      <c r="Q13" s="37"/>
     </row>
     <row r="14" spans="1:17" ht="11" customHeight="1">
       <c r="A14" s="6">
         <v>9</v>
       </c>
       <c r="B14" s="7"/>
-      <c r="C14" s="29" t="s">
+      <c r="C14" s="58" t="s">
         <v>52</v>
       </c>
-      <c r="D14" s="30"/>
-      <c r="E14" s="30"/>
-      <c r="F14" s="30"/>
-      <c r="G14" s="31"/>
-      <c r="H14" s="26" t="s">
+      <c r="D14" s="59"/>
+      <c r="E14" s="59"/>
+      <c r="F14" s="59"/>
+      <c r="G14" s="60"/>
+      <c r="H14" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="I14" s="27"/>
-      <c r="J14" s="27"/>
-      <c r="K14" s="27"/>
-      <c r="L14" s="28"/>
-      <c r="M14" s="66">
+      <c r="I14" s="26"/>
+      <c r="J14" s="26"/>
+      <c r="K14" s="26"/>
+      <c r="L14" s="27"/>
+      <c r="M14" s="24">
         <v>45504</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="P14" s="16"/>
       <c r="Q14" s="17"/>
@@ -2072,57 +2066,57 @@
         <v>10</v>
       </c>
       <c r="B15" s="7"/>
-      <c r="C15" s="32"/>
-      <c r="D15" s="33"/>
-      <c r="E15" s="33"/>
-      <c r="F15" s="33"/>
-      <c r="G15" s="34"/>
-      <c r="H15" s="26" t="s">
+      <c r="C15" s="61"/>
+      <c r="D15" s="62"/>
+      <c r="E15" s="62"/>
+      <c r="F15" s="62"/>
+      <c r="G15" s="63"/>
+      <c r="H15" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="I15" s="27"/>
-      <c r="J15" s="27"/>
-      <c r="K15" s="27"/>
-      <c r="L15" s="28"/>
-      <c r="M15" s="66">
+      <c r="I15" s="26"/>
+      <c r="J15" s="26"/>
+      <c r="K15" s="26"/>
+      <c r="L15" s="27"/>
+      <c r="M15" s="24">
         <v>45504</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O15" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="P15" s="45" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q15" s="46"/>
+        <v>66</v>
+      </c>
+      <c r="P15" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q15" s="30"/>
     </row>
     <row r="16" spans="1:17" ht="11" customHeight="1">
       <c r="A16" s="6">
         <v>11</v>
       </c>
       <c r="B16" s="7"/>
-      <c r="C16" s="32"/>
-      <c r="D16" s="33"/>
-      <c r="E16" s="33"/>
-      <c r="F16" s="33"/>
-      <c r="G16" s="34"/>
-      <c r="H16" s="26" t="s">
+      <c r="C16" s="61"/>
+      <c r="D16" s="62"/>
+      <c r="E16" s="62"/>
+      <c r="F16" s="62"/>
+      <c r="G16" s="63"/>
+      <c r="H16" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="I16" s="27"/>
-      <c r="J16" s="27"/>
-      <c r="K16" s="27"/>
-      <c r="L16" s="28"/>
-      <c r="M16" s="66">
+      <c r="I16" s="26"/>
+      <c r="J16" s="26"/>
+      <c r="K16" s="26"/>
+      <c r="L16" s="27"/>
+      <c r="M16" s="24">
         <v>45504</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O16" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="P16" s="16"/>
       <c r="Q16" s="17"/>
@@ -2132,26 +2126,26 @@
         <v>12</v>
       </c>
       <c r="B17" s="7"/>
-      <c r="C17" s="32"/>
-      <c r="D17" s="33"/>
-      <c r="E17" s="33"/>
-      <c r="F17" s="33"/>
-      <c r="G17" s="34"/>
-      <c r="H17" s="26" t="s">
+      <c r="C17" s="61"/>
+      <c r="D17" s="62"/>
+      <c r="E17" s="62"/>
+      <c r="F17" s="62"/>
+      <c r="G17" s="63"/>
+      <c r="H17" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="I17" s="27"/>
-      <c r="J17" s="27"/>
-      <c r="K17" s="27"/>
-      <c r="L17" s="28"/>
-      <c r="M17" s="66">
+      <c r="I17" s="26"/>
+      <c r="J17" s="26"/>
+      <c r="K17" s="26"/>
+      <c r="L17" s="27"/>
+      <c r="M17" s="24">
         <v>45504</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O17" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="P17" s="16"/>
       <c r="Q17" s="17"/>
@@ -2161,26 +2155,26 @@
         <v>13</v>
       </c>
       <c r="B18" s="7"/>
-      <c r="C18" s="35"/>
-      <c r="D18" s="36"/>
-      <c r="E18" s="36"/>
-      <c r="F18" s="36"/>
-      <c r="G18" s="37"/>
-      <c r="H18" s="26" t="s">
+      <c r="C18" s="64"/>
+      <c r="D18" s="65"/>
+      <c r="E18" s="65"/>
+      <c r="F18" s="65"/>
+      <c r="G18" s="66"/>
+      <c r="H18" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="I18" s="27"/>
-      <c r="J18" s="27"/>
-      <c r="K18" s="27"/>
-      <c r="L18" s="28"/>
-      <c r="M18" s="66">
+      <c r="I18" s="26"/>
+      <c r="J18" s="26"/>
+      <c r="K18" s="26"/>
+      <c r="L18" s="27"/>
+      <c r="M18" s="24">
         <v>45504</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O18" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="P18" s="16"/>
       <c r="Q18" s="17"/>
@@ -2197,21 +2191,21 @@
       <c r="E19" s="22"/>
       <c r="F19" s="22"/>
       <c r="G19" s="23"/>
-      <c r="H19" s="26" t="s">
+      <c r="H19" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="I19" s="27"/>
-      <c r="J19" s="27"/>
-      <c r="K19" s="27"/>
-      <c r="L19" s="28"/>
-      <c r="M19" s="66">
+      <c r="I19" s="26"/>
+      <c r="J19" s="26"/>
+      <c r="K19" s="26"/>
+      <c r="L19" s="27"/>
+      <c r="M19" s="24">
         <v>45504</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O19" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="P19" s="16"/>
       <c r="Q19" s="17"/>
@@ -2223,372 +2217,372 @@
       <c r="B20" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="C20" s="26" t="s">
+      <c r="C20" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="D20" s="27"/>
-      <c r="E20" s="27"/>
-      <c r="F20" s="27"/>
-      <c r="G20" s="28"/>
-      <c r="H20" s="24" t="s">
+      <c r="D20" s="26"/>
+      <c r="E20" s="26"/>
+      <c r="F20" s="26"/>
+      <c r="G20" s="27"/>
+      <c r="H20" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="I20" s="24"/>
-      <c r="J20" s="24"/>
-      <c r="K20" s="24"/>
-      <c r="L20" s="24"/>
-      <c r="M20" s="66">
+      <c r="I20" s="34"/>
+      <c r="J20" s="34"/>
+      <c r="K20" s="34"/>
+      <c r="L20" s="34"/>
+      <c r="M20" s="24">
         <v>45504</v>
       </c>
       <c r="N20" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O20" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="P20" s="24"/>
-      <c r="Q20" s="24"/>
+        <v>66</v>
+      </c>
+      <c r="P20" s="34"/>
+      <c r="Q20" s="34"/>
     </row>
     <row r="21" spans="1:17" ht="13.5" customHeight="1">
       <c r="A21" s="6">
         <v>16</v>
       </c>
       <c r="B21" s="19"/>
-      <c r="C21" s="26" t="s">
+      <c r="C21" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="D21" s="27"/>
-      <c r="E21" s="27"/>
-      <c r="F21" s="27"/>
-      <c r="G21" s="28"/>
-      <c r="H21" s="24" t="s">
+      <c r="D21" s="26"/>
+      <c r="E21" s="26"/>
+      <c r="F21" s="26"/>
+      <c r="G21" s="27"/>
+      <c r="H21" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="I21" s="24"/>
-      <c r="J21" s="24"/>
-      <c r="K21" s="24"/>
-      <c r="L21" s="24"/>
-      <c r="M21" s="66">
+      <c r="I21" s="34"/>
+      <c r="J21" s="34"/>
+      <c r="K21" s="34"/>
+      <c r="L21" s="34"/>
+      <c r="M21" s="24">
         <v>45504</v>
       </c>
       <c r="N21" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O21" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="P21" s="24"/>
-      <c r="Q21" s="24"/>
+        <v>66</v>
+      </c>
+      <c r="P21" s="34"/>
+      <c r="Q21" s="34"/>
     </row>
     <row r="22" spans="1:17" ht="13.5" customHeight="1">
       <c r="A22" s="6">
         <v>17</v>
       </c>
       <c r="B22" s="19"/>
-      <c r="C22" s="26" t="s">
+      <c r="C22" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="D22" s="27"/>
-      <c r="E22" s="27"/>
-      <c r="F22" s="27"/>
-      <c r="G22" s="28"/>
-      <c r="H22" s="24" t="s">
+      <c r="D22" s="26"/>
+      <c r="E22" s="26"/>
+      <c r="F22" s="26"/>
+      <c r="G22" s="27"/>
+      <c r="H22" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="I22" s="24"/>
-      <c r="J22" s="24"/>
-      <c r="K22" s="24"/>
-      <c r="L22" s="24"/>
-      <c r="M22" s="66">
+      <c r="I22" s="34"/>
+      <c r="J22" s="34"/>
+      <c r="K22" s="34"/>
+      <c r="L22" s="34"/>
+      <c r="M22" s="24">
         <v>45504</v>
       </c>
       <c r="N22" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O22" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="P22" s="24"/>
-      <c r="Q22" s="24"/>
+        <v>66</v>
+      </c>
+      <c r="P22" s="34"/>
+      <c r="Q22" s="34"/>
     </row>
     <row r="23" spans="1:17" ht="13.5" customHeight="1">
       <c r="A23" s="6">
         <v>18</v>
       </c>
       <c r="B23" s="19"/>
-      <c r="C23" s="26" t="s">
+      <c r="C23" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="D23" s="27"/>
-      <c r="E23" s="27"/>
-      <c r="F23" s="27"/>
-      <c r="G23" s="28"/>
-      <c r="H23" s="24" t="s">
+      <c r="D23" s="26"/>
+      <c r="E23" s="26"/>
+      <c r="F23" s="26"/>
+      <c r="G23" s="27"/>
+      <c r="H23" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="I23" s="24"/>
-      <c r="J23" s="24"/>
-      <c r="K23" s="24"/>
-      <c r="L23" s="24"/>
-      <c r="M23" s="66">
+      <c r="I23" s="34"/>
+      <c r="J23" s="34"/>
+      <c r="K23" s="34"/>
+      <c r="L23" s="34"/>
+      <c r="M23" s="24">
         <v>45504</v>
       </c>
       <c r="N23" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O23" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="P23" s="24"/>
-      <c r="Q23" s="24"/>
+        <v>66</v>
+      </c>
+      <c r="P23" s="34"/>
+      <c r="Q23" s="34"/>
     </row>
     <row r="24" spans="1:17" ht="13.5" customHeight="1">
       <c r="A24" s="6">
         <v>19</v>
       </c>
       <c r="B24" s="20"/>
-      <c r="C24" s="26" t="s">
+      <c r="C24" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="D24" s="27"/>
-      <c r="E24" s="27"/>
-      <c r="F24" s="27"/>
-      <c r="G24" s="28"/>
-      <c r="H24" s="24" t="s">
+      <c r="D24" s="26"/>
+      <c r="E24" s="26"/>
+      <c r="F24" s="26"/>
+      <c r="G24" s="27"/>
+      <c r="H24" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="I24" s="24"/>
-      <c r="J24" s="24"/>
-      <c r="K24" s="24"/>
-      <c r="L24" s="24"/>
-      <c r="M24" s="66">
+      <c r="I24" s="34"/>
+      <c r="J24" s="34"/>
+      <c r="K24" s="34"/>
+      <c r="L24" s="34"/>
+      <c r="M24" s="24">
         <v>45504</v>
       </c>
       <c r="N24" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O24" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="P24" s="24"/>
-      <c r="Q24" s="24"/>
+        <v>66</v>
+      </c>
+      <c r="P24" s="34"/>
+      <c r="Q24" s="34"/>
     </row>
     <row r="25" spans="1:17" ht="13.5" customHeight="1">
       <c r="A25" s="6">
         <v>20</v>
       </c>
       <c r="B25" s="19"/>
-      <c r="C25" s="25" t="s">
+      <c r="C25" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="D25" s="24"/>
-      <c r="E25" s="24"/>
-      <c r="F25" s="24"/>
-      <c r="G25" s="24"/>
-      <c r="H25" s="24" t="s">
+      <c r="D25" s="34"/>
+      <c r="E25" s="34"/>
+      <c r="F25" s="34"/>
+      <c r="G25" s="34"/>
+      <c r="H25" s="34" t="s">
         <v>60</v>
       </c>
-      <c r="I25" s="24"/>
-      <c r="J25" s="24"/>
-      <c r="K25" s="24"/>
-      <c r="L25" s="24"/>
-      <c r="M25" s="66">
+      <c r="I25" s="34"/>
+      <c r="J25" s="34"/>
+      <c r="K25" s="34"/>
+      <c r="L25" s="34"/>
+      <c r="M25" s="24">
         <v>45504</v>
       </c>
       <c r="N25" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O25" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="P25" s="50"/>
-      <c r="Q25" s="51"/>
+        <v>66</v>
+      </c>
+      <c r="P25" s="36"/>
+      <c r="Q25" s="37"/>
     </row>
     <row r="26" spans="1:17" ht="13.5" customHeight="1">
       <c r="A26" s="6">
         <v>21</v>
       </c>
       <c r="B26" s="19"/>
-      <c r="C26" s="25" t="s">
+      <c r="C26" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="D26" s="24"/>
-      <c r="E26" s="24"/>
-      <c r="F26" s="24"/>
-      <c r="G26" s="24"/>
-      <c r="H26" s="24" t="s">
+      <c r="D26" s="34"/>
+      <c r="E26" s="34"/>
+      <c r="F26" s="34"/>
+      <c r="G26" s="34"/>
+      <c r="H26" s="34" t="s">
         <v>58</v>
       </c>
-      <c r="I26" s="24"/>
-      <c r="J26" s="24"/>
-      <c r="K26" s="24"/>
-      <c r="L26" s="24"/>
-      <c r="M26" s="66">
+      <c r="I26" s="34"/>
+      <c r="J26" s="34"/>
+      <c r="K26" s="34"/>
+      <c r="L26" s="34"/>
+      <c r="M26" s="24">
         <v>45504</v>
       </c>
       <c r="N26" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O26" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="P26" s="24"/>
-      <c r="Q26" s="24"/>
+        <v>66</v>
+      </c>
+      <c r="P26" s="34"/>
+      <c r="Q26" s="34"/>
     </row>
     <row r="27" spans="1:17" ht="13.5" customHeight="1">
       <c r="A27" s="6">
         <v>22</v>
       </c>
       <c r="B27" s="20"/>
-      <c r="C27" s="26" t="s">
+      <c r="C27" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="D27" s="27"/>
-      <c r="E27" s="27"/>
-      <c r="F27" s="27"/>
-      <c r="G27" s="28"/>
-      <c r="H27" s="24" t="s">
+      <c r="D27" s="26"/>
+      <c r="E27" s="26"/>
+      <c r="F27" s="26"/>
+      <c r="G27" s="27"/>
+      <c r="H27" s="34" t="s">
         <v>61</v>
       </c>
-      <c r="I27" s="24"/>
-      <c r="J27" s="24"/>
-      <c r="K27" s="24"/>
-      <c r="L27" s="24"/>
-      <c r="M27" s="66">
+      <c r="I27" s="34"/>
+      <c r="J27" s="34"/>
+      <c r="K27" s="34"/>
+      <c r="L27" s="34"/>
+      <c r="M27" s="24">
         <v>45504</v>
       </c>
       <c r="N27" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O27" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="P27" s="24"/>
-      <c r="Q27" s="24"/>
+        <v>66</v>
+      </c>
+      <c r="P27" s="34"/>
+      <c r="Q27" s="34"/>
     </row>
     <row r="28" spans="1:17" ht="56.5" customHeight="1">
       <c r="A28" s="6">
         <v>23</v>
       </c>
-      <c r="B28" s="38" t="s">
+      <c r="B28" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="C28" s="25" t="s">
+      <c r="C28" s="35" t="s">
         <v>62</v>
       </c>
-      <c r="D28" s="25"/>
-      <c r="E28" s="25"/>
-      <c r="F28" s="25"/>
-      <c r="G28" s="25"/>
-      <c r="H28" s="24" t="s">
+      <c r="D28" s="35"/>
+      <c r="E28" s="35"/>
+      <c r="F28" s="35"/>
+      <c r="G28" s="35"/>
+      <c r="H28" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="I28" s="34"/>
+      <c r="J28" s="34"/>
+      <c r="K28" s="34"/>
+      <c r="L28" s="34"/>
+      <c r="M28" s="24">
+        <v>45504</v>
+      </c>
+      <c r="N28" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="I28" s="24"/>
-      <c r="J28" s="24"/>
-      <c r="K28" s="24"/>
-      <c r="L28" s="24"/>
-      <c r="M28" s="66">
-        <v>45504</v>
-      </c>
-      <c r="N28" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="O28" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="P28" s="24"/>
-      <c r="Q28" s="24"/>
+        <v>66</v>
+      </c>
+      <c r="P28" s="34"/>
+      <c r="Q28" s="34"/>
     </row>
     <row r="29" spans="1:17" ht="43.5" customHeight="1">
       <c r="A29" s="6">
         <v>24</v>
       </c>
-      <c r="B29" s="39"/>
-      <c r="C29" s="25" t="s">
+      <c r="B29" s="32"/>
+      <c r="C29" s="35" t="s">
         <v>63</v>
       </c>
-      <c r="D29" s="25"/>
-      <c r="E29" s="25"/>
-      <c r="F29" s="25"/>
-      <c r="G29" s="25"/>
-      <c r="H29" s="24" t="s">
+      <c r="D29" s="35"/>
+      <c r="E29" s="35"/>
+      <c r="F29" s="35"/>
+      <c r="G29" s="35"/>
+      <c r="H29" s="34" t="s">
         <v>59</v>
       </c>
-      <c r="I29" s="24"/>
-      <c r="J29" s="24"/>
-      <c r="K29" s="24"/>
-      <c r="L29" s="24"/>
-      <c r="M29" s="66">
+      <c r="I29" s="34"/>
+      <c r="J29" s="34"/>
+      <c r="K29" s="34"/>
+      <c r="L29" s="34"/>
+      <c r="M29" s="24">
         <v>45504</v>
       </c>
       <c r="N29" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O29" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="P29" s="24"/>
-      <c r="Q29" s="24"/>
+        <v>69</v>
+      </c>
+      <c r="P29" s="34"/>
+      <c r="Q29" s="34"/>
     </row>
     <row r="30" spans="1:17" ht="58.5" customHeight="1">
       <c r="A30" s="6">
         <v>25</v>
       </c>
-      <c r="B30" s="65"/>
-      <c r="C30" s="26" t="s">
+      <c r="B30" s="33"/>
+      <c r="C30" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="D30" s="27"/>
-      <c r="E30" s="27"/>
-      <c r="F30" s="27"/>
-      <c r="G30" s="28"/>
-      <c r="H30" s="45" t="s">
-        <v>65</v>
-      </c>
-      <c r="I30" s="64"/>
-      <c r="J30" s="64"/>
-      <c r="K30" s="64"/>
-      <c r="L30" s="46"/>
-      <c r="M30" s="66">
+      <c r="D30" s="26"/>
+      <c r="E30" s="26"/>
+      <c r="F30" s="26"/>
+      <c r="G30" s="27"/>
+      <c r="H30" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="I30" s="29"/>
+      <c r="J30" s="29"/>
+      <c r="K30" s="29"/>
+      <c r="L30" s="30"/>
+      <c r="M30" s="24">
         <v>45504</v>
       </c>
       <c r="N30" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O30" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="P30" s="14"/>
       <c r="Q30" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="68">
-    <mergeCell ref="C30:G30"/>
-    <mergeCell ref="H30:L30"/>
-    <mergeCell ref="B28:B30"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="H23:L23"/>
-    <mergeCell ref="C28:G28"/>
-    <mergeCell ref="H28:L28"/>
-    <mergeCell ref="P23:Q23"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="H21:L21"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="H24:L24"/>
-    <mergeCell ref="P24:Q24"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="H22:L22"/>
-    <mergeCell ref="P22:Q22"/>
-    <mergeCell ref="P21:Q21"/>
-    <mergeCell ref="P25:Q25"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="H25:L25"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:M1"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:M2"/>
+    <mergeCell ref="P28:Q28"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="H29:L29"/>
+    <mergeCell ref="P29:Q29"/>
+    <mergeCell ref="H26:L26"/>
+    <mergeCell ref="P26:Q26"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="H27:L27"/>
+    <mergeCell ref="P27:Q27"/>
+    <mergeCell ref="P20:Q20"/>
+    <mergeCell ref="H18:L18"/>
+    <mergeCell ref="H17:L17"/>
+    <mergeCell ref="C14:G18"/>
+    <mergeCell ref="H19:L19"/>
+    <mergeCell ref="H14:L14"/>
+    <mergeCell ref="H16:L16"/>
+    <mergeCell ref="H11:L11"/>
+    <mergeCell ref="H12:L12"/>
+    <mergeCell ref="H13:L13"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="H20:L20"/>
+    <mergeCell ref="H6:L6"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="H7:L7"/>
+    <mergeCell ref="H9:L9"/>
+    <mergeCell ref="H10:L10"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="C4:Q4"/>
     <mergeCell ref="A3:B3"/>
@@ -2605,32 +2599,32 @@
     <mergeCell ref="H8:L8"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="C6:G6"/>
-    <mergeCell ref="H6:L6"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="H7:L7"/>
-    <mergeCell ref="H9:L9"/>
-    <mergeCell ref="H10:L10"/>
-    <mergeCell ref="H11:L11"/>
-    <mergeCell ref="H12:L12"/>
-    <mergeCell ref="H13:L13"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="H20:L20"/>
-    <mergeCell ref="P20:Q20"/>
-    <mergeCell ref="H18:L18"/>
-    <mergeCell ref="H17:L17"/>
-    <mergeCell ref="C14:G18"/>
-    <mergeCell ref="H19:L19"/>
-    <mergeCell ref="H14:L14"/>
-    <mergeCell ref="H16:L16"/>
-    <mergeCell ref="P28:Q28"/>
-    <mergeCell ref="C29:G29"/>
-    <mergeCell ref="H29:L29"/>
-    <mergeCell ref="P29:Q29"/>
-    <mergeCell ref="H26:L26"/>
-    <mergeCell ref="P26:Q26"/>
-    <mergeCell ref="C27:G27"/>
-    <mergeCell ref="H27:L27"/>
-    <mergeCell ref="P27:Q27"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:M1"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:M2"/>
+    <mergeCell ref="P23:Q23"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="H21:L21"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="H24:L24"/>
+    <mergeCell ref="P24:Q24"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="H22:L22"/>
+    <mergeCell ref="P22:Q22"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="P25:Q25"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="H25:L25"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="H30:L30"/>
+    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="H23:L23"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="H28:L28"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.27559055118110237" header="0.35433070866141736" footer="0.15748031496062992"/>

--- a/plan/test/結合テスト/結合テスト仕様書-BP014新商品登録(完了).xlsx
+++ b/plan/test/結合テスト/結合テスト仕様書-BP014新商品登録(完了).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fullness\Desktop\work\java-review\ec-b\plan\test\結合テスト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73E310D6-6D1E-4E2C-9270-3B1E88769D30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69D84768-1F7C-4C9E-ADA3-9C4637C45B61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="74">
   <si>
     <t>作成者</t>
   </si>
@@ -677,13 +677,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>舘川佳苗</t>
-    <rPh sb="0" eb="4">
-      <t>タテカワカナエ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>〇</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -732,6 +725,29 @@
   </si>
   <si>
     <t>メニュー画面が表示されること</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>高良・舘川</t>
+    <rPh sb="0" eb="2">
+      <t>タカラ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>タチカワ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>舘川・高良</t>
+    <rPh sb="0" eb="1">
+      <t>タチ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>カワ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>タカラ</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1149,6 +1165,12 @@
     <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1158,121 +1180,115 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -1627,8 +1643,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{776758EE-792E-45DD-A875-220DAC06338B}">
   <dimension ref="A1:Q30"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="H30" sqref="H30:L30"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:Q3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="11.25" customHeight="1"/>
@@ -1644,25 +1660,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="40" t="s">
+      <c r="B1" s="53"/>
+      <c r="C1" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="41"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="43" t="s">
+      <c r="D1" s="56"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="43"/>
-      <c r="J1" s="43"/>
-      <c r="K1" s="43"/>
-      <c r="L1" s="43"/>
-      <c r="M1" s="43"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="58"/>
+      <c r="K1" s="58"/>
+      <c r="L1" s="58"/>
+      <c r="M1" s="58"/>
       <c r="N1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1677,23 +1693,23 @@
       </c>
     </row>
     <row r="2" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A2" s="39"/>
-      <c r="B2" s="39"/>
-      <c r="C2" s="44" t="s">
+      <c r="A2" s="54"/>
+      <c r="B2" s="54"/>
+      <c r="C2" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="45"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="47" t="s">
+      <c r="D2" s="60"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="62" t="s">
         <v>44</v>
       </c>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="48"/>
-      <c r="J2" s="48"/>
-      <c r="K2" s="48"/>
-      <c r="L2" s="48"/>
-      <c r="M2" s="49"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="63"/>
+      <c r="I2" s="63"/>
+      <c r="J2" s="63"/>
+      <c r="K2" s="63"/>
+      <c r="L2" s="63"/>
+      <c r="M2" s="64"/>
       <c r="N2" s="8" t="s">
         <v>1</v>
       </c>
@@ -1704,54 +1720,54 @@
         <v>5</v>
       </c>
       <c r="Q2" s="11" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="143.5" customHeight="1">
-      <c r="A3" s="50" t="s">
+      <c r="A3" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="51"/>
-      <c r="C3" s="52" t="s">
+      <c r="B3" s="40"/>
+      <c r="C3" s="41" t="s">
         <v>48</v>
       </c>
-      <c r="D3" s="53"/>
-      <c r="E3" s="53"/>
-      <c r="F3" s="53"/>
-      <c r="G3" s="53"/>
-      <c r="H3" s="53"/>
-      <c r="I3" s="53"/>
-      <c r="J3" s="53"/>
-      <c r="K3" s="53"/>
-      <c r="L3" s="53"/>
-      <c r="M3" s="53"/>
-      <c r="N3" s="53"/>
-      <c r="O3" s="53"/>
-      <c r="P3" s="53"/>
-      <c r="Q3" s="54"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="42"/>
+      <c r="H3" s="42"/>
+      <c r="I3" s="42"/>
+      <c r="J3" s="42"/>
+      <c r="K3" s="42"/>
+      <c r="L3" s="42"/>
+      <c r="M3" s="42"/>
+      <c r="N3" s="42"/>
+      <c r="O3" s="42"/>
+      <c r="P3" s="42"/>
+      <c r="Q3" s="43"/>
     </row>
     <row r="4" spans="1:17" ht="31.5" customHeight="1">
-      <c r="A4" s="50" t="s">
+      <c r="A4" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="51"/>
-      <c r="C4" s="52" t="s">
+      <c r="B4" s="40"/>
+      <c r="C4" s="41" t="s">
         <v>47</v>
       </c>
-      <c r="D4" s="53"/>
-      <c r="E4" s="53"/>
-      <c r="F4" s="53"/>
-      <c r="G4" s="53"/>
-      <c r="H4" s="53"/>
-      <c r="I4" s="53"/>
-      <c r="J4" s="53"/>
-      <c r="K4" s="53"/>
-      <c r="L4" s="53"/>
-      <c r="M4" s="53"/>
-      <c r="N4" s="53"/>
-      <c r="O4" s="53"/>
-      <c r="P4" s="53"/>
-      <c r="Q4" s="54"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="42"/>
+      <c r="H4" s="42"/>
+      <c r="I4" s="42"/>
+      <c r="J4" s="42"/>
+      <c r="K4" s="42"/>
+      <c r="L4" s="42"/>
+      <c r="M4" s="42"/>
+      <c r="N4" s="42"/>
+      <c r="O4" s="42"/>
+      <c r="P4" s="42"/>
+      <c r="Q4" s="43"/>
     </row>
     <row r="5" spans="1:17" ht="15" customHeight="1">
       <c r="A5" s="13" t="s">
@@ -1760,20 +1776,20 @@
       <c r="B5" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="55" t="s">
+      <c r="C5" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="57"/>
-      <c r="E5" s="57"/>
-      <c r="F5" s="57"/>
-      <c r="G5" s="56"/>
-      <c r="H5" s="55" t="s">
+      <c r="D5" s="48"/>
+      <c r="E5" s="48"/>
+      <c r="F5" s="48"/>
+      <c r="G5" s="47"/>
+      <c r="H5" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="57"/>
-      <c r="J5" s="57"/>
-      <c r="K5" s="57"/>
-      <c r="L5" s="57"/>
+      <c r="I5" s="48"/>
+      <c r="J5" s="48"/>
+      <c r="K5" s="48"/>
+      <c r="L5" s="48"/>
       <c r="M5" s="13" t="s">
         <v>13</v>
       </c>
@@ -1783,104 +1799,104 @@
       <c r="O5" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="P5" s="55" t="s">
+      <c r="P5" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="Q5" s="56"/>
+      <c r="Q5" s="47"/>
     </row>
     <row r="6" spans="1:17" ht="11">
       <c r="A6" s="6">
         <v>1</v>
       </c>
-      <c r="B6" s="31" t="s">
+      <c r="B6" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="34" t="s">
+      <c r="C6" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="34"/>
-      <c r="E6" s="34"/>
-      <c r="F6" s="34"/>
-      <c r="G6" s="34"/>
-      <c r="H6" s="34" t="s">
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="I6" s="34"/>
-      <c r="J6" s="34"/>
-      <c r="K6" s="34"/>
-      <c r="L6" s="34"/>
+      <c r="I6" s="25"/>
+      <c r="J6" s="25"/>
+      <c r="K6" s="25"/>
+      <c r="L6" s="25"/>
       <c r="M6" s="24">
         <v>45504</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="O6" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="P6" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="P6" s="34" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q6" s="34"/>
+      <c r="Q6" s="25"/>
     </row>
     <row r="7" spans="1:17" ht="11" customHeight="1">
       <c r="A7" s="6">
         <v>2</v>
       </c>
-      <c r="B7" s="32"/>
-      <c r="C7" s="34" t="s">
+      <c r="B7" s="52"/>
+      <c r="C7" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="34"/>
-      <c r="E7" s="34"/>
-      <c r="F7" s="34"/>
-      <c r="G7" s="34"/>
-      <c r="H7" s="34" t="s">
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="I7" s="34"/>
-      <c r="J7" s="34"/>
-      <c r="K7" s="34"/>
-      <c r="L7" s="34"/>
+      <c r="I7" s="25"/>
+      <c r="J7" s="25"/>
+      <c r="K7" s="25"/>
+      <c r="L7" s="25"/>
       <c r="M7" s="24">
         <v>45504</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="P7" s="34"/>
-      <c r="Q7" s="34"/>
+        <v>65</v>
+      </c>
+      <c r="P7" s="25"/>
+      <c r="Q7" s="25"/>
     </row>
     <row r="8" spans="1:17" ht="11" customHeight="1">
       <c r="A8" s="6">
         <v>3</v>
       </c>
       <c r="B8" s="7"/>
-      <c r="C8" s="58" t="s">
+      <c r="C8" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="59"/>
-      <c r="E8" s="59"/>
-      <c r="F8" s="59"/>
-      <c r="G8" s="60"/>
-      <c r="H8" s="25" t="s">
+      <c r="D8" s="31"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="32"/>
+      <c r="H8" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="I8" s="26"/>
-      <c r="J8" s="26"/>
-      <c r="K8" s="26"/>
-      <c r="L8" s="27"/>
+      <c r="I8" s="28"/>
+      <c r="J8" s="28"/>
+      <c r="K8" s="28"/>
+      <c r="L8" s="29"/>
       <c r="M8" s="24">
         <v>45504</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="P8" s="14"/>
       <c r="Q8" s="15"/>
@@ -1890,26 +1906,26 @@
         <v>4</v>
       </c>
       <c r="B9" s="7"/>
-      <c r="C9" s="61"/>
-      <c r="D9" s="62"/>
-      <c r="E9" s="62"/>
-      <c r="F9" s="62"/>
-      <c r="G9" s="63"/>
-      <c r="H9" s="25" t="s">
+      <c r="C9" s="33"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="34"/>
+      <c r="F9" s="34"/>
+      <c r="G9" s="35"/>
+      <c r="H9" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="I9" s="26"/>
-      <c r="J9" s="26"/>
-      <c r="K9" s="26"/>
-      <c r="L9" s="27"/>
+      <c r="I9" s="28"/>
+      <c r="J9" s="28"/>
+      <c r="K9" s="28"/>
+      <c r="L9" s="29"/>
       <c r="M9" s="24">
         <v>45504</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="P9" s="14"/>
       <c r="Q9" s="15"/>
@@ -1919,26 +1935,26 @@
         <v>5</v>
       </c>
       <c r="B10" s="7"/>
-      <c r="C10" s="61"/>
-      <c r="D10" s="62"/>
-      <c r="E10" s="62"/>
-      <c r="F10" s="62"/>
-      <c r="G10" s="63"/>
-      <c r="H10" s="25" t="s">
+      <c r="C10" s="33"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="34"/>
+      <c r="F10" s="34"/>
+      <c r="G10" s="35"/>
+      <c r="H10" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="I10" s="26"/>
-      <c r="J10" s="26"/>
-      <c r="K10" s="26"/>
-      <c r="L10" s="27"/>
+      <c r="I10" s="28"/>
+      <c r="J10" s="28"/>
+      <c r="K10" s="28"/>
+      <c r="L10" s="29"/>
       <c r="M10" s="24">
         <v>45504</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="P10" s="14"/>
       <c r="Q10" s="15"/>
@@ -1948,26 +1964,26 @@
         <v>6</v>
       </c>
       <c r="B11" s="7"/>
-      <c r="C11" s="61"/>
-      <c r="D11" s="62"/>
-      <c r="E11" s="62"/>
-      <c r="F11" s="62"/>
-      <c r="G11" s="63"/>
-      <c r="H11" s="25" t="s">
+      <c r="C11" s="33"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="34"/>
+      <c r="F11" s="34"/>
+      <c r="G11" s="35"/>
+      <c r="H11" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="I11" s="26"/>
-      <c r="J11" s="26"/>
-      <c r="K11" s="26"/>
-      <c r="L11" s="27"/>
+      <c r="I11" s="28"/>
+      <c r="J11" s="28"/>
+      <c r="K11" s="28"/>
+      <c r="L11" s="29"/>
       <c r="M11" s="24">
         <v>45504</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="P11" s="14"/>
       <c r="Q11" s="15"/>
@@ -1977,26 +1993,26 @@
         <v>7</v>
       </c>
       <c r="B12" s="7"/>
-      <c r="C12" s="61"/>
-      <c r="D12" s="62"/>
-      <c r="E12" s="62"/>
-      <c r="F12" s="62"/>
-      <c r="G12" s="63"/>
-      <c r="H12" s="25" t="s">
+      <c r="C12" s="33"/>
+      <c r="D12" s="34"/>
+      <c r="E12" s="34"/>
+      <c r="F12" s="34"/>
+      <c r="G12" s="35"/>
+      <c r="H12" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="I12" s="26"/>
-      <c r="J12" s="26"/>
-      <c r="K12" s="26"/>
-      <c r="L12" s="27"/>
+      <c r="I12" s="28"/>
+      <c r="J12" s="28"/>
+      <c r="K12" s="28"/>
+      <c r="L12" s="29"/>
       <c r="M12" s="24">
         <v>45504</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="P12" s="14"/>
       <c r="Q12" s="15"/>
@@ -2006,57 +2022,57 @@
         <v>8</v>
       </c>
       <c r="B13" s="7"/>
-      <c r="C13" s="64"/>
-      <c r="D13" s="65"/>
-      <c r="E13" s="65"/>
-      <c r="F13" s="65"/>
-      <c r="G13" s="66"/>
-      <c r="H13" s="25" t="s">
+      <c r="C13" s="36"/>
+      <c r="D13" s="37"/>
+      <c r="E13" s="37"/>
+      <c r="F13" s="37"/>
+      <c r="G13" s="38"/>
+      <c r="H13" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="I13" s="26"/>
-      <c r="J13" s="26"/>
-      <c r="K13" s="26"/>
-      <c r="L13" s="27"/>
+      <c r="I13" s="28"/>
+      <c r="J13" s="28"/>
+      <c r="K13" s="28"/>
+      <c r="L13" s="29"/>
       <c r="M13" s="24">
         <v>45504</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="P13" s="36"/>
-      <c r="Q13" s="37"/>
+        <v>65</v>
+      </c>
+      <c r="P13" s="49"/>
+      <c r="Q13" s="50"/>
     </row>
     <row r="14" spans="1:17" ht="11" customHeight="1">
       <c r="A14" s="6">
         <v>9</v>
       </c>
       <c r="B14" s="7"/>
-      <c r="C14" s="58" t="s">
+      <c r="C14" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="D14" s="59"/>
-      <c r="E14" s="59"/>
-      <c r="F14" s="59"/>
-      <c r="G14" s="60"/>
-      <c r="H14" s="25" t="s">
+      <c r="D14" s="31"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="31"/>
+      <c r="G14" s="32"/>
+      <c r="H14" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="I14" s="26"/>
-      <c r="J14" s="26"/>
-      <c r="K14" s="26"/>
-      <c r="L14" s="27"/>
+      <c r="I14" s="28"/>
+      <c r="J14" s="28"/>
+      <c r="K14" s="28"/>
+      <c r="L14" s="29"/>
       <c r="M14" s="24">
         <v>45504</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="P14" s="16"/>
       <c r="Q14" s="17"/>
@@ -2066,57 +2082,57 @@
         <v>10</v>
       </c>
       <c r="B15" s="7"/>
-      <c r="C15" s="61"/>
-      <c r="D15" s="62"/>
-      <c r="E15" s="62"/>
-      <c r="F15" s="62"/>
-      <c r="G15" s="63"/>
-      <c r="H15" s="25" t="s">
+      <c r="C15" s="33"/>
+      <c r="D15" s="34"/>
+      <c r="E15" s="34"/>
+      <c r="F15" s="34"/>
+      <c r="G15" s="35"/>
+      <c r="H15" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="I15" s="26"/>
-      <c r="J15" s="26"/>
-      <c r="K15" s="26"/>
-      <c r="L15" s="27"/>
+      <c r="I15" s="28"/>
+      <c r="J15" s="28"/>
+      <c r="K15" s="28"/>
+      <c r="L15" s="29"/>
       <c r="M15" s="24">
         <v>45504</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="O15" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="P15" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q15" s="30"/>
+        <v>65</v>
+      </c>
+      <c r="P15" s="44" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q15" s="45"/>
     </row>
     <row r="16" spans="1:17" ht="11" customHeight="1">
       <c r="A16" s="6">
         <v>11</v>
       </c>
       <c r="B16" s="7"/>
-      <c r="C16" s="61"/>
-      <c r="D16" s="62"/>
-      <c r="E16" s="62"/>
-      <c r="F16" s="62"/>
-      <c r="G16" s="63"/>
-      <c r="H16" s="25" t="s">
+      <c r="C16" s="33"/>
+      <c r="D16" s="34"/>
+      <c r="E16" s="34"/>
+      <c r="F16" s="34"/>
+      <c r="G16" s="35"/>
+      <c r="H16" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="I16" s="26"/>
-      <c r="J16" s="26"/>
-      <c r="K16" s="26"/>
-      <c r="L16" s="27"/>
+      <c r="I16" s="28"/>
+      <c r="J16" s="28"/>
+      <c r="K16" s="28"/>
+      <c r="L16" s="29"/>
       <c r="M16" s="24">
         <v>45504</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="O16" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="P16" s="16"/>
       <c r="Q16" s="17"/>
@@ -2126,26 +2142,26 @@
         <v>12</v>
       </c>
       <c r="B17" s="7"/>
-      <c r="C17" s="61"/>
-      <c r="D17" s="62"/>
-      <c r="E17" s="62"/>
-      <c r="F17" s="62"/>
-      <c r="G17" s="63"/>
-      <c r="H17" s="25" t="s">
+      <c r="C17" s="33"/>
+      <c r="D17" s="34"/>
+      <c r="E17" s="34"/>
+      <c r="F17" s="34"/>
+      <c r="G17" s="35"/>
+      <c r="H17" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="I17" s="26"/>
-      <c r="J17" s="26"/>
-      <c r="K17" s="26"/>
-      <c r="L17" s="27"/>
+      <c r="I17" s="28"/>
+      <c r="J17" s="28"/>
+      <c r="K17" s="28"/>
+      <c r="L17" s="29"/>
       <c r="M17" s="24">
         <v>45504</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="O17" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="P17" s="16"/>
       <c r="Q17" s="17"/>
@@ -2155,26 +2171,26 @@
         <v>13</v>
       </c>
       <c r="B18" s="7"/>
-      <c r="C18" s="64"/>
-      <c r="D18" s="65"/>
-      <c r="E18" s="65"/>
-      <c r="F18" s="65"/>
-      <c r="G18" s="66"/>
-      <c r="H18" s="25" t="s">
+      <c r="C18" s="36"/>
+      <c r="D18" s="37"/>
+      <c r="E18" s="37"/>
+      <c r="F18" s="37"/>
+      <c r="G18" s="38"/>
+      <c r="H18" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="I18" s="26"/>
-      <c r="J18" s="26"/>
-      <c r="K18" s="26"/>
-      <c r="L18" s="27"/>
+      <c r="I18" s="28"/>
+      <c r="J18" s="28"/>
+      <c r="K18" s="28"/>
+      <c r="L18" s="29"/>
       <c r="M18" s="24">
         <v>45504</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="O18" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="P18" s="16"/>
       <c r="Q18" s="17"/>
@@ -2191,21 +2207,21 @@
       <c r="E19" s="22"/>
       <c r="F19" s="22"/>
       <c r="G19" s="23"/>
-      <c r="H19" s="25" t="s">
+      <c r="H19" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="I19" s="26"/>
-      <c r="J19" s="26"/>
-      <c r="K19" s="26"/>
-      <c r="L19" s="27"/>
+      <c r="I19" s="28"/>
+      <c r="J19" s="28"/>
+      <c r="K19" s="28"/>
+      <c r="L19" s="29"/>
       <c r="M19" s="24">
         <v>45504</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="O19" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="P19" s="16"/>
       <c r="Q19" s="17"/>
@@ -2217,372 +2233,372 @@
       <c r="B20" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="C20" s="25" t="s">
+      <c r="C20" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="D20" s="26"/>
-      <c r="E20" s="26"/>
-      <c r="F20" s="26"/>
-      <c r="G20" s="27"/>
-      <c r="H20" s="34" t="s">
+      <c r="D20" s="28"/>
+      <c r="E20" s="28"/>
+      <c r="F20" s="28"/>
+      <c r="G20" s="29"/>
+      <c r="H20" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="I20" s="34"/>
-      <c r="J20" s="34"/>
-      <c r="K20" s="34"/>
-      <c r="L20" s="34"/>
+      <c r="I20" s="25"/>
+      <c r="J20" s="25"/>
+      <c r="K20" s="25"/>
+      <c r="L20" s="25"/>
       <c r="M20" s="24">
         <v>45504</v>
       </c>
       <c r="N20" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="O20" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="P20" s="34"/>
-      <c r="Q20" s="34"/>
+        <v>65</v>
+      </c>
+      <c r="P20" s="25"/>
+      <c r="Q20" s="25"/>
     </row>
     <row r="21" spans="1:17" ht="13.5" customHeight="1">
       <c r="A21" s="6">
         <v>16</v>
       </c>
       <c r="B21" s="19"/>
-      <c r="C21" s="25" t="s">
+      <c r="C21" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="D21" s="26"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="26"/>
-      <c r="G21" s="27"/>
-      <c r="H21" s="34" t="s">
+      <c r="D21" s="28"/>
+      <c r="E21" s="28"/>
+      <c r="F21" s="28"/>
+      <c r="G21" s="29"/>
+      <c r="H21" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="I21" s="34"/>
-      <c r="J21" s="34"/>
-      <c r="K21" s="34"/>
-      <c r="L21" s="34"/>
+      <c r="I21" s="25"/>
+      <c r="J21" s="25"/>
+      <c r="K21" s="25"/>
+      <c r="L21" s="25"/>
       <c r="M21" s="24">
         <v>45504</v>
       </c>
       <c r="N21" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="O21" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="P21" s="34"/>
-      <c r="Q21" s="34"/>
+        <v>65</v>
+      </c>
+      <c r="P21" s="25"/>
+      <c r="Q21" s="25"/>
     </row>
     <row r="22" spans="1:17" ht="13.5" customHeight="1">
       <c r="A22" s="6">
         <v>17</v>
       </c>
       <c r="B22" s="19"/>
-      <c r="C22" s="25" t="s">
+      <c r="C22" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="D22" s="26"/>
-      <c r="E22" s="26"/>
-      <c r="F22" s="26"/>
-      <c r="G22" s="27"/>
-      <c r="H22" s="34" t="s">
+      <c r="D22" s="28"/>
+      <c r="E22" s="28"/>
+      <c r="F22" s="28"/>
+      <c r="G22" s="29"/>
+      <c r="H22" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="I22" s="34"/>
-      <c r="J22" s="34"/>
-      <c r="K22" s="34"/>
-      <c r="L22" s="34"/>
+      <c r="I22" s="25"/>
+      <c r="J22" s="25"/>
+      <c r="K22" s="25"/>
+      <c r="L22" s="25"/>
       <c r="M22" s="24">
         <v>45504</v>
       </c>
       <c r="N22" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="O22" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="P22" s="34"/>
-      <c r="Q22" s="34"/>
+        <v>65</v>
+      </c>
+      <c r="P22" s="25"/>
+      <c r="Q22" s="25"/>
     </row>
     <row r="23" spans="1:17" ht="13.5" customHeight="1">
       <c r="A23" s="6">
         <v>18</v>
       </c>
       <c r="B23" s="19"/>
-      <c r="C23" s="25" t="s">
+      <c r="C23" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="D23" s="26"/>
-      <c r="E23" s="26"/>
-      <c r="F23" s="26"/>
-      <c r="G23" s="27"/>
-      <c r="H23" s="34" t="s">
+      <c r="D23" s="28"/>
+      <c r="E23" s="28"/>
+      <c r="F23" s="28"/>
+      <c r="G23" s="29"/>
+      <c r="H23" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="I23" s="34"/>
-      <c r="J23" s="34"/>
-      <c r="K23" s="34"/>
-      <c r="L23" s="34"/>
+      <c r="I23" s="25"/>
+      <c r="J23" s="25"/>
+      <c r="K23" s="25"/>
+      <c r="L23" s="25"/>
       <c r="M23" s="24">
         <v>45504</v>
       </c>
       <c r="N23" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="O23" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="P23" s="34"/>
-      <c r="Q23" s="34"/>
+        <v>65</v>
+      </c>
+      <c r="P23" s="25"/>
+      <c r="Q23" s="25"/>
     </row>
     <row r="24" spans="1:17" ht="13.5" customHeight="1">
       <c r="A24" s="6">
         <v>19</v>
       </c>
       <c r="B24" s="20"/>
-      <c r="C24" s="25" t="s">
+      <c r="C24" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="D24" s="26"/>
-      <c r="E24" s="26"/>
-      <c r="F24" s="26"/>
-      <c r="G24" s="27"/>
-      <c r="H24" s="34" t="s">
+      <c r="D24" s="28"/>
+      <c r="E24" s="28"/>
+      <c r="F24" s="28"/>
+      <c r="G24" s="29"/>
+      <c r="H24" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="I24" s="34"/>
-      <c r="J24" s="34"/>
-      <c r="K24" s="34"/>
-      <c r="L24" s="34"/>
+      <c r="I24" s="25"/>
+      <c r="J24" s="25"/>
+      <c r="K24" s="25"/>
+      <c r="L24" s="25"/>
       <c r="M24" s="24">
         <v>45504</v>
       </c>
       <c r="N24" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="O24" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="P24" s="34"/>
-      <c r="Q24" s="34"/>
+        <v>65</v>
+      </c>
+      <c r="P24" s="25"/>
+      <c r="Q24" s="25"/>
     </row>
     <row r="25" spans="1:17" ht="13.5" customHeight="1">
       <c r="A25" s="6">
         <v>20</v>
       </c>
       <c r="B25" s="19"/>
-      <c r="C25" s="35" t="s">
+      <c r="C25" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="D25" s="34"/>
-      <c r="E25" s="34"/>
-      <c r="F25" s="34"/>
-      <c r="G25" s="34"/>
-      <c r="H25" s="34" t="s">
+      <c r="D25" s="25"/>
+      <c r="E25" s="25"/>
+      <c r="F25" s="25"/>
+      <c r="G25" s="25"/>
+      <c r="H25" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="I25" s="34"/>
-      <c r="J25" s="34"/>
-      <c r="K25" s="34"/>
-      <c r="L25" s="34"/>
+      <c r="I25" s="25"/>
+      <c r="J25" s="25"/>
+      <c r="K25" s="25"/>
+      <c r="L25" s="25"/>
       <c r="M25" s="24">
         <v>45504</v>
       </c>
       <c r="N25" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="O25" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="P25" s="36"/>
-      <c r="Q25" s="37"/>
+        <v>65</v>
+      </c>
+      <c r="P25" s="49"/>
+      <c r="Q25" s="50"/>
     </row>
     <row r="26" spans="1:17" ht="13.5" customHeight="1">
       <c r="A26" s="6">
         <v>21</v>
       </c>
       <c r="B26" s="19"/>
-      <c r="C26" s="35" t="s">
+      <c r="C26" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="D26" s="34"/>
-      <c r="E26" s="34"/>
-      <c r="F26" s="34"/>
-      <c r="G26" s="34"/>
-      <c r="H26" s="34" t="s">
+      <c r="D26" s="25"/>
+      <c r="E26" s="25"/>
+      <c r="F26" s="25"/>
+      <c r="G26" s="25"/>
+      <c r="H26" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="I26" s="34"/>
-      <c r="J26" s="34"/>
-      <c r="K26" s="34"/>
-      <c r="L26" s="34"/>
+      <c r="I26" s="25"/>
+      <c r="J26" s="25"/>
+      <c r="K26" s="25"/>
+      <c r="L26" s="25"/>
       <c r="M26" s="24">
         <v>45504</v>
       </c>
       <c r="N26" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="O26" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="P26" s="34"/>
-      <c r="Q26" s="34"/>
+        <v>65</v>
+      </c>
+      <c r="P26" s="25"/>
+      <c r="Q26" s="25"/>
     </row>
     <row r="27" spans="1:17" ht="13.5" customHeight="1">
       <c r="A27" s="6">
         <v>22</v>
       </c>
       <c r="B27" s="20"/>
-      <c r="C27" s="25" t="s">
+      <c r="C27" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="D27" s="26"/>
-      <c r="E27" s="26"/>
-      <c r="F27" s="26"/>
-      <c r="G27" s="27"/>
-      <c r="H27" s="34" t="s">
+      <c r="D27" s="28"/>
+      <c r="E27" s="28"/>
+      <c r="F27" s="28"/>
+      <c r="G27" s="29"/>
+      <c r="H27" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="I27" s="34"/>
-      <c r="J27" s="34"/>
-      <c r="K27" s="34"/>
-      <c r="L27" s="34"/>
+      <c r="I27" s="25"/>
+      <c r="J27" s="25"/>
+      <c r="K27" s="25"/>
+      <c r="L27" s="25"/>
       <c r="M27" s="24">
         <v>45504</v>
       </c>
       <c r="N27" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="O27" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="P27" s="34"/>
-      <c r="Q27" s="34"/>
+        <v>65</v>
+      </c>
+      <c r="P27" s="25"/>
+      <c r="Q27" s="25"/>
     </row>
     <row r="28" spans="1:17" ht="56.5" customHeight="1">
       <c r="A28" s="6">
         <v>23</v>
       </c>
-      <c r="B28" s="31" t="s">
+      <c r="B28" s="51" t="s">
         <v>42</v>
       </c>
-      <c r="C28" s="35" t="s">
+      <c r="C28" s="26" t="s">
         <v>62</v>
       </c>
-      <c r="D28" s="35"/>
-      <c r="E28" s="35"/>
-      <c r="F28" s="35"/>
-      <c r="G28" s="35"/>
-      <c r="H28" s="34" t="s">
-        <v>70</v>
-      </c>
-      <c r="I28" s="34"/>
-      <c r="J28" s="34"/>
-      <c r="K28" s="34"/>
-      <c r="L28" s="34"/>
+      <c r="D28" s="26"/>
+      <c r="E28" s="26"/>
+      <c r="F28" s="26"/>
+      <c r="G28" s="26"/>
+      <c r="H28" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="I28" s="25"/>
+      <c r="J28" s="25"/>
+      <c r="K28" s="25"/>
+      <c r="L28" s="25"/>
       <c r="M28" s="24">
         <v>45504</v>
       </c>
       <c r="N28" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="O28" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="P28" s="34"/>
-      <c r="Q28" s="34"/>
+        <v>65</v>
+      </c>
+      <c r="P28" s="25"/>
+      <c r="Q28" s="25"/>
     </row>
     <row r="29" spans="1:17" ht="43.5" customHeight="1">
       <c r="A29" s="6">
         <v>24</v>
       </c>
-      <c r="B29" s="32"/>
-      <c r="C29" s="35" t="s">
+      <c r="B29" s="52"/>
+      <c r="C29" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="D29" s="35"/>
-      <c r="E29" s="35"/>
-      <c r="F29" s="35"/>
-      <c r="G29" s="35"/>
-      <c r="H29" s="34" t="s">
+      <c r="D29" s="26"/>
+      <c r="E29" s="26"/>
+      <c r="F29" s="26"/>
+      <c r="G29" s="26"/>
+      <c r="H29" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="I29" s="34"/>
-      <c r="J29" s="34"/>
-      <c r="K29" s="34"/>
-      <c r="L29" s="34"/>
+      <c r="I29" s="25"/>
+      <c r="J29" s="25"/>
+      <c r="K29" s="25"/>
+      <c r="L29" s="25"/>
       <c r="M29" s="24">
         <v>45504</v>
       </c>
       <c r="N29" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="O29" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="P29" s="34"/>
-      <c r="Q29" s="34"/>
+        <v>68</v>
+      </c>
+      <c r="P29" s="25"/>
+      <c r="Q29" s="25"/>
     </row>
     <row r="30" spans="1:17" ht="58.5" customHeight="1">
       <c r="A30" s="6">
         <v>25</v>
       </c>
-      <c r="B30" s="33"/>
-      <c r="C30" s="25" t="s">
+      <c r="B30" s="66"/>
+      <c r="C30" s="27" t="s">
         <v>64</v>
       </c>
-      <c r="D30" s="26"/>
-      <c r="E30" s="26"/>
-      <c r="F30" s="26"/>
-      <c r="G30" s="27"/>
-      <c r="H30" s="28" t="s">
-        <v>72</v>
-      </c>
-      <c r="I30" s="29"/>
-      <c r="J30" s="29"/>
-      <c r="K30" s="29"/>
-      <c r="L30" s="30"/>
+      <c r="D30" s="28"/>
+      <c r="E30" s="28"/>
+      <c r="F30" s="28"/>
+      <c r="G30" s="29"/>
+      <c r="H30" s="44" t="s">
+        <v>71</v>
+      </c>
+      <c r="I30" s="65"/>
+      <c r="J30" s="65"/>
+      <c r="K30" s="65"/>
+      <c r="L30" s="45"/>
       <c r="M30" s="24">
         <v>45504</v>
       </c>
       <c r="N30" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="O30" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="P30" s="14"/>
       <c r="Q30" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="68">
-    <mergeCell ref="P28:Q28"/>
-    <mergeCell ref="C29:G29"/>
-    <mergeCell ref="H29:L29"/>
-    <mergeCell ref="P29:Q29"/>
-    <mergeCell ref="H26:L26"/>
-    <mergeCell ref="P26:Q26"/>
-    <mergeCell ref="C27:G27"/>
-    <mergeCell ref="H27:L27"/>
-    <mergeCell ref="P27:Q27"/>
-    <mergeCell ref="P20:Q20"/>
-    <mergeCell ref="H18:L18"/>
-    <mergeCell ref="H17:L17"/>
-    <mergeCell ref="C14:G18"/>
-    <mergeCell ref="H19:L19"/>
-    <mergeCell ref="H14:L14"/>
-    <mergeCell ref="H16:L16"/>
-    <mergeCell ref="H11:L11"/>
-    <mergeCell ref="H12:L12"/>
-    <mergeCell ref="H13:L13"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="H20:L20"/>
-    <mergeCell ref="H6:L6"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="H7:L7"/>
-    <mergeCell ref="H9:L9"/>
-    <mergeCell ref="H10:L10"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="H30:L30"/>
+    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="H23:L23"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="H28:L28"/>
+    <mergeCell ref="P23:Q23"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="H21:L21"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="H24:L24"/>
+    <mergeCell ref="P24:Q24"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="H22:L22"/>
+    <mergeCell ref="P22:Q22"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="P25:Q25"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="H25:L25"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:M1"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:M2"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="C4:Q4"/>
     <mergeCell ref="A3:B3"/>
@@ -2599,32 +2615,32 @@
     <mergeCell ref="H8:L8"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="C6:G6"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:M1"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:M2"/>
-    <mergeCell ref="P23:Q23"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="H21:L21"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="H24:L24"/>
-    <mergeCell ref="P24:Q24"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="H22:L22"/>
-    <mergeCell ref="P22:Q22"/>
-    <mergeCell ref="P21:Q21"/>
-    <mergeCell ref="P25:Q25"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="H25:L25"/>
-    <mergeCell ref="C30:G30"/>
-    <mergeCell ref="H30:L30"/>
-    <mergeCell ref="B28:B30"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="H23:L23"/>
-    <mergeCell ref="C28:G28"/>
-    <mergeCell ref="H28:L28"/>
+    <mergeCell ref="H6:L6"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="H7:L7"/>
+    <mergeCell ref="H9:L9"/>
+    <mergeCell ref="H10:L10"/>
+    <mergeCell ref="H11:L11"/>
+    <mergeCell ref="H12:L12"/>
+    <mergeCell ref="H13:L13"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="H20:L20"/>
+    <mergeCell ref="P20:Q20"/>
+    <mergeCell ref="H18:L18"/>
+    <mergeCell ref="H17:L17"/>
+    <mergeCell ref="C14:G18"/>
+    <mergeCell ref="H19:L19"/>
+    <mergeCell ref="H14:L14"/>
+    <mergeCell ref="H16:L16"/>
+    <mergeCell ref="P28:Q28"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="H29:L29"/>
+    <mergeCell ref="P29:Q29"/>
+    <mergeCell ref="H26:L26"/>
+    <mergeCell ref="P26:Q26"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="H27:L27"/>
+    <mergeCell ref="P27:Q27"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.27559055118110237" header="0.35433070866141736" footer="0.15748031496062992"/>

--- a/plan/test/結合テスト/結合テスト仕様書-BP014新商品登録(完了).xlsx
+++ b/plan/test/結合テスト/結合テスト仕様書-BP014新商品登録(完了).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fullness\Desktop\work\java-review\ec-b\plan\test\結合テスト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69D84768-1F7C-4C9E-ADA3-9C4637C45B61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F67896FE-FC4C-43FA-B9F4-D276BBDEC35E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="75">
   <si>
     <t>作成者</t>
   </si>
@@ -747,6 +747,13 @@
     </rPh>
     <rPh sb="3" eb="5">
       <t>タカラ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>未実装</t>
+    <rPh sb="0" eb="3">
+      <t>ミジッソウ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1165,6 +1172,33 @@
     <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1172,13 +1206,70 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1205,90 +1296,6 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -1643,8 +1650,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{776758EE-792E-45DD-A875-220DAC06338B}">
   <dimension ref="A1:Q30"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:Q3"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A17" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="O23" sqref="O23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="11.25" customHeight="1"/>
@@ -1660,25 +1667,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="55" t="s">
+      <c r="B1" s="38"/>
+      <c r="C1" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="56"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="58" t="s">
+      <c r="D1" s="41"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
-      <c r="I1" s="58"/>
-      <c r="J1" s="58"/>
-      <c r="K1" s="58"/>
-      <c r="L1" s="58"/>
-      <c r="M1" s="58"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="43"/>
+      <c r="K1" s="43"/>
+      <c r="L1" s="43"/>
+      <c r="M1" s="43"/>
       <c r="N1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1693,23 +1700,23 @@
       </c>
     </row>
     <row r="2" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A2" s="54"/>
-      <c r="B2" s="54"/>
-      <c r="C2" s="59" t="s">
+      <c r="A2" s="39"/>
+      <c r="B2" s="39"/>
+      <c r="C2" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="60"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="62" t="s">
+      <c r="D2" s="45"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="47" t="s">
         <v>44</v>
       </c>
-      <c r="G2" s="63"/>
-      <c r="H2" s="63"/>
-      <c r="I2" s="63"/>
-      <c r="J2" s="63"/>
-      <c r="K2" s="63"/>
-      <c r="L2" s="63"/>
-      <c r="M2" s="64"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="48"/>
+      <c r="K2" s="48"/>
+      <c r="L2" s="48"/>
+      <c r="M2" s="49"/>
       <c r="N2" s="8" t="s">
         <v>1</v>
       </c>
@@ -1724,50 +1731,50 @@
       </c>
     </row>
     <row r="3" spans="1:17" ht="143.5" customHeight="1">
-      <c r="A3" s="39" t="s">
+      <c r="A3" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="40"/>
-      <c r="C3" s="41" t="s">
+      <c r="B3" s="51"/>
+      <c r="C3" s="52" t="s">
         <v>48</v>
       </c>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
-      <c r="F3" s="42"/>
-      <c r="G3" s="42"/>
-      <c r="H3" s="42"/>
-      <c r="I3" s="42"/>
-      <c r="J3" s="42"/>
-      <c r="K3" s="42"/>
-      <c r="L3" s="42"/>
-      <c r="M3" s="42"/>
-      <c r="N3" s="42"/>
-      <c r="O3" s="42"/>
-      <c r="P3" s="42"/>
-      <c r="Q3" s="43"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="53"/>
+      <c r="H3" s="53"/>
+      <c r="I3" s="53"/>
+      <c r="J3" s="53"/>
+      <c r="K3" s="53"/>
+      <c r="L3" s="53"/>
+      <c r="M3" s="53"/>
+      <c r="N3" s="53"/>
+      <c r="O3" s="53"/>
+      <c r="P3" s="53"/>
+      <c r="Q3" s="54"/>
     </row>
     <row r="4" spans="1:17" ht="31.5" customHeight="1">
-      <c r="A4" s="39" t="s">
+      <c r="A4" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="40"/>
-      <c r="C4" s="41" t="s">
+      <c r="B4" s="51"/>
+      <c r="C4" s="52" t="s">
         <v>47</v>
       </c>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
-      <c r="F4" s="42"/>
-      <c r="G4" s="42"/>
-      <c r="H4" s="42"/>
-      <c r="I4" s="42"/>
-      <c r="J4" s="42"/>
-      <c r="K4" s="42"/>
-      <c r="L4" s="42"/>
-      <c r="M4" s="42"/>
-      <c r="N4" s="42"/>
-      <c r="O4" s="42"/>
-      <c r="P4" s="42"/>
-      <c r="Q4" s="43"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
+      <c r="H4" s="53"/>
+      <c r="I4" s="53"/>
+      <c r="J4" s="53"/>
+      <c r="K4" s="53"/>
+      <c r="L4" s="53"/>
+      <c r="M4" s="53"/>
+      <c r="N4" s="53"/>
+      <c r="O4" s="53"/>
+      <c r="P4" s="53"/>
+      <c r="Q4" s="54"/>
     </row>
     <row r="5" spans="1:17" ht="15" customHeight="1">
       <c r="A5" s="13" t="s">
@@ -1776,20 +1783,20 @@
       <c r="B5" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="46" t="s">
+      <c r="C5" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="48"/>
-      <c r="E5" s="48"/>
-      <c r="F5" s="48"/>
-      <c r="G5" s="47"/>
-      <c r="H5" s="46" t="s">
+      <c r="D5" s="57"/>
+      <c r="E5" s="57"/>
+      <c r="F5" s="57"/>
+      <c r="G5" s="56"/>
+      <c r="H5" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="48"/>
-      <c r="J5" s="48"/>
-      <c r="K5" s="48"/>
-      <c r="L5" s="48"/>
+      <c r="I5" s="57"/>
+      <c r="J5" s="57"/>
+      <c r="K5" s="57"/>
+      <c r="L5" s="57"/>
       <c r="M5" s="13" t="s">
         <v>13</v>
       </c>
@@ -1799,32 +1806,32 @@
       <c r="O5" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="P5" s="46" t="s">
+      <c r="P5" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="Q5" s="47"/>
+      <c r="Q5" s="56"/>
     </row>
     <row r="6" spans="1:17" ht="11">
       <c r="A6" s="6">
         <v>1</v>
       </c>
-      <c r="B6" s="51" t="s">
+      <c r="B6" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="25" t="s">
+      <c r="C6" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="25"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="25"/>
-      <c r="G6" s="25"/>
-      <c r="H6" s="25" t="s">
+      <c r="D6" s="34"/>
+      <c r="E6" s="34"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="34"/>
+      <c r="H6" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="I6" s="25"/>
-      <c r="J6" s="25"/>
-      <c r="K6" s="25"/>
-      <c r="L6" s="25"/>
+      <c r="I6" s="34"/>
+      <c r="J6" s="34"/>
+      <c r="K6" s="34"/>
+      <c r="L6" s="34"/>
       <c r="M6" s="24">
         <v>45504</v>
       </c>
@@ -1834,30 +1841,30 @@
       <c r="O6" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="P6" s="25" t="s">
+      <c r="P6" s="34" t="s">
         <v>66</v>
       </c>
-      <c r="Q6" s="25"/>
+      <c r="Q6" s="34"/>
     </row>
     <row r="7" spans="1:17" ht="11" customHeight="1">
       <c r="A7" s="6">
         <v>2</v>
       </c>
-      <c r="B7" s="52"/>
-      <c r="C7" s="25" t="s">
+      <c r="B7" s="32"/>
+      <c r="C7" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="25"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="25"/>
-      <c r="G7" s="25"/>
-      <c r="H7" s="25" t="s">
+      <c r="D7" s="34"/>
+      <c r="E7" s="34"/>
+      <c r="F7" s="34"/>
+      <c r="G7" s="34"/>
+      <c r="H7" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="I7" s="25"/>
-      <c r="J7" s="25"/>
-      <c r="K7" s="25"/>
-      <c r="L7" s="25"/>
+      <c r="I7" s="34"/>
+      <c r="J7" s="34"/>
+      <c r="K7" s="34"/>
+      <c r="L7" s="34"/>
       <c r="M7" s="24">
         <v>45504</v>
       </c>
@@ -1867,28 +1874,28 @@
       <c r="O7" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="P7" s="25"/>
-      <c r="Q7" s="25"/>
+      <c r="P7" s="34"/>
+      <c r="Q7" s="34"/>
     </row>
     <row r="8" spans="1:17" ht="11" customHeight="1">
       <c r="A8" s="6">
         <v>3</v>
       </c>
       <c r="B8" s="7"/>
-      <c r="C8" s="30" t="s">
+      <c r="C8" s="58" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="31"/>
-      <c r="E8" s="31"/>
-      <c r="F8" s="31"/>
-      <c r="G8" s="32"/>
-      <c r="H8" s="27" t="s">
+      <c r="D8" s="59"/>
+      <c r="E8" s="59"/>
+      <c r="F8" s="59"/>
+      <c r="G8" s="60"/>
+      <c r="H8" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="I8" s="28"/>
-      <c r="J8" s="28"/>
-      <c r="K8" s="28"/>
-      <c r="L8" s="29"/>
+      <c r="I8" s="26"/>
+      <c r="J8" s="26"/>
+      <c r="K8" s="26"/>
+      <c r="L8" s="27"/>
       <c r="M8" s="24">
         <v>45504</v>
       </c>
@@ -1906,18 +1913,18 @@
         <v>4</v>
       </c>
       <c r="B9" s="7"/>
-      <c r="C9" s="33"/>
-      <c r="D9" s="34"/>
-      <c r="E9" s="34"/>
-      <c r="F9" s="34"/>
-      <c r="G9" s="35"/>
-      <c r="H9" s="27" t="s">
+      <c r="C9" s="61"/>
+      <c r="D9" s="62"/>
+      <c r="E9" s="62"/>
+      <c r="F9" s="62"/>
+      <c r="G9" s="63"/>
+      <c r="H9" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="I9" s="28"/>
-      <c r="J9" s="28"/>
-      <c r="K9" s="28"/>
-      <c r="L9" s="29"/>
+      <c r="I9" s="26"/>
+      <c r="J9" s="26"/>
+      <c r="K9" s="26"/>
+      <c r="L9" s="27"/>
       <c r="M9" s="24">
         <v>45504</v>
       </c>
@@ -1935,18 +1942,18 @@
         <v>5</v>
       </c>
       <c r="B10" s="7"/>
-      <c r="C10" s="33"/>
-      <c r="D10" s="34"/>
-      <c r="E10" s="34"/>
-      <c r="F10" s="34"/>
-      <c r="G10" s="35"/>
-      <c r="H10" s="27" t="s">
+      <c r="C10" s="61"/>
+      <c r="D10" s="62"/>
+      <c r="E10" s="62"/>
+      <c r="F10" s="62"/>
+      <c r="G10" s="63"/>
+      <c r="H10" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="I10" s="28"/>
-      <c r="J10" s="28"/>
-      <c r="K10" s="28"/>
-      <c r="L10" s="29"/>
+      <c r="I10" s="26"/>
+      <c r="J10" s="26"/>
+      <c r="K10" s="26"/>
+      <c r="L10" s="27"/>
       <c r="M10" s="24">
         <v>45504</v>
       </c>
@@ -1964,18 +1971,18 @@
         <v>6</v>
       </c>
       <c r="B11" s="7"/>
-      <c r="C11" s="33"/>
-      <c r="D11" s="34"/>
-      <c r="E11" s="34"/>
-      <c r="F11" s="34"/>
-      <c r="G11" s="35"/>
-      <c r="H11" s="27" t="s">
+      <c r="C11" s="61"/>
+      <c r="D11" s="62"/>
+      <c r="E11" s="62"/>
+      <c r="F11" s="62"/>
+      <c r="G11" s="63"/>
+      <c r="H11" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="I11" s="28"/>
-      <c r="J11" s="28"/>
-      <c r="K11" s="28"/>
-      <c r="L11" s="29"/>
+      <c r="I11" s="26"/>
+      <c r="J11" s="26"/>
+      <c r="K11" s="26"/>
+      <c r="L11" s="27"/>
       <c r="M11" s="24">
         <v>45504</v>
       </c>
@@ -1993,18 +2000,18 @@
         <v>7</v>
       </c>
       <c r="B12" s="7"/>
-      <c r="C12" s="33"/>
-      <c r="D12" s="34"/>
-      <c r="E12" s="34"/>
-      <c r="F12" s="34"/>
-      <c r="G12" s="35"/>
-      <c r="H12" s="27" t="s">
+      <c r="C12" s="61"/>
+      <c r="D12" s="62"/>
+      <c r="E12" s="62"/>
+      <c r="F12" s="62"/>
+      <c r="G12" s="63"/>
+      <c r="H12" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="I12" s="28"/>
-      <c r="J12" s="28"/>
-      <c r="K12" s="28"/>
-      <c r="L12" s="29"/>
+      <c r="I12" s="26"/>
+      <c r="J12" s="26"/>
+      <c r="K12" s="26"/>
+      <c r="L12" s="27"/>
       <c r="M12" s="24">
         <v>45504</v>
       </c>
@@ -2022,18 +2029,18 @@
         <v>8</v>
       </c>
       <c r="B13" s="7"/>
-      <c r="C13" s="36"/>
-      <c r="D13" s="37"/>
-      <c r="E13" s="37"/>
-      <c r="F13" s="37"/>
-      <c r="G13" s="38"/>
-      <c r="H13" s="27" t="s">
+      <c r="C13" s="64"/>
+      <c r="D13" s="65"/>
+      <c r="E13" s="65"/>
+      <c r="F13" s="65"/>
+      <c r="G13" s="66"/>
+      <c r="H13" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="I13" s="28"/>
-      <c r="J13" s="28"/>
-      <c r="K13" s="28"/>
-      <c r="L13" s="29"/>
+      <c r="I13" s="26"/>
+      <c r="J13" s="26"/>
+      <c r="K13" s="26"/>
+      <c r="L13" s="27"/>
       <c r="M13" s="24">
         <v>45504</v>
       </c>
@@ -2043,28 +2050,28 @@
       <c r="O13" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="P13" s="49"/>
-      <c r="Q13" s="50"/>
+      <c r="P13" s="36"/>
+      <c r="Q13" s="37"/>
     </row>
     <row r="14" spans="1:17" ht="11" customHeight="1">
       <c r="A14" s="6">
         <v>9</v>
       </c>
       <c r="B14" s="7"/>
-      <c r="C14" s="30" t="s">
+      <c r="C14" s="58" t="s">
         <v>52</v>
       </c>
-      <c r="D14" s="31"/>
-      <c r="E14" s="31"/>
-      <c r="F14" s="31"/>
-      <c r="G14" s="32"/>
-      <c r="H14" s="27" t="s">
+      <c r="D14" s="59"/>
+      <c r="E14" s="59"/>
+      <c r="F14" s="59"/>
+      <c r="G14" s="60"/>
+      <c r="H14" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="I14" s="28"/>
-      <c r="J14" s="28"/>
-      <c r="K14" s="28"/>
-      <c r="L14" s="29"/>
+      <c r="I14" s="26"/>
+      <c r="J14" s="26"/>
+      <c r="K14" s="26"/>
+      <c r="L14" s="27"/>
       <c r="M14" s="24">
         <v>45504</v>
       </c>
@@ -2082,18 +2089,18 @@
         <v>10</v>
       </c>
       <c r="B15" s="7"/>
-      <c r="C15" s="33"/>
-      <c r="D15" s="34"/>
-      <c r="E15" s="34"/>
-      <c r="F15" s="34"/>
-      <c r="G15" s="35"/>
-      <c r="H15" s="27" t="s">
+      <c r="C15" s="61"/>
+      <c r="D15" s="62"/>
+      <c r="E15" s="62"/>
+      <c r="F15" s="62"/>
+      <c r="G15" s="63"/>
+      <c r="H15" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="I15" s="28"/>
-      <c r="J15" s="28"/>
-      <c r="K15" s="28"/>
-      <c r="L15" s="29"/>
+      <c r="I15" s="26"/>
+      <c r="J15" s="26"/>
+      <c r="K15" s="26"/>
+      <c r="L15" s="27"/>
       <c r="M15" s="24">
         <v>45504</v>
       </c>
@@ -2103,28 +2110,28 @@
       <c r="O15" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="P15" s="44" t="s">
+      <c r="P15" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="Q15" s="45"/>
+      <c r="Q15" s="30"/>
     </row>
     <row r="16" spans="1:17" ht="11" customHeight="1">
       <c r="A16" s="6">
         <v>11</v>
       </c>
       <c r="B16" s="7"/>
-      <c r="C16" s="33"/>
-      <c r="D16" s="34"/>
-      <c r="E16" s="34"/>
-      <c r="F16" s="34"/>
-      <c r="G16" s="35"/>
-      <c r="H16" s="27" t="s">
+      <c r="C16" s="61"/>
+      <c r="D16" s="62"/>
+      <c r="E16" s="62"/>
+      <c r="F16" s="62"/>
+      <c r="G16" s="63"/>
+      <c r="H16" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="I16" s="28"/>
-      <c r="J16" s="28"/>
-      <c r="K16" s="28"/>
-      <c r="L16" s="29"/>
+      <c r="I16" s="26"/>
+      <c r="J16" s="26"/>
+      <c r="K16" s="26"/>
+      <c r="L16" s="27"/>
       <c r="M16" s="24">
         <v>45504</v>
       </c>
@@ -2142,18 +2149,18 @@
         <v>12</v>
       </c>
       <c r="B17" s="7"/>
-      <c r="C17" s="33"/>
-      <c r="D17" s="34"/>
-      <c r="E17" s="34"/>
-      <c r="F17" s="34"/>
-      <c r="G17" s="35"/>
-      <c r="H17" s="27" t="s">
+      <c r="C17" s="61"/>
+      <c r="D17" s="62"/>
+      <c r="E17" s="62"/>
+      <c r="F17" s="62"/>
+      <c r="G17" s="63"/>
+      <c r="H17" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="I17" s="28"/>
-      <c r="J17" s="28"/>
-      <c r="K17" s="28"/>
-      <c r="L17" s="29"/>
+      <c r="I17" s="26"/>
+      <c r="J17" s="26"/>
+      <c r="K17" s="26"/>
+      <c r="L17" s="27"/>
       <c r="M17" s="24">
         <v>45504</v>
       </c>
@@ -2171,18 +2178,18 @@
         <v>13</v>
       </c>
       <c r="B18" s="7"/>
-      <c r="C18" s="36"/>
-      <c r="D18" s="37"/>
-      <c r="E18" s="37"/>
-      <c r="F18" s="37"/>
-      <c r="G18" s="38"/>
-      <c r="H18" s="27" t="s">
+      <c r="C18" s="64"/>
+      <c r="D18" s="65"/>
+      <c r="E18" s="65"/>
+      <c r="F18" s="65"/>
+      <c r="G18" s="66"/>
+      <c r="H18" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="I18" s="28"/>
-      <c r="J18" s="28"/>
-      <c r="K18" s="28"/>
-      <c r="L18" s="29"/>
+      <c r="I18" s="26"/>
+      <c r="J18" s="26"/>
+      <c r="K18" s="26"/>
+      <c r="L18" s="27"/>
       <c r="M18" s="24">
         <v>45504</v>
       </c>
@@ -2207,13 +2214,13 @@
       <c r="E19" s="22"/>
       <c r="F19" s="22"/>
       <c r="G19" s="23"/>
-      <c r="H19" s="27" t="s">
+      <c r="H19" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="I19" s="28"/>
-      <c r="J19" s="28"/>
-      <c r="K19" s="28"/>
-      <c r="L19" s="29"/>
+      <c r="I19" s="26"/>
+      <c r="J19" s="26"/>
+      <c r="K19" s="26"/>
+      <c r="L19" s="27"/>
       <c r="M19" s="24">
         <v>45504</v>
       </c>
@@ -2233,20 +2240,20 @@
       <c r="B20" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="C20" s="27" t="s">
+      <c r="C20" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="D20" s="28"/>
-      <c r="E20" s="28"/>
-      <c r="F20" s="28"/>
-      <c r="G20" s="29"/>
-      <c r="H20" s="25" t="s">
+      <c r="D20" s="26"/>
+      <c r="E20" s="26"/>
+      <c r="F20" s="26"/>
+      <c r="G20" s="27"/>
+      <c r="H20" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="I20" s="25"/>
-      <c r="J20" s="25"/>
-      <c r="K20" s="25"/>
-      <c r="L20" s="25"/>
+      <c r="I20" s="34"/>
+      <c r="J20" s="34"/>
+      <c r="K20" s="34"/>
+      <c r="L20" s="34"/>
       <c r="M20" s="24">
         <v>45504</v>
       </c>
@@ -2256,28 +2263,28 @@
       <c r="O20" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="P20" s="25"/>
-      <c r="Q20" s="25"/>
+      <c r="P20" s="34"/>
+      <c r="Q20" s="34"/>
     </row>
     <row r="21" spans="1:17" ht="13.5" customHeight="1">
       <c r="A21" s="6">
         <v>16</v>
       </c>
       <c r="B21" s="19"/>
-      <c r="C21" s="27" t="s">
+      <c r="C21" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="D21" s="28"/>
-      <c r="E21" s="28"/>
-      <c r="F21" s="28"/>
-      <c r="G21" s="29"/>
-      <c r="H21" s="25" t="s">
+      <c r="D21" s="26"/>
+      <c r="E21" s="26"/>
+      <c r="F21" s="26"/>
+      <c r="G21" s="27"/>
+      <c r="H21" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="I21" s="25"/>
-      <c r="J21" s="25"/>
-      <c r="K21" s="25"/>
-      <c r="L21" s="25"/>
+      <c r="I21" s="34"/>
+      <c r="J21" s="34"/>
+      <c r="K21" s="34"/>
+      <c r="L21" s="34"/>
       <c r="M21" s="24">
         <v>45504</v>
       </c>
@@ -2287,28 +2294,28 @@
       <c r="O21" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="P21" s="25"/>
-      <c r="Q21" s="25"/>
+      <c r="P21" s="34"/>
+      <c r="Q21" s="34"/>
     </row>
     <row r="22" spans="1:17" ht="13.5" customHeight="1">
       <c r="A22" s="6">
         <v>17</v>
       </c>
       <c r="B22" s="19"/>
-      <c r="C22" s="27" t="s">
+      <c r="C22" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="D22" s="28"/>
-      <c r="E22" s="28"/>
-      <c r="F22" s="28"/>
-      <c r="G22" s="29"/>
-      <c r="H22" s="25" t="s">
+      <c r="D22" s="26"/>
+      <c r="E22" s="26"/>
+      <c r="F22" s="26"/>
+      <c r="G22" s="27"/>
+      <c r="H22" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="I22" s="25"/>
-      <c r="J22" s="25"/>
-      <c r="K22" s="25"/>
-      <c r="L22" s="25"/>
+      <c r="I22" s="34"/>
+      <c r="J22" s="34"/>
+      <c r="K22" s="34"/>
+      <c r="L22" s="34"/>
       <c r="M22" s="24">
         <v>45504</v>
       </c>
@@ -2316,30 +2323,30 @@
         <v>70</v>
       </c>
       <c r="O22" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="P22" s="25"/>
-      <c r="Q22" s="25"/>
+        <v>74</v>
+      </c>
+      <c r="P22" s="34"/>
+      <c r="Q22" s="34"/>
     </row>
     <row r="23" spans="1:17" ht="13.5" customHeight="1">
       <c r="A23" s="6">
         <v>18</v>
       </c>
       <c r="B23" s="19"/>
-      <c r="C23" s="27" t="s">
+      <c r="C23" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="D23" s="28"/>
-      <c r="E23" s="28"/>
-      <c r="F23" s="28"/>
-      <c r="G23" s="29"/>
-      <c r="H23" s="25" t="s">
+      <c r="D23" s="26"/>
+      <c r="E23" s="26"/>
+      <c r="F23" s="26"/>
+      <c r="G23" s="27"/>
+      <c r="H23" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="I23" s="25"/>
-      <c r="J23" s="25"/>
-      <c r="K23" s="25"/>
-      <c r="L23" s="25"/>
+      <c r="I23" s="34"/>
+      <c r="J23" s="34"/>
+      <c r="K23" s="34"/>
+      <c r="L23" s="34"/>
       <c r="M23" s="24">
         <v>45504</v>
       </c>
@@ -2349,28 +2356,28 @@
       <c r="O23" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="P23" s="25"/>
-      <c r="Q23" s="25"/>
+      <c r="P23" s="34"/>
+      <c r="Q23" s="34"/>
     </row>
     <row r="24" spans="1:17" ht="13.5" customHeight="1">
       <c r="A24" s="6">
         <v>19</v>
       </c>
       <c r="B24" s="20"/>
-      <c r="C24" s="27" t="s">
+      <c r="C24" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="D24" s="28"/>
-      <c r="E24" s="28"/>
-      <c r="F24" s="28"/>
-      <c r="G24" s="29"/>
-      <c r="H24" s="25" t="s">
+      <c r="D24" s="26"/>
+      <c r="E24" s="26"/>
+      <c r="F24" s="26"/>
+      <c r="G24" s="27"/>
+      <c r="H24" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="I24" s="25"/>
-      <c r="J24" s="25"/>
-      <c r="K24" s="25"/>
-      <c r="L24" s="25"/>
+      <c r="I24" s="34"/>
+      <c r="J24" s="34"/>
+      <c r="K24" s="34"/>
+      <c r="L24" s="34"/>
       <c r="M24" s="24">
         <v>45504</v>
       </c>
@@ -2380,28 +2387,28 @@
       <c r="O24" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="P24" s="25"/>
-      <c r="Q24" s="25"/>
+      <c r="P24" s="34"/>
+      <c r="Q24" s="34"/>
     </row>
     <row r="25" spans="1:17" ht="13.5" customHeight="1">
       <c r="A25" s="6">
         <v>20</v>
       </c>
       <c r="B25" s="19"/>
-      <c r="C25" s="26" t="s">
+      <c r="C25" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="D25" s="25"/>
-      <c r="E25" s="25"/>
-      <c r="F25" s="25"/>
-      <c r="G25" s="25"/>
-      <c r="H25" s="25" t="s">
+      <c r="D25" s="34"/>
+      <c r="E25" s="34"/>
+      <c r="F25" s="34"/>
+      <c r="G25" s="34"/>
+      <c r="H25" s="34" t="s">
         <v>60</v>
       </c>
-      <c r="I25" s="25"/>
-      <c r="J25" s="25"/>
-      <c r="K25" s="25"/>
-      <c r="L25" s="25"/>
+      <c r="I25" s="34"/>
+      <c r="J25" s="34"/>
+      <c r="K25" s="34"/>
+      <c r="L25" s="34"/>
       <c r="M25" s="24">
         <v>45504</v>
       </c>
@@ -2411,28 +2418,28 @@
       <c r="O25" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="P25" s="49"/>
-      <c r="Q25" s="50"/>
+      <c r="P25" s="36"/>
+      <c r="Q25" s="37"/>
     </row>
     <row r="26" spans="1:17" ht="13.5" customHeight="1">
       <c r="A26" s="6">
         <v>21</v>
       </c>
       <c r="B26" s="19"/>
-      <c r="C26" s="26" t="s">
+      <c r="C26" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="D26" s="25"/>
-      <c r="E26" s="25"/>
-      <c r="F26" s="25"/>
-      <c r="G26" s="25"/>
-      <c r="H26" s="25" t="s">
+      <c r="D26" s="34"/>
+      <c r="E26" s="34"/>
+      <c r="F26" s="34"/>
+      <c r="G26" s="34"/>
+      <c r="H26" s="34" t="s">
         <v>58</v>
       </c>
-      <c r="I26" s="25"/>
-      <c r="J26" s="25"/>
-      <c r="K26" s="25"/>
-      <c r="L26" s="25"/>
+      <c r="I26" s="34"/>
+      <c r="J26" s="34"/>
+      <c r="K26" s="34"/>
+      <c r="L26" s="34"/>
       <c r="M26" s="24">
         <v>45504</v>
       </c>
@@ -2442,28 +2449,28 @@
       <c r="O26" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="P26" s="25"/>
-      <c r="Q26" s="25"/>
+      <c r="P26" s="34"/>
+      <c r="Q26" s="34"/>
     </row>
     <row r="27" spans="1:17" ht="13.5" customHeight="1">
       <c r="A27" s="6">
         <v>22</v>
       </c>
       <c r="B27" s="20"/>
-      <c r="C27" s="27" t="s">
+      <c r="C27" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="D27" s="28"/>
-      <c r="E27" s="28"/>
-      <c r="F27" s="28"/>
-      <c r="G27" s="29"/>
-      <c r="H27" s="25" t="s">
+      <c r="D27" s="26"/>
+      <c r="E27" s="26"/>
+      <c r="F27" s="26"/>
+      <c r="G27" s="27"/>
+      <c r="H27" s="34" t="s">
         <v>61</v>
       </c>
-      <c r="I27" s="25"/>
-      <c r="J27" s="25"/>
-      <c r="K27" s="25"/>
-      <c r="L27" s="25"/>
+      <c r="I27" s="34"/>
+      <c r="J27" s="34"/>
+      <c r="K27" s="34"/>
+      <c r="L27" s="34"/>
       <c r="M27" s="24">
         <v>45504</v>
       </c>
@@ -2473,30 +2480,30 @@
       <c r="O27" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="P27" s="25"/>
-      <c r="Q27" s="25"/>
+      <c r="P27" s="34"/>
+      <c r="Q27" s="34"/>
     </row>
     <row r="28" spans="1:17" ht="56.5" customHeight="1">
       <c r="A28" s="6">
         <v>23</v>
       </c>
-      <c r="B28" s="51" t="s">
+      <c r="B28" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="C28" s="26" t="s">
+      <c r="C28" s="35" t="s">
         <v>62</v>
       </c>
-      <c r="D28" s="26"/>
-      <c r="E28" s="26"/>
-      <c r="F28" s="26"/>
-      <c r="G28" s="26"/>
-      <c r="H28" s="25" t="s">
+      <c r="D28" s="35"/>
+      <c r="E28" s="35"/>
+      <c r="F28" s="35"/>
+      <c r="G28" s="35"/>
+      <c r="H28" s="34" t="s">
         <v>69</v>
       </c>
-      <c r="I28" s="25"/>
-      <c r="J28" s="25"/>
-      <c r="K28" s="25"/>
-      <c r="L28" s="25"/>
+      <c r="I28" s="34"/>
+      <c r="J28" s="34"/>
+      <c r="K28" s="34"/>
+      <c r="L28" s="34"/>
       <c r="M28" s="24">
         <v>45504</v>
       </c>
@@ -2506,28 +2513,28 @@
       <c r="O28" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="P28" s="25"/>
-      <c r="Q28" s="25"/>
+      <c r="P28" s="34"/>
+      <c r="Q28" s="34"/>
     </row>
     <row r="29" spans="1:17" ht="43.5" customHeight="1">
       <c r="A29" s="6">
         <v>24</v>
       </c>
-      <c r="B29" s="52"/>
-      <c r="C29" s="26" t="s">
+      <c r="B29" s="32"/>
+      <c r="C29" s="35" t="s">
         <v>63</v>
       </c>
-      <c r="D29" s="26"/>
-      <c r="E29" s="26"/>
-      <c r="F29" s="26"/>
-      <c r="G29" s="26"/>
-      <c r="H29" s="25" t="s">
+      <c r="D29" s="35"/>
+      <c r="E29" s="35"/>
+      <c r="F29" s="35"/>
+      <c r="G29" s="35"/>
+      <c r="H29" s="34" t="s">
         <v>59</v>
       </c>
-      <c r="I29" s="25"/>
-      <c r="J29" s="25"/>
-      <c r="K29" s="25"/>
-      <c r="L29" s="25"/>
+      <c r="I29" s="34"/>
+      <c r="J29" s="34"/>
+      <c r="K29" s="34"/>
+      <c r="L29" s="34"/>
       <c r="M29" s="24">
         <v>45504</v>
       </c>
@@ -2537,28 +2544,28 @@
       <c r="O29" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="P29" s="25"/>
-      <c r="Q29" s="25"/>
+      <c r="P29" s="34"/>
+      <c r="Q29" s="34"/>
     </row>
     <row r="30" spans="1:17" ht="58.5" customHeight="1">
       <c r="A30" s="6">
         <v>25</v>
       </c>
-      <c r="B30" s="66"/>
-      <c r="C30" s="27" t="s">
+      <c r="B30" s="33"/>
+      <c r="C30" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="D30" s="28"/>
-      <c r="E30" s="28"/>
-      <c r="F30" s="28"/>
-      <c r="G30" s="29"/>
-      <c r="H30" s="44" t="s">
+      <c r="D30" s="26"/>
+      <c r="E30" s="26"/>
+      <c r="F30" s="26"/>
+      <c r="G30" s="27"/>
+      <c r="H30" s="28" t="s">
         <v>71</v>
       </c>
-      <c r="I30" s="65"/>
-      <c r="J30" s="65"/>
-      <c r="K30" s="65"/>
-      <c r="L30" s="45"/>
+      <c r="I30" s="29"/>
+      <c r="J30" s="29"/>
+      <c r="K30" s="29"/>
+      <c r="L30" s="30"/>
       <c r="M30" s="24">
         <v>45504</v>
       </c>
@@ -2573,32 +2580,32 @@
     </row>
   </sheetData>
   <mergeCells count="68">
-    <mergeCell ref="C30:G30"/>
-    <mergeCell ref="H30:L30"/>
-    <mergeCell ref="B28:B30"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="H23:L23"/>
-    <mergeCell ref="C28:G28"/>
-    <mergeCell ref="H28:L28"/>
-    <mergeCell ref="P23:Q23"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="H21:L21"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="H24:L24"/>
-    <mergeCell ref="P24:Q24"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="H22:L22"/>
-    <mergeCell ref="P22:Q22"/>
-    <mergeCell ref="P21:Q21"/>
-    <mergeCell ref="P25:Q25"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="H25:L25"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:M1"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:M2"/>
+    <mergeCell ref="P28:Q28"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="H29:L29"/>
+    <mergeCell ref="P29:Q29"/>
+    <mergeCell ref="H26:L26"/>
+    <mergeCell ref="P26:Q26"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="H27:L27"/>
+    <mergeCell ref="P27:Q27"/>
+    <mergeCell ref="P20:Q20"/>
+    <mergeCell ref="H18:L18"/>
+    <mergeCell ref="H17:L17"/>
+    <mergeCell ref="C14:G18"/>
+    <mergeCell ref="H19:L19"/>
+    <mergeCell ref="H14:L14"/>
+    <mergeCell ref="H16:L16"/>
+    <mergeCell ref="H11:L11"/>
+    <mergeCell ref="H12:L12"/>
+    <mergeCell ref="H13:L13"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="H20:L20"/>
+    <mergeCell ref="H6:L6"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="H7:L7"/>
+    <mergeCell ref="H9:L9"/>
+    <mergeCell ref="H10:L10"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="C4:Q4"/>
     <mergeCell ref="A3:B3"/>
@@ -2615,32 +2622,32 @@
     <mergeCell ref="H8:L8"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="C6:G6"/>
-    <mergeCell ref="H6:L6"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="H7:L7"/>
-    <mergeCell ref="H9:L9"/>
-    <mergeCell ref="H10:L10"/>
-    <mergeCell ref="H11:L11"/>
-    <mergeCell ref="H12:L12"/>
-    <mergeCell ref="H13:L13"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="H20:L20"/>
-    <mergeCell ref="P20:Q20"/>
-    <mergeCell ref="H18:L18"/>
-    <mergeCell ref="H17:L17"/>
-    <mergeCell ref="C14:G18"/>
-    <mergeCell ref="H19:L19"/>
-    <mergeCell ref="H14:L14"/>
-    <mergeCell ref="H16:L16"/>
-    <mergeCell ref="P28:Q28"/>
-    <mergeCell ref="C29:G29"/>
-    <mergeCell ref="H29:L29"/>
-    <mergeCell ref="P29:Q29"/>
-    <mergeCell ref="H26:L26"/>
-    <mergeCell ref="P26:Q26"/>
-    <mergeCell ref="C27:G27"/>
-    <mergeCell ref="H27:L27"/>
-    <mergeCell ref="P27:Q27"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:M1"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:M2"/>
+    <mergeCell ref="P23:Q23"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="H21:L21"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="H24:L24"/>
+    <mergeCell ref="P24:Q24"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="H22:L22"/>
+    <mergeCell ref="P22:Q22"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="P25:Q25"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="H25:L25"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="H30:L30"/>
+    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="H23:L23"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="H28:L28"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.27559055118110237" header="0.35433070866141736" footer="0.15748031496062992"/>

--- a/plan/test/結合テスト/結合テスト仕様書-BP014新商品登録(完了).xlsx
+++ b/plan/test/結合テスト/結合テスト仕様書-BP014新商品登録(完了).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fullness\Desktop\work\java-review\ec-b\plan\test\結合テスト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F67896FE-FC4C-43FA-B9F4-D276BBDEC35E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D8DA389-3254-4D16-91C7-3709D5BCFFDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9510" yWindow="0" windowWidth="9780" windowHeight="10170" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="商品削除（確認）" sheetId="177" r:id="rId1"/>
@@ -710,13 +710,6 @@
     <t>〇</t>
   </si>
   <si>
-    <t>システムエラー画面へ遷移すること</t>
-    <rPh sb="10" eb="12">
-      <t>センイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>高良</t>
     <rPh sb="0" eb="2">
       <t>タカラ</t>
@@ -754,6 +747,13 @@
     <t>未実装</t>
     <rPh sb="0" eb="3">
       <t>ミジッソウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>メニュー画面へ遷移すること</t>
+    <rPh sb="7" eb="9">
+      <t>センイ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1172,6 +1172,12 @@
     <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1181,121 +1187,115 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -1650,8 +1650,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{776758EE-792E-45DD-A875-220DAC06338B}">
   <dimension ref="A1:Q30"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A17" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="O23" sqref="O23"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="F14" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="H28" sqref="H28:L28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="11.25" customHeight="1"/>
@@ -1667,25 +1667,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="40" t="s">
+      <c r="B1" s="53"/>
+      <c r="C1" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="41"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="43" t="s">
+      <c r="D1" s="56"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="43"/>
-      <c r="J1" s="43"/>
-      <c r="K1" s="43"/>
-      <c r="L1" s="43"/>
-      <c r="M1" s="43"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="58"/>
+      <c r="K1" s="58"/>
+      <c r="L1" s="58"/>
+      <c r="M1" s="58"/>
       <c r="N1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1700,23 +1700,23 @@
       </c>
     </row>
     <row r="2" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A2" s="39"/>
-      <c r="B2" s="39"/>
-      <c r="C2" s="44" t="s">
+      <c r="A2" s="54"/>
+      <c r="B2" s="54"/>
+      <c r="C2" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="45"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="47" t="s">
+      <c r="D2" s="60"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="62" t="s">
         <v>44</v>
       </c>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="48"/>
-      <c r="J2" s="48"/>
-      <c r="K2" s="48"/>
-      <c r="L2" s="48"/>
-      <c r="M2" s="49"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="63"/>
+      <c r="I2" s="63"/>
+      <c r="J2" s="63"/>
+      <c r="K2" s="63"/>
+      <c r="L2" s="63"/>
+      <c r="M2" s="64"/>
       <c r="N2" s="8" t="s">
         <v>1</v>
       </c>
@@ -1727,54 +1727,54 @@
         <v>5</v>
       </c>
       <c r="Q2" s="11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="143.5" customHeight="1">
-      <c r="A3" s="50" t="s">
+      <c r="A3" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="51"/>
-      <c r="C3" s="52" t="s">
+      <c r="B3" s="40"/>
+      <c r="C3" s="41" t="s">
         <v>48</v>
       </c>
-      <c r="D3" s="53"/>
-      <c r="E3" s="53"/>
-      <c r="F3" s="53"/>
-      <c r="G3" s="53"/>
-      <c r="H3" s="53"/>
-      <c r="I3" s="53"/>
-      <c r="J3" s="53"/>
-      <c r="K3" s="53"/>
-      <c r="L3" s="53"/>
-      <c r="M3" s="53"/>
-      <c r="N3" s="53"/>
-      <c r="O3" s="53"/>
-      <c r="P3" s="53"/>
-      <c r="Q3" s="54"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="42"/>
+      <c r="H3" s="42"/>
+      <c r="I3" s="42"/>
+      <c r="J3" s="42"/>
+      <c r="K3" s="42"/>
+      <c r="L3" s="42"/>
+      <c r="M3" s="42"/>
+      <c r="N3" s="42"/>
+      <c r="O3" s="42"/>
+      <c r="P3" s="42"/>
+      <c r="Q3" s="43"/>
     </row>
     <row r="4" spans="1:17" ht="31.5" customHeight="1">
-      <c r="A4" s="50" t="s">
+      <c r="A4" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="51"/>
-      <c r="C4" s="52" t="s">
+      <c r="B4" s="40"/>
+      <c r="C4" s="41" t="s">
         <v>47</v>
       </c>
-      <c r="D4" s="53"/>
-      <c r="E4" s="53"/>
-      <c r="F4" s="53"/>
-      <c r="G4" s="53"/>
-      <c r="H4" s="53"/>
-      <c r="I4" s="53"/>
-      <c r="J4" s="53"/>
-      <c r="K4" s="53"/>
-      <c r="L4" s="53"/>
-      <c r="M4" s="53"/>
-      <c r="N4" s="53"/>
-      <c r="O4" s="53"/>
-      <c r="P4" s="53"/>
-      <c r="Q4" s="54"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="42"/>
+      <c r="H4" s="42"/>
+      <c r="I4" s="42"/>
+      <c r="J4" s="42"/>
+      <c r="K4" s="42"/>
+      <c r="L4" s="42"/>
+      <c r="M4" s="42"/>
+      <c r="N4" s="42"/>
+      <c r="O4" s="42"/>
+      <c r="P4" s="42"/>
+      <c r="Q4" s="43"/>
     </row>
     <row r="5" spans="1:17" ht="15" customHeight="1">
       <c r="A5" s="13" t="s">
@@ -1783,20 +1783,20 @@
       <c r="B5" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="55" t="s">
+      <c r="C5" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="57"/>
-      <c r="E5" s="57"/>
-      <c r="F5" s="57"/>
-      <c r="G5" s="56"/>
-      <c r="H5" s="55" t="s">
+      <c r="D5" s="48"/>
+      <c r="E5" s="48"/>
+      <c r="F5" s="48"/>
+      <c r="G5" s="47"/>
+      <c r="H5" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="57"/>
-      <c r="J5" s="57"/>
-      <c r="K5" s="57"/>
-      <c r="L5" s="57"/>
+      <c r="I5" s="48"/>
+      <c r="J5" s="48"/>
+      <c r="K5" s="48"/>
+      <c r="L5" s="48"/>
       <c r="M5" s="13" t="s">
         <v>13</v>
       </c>
@@ -1806,101 +1806,101 @@
       <c r="O5" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="P5" s="55" t="s">
+      <c r="P5" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="Q5" s="56"/>
+      <c r="Q5" s="47"/>
     </row>
     <row r="6" spans="1:17" ht="11">
       <c r="A6" s="6">
         <v>1</v>
       </c>
-      <c r="B6" s="31" t="s">
+      <c r="B6" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="34" t="s">
+      <c r="C6" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="34"/>
-      <c r="E6" s="34"/>
-      <c r="F6" s="34"/>
-      <c r="G6" s="34"/>
-      <c r="H6" s="34" t="s">
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="I6" s="34"/>
-      <c r="J6" s="34"/>
-      <c r="K6" s="34"/>
-      <c r="L6" s="34"/>
+      <c r="I6" s="25"/>
+      <c r="J6" s="25"/>
+      <c r="K6" s="25"/>
+      <c r="L6" s="25"/>
       <c r="M6" s="24">
         <v>45504</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O6" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="P6" s="34" t="s">
+      <c r="P6" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="Q6" s="34"/>
+      <c r="Q6" s="25"/>
     </row>
     <row r="7" spans="1:17" ht="11" customHeight="1">
       <c r="A7" s="6">
         <v>2</v>
       </c>
-      <c r="B7" s="32"/>
-      <c r="C7" s="34" t="s">
+      <c r="B7" s="52"/>
+      <c r="C7" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="34"/>
-      <c r="E7" s="34"/>
-      <c r="F7" s="34"/>
-      <c r="G7" s="34"/>
-      <c r="H7" s="34" t="s">
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="I7" s="34"/>
-      <c r="J7" s="34"/>
-      <c r="K7" s="34"/>
-      <c r="L7" s="34"/>
+      <c r="I7" s="25"/>
+      <c r="J7" s="25"/>
+      <c r="K7" s="25"/>
+      <c r="L7" s="25"/>
       <c r="M7" s="24">
         <v>45504</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="O7" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="P7" s="34"/>
-      <c r="Q7" s="34"/>
+      <c r="P7" s="25"/>
+      <c r="Q7" s="25"/>
     </row>
     <row r="8" spans="1:17" ht="11" customHeight="1">
       <c r="A8" s="6">
         <v>3</v>
       </c>
       <c r="B8" s="7"/>
-      <c r="C8" s="58" t="s">
+      <c r="C8" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="59"/>
-      <c r="E8" s="59"/>
-      <c r="F8" s="59"/>
-      <c r="G8" s="60"/>
-      <c r="H8" s="25" t="s">
+      <c r="D8" s="31"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="32"/>
+      <c r="H8" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="I8" s="26"/>
-      <c r="J8" s="26"/>
-      <c r="K8" s="26"/>
-      <c r="L8" s="27"/>
+      <c r="I8" s="28"/>
+      <c r="J8" s="28"/>
+      <c r="K8" s="28"/>
+      <c r="L8" s="29"/>
       <c r="M8" s="24">
         <v>45504</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="O8" s="2" t="s">
         <v>65</v>
@@ -1913,23 +1913,23 @@
         <v>4</v>
       </c>
       <c r="B9" s="7"/>
-      <c r="C9" s="61"/>
-      <c r="D9" s="62"/>
-      <c r="E9" s="62"/>
-      <c r="F9" s="62"/>
-      <c r="G9" s="63"/>
-      <c r="H9" s="25" t="s">
+      <c r="C9" s="33"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="34"/>
+      <c r="F9" s="34"/>
+      <c r="G9" s="35"/>
+      <c r="H9" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="I9" s="26"/>
-      <c r="J9" s="26"/>
-      <c r="K9" s="26"/>
-      <c r="L9" s="27"/>
+      <c r="I9" s="28"/>
+      <c r="J9" s="28"/>
+      <c r="K9" s="28"/>
+      <c r="L9" s="29"/>
       <c r="M9" s="24">
         <v>45504</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="O9" s="2" t="s">
         <v>65</v>
@@ -1942,23 +1942,23 @@
         <v>5</v>
       </c>
       <c r="B10" s="7"/>
-      <c r="C10" s="61"/>
-      <c r="D10" s="62"/>
-      <c r="E10" s="62"/>
-      <c r="F10" s="62"/>
-      <c r="G10" s="63"/>
-      <c r="H10" s="25" t="s">
+      <c r="C10" s="33"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="34"/>
+      <c r="F10" s="34"/>
+      <c r="G10" s="35"/>
+      <c r="H10" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="I10" s="26"/>
-      <c r="J10" s="26"/>
-      <c r="K10" s="26"/>
-      <c r="L10" s="27"/>
+      <c r="I10" s="28"/>
+      <c r="J10" s="28"/>
+      <c r="K10" s="28"/>
+      <c r="L10" s="29"/>
       <c r="M10" s="24">
         <v>45504</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="O10" s="2" t="s">
         <v>65</v>
@@ -1971,23 +1971,23 @@
         <v>6</v>
       </c>
       <c r="B11" s="7"/>
-      <c r="C11" s="61"/>
-      <c r="D11" s="62"/>
-      <c r="E11" s="62"/>
-      <c r="F11" s="62"/>
-      <c r="G11" s="63"/>
-      <c r="H11" s="25" t="s">
+      <c r="C11" s="33"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="34"/>
+      <c r="F11" s="34"/>
+      <c r="G11" s="35"/>
+      <c r="H11" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="I11" s="26"/>
-      <c r="J11" s="26"/>
-      <c r="K11" s="26"/>
-      <c r="L11" s="27"/>
+      <c r="I11" s="28"/>
+      <c r="J11" s="28"/>
+      <c r="K11" s="28"/>
+      <c r="L11" s="29"/>
       <c r="M11" s="24">
         <v>45504</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="O11" s="2" t="s">
         <v>65</v>
@@ -2000,23 +2000,23 @@
         <v>7</v>
       </c>
       <c r="B12" s="7"/>
-      <c r="C12" s="61"/>
-      <c r="D12" s="62"/>
-      <c r="E12" s="62"/>
-      <c r="F12" s="62"/>
-      <c r="G12" s="63"/>
-      <c r="H12" s="25" t="s">
+      <c r="C12" s="33"/>
+      <c r="D12" s="34"/>
+      <c r="E12" s="34"/>
+      <c r="F12" s="34"/>
+      <c r="G12" s="35"/>
+      <c r="H12" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="I12" s="26"/>
-      <c r="J12" s="26"/>
-      <c r="K12" s="26"/>
-      <c r="L12" s="27"/>
+      <c r="I12" s="28"/>
+      <c r="J12" s="28"/>
+      <c r="K12" s="28"/>
+      <c r="L12" s="29"/>
       <c r="M12" s="24">
         <v>45504</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="O12" s="2" t="s">
         <v>65</v>
@@ -2029,54 +2029,54 @@
         <v>8</v>
       </c>
       <c r="B13" s="7"/>
-      <c r="C13" s="64"/>
-      <c r="D13" s="65"/>
-      <c r="E13" s="65"/>
-      <c r="F13" s="65"/>
-      <c r="G13" s="66"/>
-      <c r="H13" s="25" t="s">
+      <c r="C13" s="36"/>
+      <c r="D13" s="37"/>
+      <c r="E13" s="37"/>
+      <c r="F13" s="37"/>
+      <c r="G13" s="38"/>
+      <c r="H13" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="I13" s="26"/>
-      <c r="J13" s="26"/>
-      <c r="K13" s="26"/>
-      <c r="L13" s="27"/>
+      <c r="I13" s="28"/>
+      <c r="J13" s="28"/>
+      <c r="K13" s="28"/>
+      <c r="L13" s="29"/>
       <c r="M13" s="24">
         <v>45504</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="O13" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="P13" s="36"/>
-      <c r="Q13" s="37"/>
+      <c r="P13" s="49"/>
+      <c r="Q13" s="50"/>
     </row>
     <row r="14" spans="1:17" ht="11" customHeight="1">
       <c r="A14" s="6">
         <v>9</v>
       </c>
       <c r="B14" s="7"/>
-      <c r="C14" s="58" t="s">
+      <c r="C14" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="D14" s="59"/>
-      <c r="E14" s="59"/>
-      <c r="F14" s="59"/>
-      <c r="G14" s="60"/>
-      <c r="H14" s="25" t="s">
+      <c r="D14" s="31"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="31"/>
+      <c r="G14" s="32"/>
+      <c r="H14" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="I14" s="26"/>
-      <c r="J14" s="26"/>
-      <c r="K14" s="26"/>
-      <c r="L14" s="27"/>
+      <c r="I14" s="28"/>
+      <c r="J14" s="28"/>
+      <c r="K14" s="28"/>
+      <c r="L14" s="29"/>
       <c r="M14" s="24">
         <v>45504</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="O14" s="2" t="s">
         <v>65</v>
@@ -2089,54 +2089,54 @@
         <v>10</v>
       </c>
       <c r="B15" s="7"/>
-      <c r="C15" s="61"/>
-      <c r="D15" s="62"/>
-      <c r="E15" s="62"/>
-      <c r="F15" s="62"/>
-      <c r="G15" s="63"/>
-      <c r="H15" s="25" t="s">
+      <c r="C15" s="33"/>
+      <c r="D15" s="34"/>
+      <c r="E15" s="34"/>
+      <c r="F15" s="34"/>
+      <c r="G15" s="35"/>
+      <c r="H15" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="I15" s="26"/>
-      <c r="J15" s="26"/>
-      <c r="K15" s="26"/>
-      <c r="L15" s="27"/>
+      <c r="I15" s="28"/>
+      <c r="J15" s="28"/>
+      <c r="K15" s="28"/>
+      <c r="L15" s="29"/>
       <c r="M15" s="24">
         <v>45504</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O15" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="P15" s="28" t="s">
+      <c r="P15" s="44" t="s">
         <v>67</v>
       </c>
-      <c r="Q15" s="30"/>
+      <c r="Q15" s="45"/>
     </row>
     <row r="16" spans="1:17" ht="11" customHeight="1">
       <c r="A16" s="6">
         <v>11</v>
       </c>
       <c r="B16" s="7"/>
-      <c r="C16" s="61"/>
-      <c r="D16" s="62"/>
-      <c r="E16" s="62"/>
-      <c r="F16" s="62"/>
-      <c r="G16" s="63"/>
-      <c r="H16" s="25" t="s">
+      <c r="C16" s="33"/>
+      <c r="D16" s="34"/>
+      <c r="E16" s="34"/>
+      <c r="F16" s="34"/>
+      <c r="G16" s="35"/>
+      <c r="H16" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="I16" s="26"/>
-      <c r="J16" s="26"/>
-      <c r="K16" s="26"/>
-      <c r="L16" s="27"/>
+      <c r="I16" s="28"/>
+      <c r="J16" s="28"/>
+      <c r="K16" s="28"/>
+      <c r="L16" s="29"/>
       <c r="M16" s="24">
         <v>45504</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="O16" s="2" t="s">
         <v>65</v>
@@ -2149,23 +2149,23 @@
         <v>12</v>
       </c>
       <c r="B17" s="7"/>
-      <c r="C17" s="61"/>
-      <c r="D17" s="62"/>
-      <c r="E17" s="62"/>
-      <c r="F17" s="62"/>
-      <c r="G17" s="63"/>
-      <c r="H17" s="25" t="s">
+      <c r="C17" s="33"/>
+      <c r="D17" s="34"/>
+      <c r="E17" s="34"/>
+      <c r="F17" s="34"/>
+      <c r="G17" s="35"/>
+      <c r="H17" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="I17" s="26"/>
-      <c r="J17" s="26"/>
-      <c r="K17" s="26"/>
-      <c r="L17" s="27"/>
+      <c r="I17" s="28"/>
+      <c r="J17" s="28"/>
+      <c r="K17" s="28"/>
+      <c r="L17" s="29"/>
       <c r="M17" s="24">
         <v>45504</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="O17" s="2" t="s">
         <v>65</v>
@@ -2178,23 +2178,23 @@
         <v>13</v>
       </c>
       <c r="B18" s="7"/>
-      <c r="C18" s="64"/>
-      <c r="D18" s="65"/>
-      <c r="E18" s="65"/>
-      <c r="F18" s="65"/>
-      <c r="G18" s="66"/>
-      <c r="H18" s="25" t="s">
+      <c r="C18" s="36"/>
+      <c r="D18" s="37"/>
+      <c r="E18" s="37"/>
+      <c r="F18" s="37"/>
+      <c r="G18" s="38"/>
+      <c r="H18" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="I18" s="26"/>
-      <c r="J18" s="26"/>
-      <c r="K18" s="26"/>
-      <c r="L18" s="27"/>
+      <c r="I18" s="28"/>
+      <c r="J18" s="28"/>
+      <c r="K18" s="28"/>
+      <c r="L18" s="29"/>
       <c r="M18" s="24">
         <v>45504</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="O18" s="2" t="s">
         <v>65</v>
@@ -2214,18 +2214,18 @@
       <c r="E19" s="22"/>
       <c r="F19" s="22"/>
       <c r="G19" s="23"/>
-      <c r="H19" s="25" t="s">
+      <c r="H19" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="I19" s="26"/>
-      <c r="J19" s="26"/>
-      <c r="K19" s="26"/>
-      <c r="L19" s="27"/>
+      <c r="I19" s="28"/>
+      <c r="J19" s="28"/>
+      <c r="K19" s="28"/>
+      <c r="L19" s="29"/>
       <c r="M19" s="24">
         <v>45504</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="O19" s="2" t="s">
         <v>65</v>
@@ -2240,337 +2240,337 @@
       <c r="B20" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="C20" s="25" t="s">
+      <c r="C20" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="D20" s="26"/>
-      <c r="E20" s="26"/>
-      <c r="F20" s="26"/>
-      <c r="G20" s="27"/>
-      <c r="H20" s="34" t="s">
+      <c r="D20" s="28"/>
+      <c r="E20" s="28"/>
+      <c r="F20" s="28"/>
+      <c r="G20" s="29"/>
+      <c r="H20" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="I20" s="34"/>
-      <c r="J20" s="34"/>
-      <c r="K20" s="34"/>
-      <c r="L20" s="34"/>
+      <c r="I20" s="25"/>
+      <c r="J20" s="25"/>
+      <c r="K20" s="25"/>
+      <c r="L20" s="25"/>
       <c r="M20" s="24">
         <v>45504</v>
       </c>
       <c r="N20" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="O20" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="P20" s="34"/>
-      <c r="Q20" s="34"/>
+      <c r="P20" s="25"/>
+      <c r="Q20" s="25"/>
     </row>
     <row r="21" spans="1:17" ht="13.5" customHeight="1">
       <c r="A21" s="6">
         <v>16</v>
       </c>
       <c r="B21" s="19"/>
-      <c r="C21" s="25" t="s">
+      <c r="C21" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="D21" s="26"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="26"/>
-      <c r="G21" s="27"/>
-      <c r="H21" s="34" t="s">
+      <c r="D21" s="28"/>
+      <c r="E21" s="28"/>
+      <c r="F21" s="28"/>
+      <c r="G21" s="29"/>
+      <c r="H21" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="I21" s="34"/>
-      <c r="J21" s="34"/>
-      <c r="K21" s="34"/>
-      <c r="L21" s="34"/>
+      <c r="I21" s="25"/>
+      <c r="J21" s="25"/>
+      <c r="K21" s="25"/>
+      <c r="L21" s="25"/>
       <c r="M21" s="24">
         <v>45504</v>
       </c>
       <c r="N21" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="O21" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="P21" s="34"/>
-      <c r="Q21" s="34"/>
+      <c r="P21" s="25"/>
+      <c r="Q21" s="25"/>
     </row>
     <row r="22" spans="1:17" ht="13.5" customHeight="1">
       <c r="A22" s="6">
         <v>17</v>
       </c>
       <c r="B22" s="19"/>
-      <c r="C22" s="25" t="s">
+      <c r="C22" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="D22" s="26"/>
-      <c r="E22" s="26"/>
-      <c r="F22" s="26"/>
-      <c r="G22" s="27"/>
-      <c r="H22" s="34" t="s">
+      <c r="D22" s="28"/>
+      <c r="E22" s="28"/>
+      <c r="F22" s="28"/>
+      <c r="G22" s="29"/>
+      <c r="H22" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="I22" s="34"/>
-      <c r="J22" s="34"/>
-      <c r="K22" s="34"/>
-      <c r="L22" s="34"/>
+      <c r="I22" s="25"/>
+      <c r="J22" s="25"/>
+      <c r="K22" s="25"/>
+      <c r="L22" s="25"/>
       <c r="M22" s="24">
         <v>45504</v>
       </c>
       <c r="N22" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="O22" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="P22" s="34"/>
-      <c r="Q22" s="34"/>
+        <v>73</v>
+      </c>
+      <c r="P22" s="25"/>
+      <c r="Q22" s="25"/>
     </row>
     <row r="23" spans="1:17" ht="13.5" customHeight="1">
       <c r="A23" s="6">
         <v>18</v>
       </c>
       <c r="B23" s="19"/>
-      <c r="C23" s="25" t="s">
+      <c r="C23" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="D23" s="26"/>
-      <c r="E23" s="26"/>
-      <c r="F23" s="26"/>
-      <c r="G23" s="27"/>
-      <c r="H23" s="34" t="s">
+      <c r="D23" s="28"/>
+      <c r="E23" s="28"/>
+      <c r="F23" s="28"/>
+      <c r="G23" s="29"/>
+      <c r="H23" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="I23" s="34"/>
-      <c r="J23" s="34"/>
-      <c r="K23" s="34"/>
-      <c r="L23" s="34"/>
+      <c r="I23" s="25"/>
+      <c r="J23" s="25"/>
+      <c r="K23" s="25"/>
+      <c r="L23" s="25"/>
       <c r="M23" s="24">
         <v>45504</v>
       </c>
       <c r="N23" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="O23" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="P23" s="34"/>
-      <c r="Q23" s="34"/>
+      <c r="P23" s="25"/>
+      <c r="Q23" s="25"/>
     </row>
     <row r="24" spans="1:17" ht="13.5" customHeight="1">
       <c r="A24" s="6">
         <v>19</v>
       </c>
       <c r="B24" s="20"/>
-      <c r="C24" s="25" t="s">
+      <c r="C24" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="D24" s="26"/>
-      <c r="E24" s="26"/>
-      <c r="F24" s="26"/>
-      <c r="G24" s="27"/>
-      <c r="H24" s="34" t="s">
+      <c r="D24" s="28"/>
+      <c r="E24" s="28"/>
+      <c r="F24" s="28"/>
+      <c r="G24" s="29"/>
+      <c r="H24" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="I24" s="34"/>
-      <c r="J24" s="34"/>
-      <c r="K24" s="34"/>
-      <c r="L24" s="34"/>
+      <c r="I24" s="25"/>
+      <c r="J24" s="25"/>
+      <c r="K24" s="25"/>
+      <c r="L24" s="25"/>
       <c r="M24" s="24">
         <v>45504</v>
       </c>
       <c r="N24" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="O24" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="P24" s="34"/>
-      <c r="Q24" s="34"/>
+      <c r="P24" s="25"/>
+      <c r="Q24" s="25"/>
     </row>
     <row r="25" spans="1:17" ht="13.5" customHeight="1">
       <c r="A25" s="6">
         <v>20</v>
       </c>
       <c r="B25" s="19"/>
-      <c r="C25" s="35" t="s">
+      <c r="C25" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="D25" s="34"/>
-      <c r="E25" s="34"/>
-      <c r="F25" s="34"/>
-      <c r="G25" s="34"/>
-      <c r="H25" s="34" t="s">
+      <c r="D25" s="25"/>
+      <c r="E25" s="25"/>
+      <c r="F25" s="25"/>
+      <c r="G25" s="25"/>
+      <c r="H25" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="I25" s="34"/>
-      <c r="J25" s="34"/>
-      <c r="K25" s="34"/>
-      <c r="L25" s="34"/>
+      <c r="I25" s="25"/>
+      <c r="J25" s="25"/>
+      <c r="K25" s="25"/>
+      <c r="L25" s="25"/>
       <c r="M25" s="24">
         <v>45504</v>
       </c>
       <c r="N25" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="O25" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="P25" s="36"/>
-      <c r="Q25" s="37"/>
+      <c r="P25" s="49"/>
+      <c r="Q25" s="50"/>
     </row>
     <row r="26" spans="1:17" ht="13.5" customHeight="1">
       <c r="A26" s="6">
         <v>21</v>
       </c>
       <c r="B26" s="19"/>
-      <c r="C26" s="35" t="s">
+      <c r="C26" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="D26" s="34"/>
-      <c r="E26" s="34"/>
-      <c r="F26" s="34"/>
-      <c r="G26" s="34"/>
-      <c r="H26" s="34" t="s">
+      <c r="D26" s="25"/>
+      <c r="E26" s="25"/>
+      <c r="F26" s="25"/>
+      <c r="G26" s="25"/>
+      <c r="H26" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="I26" s="34"/>
-      <c r="J26" s="34"/>
-      <c r="K26" s="34"/>
-      <c r="L26" s="34"/>
+      <c r="I26" s="25"/>
+      <c r="J26" s="25"/>
+      <c r="K26" s="25"/>
+      <c r="L26" s="25"/>
       <c r="M26" s="24">
         <v>45504</v>
       </c>
       <c r="N26" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="O26" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="P26" s="34"/>
-      <c r="Q26" s="34"/>
+      <c r="P26" s="25"/>
+      <c r="Q26" s="25"/>
     </row>
     <row r="27" spans="1:17" ht="13.5" customHeight="1">
       <c r="A27" s="6">
         <v>22</v>
       </c>
       <c r="B27" s="20"/>
-      <c r="C27" s="25" t="s">
+      <c r="C27" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="D27" s="26"/>
-      <c r="E27" s="26"/>
-      <c r="F27" s="26"/>
-      <c r="G27" s="27"/>
-      <c r="H27" s="34" t="s">
+      <c r="D27" s="28"/>
+      <c r="E27" s="28"/>
+      <c r="F27" s="28"/>
+      <c r="G27" s="29"/>
+      <c r="H27" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="I27" s="34"/>
-      <c r="J27" s="34"/>
-      <c r="K27" s="34"/>
-      <c r="L27" s="34"/>
+      <c r="I27" s="25"/>
+      <c r="J27" s="25"/>
+      <c r="K27" s="25"/>
+      <c r="L27" s="25"/>
       <c r="M27" s="24">
         <v>45504</v>
       </c>
       <c r="N27" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="O27" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="P27" s="34"/>
-      <c r="Q27" s="34"/>
+      <c r="P27" s="25"/>
+      <c r="Q27" s="25"/>
     </row>
     <row r="28" spans="1:17" ht="56.5" customHeight="1">
       <c r="A28" s="6">
         <v>23</v>
       </c>
-      <c r="B28" s="31" t="s">
+      <c r="B28" s="51" t="s">
         <v>42</v>
       </c>
-      <c r="C28" s="35" t="s">
+      <c r="C28" s="26" t="s">
         <v>62</v>
       </c>
-      <c r="D28" s="35"/>
-      <c r="E28" s="35"/>
-      <c r="F28" s="35"/>
-      <c r="G28" s="35"/>
-      <c r="H28" s="34" t="s">
-        <v>69</v>
-      </c>
-      <c r="I28" s="34"/>
-      <c r="J28" s="34"/>
-      <c r="K28" s="34"/>
-      <c r="L28" s="34"/>
+      <c r="D28" s="26"/>
+      <c r="E28" s="26"/>
+      <c r="F28" s="26"/>
+      <c r="G28" s="26"/>
+      <c r="H28" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="I28" s="25"/>
+      <c r="J28" s="25"/>
+      <c r="K28" s="25"/>
+      <c r="L28" s="25"/>
       <c r="M28" s="24">
         <v>45504</v>
       </c>
       <c r="N28" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="O28" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="P28" s="34"/>
-      <c r="Q28" s="34"/>
+      <c r="P28" s="25"/>
+      <c r="Q28" s="25"/>
     </row>
     <row r="29" spans="1:17" ht="43.5" customHeight="1">
       <c r="A29" s="6">
         <v>24</v>
       </c>
-      <c r="B29" s="32"/>
-      <c r="C29" s="35" t="s">
+      <c r="B29" s="52"/>
+      <c r="C29" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="D29" s="35"/>
-      <c r="E29" s="35"/>
-      <c r="F29" s="35"/>
-      <c r="G29" s="35"/>
-      <c r="H29" s="34" t="s">
+      <c r="D29" s="26"/>
+      <c r="E29" s="26"/>
+      <c r="F29" s="26"/>
+      <c r="G29" s="26"/>
+      <c r="H29" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="I29" s="34"/>
-      <c r="J29" s="34"/>
-      <c r="K29" s="34"/>
-      <c r="L29" s="34"/>
+      <c r="I29" s="25"/>
+      <c r="J29" s="25"/>
+      <c r="K29" s="25"/>
+      <c r="L29" s="25"/>
       <c r="M29" s="24">
         <v>45504</v>
       </c>
       <c r="N29" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="O29" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="P29" s="34"/>
-      <c r="Q29" s="34"/>
+      <c r="P29" s="25"/>
+      <c r="Q29" s="25"/>
     </row>
     <row r="30" spans="1:17" ht="58.5" customHeight="1">
       <c r="A30" s="6">
         <v>25</v>
       </c>
-      <c r="B30" s="33"/>
-      <c r="C30" s="25" t="s">
+      <c r="B30" s="66"/>
+      <c r="C30" s="27" t="s">
         <v>64</v>
       </c>
-      <c r="D30" s="26"/>
-      <c r="E30" s="26"/>
-      <c r="F30" s="26"/>
-      <c r="G30" s="27"/>
-      <c r="H30" s="28" t="s">
-        <v>71</v>
-      </c>
-      <c r="I30" s="29"/>
-      <c r="J30" s="29"/>
-      <c r="K30" s="29"/>
-      <c r="L30" s="30"/>
+      <c r="D30" s="28"/>
+      <c r="E30" s="28"/>
+      <c r="F30" s="28"/>
+      <c r="G30" s="29"/>
+      <c r="H30" s="44" t="s">
+        <v>70</v>
+      </c>
+      <c r="I30" s="65"/>
+      <c r="J30" s="65"/>
+      <c r="K30" s="65"/>
+      <c r="L30" s="45"/>
       <c r="M30" s="24">
         <v>45504</v>
       </c>
       <c r="N30" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="O30" s="2" t="s">
         <v>68</v>
@@ -2580,32 +2580,32 @@
     </row>
   </sheetData>
   <mergeCells count="68">
-    <mergeCell ref="P28:Q28"/>
-    <mergeCell ref="C29:G29"/>
-    <mergeCell ref="H29:L29"/>
-    <mergeCell ref="P29:Q29"/>
-    <mergeCell ref="H26:L26"/>
-    <mergeCell ref="P26:Q26"/>
-    <mergeCell ref="C27:G27"/>
-    <mergeCell ref="H27:L27"/>
-    <mergeCell ref="P27:Q27"/>
-    <mergeCell ref="P20:Q20"/>
-    <mergeCell ref="H18:L18"/>
-    <mergeCell ref="H17:L17"/>
-    <mergeCell ref="C14:G18"/>
-    <mergeCell ref="H19:L19"/>
-    <mergeCell ref="H14:L14"/>
-    <mergeCell ref="H16:L16"/>
-    <mergeCell ref="H11:L11"/>
-    <mergeCell ref="H12:L12"/>
-    <mergeCell ref="H13:L13"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="H20:L20"/>
-    <mergeCell ref="H6:L6"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="H7:L7"/>
-    <mergeCell ref="H9:L9"/>
-    <mergeCell ref="H10:L10"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="H30:L30"/>
+    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="H23:L23"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="H28:L28"/>
+    <mergeCell ref="P23:Q23"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="H21:L21"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="H24:L24"/>
+    <mergeCell ref="P24:Q24"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="H22:L22"/>
+    <mergeCell ref="P22:Q22"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="P25:Q25"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="H25:L25"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:M1"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:M2"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="C4:Q4"/>
     <mergeCell ref="A3:B3"/>
@@ -2622,32 +2622,32 @@
     <mergeCell ref="H8:L8"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="C6:G6"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:M1"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:M2"/>
-    <mergeCell ref="P23:Q23"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="H21:L21"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="H24:L24"/>
-    <mergeCell ref="P24:Q24"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="H22:L22"/>
-    <mergeCell ref="P22:Q22"/>
-    <mergeCell ref="P21:Q21"/>
-    <mergeCell ref="P25:Q25"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="H25:L25"/>
-    <mergeCell ref="C30:G30"/>
-    <mergeCell ref="H30:L30"/>
-    <mergeCell ref="B28:B30"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="H23:L23"/>
-    <mergeCell ref="C28:G28"/>
-    <mergeCell ref="H28:L28"/>
+    <mergeCell ref="H6:L6"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="H7:L7"/>
+    <mergeCell ref="H9:L9"/>
+    <mergeCell ref="H10:L10"/>
+    <mergeCell ref="H11:L11"/>
+    <mergeCell ref="H12:L12"/>
+    <mergeCell ref="H13:L13"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="H20:L20"/>
+    <mergeCell ref="P20:Q20"/>
+    <mergeCell ref="H18:L18"/>
+    <mergeCell ref="H17:L17"/>
+    <mergeCell ref="C14:G18"/>
+    <mergeCell ref="H19:L19"/>
+    <mergeCell ref="H14:L14"/>
+    <mergeCell ref="H16:L16"/>
+    <mergeCell ref="P28:Q28"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="H29:L29"/>
+    <mergeCell ref="P29:Q29"/>
+    <mergeCell ref="H26:L26"/>
+    <mergeCell ref="P26:Q26"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="H27:L27"/>
+    <mergeCell ref="P27:Q27"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.27559055118110237" header="0.35433070866141736" footer="0.15748031496062992"/>
